--- a/Python2.7/Python summary-filter.xlsx
+++ b/Python2.7/Python summary-filter.xlsx
@@ -20,8 +20,8 @@
     <sheet name="SQL" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tkinter!$A$1:$D$155</definedName>
-    <definedName name="主程序">Tkinter!$A$1:$A$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tkinter!$A$1:$D$166</definedName>
+    <definedName name="主程序">Tkinter!$A$1:$A$158</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -952,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="2277">
   <si>
     <t>Python教程</t>
   </si>
@@ -11987,9 +11987,6 @@
     <t>fill</t>
   </si>
   <si>
-    <t>指定Scrollbar的填充方式</t>
-  </si>
-  <si>
     <t>Scrollbar与Listbox绑定的例子</t>
   </si>
   <si>
@@ -12651,6 +12648,619 @@
   </si>
   <si>
     <t>通过Tag来访问item，与add_tag_类似，find_后可跟的参数代表查找位置，包括above, all, below, closest, enclosed, overlapping, or withtag，右例将所有与tag('r3')绑定的item的边框颜色设置为蓝色</t>
+  </si>
+  <si>
+    <t>*.move()</t>
+  </si>
+  <si>
+    <t>移动item，x,y坐标的相对偏移量，正数为增大，负数为减小</t>
+  </si>
+  <si>
+    <t>cv.move(rt1,200,100)</t>
+  </si>
+  <si>
+    <t>删除item</t>
+  </si>
+  <si>
+    <t># 使用id删除rt1
+cv.delete(rt1)
+# 使用tag删除r2
+cv.delete('s1')</t>
+  </si>
+  <si>
+    <t>*.scale()</t>
+  </si>
+  <si>
+    <t>cv.scale(rt1,0,0,1,2)</t>
+  </si>
+  <si>
+    <t>缩放item</t>
+  </si>
+  <si>
+    <t>cv.tag_bind('r1','&lt;Button-1&gt;',printRect)
+cv.tag_bind('r1','&lt;Button-3&gt;',printLine)</t>
+  </si>
+  <si>
+    <t>绑定tag事件与item，右例中既响应左键也响应右键，调用不同的时事件函数</t>
+  </si>
+  <si>
+    <t>*.create_arc</t>
+  </si>
+  <si>
+    <t>cv = Canvas(root,bg='white')
+d = {1:PIESLICE,2:CHORD,3:ARC}
+for i in d:
+ cv.create_arc((10,10+60*i,110,110+60*i),style=d[i],start=30,extent=30)</t>
+  </si>
+  <si>
+    <t>创建一个ARC，右例是三种类型30°的扇形</t>
+  </si>
+  <si>
+    <t>*.create_image()</t>
+  </si>
+  <si>
+    <t>先使用PhotoImage创建GIF图像，再将image属性来设置为新创建的img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img = PhotoImage(file = 'c:\\python.gif')
+cv.create_image((150,150),image = img)
+</t>
+  </si>
+  <si>
+    <t>*.create_line()</t>
+  </si>
+  <si>
+    <t>创建直线</t>
+  </si>
+  <si>
+    <t>d = [(0,'none','bevel'),(1,'first','miter'),(2,'last','round'),(3,'both','round')]
+for i in d:
+ cv.create_line((10,10+i[0]*20,110,110+i[0]*20),
+ arrow = i[1],
+ arrowshape = '8 10 3',
+ joinstyle = i[2],)</t>
+  </si>
+  <si>
+    <t>*.create_oval()</t>
+  </si>
+  <si>
+    <t>创建椭圆</t>
+  </si>
+  <si>
+    <t>cv.create_oval((10,10,210,110),fill = 'red')</t>
+  </si>
+  <si>
+    <t>*.create_polygon()</t>
+  </si>
+  <si>
+    <t>创建多边形</t>
+  </si>
+  <si>
+    <t>cv.create_polygon((10,10,10,200,100,200),fill = 'red',
+#smooth = True, # 平滑处理，但未找到控制此参数的项
+                  splinesteps = 0, # 不明白是控制什么的？？？
+)</t>
+  </si>
+  <si>
+    <t>*.create_text()</t>
+  </si>
+  <si>
+    <t>创建文本对象，默认为居中对齐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv.create_text((10,10),text = 'Hello Text',anchor = W)
+</t>
+  </si>
+  <si>
+    <t>*.select_from()</t>
+  </si>
+  <si>
+    <t>*.select_to()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 设置文本的选中起始位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 设置文本的选中结束位置</t>
+  </si>
+  <si>
+    <t>cv.select_to(txt,5)</t>
+  </si>
+  <si>
+    <t>cv.select_from(txt,2)</t>
+  </si>
+  <si>
+    <t>*.create_window()</t>
+  </si>
+  <si>
+    <t>创建组件</t>
+  </si>
+  <si>
+    <t>def printWindow():
+ print 'window'
+bt = Button(cv,text='button',command=printWindow)
+cv.create_window((10,10),window=bt,anchor=W)</t>
+  </si>
+  <si>
+    <t>root.pack_slaves()</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>root = Tk()
+print root.pack_slaves()
+Label(root,text='pack').pack()
+print root.pack_slaves()</t>
+  </si>
+  <si>
+    <t>Pack为一个布局管理器，可将它视为一个弹性的容器。Pack对root不产生影响</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>这个属性指定如何使用额外的空间，即上例中留下来的“空白”</t>
+  </si>
+  <si>
+    <t>Label(root,text='pack1',bg='red').pack(fill=Y,expand=1)
+Label(root,text='pack2',bg='blue').pack(fill=BOTH,expand=1)
+Label(root,text='pack3',bg='green').pack(fill=X,expand=0)</t>
+  </si>
+  <si>
+    <t>指定Scrollbar的填充方式,X,Y,BOTH</t>
+  </si>
+  <si>
+    <t>Label(root,text='pack1',bg='red').pack(fill=Y,expand=1,side=LEFT)
+Label(root,text='pack2',bg='blue').pack(fill=BOTH,expand=1,side=RIGHT)
+Label(root,text='pack3',bg='green').pack(fill=X,expand=0,side=LEFT)</t>
+  </si>
+  <si>
+    <t>L1=LabelFrame(root,text='pack1',bg='red')
+L1.pack(side=LEFT,ipadx=20)
+Label(L1,text='inside',bg='blue').pack(expand=1,side=LEFT)
+Label(L1,text='RIGHT',bg='blue').pack(expand=1,side=RIGHT)</t>
+  </si>
+  <si>
+    <t>创建了一个LabelFrame设置它的ipadx为20,即内部间隔值为20，它的子组件若使用则会留出20个单位</t>
+  </si>
+  <si>
+    <t>padx</t>
+  </si>
+  <si>
+    <t>L2=Label(root,text='pack2',bg='blue').pack(fill=BOTH,expand=1,side=LEFT,padx=10)</t>
+  </si>
+  <si>
+    <t>pady</t>
+  </si>
+  <si>
+    <t>L3=Label(root,text='pack3',bg='green').pack(fill=X,expand=0,side=LEFT,pady=10)</t>
+  </si>
+  <si>
+    <t>x方向上的外部间隔，所有与之排列的组件会与之保留10个单位值的距离</t>
+  </si>
+  <si>
+    <t>y方向上的外部间隔，所有与之排列的组件会与之保留10个单位值的距离</t>
+  </si>
+  <si>
+    <t>lb = Label(root,text='hell place')
+lb.place(x=50,y=100,anchor=NW)</t>
+  </si>
+  <si>
+    <t>*.place()</t>
+  </si>
+  <si>
+    <t>使用相对坐标(0.5,0.5)将Label放置到(0.5*sx,0.5.sy)位置上</t>
+  </si>
+  <si>
+    <t>lb.place(relx = 0.5,rely = 0.5,anchor = CENTER)</t>
+  </si>
+  <si>
+    <t>使用place同时指定多个组件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v = IntVar()
+for i in range(5):
+    Radiobutton(
+        root,
+        text = 'Radio' + str(i),
+        variable = v,
+        value = i
+        ).place(x = 80* i,anchor = NW)
+</t>
+  </si>
+  <si>
+    <t>同时使用相对和绝对坐标</t>
+  </si>
+  <si>
+    <t>使用绝对坐标将组件放到指定的位置，使用place时无需pack</t>
+  </si>
+  <si>
+    <t>lb1 = Label(root,text = 'hello Place',fg = 'green')
+lb1.place(relx = 0.5,rely = 0.5,anchor = CENTER,x = -200,y = -200)</t>
+  </si>
+  <si>
+    <t>使用in来指定放置的容器</t>
+  </si>
+  <si>
+    <t>lb1 = Label(root,text='hello Place',bg='green')
+bt1 = Button(root,text='button',bg='red')
+bt1.place(in_=lb1,anchor=NW)</t>
+  </si>
+  <si>
+    <t>relheight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relwidth </t>
+  </si>
+  <si>
+    <t>*.grid()</t>
+  </si>
+  <si>
+    <t>lb1 = Label(root,text='label1')
+lb2 = Label(root,text='Label2')
+lb1.grid()
+lb2.grid()</t>
+  </si>
+  <si>
+    <t>Tkinter参考中最推荐使用的一个布局器。实现机制是将Widget逻辑上分割成表格，在指定的位置放置想要的Widget就可以了,无需pack</t>
+  </si>
+  <si>
+    <t>row/column</t>
+  </si>
+  <si>
+    <t># 指定lb2为第一行（使用索引0开始），第二列（使用索引0开始）
+lb2.grid(row = 0,column = 1)</t>
+  </si>
+  <si>
+    <t>root.columnconfigure(0,minsize = 100)
+root.rowconfigure(0,minsize = 100)</t>
+  </si>
+  <si>
+    <t>lbA.grid(row = 0,column = 0,columnspan = 2)</t>
+  </si>
+  <si>
+    <t>组件使用多列（多行）columnspan/rowspan</t>
+  </si>
+  <si>
+    <t>指定列的最小宽度为100,
+columnconfigure/rowconfigure</t>
+  </si>
+  <si>
+    <t>sticky,设置表格中组件的对齐属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label(root,text = 'hello sticky').grid(sticky = W)
+Label(root,text = 'Tkinter').grid(sticky = W)
+</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for ft in ('Arial',('Courier New',),('Comic Sans MS',),'Fixdsys',('MS Sans Serif',),('MS Serif',),'Symbol','System',('Times New Roman',),'Verdana'):
+    Label(root,text = 'hello sticky',font = ft ).grid()
+</t>
+  </si>
+  <si>
+    <t>使用系统已有的字体</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 创建一个Label
+# 指定字体名称、大小、样式
+ft = tkFont.Font(family = 'Fixdsys',size = 20,weight = tkFont.BOLD)
+Label(root,text = 'hello sticky',font = ft ).grid()
+</t>
+  </si>
+  <si>
+    <t>改变组件的显示字体,需要
+import tkFont</t>
+  </si>
+  <si>
+    <t>得到字体的属性值
+宽度：measure
+属性：metrics</t>
+  </si>
+  <si>
+    <t>ft2 = tkFont.Font(font = ('Fixdsys','10',tkFont.NORMAL),size = 40)
+Label(root,text = 'hello font',font = ft2).grid()
+print ft2.measure('hello font')
+for metric in ('ascent','descent','linespace','fixed'):
+    print ft2.metrics(metric)</t>
+  </si>
+  <si>
+    <t>使用系统字体：以下测试是Windows上的系统指定字体</t>
+  </si>
+  <si>
+    <t>for ft1 in ('ansi','ansifixed','device','oemfixed','system','systemfixed'):
+    Label(root,text = 'hello font',font = ft1 ).grid()</t>
+  </si>
+  <si>
+    <t>使用X Font Descriptor</t>
+  </si>
+  <si>
+    <t>for ft in ('Times','Helvetica','Courier','Symbol',):
+    Label(root,text = 'hello font',font = ('-*-%s-*-*-*--*-240-*')%(ft)).grid()</t>
+  </si>
+  <si>
+    <t>SimpleDialog</t>
+  </si>
+  <si>
+    <t>使用用模态对话框SimpleDialg</t>
+  </si>
+  <si>
+    <t># 创建一个SimpleDialog
+# buttons:显示的按钮
+# default:默认选中的按钮
+dlg = SimpleDialog(root,
+                   text = 'hello SimpleDialog',
+                   buttons = ['Yes','No','cancel'],
+                   default = 0,
+                   )
+# 执行对话框
+print dlg.go()</t>
+  </si>
+  <si>
+    <t>SimpleDialog模态对话框</t>
+  </si>
+  <si>
+    <t>from Tkinter import *
+# 引入SimpleDialog模态对话框
+from SimpleDialog import *
+root = Tk()
+# 创建一个SimpleDialog
+# buttons:显示的按钮
+# default:默认选中的按钮
+dlg = SimpleDialog(root,
+                   text = 'hello SimpleDialog',
+                   buttons = ['Yes','No','cancel'],
+                   default = 0,
+                   )
+# 执行对话框
+print dlg.go()
+root.mainloop()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkSimpleDialog </t>
+  </si>
+  <si>
+    <t>使用tkSimpleDialog模块</t>
+  </si>
+  <si>
+    <t>from Tkinter import *
+# 引入SimpleDialog模态对话框
+from tkSimpleDialog import *
+root = Tk()
+# 输入一个整数，
+# initialvalue指定一个初始值
+# prompt提示信息
+# title提示框标题
+print askinteger(title = 'prompt',prompt = 'input a integer:',initialvalue = 100)
+# 输入一浮点数
+# minvalue指定最小值
+# maxvalue指定最大值，如果不在二者指定范围内则要求重新输入
+print askfloat(title = 'float',prompt = 'input a float',minvalue = 0,maxvalue = 11)
+# 输入一字符串
+print askstring(title = 'string',prompt = 'input a string')
+root.mainloop()</t>
+  </si>
+  <si>
+    <t>FileDialog</t>
+  </si>
+  <si>
+    <t>from Tkinter import *
+from FileDialog import *
+root = Tk()
+# 指定master就可以了。
+# title属性用来指定标题
+fd = LoadFileDialog(root)
+# go方法的返回值即为选中的文本路径，如果选择取返回值则为None
+print fd.go()
+root.mainloop()</t>
+  </si>
+  <si>
+    <t>打开文件对话框
+fd = LoadFileDialog(root)
+fd = SaveFileDialog(root)</t>
+  </si>
+  <si>
+    <t>使用颜色对话框</t>
+  </si>
+  <si>
+    <t>tkColorChooser</t>
+  </si>
+  <si>
+    <t>from tkColorChooser import *
+print askcolor()</t>
+  </si>
+  <si>
+    <t>使用消息对话框</t>
+  </si>
+  <si>
+    <t>tkMessageBox</t>
+  </si>
+  <si>
+    <t>from tkMessageBox import *
+stds = [
+    showinfo, # 显示信息消息框
+    showwarning, # 显示警告消息框
+    showerror, # 显示错误消息框
+    askquestion, # 显示询问消息框
+    askokcancel, # 显示确认/取消消息框
+    askyesno, # 显示是/否消息框
+    askretrycancel # 显示重试/取消消息框
+    ]
+for std in stds:
+    print str(std),std(title = str(std),message = str(std))</t>
+  </si>
+  <si>
+    <t>bt1.bind('&lt;Button-1&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>bt2.bind('&lt;Button-2&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>bt3.bind('&lt;Button-3&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>bt4.bind('&lt;Double-Button-1&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>bt5.bind('&lt;Triple-Button-1&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>鼠标左键</t>
+  </si>
+  <si>
+    <t>鼠标中键</t>
+  </si>
+  <si>
+    <t>鼠标右键</t>
+  </si>
+  <si>
+    <t>鼠标双击</t>
+  </si>
+  <si>
+    <t>鼠标三击</t>
+  </si>
+  <si>
+    <t>&lt;Button-1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Button-2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Button-3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Double-Button-1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Triple-Button-1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;B1-Motion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;B2-Motion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;B3-Motion&gt;</t>
+  </si>
+  <si>
+    <t>鼠标左键移动</t>
+  </si>
+  <si>
+    <t>鼠标中键移动</t>
+  </si>
+  <si>
+    <t>鼠标右键移动</t>
+  </si>
+  <si>
+    <t>bt1.bind('&lt;B1-Motion&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>bt2.bind('&lt;B2-Motion&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>bt3.bind('&lt;B3-Motion&gt;',printCoords)</t>
+  </si>
+  <si>
+    <t>&lt;ButtonRelease-1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ButtonRelease-2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ButtonRelease-3&gt;</t>
+  </si>
+  <si>
+    <t>鼠标左键释放</t>
+  </si>
+  <si>
+    <t>鼠标中键释放</t>
+  </si>
+  <si>
+    <t>鼠标右键释放</t>
+  </si>
+  <si>
+    <t>&lt;Leave&gt;</t>
+  </si>
+  <si>
+    <t>鼠标离开</t>
+  </si>
+  <si>
+    <t>&lt;BackSpace&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Return&gt;</t>
+  </si>
+  <si>
+    <t>&lt;F5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Shift_L&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Shift_R&gt;</t>
+  </si>
+  <si>
+    <t>BackSpace键</t>
+  </si>
+  <si>
+    <t>回车键</t>
+  </si>
+  <si>
+    <t>F5键</t>
+  </si>
+  <si>
+    <t>左shift键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel/Break/BackSpace/Tab/Return/Sift_L/Shift_R/Control_L/Control_R/Alt_L/Alt_R/Pause
+#        Caps_Loack/Escape/Prior(Page Up)/Next(Page Down)/End/Home/Left/Up/Right/Down/Print/Insert/Delete/
+#        F1-12/Num_Lock/Scroll_Lock
+# 这些键的char是不可打印的，可以使用event.keycode查看。
+</t>
+  </si>
+  <si>
+    <t>右shift键</t>
+  </si>
+  <si>
+    <t>&lt;Key&gt;</t>
+  </si>
+  <si>
+    <t>使用Key处理所有的键盘事件</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>&lt;space&gt;</t>
+  </si>
+  <si>
+    <t>空格键</t>
+  </si>
+  <si>
+    <t>与键'a'绑定</t>
+  </si>
+  <si>
+    <t>bt1.bind('a',printCoords)</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>一般的按键，不包括特殊按键</t>
+  </si>
+  <si>
+    <t>可以将一个组件绑定多个Event</t>
+  </si>
+  <si>
+    <t>root.bind_class('Button','&lt;Return&gt;',printClass)</t>
+  </si>
+  <si>
+    <t>bt1.bind_all('&lt;Return&gt;',printAppAll)</t>
   </si>
 </sst>
 </file>
@@ -13833,7 +14443,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14377,7 +14987,25 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14386,34 +15014,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14434,14 +15068,35 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -14452,46 +15107,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16464,33 +17080,33 @@
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="7" t="s">
@@ -16512,81 +17128,81 @@
       <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="187" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="187" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="7" t="s">
@@ -16612,17 +17228,17 @@
       <c r="A11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="187" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="7" t="s">
@@ -16681,8 +17297,8 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
       <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
@@ -16696,33 +17312,33 @@
       <c r="A15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="187" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="7" t="s">
@@ -16762,33 +17378,33 @@
       <c r="A19" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="187" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="184"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:10" ht="16.5">
       <c r="A20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="187" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
     </row>
     <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="10" t="s">
@@ -16806,29 +17422,29 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
     </row>
     <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
       <c r="G22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="184" t="s">
+      <c r="H22" s="187" t="s">
         <v>213</v>
       </c>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
     </row>
     <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="10" t="s">
@@ -16846,9 +17462,9 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
     </row>
     <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="10" t="s">
@@ -16866,18 +17482,18 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
     </row>
     <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="187" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="184"/>
+      <c r="C25" s="187"/>
       <c r="D25" s="10" t="s">
         <v>157</v>
       </c>
@@ -16898,10 +17514,10 @@
       <c r="A26" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="187" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="184"/>
+      <c r="C26" s="187"/>
       <c r="D26" s="10" t="s">
         <v>153</v>
       </c>
@@ -16912,11 +17528,11 @@
       <c r="G26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="184" t="s">
+      <c r="H26" s="187" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:10" ht="16.5">
       <c r="A27" s="185" t="s">
@@ -16936,17 +17552,17 @@
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="187" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" ht="16.5">
       <c r="A29" s="10" t="s">
@@ -16968,17 +17584,17 @@
       <c r="A30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="188" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
     </row>
     <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="10" t="s">
@@ -17000,49 +17616,49 @@
       <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="182"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
       <c r="A33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
     </row>
     <row r="34" spans="1:10" ht="33" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="188" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="182"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
     </row>
     <row r="35" spans="1:10" ht="16.5">
       <c r="A35" s="10" t="s">
@@ -17056,9 +17672,9 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
       <c r="A36" s="185" t="s">
@@ -17086,21 +17702,21 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
     </row>
     <row r="38" spans="1:10" ht="16.5">
       <c r="A38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="184" t="s">
+      <c r="B38" s="187" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
       <c r="G38" s="10" t="s">
         <v>133</v>
       </c>
@@ -17124,11 +17740,11 @@
       <c r="G39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
     </row>
     <row r="40" spans="1:10" ht="16.5">
       <c r="A40" s="10" t="s">
@@ -17148,11 +17764,11 @@
       <c r="G40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="184" t="s">
+      <c r="H40" s="187" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
     </row>
     <row r="41" spans="1:10" ht="16.5">
       <c r="A41" s="10" t="s">
@@ -17172,20 +17788,20 @@
       <c r="G41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="184" t="s">
+      <c r="H41" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
     </row>
     <row r="42" spans="1:10" ht="16.5">
       <c r="A42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="184"/>
+      <c r="C42" s="187"/>
       <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
@@ -17194,9 +17810,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="183"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="4"/>
@@ -17221,6 +17837,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A27:J27"/>
@@ -17237,32 +17879,6 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17714,16 +18330,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="153" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="153" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="151" customWidth="1"/>
     <col min="3" max="3" width="45" style="151" customWidth="1"/>
     <col min="4" max="4" width="73.28515625" style="151" customWidth="1"/>
@@ -18104,7 +18720,7 @@
       <c r="E5" s="159"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="199" t="s">
         <v>1816</v>
       </c>
       <c r="B6" s="166" t="s">
@@ -18116,10 +18732,10 @@
       <c r="D6" s="157" t="s">
         <v>1640</v>
       </c>
-      <c r="E6" s="194"/>
+      <c r="E6" s="202"/>
     </row>
     <row r="7" spans="1:5" ht="49.5">
-      <c r="A7" s="191" t="str">
+      <c r="A7" s="199" t="str">
         <f t="shared" ref="A7:A12" si="0">A6</f>
         <v>控件</v>
       </c>
@@ -18132,10 +18748,10 @@
       <c r="D7" s="157" t="s">
         <v>1651</v>
       </c>
-      <c r="E7" s="195"/>
+      <c r="E7" s="203"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="191" t="str">
+      <c r="A8" s="199" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18148,10 +18764,10 @@
       <c r="D8" s="168" t="s">
         <v>1778</v>
       </c>
-      <c r="E8" s="195"/>
+      <c r="E8" s="203"/>
     </row>
     <row r="9" spans="1:5" ht="49.5">
-      <c r="A9" s="191" t="str">
+      <c r="A9" s="199" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18164,10 +18780,10 @@
       <c r="D9" s="168" t="s">
         <v>1805</v>
       </c>
-      <c r="E9" s="195"/>
+      <c r="E9" s="203"/>
     </row>
     <row r="10" spans="1:5" ht="66">
-      <c r="A10" s="191" t="str">
+      <c r="A10" s="199" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18180,10 +18796,10 @@
       <c r="D10" s="168" t="s">
         <v>1819</v>
       </c>
-      <c r="E10" s="195"/>
+      <c r="E10" s="203"/>
     </row>
     <row r="11" spans="1:5" ht="66">
-      <c r="A11" s="191" t="str">
+      <c r="A11" s="199" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18196,10 +18812,10 @@
       <c r="D11" s="168" t="s">
         <v>1837</v>
       </c>
-      <c r="E11" s="195"/>
+      <c r="E11" s="203"/>
     </row>
     <row r="12" spans="1:5" ht="49.5">
-      <c r="A12" s="191" t="str">
+      <c r="A12" s="199" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18212,10 +18828,10 @@
       <c r="D12" s="157" t="s">
         <v>1645</v>
       </c>
-      <c r="E12" s="195"/>
+      <c r="E12" s="203"/>
     </row>
     <row r="13" spans="1:5" ht="33">
-      <c r="A13" s="191"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="166" t="s">
         <v>1920</v>
       </c>
@@ -18225,2489 +18841,3193 @@
       <c r="D13" s="157" t="s">
         <v>1922</v>
       </c>
-      <c r="E13" s="195"/>
+      <c r="E13" s="203"/>
     </row>
     <row r="14" spans="1:5" ht="115.5">
-      <c r="A14" s="191"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="166" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C14" s="157" t="s">
         <v>1935</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="D14" s="157" t="s">
         <v>1936</v>
       </c>
-      <c r="D14" s="157" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E14" s="195"/>
+      <c r="E14" s="203"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="191"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="169" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C15" s="157" t="s">
         <v>1972</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="D15" s="157" t="s">
         <v>1973</v>
       </c>
-      <c r="D15" s="157" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E15" s="195"/>
+      <c r="E15" s="203"/>
     </row>
     <row r="16" spans="1:5" ht="82.5">
-      <c r="A16" s="191"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="169" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C16" s="157" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D16" s="157" t="s">
         <v>1984</v>
       </c>
-      <c r="C16" s="157" t="s">
-        <v>1986</v>
-      </c>
-      <c r="D16" s="157" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E16" s="195"/>
+      <c r="E16" s="203"/>
     </row>
     <row r="17" spans="1:5" ht="33">
-      <c r="A17" s="191"/>
-      <c r="B17" s="212" t="s">
+      <c r="A17" s="199"/>
+      <c r="B17" s="193" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="157" t="s">
         <v>2014</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="D17" s="157" t="s">
         <v>2015</v>
       </c>
-      <c r="D17" s="157" t="s">
+      <c r="E17" s="203"/>
+    </row>
+    <row r="18" spans="1:5" ht="115.5">
+      <c r="A18" s="199"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="157" t="s">
         <v>2016</v>
       </c>
-      <c r="E17" s="195"/>
-    </row>
-    <row r="18" spans="1:5" ht="115.5">
-      <c r="A18" s="191"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="157" t="s">
+      <c r="D18" s="157" t="s">
         <v>2017</v>
       </c>
-      <c r="D18" s="157" t="s">
+      <c r="E18" s="203"/>
+    </row>
+    <row r="19" spans="1:5" ht="33">
+      <c r="A19" s="199"/>
+      <c r="B19" s="193" t="s">
         <v>2018</v>
       </c>
-      <c r="E18" s="195"/>
-    </row>
-    <row r="19" spans="1:5" ht="33">
-      <c r="A19" s="191"/>
-      <c r="B19" s="214" t="s">
+      <c r="C19" s="157" t="s">
         <v>2019</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="D19" s="157" t="s">
         <v>2020</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="E19" s="203"/>
+    </row>
+    <row r="20" spans="1:5" ht="66">
+      <c r="A20" s="199"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="157" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D20" s="157" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E20" s="203"/>
+    </row>
+    <row r="21" spans="1:5" ht="66">
+      <c r="A21" s="199"/>
+      <c r="B21" s="183" t="s">
         <v>2021</v>
       </c>
-      <c r="E19" s="195"/>
-    </row>
-    <row r="20" spans="1:5" ht="66">
-      <c r="A20" s="191"/>
-      <c r="B20" s="214" t="s">
+      <c r="C21" s="157" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D21" s="157" t="s">
         <v>2022</v>
       </c>
-      <c r="C20" s="157" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D20" s="157" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E20" s="195"/>
-    </row>
-    <row r="21" spans="1:5" ht="115.5">
-      <c r="A21" s="191"/>
-      <c r="B21" s="214" t="s">
+      <c r="E21" s="203"/>
+    </row>
+    <row r="22" spans="1:5" ht="115.5">
+      <c r="A22" s="199"/>
+      <c r="B22" s="183" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C22" s="157" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D22" s="157" t="s">
         <v>2037</v>
       </c>
-      <c r="C21" s="157" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D21" s="157" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E21" s="195"/>
-    </row>
-    <row r="22" spans="1:5" ht="82.5">
-      <c r="A22" s="191"/>
-      <c r="B22" s="214" t="s">
+      <c r="E22" s="203"/>
+    </row>
+    <row r="23" spans="1:5" ht="82.5">
+      <c r="A23" s="199"/>
+      <c r="B23" s="183" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C23" s="157" t="s">
         <v>2093</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="D23" s="157" t="s">
         <v>2094</v>
       </c>
-      <c r="D22" s="157" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E22" s="195"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="191" t="str">
+      <c r="E23" s="203"/>
+    </row>
+    <row r="24" spans="1:5" ht="165">
+      <c r="A24" s="199"/>
+      <c r="B24" s="183" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C24" s="157" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D24" s="157" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E24" s="203"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="199"/>
+      <c r="B25" s="182" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C25" s="157" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D25" s="157" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E25" s="203"/>
+    </row>
+    <row r="26" spans="1:5" ht="280.5">
+      <c r="A26" s="199"/>
+      <c r="B26" s="182" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C26" s="157" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D26" s="157" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E26" s="203"/>
+    </row>
+    <row r="27" spans="1:5" ht="165">
+      <c r="A27" s="199"/>
+      <c r="B27" s="182" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C27" s="157" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D27" s="157" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E27" s="203"/>
+    </row>
+    <row r="28" spans="1:5" ht="33">
+      <c r="A28" s="199"/>
+      <c r="B28" s="182" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C28" s="157" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D28" s="157" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E28" s="203"/>
+    </row>
+    <row r="29" spans="1:5" ht="198">
+      <c r="A29" s="199"/>
+      <c r="B29" s="182" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C29" s="157" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D29" s="157" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E29" s="203"/>
+    </row>
+    <row r="30" spans="1:5" ht="264">
+      <c r="A30" s="199" t="str">
         <f>A12</f>
         <v>控件</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B30" s="182" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C30" s="157" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D30" s="157" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E30" s="204"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="166" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+    </row>
+    <row r="32" spans="1:5" ht="33">
+      <c r="A32" s="166" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B32" s="170" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C32" s="157" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D32" s="157" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E32" s="158"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="166" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B33" s="170" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C33" s="157" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D33" s="157" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E33" s="158"/>
+    </row>
+    <row r="34" spans="1:5" ht="165">
+      <c r="A34" s="199" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B34" s="170" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C34" s="168" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D34" s="168" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E34" s="202"/>
+    </row>
+    <row r="35" spans="1:5" ht="66">
+      <c r="A35" s="199" t="str">
+        <f t="shared" ref="A35" si="1">A34</f>
+        <v>textvariable</v>
+      </c>
+      <c r="B35" s="170" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C35" s="168" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D35" s="168" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E35" s="203"/>
+    </row>
+    <row r="36" spans="1:5" ht="66">
+      <c r="A36" s="199"/>
+      <c r="B36" s="170" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C36" s="168" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D36" s="168" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E36" s="203"/>
+    </row>
+    <row r="37" spans="1:5" ht="49.5">
+      <c r="A37" s="199"/>
+      <c r="B37" s="170" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C37" s="168" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D37" s="168" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E37" s="203"/>
+    </row>
+    <row r="38" spans="1:5" ht="49.5">
+      <c r="A38" s="199" t="str">
+        <f>A35</f>
+        <v>textvariable</v>
+      </c>
+      <c r="B38" s="170" t="s">
         <v>1898</v>
       </c>
-      <c r="C23" s="157" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D23" s="157" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E23" s="196"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="166" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="158"/>
-    </row>
-    <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="166" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B25" s="170" t="s">
+      <c r="C38" s="168" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D38" s="168" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E38" s="204"/>
+    </row>
+    <row r="39" spans="1:5" ht="82.5">
+      <c r="A39" s="208" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B39" s="157" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C39" s="168" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D39" s="168" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E39" s="205"/>
+    </row>
+    <row r="40" spans="1:5" ht="66">
+      <c r="A40" s="208" t="str">
+        <f>A39</f>
+        <v>variable</v>
+      </c>
+      <c r="B40" s="157" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C40" s="168" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D40" s="168" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E40" s="205"/>
+    </row>
+    <row r="41" spans="1:5" ht="66">
+      <c r="A41" s="208" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B41" s="157" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C41" s="168" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D41" s="168" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E41" s="206"/>
+    </row>
+    <row r="42" spans="1:5" ht="66">
+      <c r="A42" s="208" t="str">
+        <f>A41</f>
+        <v>value</v>
+      </c>
+      <c r="B42" s="157" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C42" s="168" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D42" s="168" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E42" s="207"/>
+    </row>
+    <row r="43" spans="1:5" ht="99">
+      <c r="A43" s="171" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B43" s="157" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C43" s="168" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D43" s="168" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E43" s="160"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="199" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B44" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C25" s="157" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D25" s="157" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E25" s="158"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="166" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B26" s="170" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C26" s="157" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D26" s="157" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E26" s="158"/>
-    </row>
-    <row r="27" spans="1:5" ht="165">
-      <c r="A27" s="191" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B27" s="170" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C27" s="168" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D27" s="168" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E27" s="194"/>
-    </row>
-    <row r="28" spans="1:5" ht="66">
-      <c r="A28" s="191" t="str">
-        <f t="shared" ref="A28" si="1">A27</f>
-        <v>textvariable</v>
-      </c>
-      <c r="B28" s="170" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C28" s="168" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D28" s="168" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E28" s="195"/>
-    </row>
-    <row r="29" spans="1:5" ht="66">
-      <c r="A29" s="191"/>
-      <c r="B29" s="170" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C29" s="168" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D29" s="168" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E29" s="195"/>
-    </row>
-    <row r="30" spans="1:5" ht="49.5">
-      <c r="A30" s="191"/>
-      <c r="B30" s="170" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C30" s="168" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D30" s="168" t="s">
-        <v>2051</v>
-      </c>
-      <c r="E30" s="195"/>
-    </row>
-    <row r="31" spans="1:5" ht="49.5">
-      <c r="A31" s="191" t="str">
-        <f>A28</f>
-        <v>textvariable</v>
-      </c>
-      <c r="B31" s="170" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C31" s="168" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D31" s="168" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E31" s="196"/>
-    </row>
-    <row r="32" spans="1:5" ht="82.5">
-      <c r="A32" s="202" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B32" s="157" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C32" s="168" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D32" s="168" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E32" s="197"/>
-    </row>
-    <row r="33" spans="1:5" ht="66">
-      <c r="A33" s="202" t="str">
-        <f>A32</f>
-        <v>variable</v>
-      </c>
-      <c r="B33" s="157" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C33" s="168" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D33" s="168" t="s">
-        <v>1823</v>
-      </c>
-      <c r="E33" s="197"/>
-    </row>
-    <row r="34" spans="1:5" ht="66">
-      <c r="A34" s="202" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B34" s="157" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C34" s="168" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D34" s="168" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E34" s="198"/>
-    </row>
-    <row r="35" spans="1:5" ht="66">
-      <c r="A35" s="202" t="str">
-        <f>A34</f>
-        <v>value</v>
-      </c>
-      <c r="B35" s="157" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C35" s="168" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D35" s="168" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E35" s="199"/>
-    </row>
-    <row r="36" spans="1:5" ht="99">
-      <c r="A36" s="171" t="s">
-        <v>1833</v>
-      </c>
-      <c r="B36" s="157" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C36" s="168" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D36" s="168" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E36" s="160"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="191" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B37" s="170" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C37" s="157" t="s">
+      <c r="C44" s="157" t="s">
         <v>1691</v>
       </c>
-      <c r="D37" s="157" t="s">
+      <c r="D44" s="157" t="s">
         <v>1824</v>
       </c>
-      <c r="E37" s="193"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="191" t="str">
-        <f t="shared" ref="A38:A47" si="2">A37</f>
+      <c r="E44" s="209"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="199" t="str">
+        <f t="shared" ref="A45:A54" si="2">A44</f>
         <v>bitmap</v>
       </c>
-      <c r="B38" s="170"/>
-      <c r="C38" s="157" t="s">
+      <c r="B45" s="170"/>
+      <c r="C45" s="157" t="s">
         <v>1660</v>
       </c>
-      <c r="D38" s="157" t="s">
+      <c r="D45" s="157" t="s">
         <v>1706</v>
       </c>
-      <c r="E38" s="193"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="191" t="str">
+      <c r="E45" s="209"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="157" t="s">
+      <c r="B46" s="170"/>
+      <c r="C46" s="157" t="s">
         <v>1661</v>
       </c>
-      <c r="D39" s="157" t="s">
+      <c r="D46" s="157" t="s">
         <v>1707</v>
       </c>
-      <c r="E39" s="193"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="191" t="str">
+      <c r="E46" s="209"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B40" s="170"/>
-      <c r="C40" s="157" t="s">
+      <c r="B47" s="170"/>
+      <c r="C47" s="157" t="s">
         <v>1662</v>
       </c>
-      <c r="D40" s="157" t="s">
+      <c r="D47" s="157" t="s">
         <v>1708</v>
       </c>
-      <c r="E40" s="193"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="191" t="str">
+      <c r="E47" s="209"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="157" t="s">
+      <c r="B48" s="170"/>
+      <c r="C48" s="157" t="s">
         <v>1663</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D48" s="157" t="s">
         <v>1709</v>
       </c>
-      <c r="E41" s="193"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="191" t="str">
+      <c r="E48" s="209"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="157" t="s">
+      <c r="B49" s="170"/>
+      <c r="C49" s="157" t="s">
         <v>1664</v>
       </c>
-      <c r="D42" s="157" t="s">
+      <c r="D49" s="157" t="s">
         <v>1710</v>
       </c>
-      <c r="E42" s="193"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="191" t="str">
+      <c r="E49" s="209"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="157" t="s">
+      <c r="B50" s="170"/>
+      <c r="C50" s="157" t="s">
         <v>1665</v>
       </c>
-      <c r="D43" s="157" t="s">
+      <c r="D50" s="157" t="s">
         <v>1711</v>
       </c>
-      <c r="E43" s="193"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="191" t="str">
+      <c r="E50" s="209"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="157" t="s">
+      <c r="B51" s="170"/>
+      <c r="C51" s="157" t="s">
         <v>1666</v>
       </c>
-      <c r="D44" s="157" t="s">
+      <c r="D51" s="157" t="s">
         <v>1712</v>
       </c>
-      <c r="E44" s="193"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="191" t="str">
+      <c r="E51" s="209"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="157" t="s">
+      <c r="B52" s="170"/>
+      <c r="C52" s="157" t="s">
         <v>1667</v>
       </c>
-      <c r="D45" s="157" t="s">
+      <c r="D52" s="157" t="s">
         <v>1713</v>
       </c>
-      <c r="E45" s="193"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="191" t="str">
+      <c r="E52" s="209"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="157" t="s">
+      <c r="B53" s="170"/>
+      <c r="C53" s="157" t="s">
         <v>1668</v>
       </c>
-      <c r="D46" s="157" t="s">
+      <c r="D53" s="157" t="s">
         <v>1714</v>
       </c>
-      <c r="E46" s="193"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="191" t="str">
+      <c r="E53" s="209"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="199" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="157" t="s">
+      <c r="B54" s="170"/>
+      <c r="C54" s="157" t="s">
         <v>1669</v>
       </c>
-      <c r="D47" s="157" t="s">
+      <c r="D54" s="157" t="s">
         <v>1715</v>
       </c>
-      <c r="E47" s="193"/>
-    </row>
-    <row r="48" spans="1:5" ht="33">
-      <c r="A48" s="191" t="s">
+      <c r="E54" s="209"/>
+    </row>
+    <row r="55" spans="1:5" ht="33">
+      <c r="A55" s="199" t="s">
         <v>1688</v>
       </c>
-      <c r="B48" s="170" t="s">
+      <c r="B55" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C48" s="157" t="s">
+      <c r="C55" s="157" t="s">
         <v>1689</v>
       </c>
-      <c r="D48" s="157" t="s">
+      <c r="D55" s="157" t="s">
         <v>1690</v>
       </c>
-      <c r="E48" s="193"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="191" t="str">
-        <f t="shared" ref="A49:A53" si="3">A48</f>
+      <c r="E55" s="209"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="199" t="str">
+        <f t="shared" ref="A56:A60" si="3">A55</f>
         <v>compound</v>
       </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="172" t="s">
+      <c r="B56" s="170"/>
+      <c r="C56" s="172" t="s">
         <v>1692</v>
       </c>
-      <c r="D49" s="157"/>
-      <c r="E49" s="193"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="191" t="str">
+      <c r="D56" s="157"/>
+      <c r="E56" s="209"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="199" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
-      <c r="B50" s="170"/>
-      <c r="C50" s="172" t="s">
+      <c r="B57" s="170"/>
+      <c r="C57" s="172" t="s">
         <v>1693</v>
       </c>
-      <c r="D50" s="157"/>
-      <c r="E50" s="193"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="191" t="str">
+      <c r="D57" s="157"/>
+      <c r="E57" s="209"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="199" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
-      <c r="B51" s="170"/>
-      <c r="C51" s="172" t="s">
+      <c r="B58" s="170"/>
+      <c r="C58" s="172" t="s">
         <v>1694</v>
       </c>
-      <c r="D51" s="157"/>
-      <c r="E51" s="193"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="191" t="str">
+      <c r="D58" s="157"/>
+      <c r="E58" s="209"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="199" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="172" t="s">
+      <c r="B59" s="170"/>
+      <c r="C59" s="172" t="s">
         <v>1695</v>
       </c>
-      <c r="D52" s="157"/>
-      <c r="E52" s="193"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="191" t="str">
+      <c r="D59" s="157"/>
+      <c r="E59" s="209"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="199" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
-      <c r="B53" s="170"/>
-      <c r="C53" s="172" t="s">
+      <c r="B60" s="170"/>
+      <c r="C60" s="172" t="s">
         <v>1825</v>
       </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="193"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="191" t="s">
+      <c r="D60" s="157"/>
+      <c r="E60" s="209"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="199" t="s">
         <v>1672</v>
       </c>
-      <c r="B54" s="170" t="s">
+      <c r="B61" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C54" s="157" t="s">
+      <c r="C61" s="157" t="s">
         <v>1673</v>
       </c>
-      <c r="D54" s="157"/>
-      <c r="E54" s="193"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="191" t="str">
-        <f t="shared" ref="A55:A67" si="4">A54</f>
+      <c r="D61" s="157"/>
+      <c r="E61" s="209"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="199" t="str">
+        <f t="shared" ref="A62:A74" si="4">A61</f>
         <v>fg/bg</v>
       </c>
-      <c r="B55" s="170"/>
-      <c r="C55" s="157" t="s">
+      <c r="B62" s="170"/>
+      <c r="C62" s="157" t="s">
         <v>1679</v>
       </c>
-      <c r="D55" s="157"/>
-      <c r="E55" s="193"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="191" t="str">
+      <c r="D62" s="157"/>
+      <c r="E62" s="209"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B56" s="170"/>
-      <c r="C56" s="157" t="s">
+      <c r="B63" s="170"/>
+      <c r="C63" s="157" t="s">
         <v>1674</v>
       </c>
-      <c r="D56" s="157" t="s">
+      <c r="D63" s="157" t="s">
         <v>1716</v>
       </c>
-      <c r="E56" s="193"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="191" t="str">
+      <c r="E63" s="209"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B57" s="170"/>
-      <c r="C57" s="157" t="s">
+      <c r="B64" s="170"/>
+      <c r="C64" s="157" t="s">
         <v>1676</v>
       </c>
-      <c r="D57" s="157" t="s">
+      <c r="D64" s="157" t="s">
         <v>1717</v>
       </c>
-      <c r="E57" s="193"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="191" t="str">
+      <c r="E64" s="209"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="157" t="s">
+      <c r="B65" s="170"/>
+      <c r="C65" s="157" t="s">
         <v>1677</v>
       </c>
-      <c r="D58" s="157" t="s">
+      <c r="D65" s="157" t="s">
         <v>1718</v>
       </c>
-      <c r="E58" s="193"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="191" t="str">
+      <c r="E65" s="209"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B59" s="170"/>
-      <c r="C59" s="157" t="s">
+      <c r="B66" s="170"/>
+      <c r="C66" s="157" t="s">
         <v>1675</v>
       </c>
-      <c r="D59" s="157" t="s">
+      <c r="D66" s="157" t="s">
         <v>1719</v>
       </c>
-      <c r="E59" s="193"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="191" t="str">
+      <c r="E66" s="209"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B60" s="170"/>
-      <c r="C60" s="157" t="s">
+      <c r="B67" s="170"/>
+      <c r="C67" s="157" t="s">
         <v>1678</v>
       </c>
-      <c r="D60" s="157" t="s">
+      <c r="D67" s="157" t="s">
         <v>1720</v>
       </c>
-      <c r="E60" s="193"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="191" t="str">
+      <c r="E67" s="209"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B61" s="170"/>
-      <c r="C61" s="157" t="s">
+      <c r="B68" s="170"/>
+      <c r="C68" s="157" t="s">
         <v>1680</v>
       </c>
-      <c r="D61" s="157"/>
-      <c r="E61" s="193"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="191" t="str">
+      <c r="D68" s="157"/>
+      <c r="E68" s="209"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B62" s="170"/>
-      <c r="C62" s="172" t="s">
+      <c r="B69" s="170"/>
+      <c r="C69" s="172" t="s">
         <v>1681</v>
       </c>
-      <c r="D62" s="157"/>
-      <c r="E62" s="193"/>
-    </row>
-    <row r="63" spans="1:5" ht="33">
-      <c r="A63" s="191" t="str">
+      <c r="D69" s="157"/>
+      <c r="E69" s="209"/>
+    </row>
+    <row r="70" spans="1:5" ht="33">
+      <c r="A70" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B63" s="170"/>
-      <c r="C63" s="157" t="s">
+      <c r="B70" s="170"/>
+      <c r="C70" s="157" t="s">
         <v>1682</v>
       </c>
-      <c r="D63" s="157"/>
-      <c r="E63" s="193"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="191" t="str">
+      <c r="D70" s="157"/>
+      <c r="E70" s="209"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B64" s="170"/>
-      <c r="C64" s="172" t="s">
+      <c r="B71" s="170"/>
+      <c r="C71" s="172" t="s">
         <v>1683</v>
       </c>
-      <c r="D64" s="157"/>
-      <c r="E64" s="193"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="191" t="str">
+      <c r="D71" s="157"/>
+      <c r="E71" s="209"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B65" s="170"/>
-      <c r="C65" s="172" t="s">
+      <c r="B72" s="170"/>
+      <c r="C72" s="172" t="s">
         <v>1684</v>
       </c>
-      <c r="D65" s="157"/>
-      <c r="E65" s="193"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="191" t="str">
+      <c r="D72" s="157"/>
+      <c r="E72" s="209"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B66" s="170"/>
-      <c r="C66" s="172" t="s">
+      <c r="B73" s="170"/>
+      <c r="C73" s="172" t="s">
         <v>1685</v>
       </c>
-      <c r="D66" s="173"/>
-      <c r="E66" s="193"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="191" t="str">
+      <c r="D73" s="173"/>
+      <c r="E73" s="209"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="199" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
-      <c r="B67" s="170"/>
-      <c r="C67" s="172" t="s">
+      <c r="B74" s="170"/>
+      <c r="C74" s="172" t="s">
         <v>1686</v>
       </c>
-      <c r="D67" s="173"/>
-      <c r="E67" s="193"/>
-    </row>
-    <row r="68" spans="1:5" ht="33">
-      <c r="A68" s="166" t="s">
+      <c r="D74" s="173"/>
+      <c r="E74" s="209"/>
+    </row>
+    <row r="75" spans="1:5" ht="33">
+      <c r="A75" s="166" t="s">
         <v>1687</v>
       </c>
-      <c r="B68" s="170" t="s">
+      <c r="B75" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C68" s="157" t="s">
+      <c r="C75" s="157" t="s">
         <v>1697</v>
       </c>
-      <c r="D68" s="157"/>
-      <c r="E68" s="158"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="169"/>
-      <c r="B69" s="170" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C69" s="157" t="s">
+      <c r="D75" s="157"/>
+      <c r="E75" s="158"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="169"/>
+      <c r="B76" s="170" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C76" s="157" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D76" s="157" t="s">
         <v>1975</v>
       </c>
-      <c r="D69" s="157" t="s">
+      <c r="E76" s="161"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="169" t="s">
         <v>1976</v>
       </c>
-      <c r="E69" s="161"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="169" t="s">
+      <c r="B77" s="170" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C77" s="157" t="s">
         <v>1977</v>
       </c>
-      <c r="B70" s="170" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C70" s="157" t="s">
+      <c r="D77" s="157" t="s">
         <v>1978</v>
       </c>
-      <c r="D70" s="157" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E70" s="161"/>
-    </row>
-    <row r="71" spans="1:5" ht="33">
-      <c r="A71" s="166" t="s">
+      <c r="E77" s="161"/>
+    </row>
+    <row r="78" spans="1:5" ht="33">
+      <c r="A78" s="166" t="s">
         <v>1698</v>
       </c>
-      <c r="B71" s="170" t="s">
+      <c r="B78" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C71" s="157" t="s">
+      <c r="C78" s="157" t="s">
         <v>1699</v>
       </c>
-      <c r="D71" s="157" t="s">
+      <c r="D78" s="157" t="s">
         <v>1722</v>
       </c>
-      <c r="E71" s="158"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="191" t="s">
+      <c r="E78" s="158"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="199" t="s">
         <v>1700</v>
       </c>
-      <c r="B72" s="170" t="s">
+      <c r="B79" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C72" s="157" t="s">
+      <c r="C79" s="157" t="s">
         <v>1721</v>
       </c>
-      <c r="D72" s="157"/>
-      <c r="E72" s="193"/>
-    </row>
-    <row r="73" spans="1:5" ht="33">
-      <c r="A73" s="191" t="str">
-        <f t="shared" ref="A73:A74" si="5">A72</f>
+      <c r="D79" s="157"/>
+      <c r="E79" s="209"/>
+    </row>
+    <row r="80" spans="1:5" ht="33">
+      <c r="A80" s="199" t="str">
+        <f t="shared" ref="A80:A81" si="5">A79</f>
         <v>justify</v>
       </c>
-      <c r="B73" s="170"/>
-      <c r="C73" s="172" t="s">
+      <c r="B80" s="170"/>
+      <c r="C80" s="172" t="s">
         <v>1704</v>
       </c>
-      <c r="D73" s="157" t="s">
+      <c r="D80" s="157" t="s">
         <v>1723</v>
       </c>
-      <c r="E73" s="193"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="191" t="str">
+      <c r="E80" s="209"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="199" t="str">
         <f t="shared" si="5"/>
         <v>justify</v>
       </c>
-      <c r="B74" s="170"/>
-      <c r="C74" s="172" t="s">
+      <c r="B81" s="170"/>
+      <c r="C81" s="172" t="s">
         <v>1705</v>
       </c>
-      <c r="D74" s="157"/>
-      <c r="E74" s="193"/>
-    </row>
-    <row r="75" spans="1:5" ht="33">
-      <c r="A75" s="169"/>
-      <c r="B75" s="170" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C75" s="172" t="s">
+      <c r="D81" s="157"/>
+      <c r="E81" s="209"/>
+    </row>
+    <row r="82" spans="1:5" ht="33">
+      <c r="A82" s="169"/>
+      <c r="B82" s="170" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C82" s="172" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D82" s="157" t="s">
         <v>1982</v>
       </c>
-      <c r="D75" s="157" t="s">
-        <v>1983</v>
-      </c>
-      <c r="E75" s="161"/>
-    </row>
-    <row r="76" spans="1:5" ht="33">
-      <c r="A76" s="191" t="s">
+      <c r="E82" s="161"/>
+    </row>
+    <row r="83" spans="1:5" ht="33">
+      <c r="A83" s="199" t="s">
         <v>1701</v>
       </c>
-      <c r="B76" s="170" t="s">
+      <c r="B83" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C76" s="157" t="s">
+      <c r="C83" s="157" t="s">
         <v>1702</v>
       </c>
-      <c r="D76" s="157"/>
-      <c r="E76" s="193"/>
-    </row>
-    <row r="77" spans="1:5" ht="66">
-      <c r="A77" s="191" t="str">
-        <f>A76</f>
+      <c r="D83" s="157"/>
+      <c r="E83" s="209"/>
+    </row>
+    <row r="84" spans="1:5" ht="66">
+      <c r="A84" s="199" t="str">
+        <f>A83</f>
         <v>ahchor</v>
       </c>
-      <c r="B77" s="170"/>
-      <c r="C77" s="157" t="s">
+      <c r="B84" s="170"/>
+      <c r="C84" s="157" t="s">
         <v>1703</v>
       </c>
-      <c r="D77" s="157" t="s">
+      <c r="D84" s="157" t="s">
         <v>1724</v>
       </c>
-      <c r="E77" s="193"/>
-    </row>
-    <row r="78" spans="1:5" s="91" customFormat="1" ht="33">
-      <c r="A78" s="200" t="s">
+      <c r="E84" s="209"/>
+    </row>
+    <row r="85" spans="1:5" s="91" customFormat="1" ht="33">
+      <c r="A85" s="200" t="s">
         <v>1765</v>
       </c>
-      <c r="B78" s="174" t="s">
+      <c r="B85" s="174" t="s">
         <v>1820</v>
       </c>
-      <c r="C78" s="175" t="s">
+      <c r="C85" s="175" t="s">
         <v>1772</v>
       </c>
-      <c r="D78" s="174" t="s">
+      <c r="D85" s="174" t="s">
         <v>1766</v>
       </c>
-      <c r="E78" s="192"/>
-    </row>
-    <row r="79" spans="1:5" s="91" customFormat="1">
-      <c r="A79" s="200" t="str">
-        <f t="shared" ref="A79:A80" si="6">A78</f>
+      <c r="E85" s="210"/>
+    </row>
+    <row r="86" spans="1:5" s="91" customFormat="1">
+      <c r="A86" s="200" t="str">
+        <f t="shared" ref="A86:A87" si="6">A85</f>
         <v>StringVar</v>
       </c>
-      <c r="B79" s="176" t="s">
+      <c r="B86" s="176" t="s">
         <v>1767</v>
       </c>
-      <c r="C79" s="175" t="s">
+      <c r="C86" s="175" t="s">
         <v>1769</v>
       </c>
-      <c r="D79" s="174" t="s">
+      <c r="D86" s="174" t="s">
         <v>1767</v>
       </c>
-      <c r="E79" s="192"/>
-    </row>
-    <row r="80" spans="1:5" s="91" customFormat="1">
-      <c r="A80" s="200" t="str">
+      <c r="E86" s="210"/>
+    </row>
+    <row r="87" spans="1:5" s="91" customFormat="1">
+      <c r="A87" s="200" t="str">
         <f t="shared" si="6"/>
         <v>StringVar</v>
       </c>
-      <c r="B80" s="176" t="s">
+      <c r="B87" s="176" t="s">
         <v>1768</v>
       </c>
-      <c r="C80" s="175" t="s">
+      <c r="C87" s="175" t="s">
         <v>1770</v>
       </c>
-      <c r="D80" s="174" t="s">
+      <c r="D87" s="174" t="s">
         <v>1771</v>
       </c>
-      <c r="E80" s="192"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="191" t="s">
+      <c r="E87" s="210"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="199" t="s">
         <v>1870</v>
       </c>
-      <c r="B81" s="174" t="s">
+      <c r="B88" s="174" t="s">
         <v>1820</v>
       </c>
-      <c r="C81" s="157" t="s">
+      <c r="C88" s="157" t="s">
         <v>1871</v>
       </c>
-      <c r="D81" s="157" t="s">
+      <c r="D88" s="157" t="s">
         <v>1872</v>
       </c>
-      <c r="E81" s="193"/>
-    </row>
-    <row r="82" spans="1:5" s="91" customFormat="1">
-      <c r="A82" s="191" t="str">
-        <f t="shared" ref="A82:A83" si="7">A81</f>
+      <c r="E88" s="209"/>
+    </row>
+    <row r="89" spans="1:5" s="91" customFormat="1">
+      <c r="A89" s="199" t="str">
+        <f t="shared" ref="A89:A90" si="7">A88</f>
         <v>IntVar</v>
       </c>
-      <c r="B82" s="176" t="s">
+      <c r="B89" s="176" t="s">
         <v>1767</v>
       </c>
-      <c r="C82" s="175" t="s">
+      <c r="C89" s="175" t="s">
         <v>1769</v>
       </c>
-      <c r="D82" s="174" t="s">
+      <c r="D89" s="174" t="s">
         <v>1767</v>
       </c>
-      <c r="E82" s="193"/>
-    </row>
-    <row r="83" spans="1:5" s="91" customFormat="1">
-      <c r="A83" s="191" t="str">
+      <c r="E89" s="209"/>
+    </row>
+    <row r="90" spans="1:5" s="91" customFormat="1">
+      <c r="A90" s="199" t="str">
         <f t="shared" si="7"/>
         <v>IntVar</v>
       </c>
-      <c r="B83" s="176" t="s">
+      <c r="B90" s="176" t="s">
         <v>1768</v>
       </c>
-      <c r="C83" s="175" t="s">
+      <c r="C90" s="175" t="s">
         <v>1770</v>
       </c>
-      <c r="D83" s="174" t="s">
+      <c r="D90" s="174" t="s">
         <v>1873</v>
       </c>
-      <c r="E83" s="193"/>
-    </row>
-    <row r="84" spans="1:5" ht="33">
-      <c r="A84" s="201" t="s">
+      <c r="E90" s="209"/>
+    </row>
+    <row r="91" spans="1:5" ht="33">
+      <c r="A91" s="201" t="s">
         <v>1730</v>
-      </c>
-      <c r="B84" s="170" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C84" s="168" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D84" s="168" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E84" s="193"/>
-    </row>
-    <row r="85" spans="1:5" ht="33">
-      <c r="A85" s="201" t="str">
-        <f t="shared" ref="A85" si="8">A84</f>
-        <v>command</v>
-      </c>
-      <c r="B85" s="170" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C85" s="168" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D85" s="168" t="s">
-        <v>1808</v>
-      </c>
-      <c r="E85" s="193"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="201"/>
-      <c r="B86" s="170" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C86" s="168" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D86" s="168" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E86" s="193"/>
-    </row>
-    <row r="87" spans="1:5" ht="49.5">
-      <c r="A87" s="201" t="str">
-        <f>A84</f>
-        <v>command</v>
-      </c>
-      <c r="B87" s="170" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C87" s="168" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D87" s="168" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E87" s="193"/>
-    </row>
-    <row r="88" spans="1:5" ht="82.5">
-      <c r="A88" s="201"/>
-      <c r="B88" s="170" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C88" s="168" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D88" s="168" t="s">
-        <v>1987</v>
-      </c>
-      <c r="E88" s="193"/>
-    </row>
-    <row r="89" spans="1:5" ht="115.5">
-      <c r="A89" s="201" t="str">
-        <f>A85</f>
-        <v>command</v>
-      </c>
-      <c r="B89" s="170" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C89" s="168" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D89" s="168" t="s">
-        <v>1887</v>
-      </c>
-      <c r="E89" s="193"/>
-    </row>
-    <row r="90" spans="1:5" ht="132">
-      <c r="A90" s="180"/>
-      <c r="B90" s="170" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C90" s="168" t="s">
-        <v>1934</v>
-      </c>
-      <c r="D90" s="168" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E90" s="158"/>
-    </row>
-    <row r="91" spans="1:5" ht="198">
-      <c r="A91" s="166" t="s">
-        <v>1877</v>
       </c>
       <c r="B91" s="170" t="s">
         <v>1787</v>
       </c>
       <c r="C91" s="168" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D91" s="168" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E91" s="209"/>
+    </row>
+    <row r="92" spans="1:5" ht="33">
+      <c r="A92" s="201" t="str">
+        <f t="shared" ref="A92" si="8">A91</f>
+        <v>command</v>
+      </c>
+      <c r="B92" s="170" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C92" s="168" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D92" s="168" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E92" s="209"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="201"/>
+      <c r="B93" s="170" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C93" s="168" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D93" s="168" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E93" s="209"/>
+    </row>
+    <row r="94" spans="1:5" ht="49.5">
+      <c r="A94" s="201" t="str">
+        <f>A91</f>
+        <v>command</v>
+      </c>
+      <c r="B94" s="170" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C94" s="168" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D94" s="168" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E94" s="209"/>
+    </row>
+    <row r="95" spans="1:5" ht="82.5">
+      <c r="A95" s="201"/>
+      <c r="B95" s="170" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C95" s="168" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D95" s="168" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E95" s="209"/>
+    </row>
+    <row r="96" spans="1:5" ht="115.5">
+      <c r="A96" s="201" t="str">
+        <f>A92</f>
+        <v>command</v>
+      </c>
+      <c r="B96" s="170" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C96" s="168" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D96" s="168" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E96" s="209"/>
+    </row>
+    <row r="97" spans="1:5" ht="132">
+      <c r="A97" s="180"/>
+      <c r="B97" s="170" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C97" s="168" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D97" s="168" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E97" s="158"/>
+    </row>
+    <row r="98" spans="1:5" ht="198">
+      <c r="A98" s="166" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B98" s="170" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C98" s="168" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D98" s="168" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E98" s="158"/>
+    </row>
+    <row r="99" spans="1:5" ht="33">
+      <c r="A99" s="169" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B99" s="170"/>
+      <c r="C99" s="168" t="s">
         <v>2009</v>
       </c>
-      <c r="D91" s="168" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E91" s="158"/>
-    </row>
-    <row r="92" spans="1:5" ht="33">
-      <c r="A92" s="169" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B92" s="170"/>
-      <c r="C92" s="168" t="s">
+      <c r="D99" s="168" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E99" s="161"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="169" t="s">
         <v>2010</v>
       </c>
-      <c r="D92" s="168"/>
-      <c r="E92" s="161"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="169" t="s">
+      <c r="B100" s="170"/>
+      <c r="C100" s="168" t="s">
         <v>2011</v>
       </c>
-      <c r="B93" s="170"/>
-      <c r="C93" s="168" t="s">
-        <v>2012</v>
-      </c>
-      <c r="D93" s="168"/>
-      <c r="E93" s="161"/>
-    </row>
-    <row r="94" spans="1:5" ht="66">
-      <c r="A94" s="166"/>
-      <c r="B94" s="170" t="s">
+      <c r="D100" s="168" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E100" s="161"/>
+    </row>
+    <row r="101" spans="1:5" ht="66">
+      <c r="A101" s="166"/>
+      <c r="B101" s="170" t="s">
         <v>1839</v>
       </c>
-      <c r="C94" s="168" t="s">
+      <c r="C101" s="168" t="s">
         <v>1879</v>
       </c>
-      <c r="D94" s="168" t="s">
+      <c r="D101" s="168" t="s">
         <v>1878</v>
       </c>
-      <c r="E94" s="158"/>
-    </row>
-    <row r="95" spans="1:5" ht="66">
-      <c r="B95" s="151" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C95" s="151" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D95" s="151" t="s">
+      <c r="E101" s="158"/>
+    </row>
+    <row r="102" spans="1:5" ht="66">
+      <c r="B102" s="151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C102" s="151" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="191" t="s">
+      <c r="D102" s="151" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="199" t="s">
         <v>1733</v>
       </c>
-      <c r="B96" s="170" t="s">
+      <c r="B103" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C96" s="168" t="s">
+      <c r="C103" s="168" t="s">
         <v>1761</v>
       </c>
-      <c r="D96" s="168"/>
-      <c r="E96" s="193"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="191" t="str">
-        <f t="shared" ref="A97:A102" si="9">A96</f>
+      <c r="D103" s="168"/>
+      <c r="E103" s="209"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="199" t="str">
+        <f t="shared" ref="A104:A109" si="9">A103</f>
         <v>relief</v>
       </c>
-      <c r="B97" s="170"/>
-      <c r="C97" s="168" t="s">
+      <c r="B104" s="170"/>
+      <c r="C104" s="168" t="s">
         <v>1734</v>
       </c>
-      <c r="D97" s="168" t="s">
+      <c r="D104" s="168" t="s">
         <v>1740</v>
       </c>
-      <c r="E97" s="193"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="191" t="str">
+      <c r="E104" s="209"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="199" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
-      <c r="B98" s="170"/>
-      <c r="C98" s="168" t="s">
+      <c r="B105" s="170"/>
+      <c r="C105" s="168" t="s">
         <v>1735</v>
       </c>
-      <c r="D98" s="168" t="s">
+      <c r="D105" s="168" t="s">
         <v>1741</v>
       </c>
-      <c r="E98" s="193"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="191" t="str">
+      <c r="E105" s="209"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="199" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
-      <c r="B99" s="170"/>
-      <c r="C99" s="168" t="s">
+      <c r="B106" s="170"/>
+      <c r="C106" s="168" t="s">
         <v>1736</v>
       </c>
-      <c r="D99" s="168" t="s">
+      <c r="D106" s="168" t="s">
         <v>1742</v>
       </c>
-      <c r="E99" s="193"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="191" t="str">
+      <c r="E106" s="209"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="199" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
-      <c r="B100" s="170"/>
-      <c r="C100" s="168" t="s">
+      <c r="B107" s="170"/>
+      <c r="C107" s="168" t="s">
         <v>1737</v>
       </c>
-      <c r="D100" s="168" t="s">
+      <c r="D107" s="168" t="s">
         <v>1743</v>
       </c>
-      <c r="E100" s="193"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="191" t="str">
+      <c r="E107" s="209"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="199" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
-      <c r="B101" s="170"/>
-      <c r="C101" s="168" t="s">
+      <c r="B108" s="170"/>
+      <c r="C108" s="168" t="s">
         <v>1738</v>
       </c>
-      <c r="D101" s="168" t="s">
+      <c r="D108" s="168" t="s">
         <v>1744</v>
       </c>
-      <c r="E101" s="193"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="191" t="str">
+      <c r="E108" s="209"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="199" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
-      <c r="B102" s="170"/>
-      <c r="C102" s="168" t="s">
+      <c r="B109" s="170"/>
+      <c r="C109" s="168" t="s">
         <v>1739</v>
       </c>
-      <c r="D102" s="168" t="s">
+      <c r="D109" s="168" t="s">
         <v>1745</v>
       </c>
-      <c r="E102" s="193"/>
-    </row>
-    <row r="103" spans="1:5" ht="33">
-      <c r="A103" s="166" t="s">
+      <c r="E109" s="209"/>
+    </row>
+    <row r="110" spans="1:5" ht="33">
+      <c r="A110" s="166" t="s">
         <v>1758</v>
       </c>
-      <c r="B103" s="170" t="s">
+      <c r="B110" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C103" s="168" t="s">
+      <c r="C110" s="168" t="s">
         <v>1759</v>
       </c>
-      <c r="D103" s="168" t="s">
+      <c r="D110" s="168" t="s">
         <v>1760</v>
       </c>
-      <c r="E103" s="158"/>
-    </row>
-    <row r="104" spans="1:5" ht="99">
-      <c r="A104" s="191" t="s">
+      <c r="E110" s="158"/>
+    </row>
+    <row r="111" spans="1:5" ht="99">
+      <c r="A111" s="199" t="s">
         <v>1762</v>
       </c>
-      <c r="B104" s="170" t="s">
+      <c r="B111" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C104" s="168" t="s">
+      <c r="C111" s="168" t="s">
         <v>1764</v>
       </c>
-      <c r="D104" s="168" t="s">
+      <c r="D111" s="168" t="s">
         <v>1763</v>
       </c>
-      <c r="E104" s="193"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="191" t="str">
-        <f t="shared" ref="A105:A107" si="10">A104</f>
+      <c r="E111" s="209"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="199" t="str">
+        <f t="shared" ref="A112:A114" si="10">A111</f>
         <v>state</v>
       </c>
-      <c r="B105" s="157"/>
-      <c r="C105" s="168" t="s">
+      <c r="B112" s="157"/>
+      <c r="C112" s="168" t="s">
         <v>1792</v>
       </c>
-      <c r="D105" s="168" t="s">
+      <c r="D112" s="168" t="s">
         <v>1793</v>
       </c>
-      <c r="E105" s="193"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="191" t="str">
+      <c r="E112" s="209"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="199" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
-      <c r="B106" s="157"/>
-      <c r="C106" s="168" t="s">
+      <c r="B113" s="157"/>
+      <c r="C113" s="168" t="s">
         <v>1790</v>
       </c>
-      <c r="D106" s="168" t="s">
+      <c r="D113" s="168" t="s">
         <v>1794</v>
       </c>
-      <c r="E106" s="193"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="191" t="str">
+      <c r="E113" s="209"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="199" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
-      <c r="B107" s="157"/>
-      <c r="C107" s="168" t="s">
+      <c r="B114" s="157"/>
+      <c r="C114" s="168" t="s">
         <v>1791</v>
       </c>
-      <c r="D107" s="168" t="s">
+      <c r="D114" s="168" t="s">
         <v>1795</v>
       </c>
-      <c r="E107" s="193"/>
-    </row>
-    <row r="108" spans="1:5" ht="33">
-      <c r="A108" s="166" t="s">
+      <c r="E114" s="209"/>
+    </row>
+    <row r="115" spans="1:5" ht="33">
+      <c r="A115" s="166" t="s">
         <v>1796</v>
       </c>
-      <c r="B108" s="157" t="s">
+      <c r="B115" s="157" t="s">
         <v>1776</v>
       </c>
-      <c r="C108" s="168" t="s">
+      <c r="C115" s="168" t="s">
         <v>1797</v>
       </c>
-      <c r="D108" s="168" t="s">
+      <c r="D115" s="168" t="s">
         <v>1798</v>
       </c>
-      <c r="E108" s="158"/>
-    </row>
-    <row r="109" spans="1:5" ht="115.5">
-      <c r="A109" s="177" t="s">
+      <c r="E115" s="158"/>
+    </row>
+    <row r="116" spans="1:5" ht="115.5">
+      <c r="A116" s="177" t="s">
         <v>1799</v>
       </c>
-      <c r="B109" s="168" t="s">
+      <c r="B116" s="168" t="s">
         <v>1776</v>
       </c>
-      <c r="C109" s="168" t="s">
+      <c r="C116" s="168" t="s">
         <v>1800</v>
       </c>
-      <c r="D109" s="178" t="s">
+      <c r="D116" s="178" t="s">
         <v>1801</v>
       </c>
-      <c r="E109" s="162"/>
-    </row>
-    <row r="110" spans="1:5" ht="82.5">
-      <c r="A110" s="171" t="s">
+      <c r="E116" s="162"/>
+    </row>
+    <row r="117" spans="1:5" ht="82.5">
+      <c r="A117" s="171" t="s">
         <v>1813</v>
       </c>
-      <c r="B110" s="157" t="s">
+      <c r="B117" s="157" t="s">
         <v>1822</v>
       </c>
-      <c r="C110" s="168" t="s">
+      <c r="C117" s="168" t="s">
         <v>1814</v>
       </c>
-      <c r="D110" s="157"/>
-      <c r="E110" s="160"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="191" t="s">
+      <c r="D117" s="157"/>
+      <c r="E117" s="160"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="199" t="s">
         <v>1838</v>
       </c>
-      <c r="B111" s="191" t="s">
+      <c r="B118" s="199" t="s">
         <v>1839</v>
       </c>
-      <c r="C111" s="157" t="s">
+      <c r="C118" s="157" t="s">
         <v>1841</v>
       </c>
-      <c r="D111" s="157"/>
-      <c r="E111" s="186"/>
-    </row>
-    <row r="112" spans="1:5" ht="33">
-      <c r="A112" s="191" t="str">
-        <f t="shared" ref="A112:A114" si="11">A111</f>
+      <c r="D118" s="157"/>
+      <c r="E118" s="211"/>
+    </row>
+    <row r="119" spans="1:5" ht="33">
+      <c r="A119" s="199" t="str">
+        <f t="shared" ref="A119:A121" si="11">A118</f>
         <v>selectmode</v>
       </c>
-      <c r="B112" s="191"/>
-      <c r="C112" s="157" t="s">
+      <c r="B119" s="199"/>
+      <c r="C119" s="157" t="s">
         <v>1842</v>
       </c>
-      <c r="D112" s="157" t="s">
+      <c r="D119" s="157" t="s">
         <v>1843</v>
       </c>
-      <c r="E112" s="187"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="191" t="str">
+      <c r="E119" s="212"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="199" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B113" s="191"/>
-      <c r="C113" s="157" t="s">
+      <c r="B120" s="199"/>
+      <c r="C120" s="157" t="s">
         <v>1844</v>
       </c>
-      <c r="D113" s="157" t="s">
+      <c r="D120" s="157" t="s">
         <v>1840</v>
       </c>
-      <c r="E113" s="187"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="191" t="str">
+      <c r="E120" s="212"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="199" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B114" s="191"/>
-      <c r="C114" s="157" t="s">
+      <c r="B121" s="199"/>
+      <c r="C121" s="157" t="s">
         <v>1846</v>
       </c>
-      <c r="D114" s="157" t="s">
+      <c r="D121" s="157" t="s">
         <v>1845</v>
       </c>
-      <c r="E114" s="188"/>
-    </row>
-    <row r="115" spans="1:5" ht="49.5">
-      <c r="A115" s="166" t="s">
+      <c r="E121" s="213"/>
+    </row>
+    <row r="122" spans="1:5" ht="49.5">
+      <c r="A122" s="166" t="s">
         <v>1784</v>
       </c>
-      <c r="B115" s="170" t="s">
+      <c r="B122" s="170" t="s">
         <v>1820</v>
       </c>
-      <c r="C115" s="157" t="s">
+      <c r="C122" s="157" t="s">
         <v>1642</v>
       </c>
-      <c r="D115" s="157" t="s">
+      <c r="D122" s="157" t="s">
         <v>1652</v>
       </c>
-      <c r="E115" s="158"/>
-    </row>
-    <row r="116" spans="1:5" ht="33">
-      <c r="A116" s="166"/>
-      <c r="B116" s="170" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C116" s="157" t="s">
-        <v>1928</v>
-      </c>
-      <c r="D116" s="157" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E116" s="154"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="166"/>
-      <c r="B117" s="170" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C117" s="157" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D117" s="157" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E117" s="154"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="191" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B118" s="157" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C118" s="157" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D118" s="157" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E118" s="189"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="191"/>
-      <c r="B119" s="157" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C119" s="157" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D119" s="157" t="s">
-        <v>1897</v>
-      </c>
-      <c r="E119" s="190"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="191"/>
-      <c r="B120" s="157" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C120" s="157" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D120" s="157" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E120" s="156"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="191"/>
-      <c r="B121" s="157" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C121" s="157" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D121" s="157" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E121" s="155"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="166" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B122" s="170" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C122" s="157" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D122" s="157" t="s">
-        <v>1648</v>
-      </c>
       <c r="E122" s="158"/>
     </row>
-    <row r="123" spans="1:5" ht="33">
+    <row r="123" spans="1:5" ht="49.5">
       <c r="A123" s="166"/>
       <c r="B123" s="170" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C123" s="157" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D123" s="157" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E123" s="154"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="166"/>
+      <c r="B124" s="170" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C124" s="157" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D124" s="157" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E124" s="154"/>
+    </row>
+    <row r="125" spans="1:5" ht="49.5">
+      <c r="A125" s="182"/>
+      <c r="B125" s="170" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C125" s="157" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D125" s="157" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E125" s="181"/>
+    </row>
+    <row r="126" spans="1:5" ht="33">
+      <c r="A126" s="182"/>
+      <c r="B126" s="170" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C126" s="157" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D126" s="157" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E126" s="181"/>
+    </row>
+    <row r="127" spans="1:5" ht="33">
+      <c r="A127" s="182"/>
+      <c r="B127" s="170" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C127" s="157" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D127" s="157" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E127" s="181"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="199" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B128" s="157" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C128" s="157" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D128" s="157" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E128" s="214"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="199"/>
+      <c r="B129" s="157" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C129" s="157" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D129" s="157" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E129" s="215"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="199"/>
+      <c r="B130" s="157" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C130" s="157" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D130" s="157" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E130" s="156"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="199"/>
+      <c r="B131" s="157" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C131" s="157" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D131" s="157" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E131" s="155"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="166" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B132" s="170" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C132" s="157" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D132" s="157" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E132" s="158"/>
+    </row>
+    <row r="133" spans="1:5" ht="33">
+      <c r="A133" s="166"/>
+      <c r="B133" s="170" t="s">
         <v>1920</v>
       </c>
-      <c r="C123" s="157" t="s">
+      <c r="C133" s="157" t="s">
         <v>1923</v>
       </c>
-      <c r="D123" s="157" t="s">
+      <c r="D133" s="157" t="s">
         <v>1924</v>
       </c>
-      <c r="E123" s="179"/>
-    </row>
-    <row r="124" spans="1:5" ht="49.5">
-      <c r="A124" s="166" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B124" s="157" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C124" s="157" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D124" s="157" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E124" s="163"/>
-    </row>
-    <row r="125" spans="1:5" ht="49.5">
-      <c r="A125" s="166"/>
-      <c r="B125" s="157" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C125" s="157" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D125" s="157" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E125" s="163"/>
-    </row>
-    <row r="126" spans="1:5" ht="99">
-      <c r="A126" s="169"/>
-      <c r="B126" s="217" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C126" s="157" t="s">
-        <v>2053</v>
-      </c>
-      <c r="D126" s="157" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E126" s="163"/>
-    </row>
-    <row r="127" spans="1:5" ht="33">
-      <c r="A127" s="169"/>
-      <c r="B127" s="218"/>
-      <c r="C127" s="157" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D127" s="157" t="s">
-        <v>2065</v>
-      </c>
-      <c r="E127" s="163"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="169"/>
-      <c r="B128" s="218"/>
-      <c r="C128" s="157" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D128" s="157" t="s">
-        <v>2060</v>
-      </c>
-      <c r="E128" s="163"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="169"/>
-      <c r="B129" s="218"/>
-      <c r="C129" s="157" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D129" s="157" t="s">
-        <v>2061</v>
-      </c>
-      <c r="E129" s="163"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="169"/>
-      <c r="B130" s="218"/>
-      <c r="C130" s="157" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D130" s="157" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E130" s="163"/>
-    </row>
-    <row r="131" spans="1:5" ht="33">
-      <c r="A131" s="169"/>
-      <c r="B131" s="218"/>
-      <c r="C131" s="157" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D131" s="157" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E131" s="163"/>
-    </row>
-    <row r="132" spans="1:5" ht="33">
-      <c r="A132" s="169"/>
-      <c r="B132" s="218"/>
-      <c r="C132" s="157" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D132" s="157" t="s">
-        <v>2063</v>
-      </c>
-      <c r="E132" s="163"/>
-    </row>
-    <row r="133" spans="1:5" ht="82.5">
-      <c r="B133" s="219"/>
-      <c r="C133" s="151" t="s">
-        <v>2082</v>
-      </c>
-      <c r="D133" s="151" t="s">
-        <v>2081</v>
-      </c>
+      <c r="E133" s="179"/>
     </row>
     <row r="134" spans="1:5" ht="49.5">
       <c r="A134" s="166" t="s">
-        <v>1917</v>
+        <v>1847</v>
       </c>
       <c r="B134" s="157" t="s">
         <v>1839</v>
       </c>
       <c r="C134" s="157" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="D134" s="157" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="E134" s="163"/>
     </row>
-    <row r="135" spans="1:5" ht="82.5">
+    <row r="135" spans="1:5" ht="49.5">
       <c r="A135" s="166"/>
       <c r="B135" s="157" t="s">
         <v>1898</v>
       </c>
       <c r="C135" s="157" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D135" s="157" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E135" s="163"/>
+    </row>
+    <row r="136" spans="1:5" ht="99">
+      <c r="A136" s="169"/>
+      <c r="B136" s="196" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C136" s="157" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D136" s="157" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E136" s="163"/>
+    </row>
+    <row r="137" spans="1:5" ht="33">
+      <c r="A137" s="169"/>
+      <c r="B137" s="197"/>
+      <c r="C137" s="157" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D137" s="157" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E137" s="163"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="169"/>
+      <c r="B138" s="197"/>
+      <c r="C138" s="157" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D138" s="157" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E138" s="163"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="169"/>
+      <c r="B139" s="197"/>
+      <c r="C139" s="157" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D139" s="157" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E139" s="163"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="169"/>
+      <c r="B140" s="197"/>
+      <c r="C140" s="157" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D140" s="157" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E140" s="163"/>
+    </row>
+    <row r="141" spans="1:5" ht="33">
+      <c r="A141" s="169"/>
+      <c r="B141" s="197"/>
+      <c r="C141" s="157" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D141" s="157" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E141" s="163"/>
+    </row>
+    <row r="142" spans="1:5" ht="33">
+      <c r="A142" s="169"/>
+      <c r="B142" s="197"/>
+      <c r="C142" s="157" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D142" s="157" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E142" s="163"/>
+    </row>
+    <row r="143" spans="1:5" ht="82.5">
+      <c r="B143" s="198"/>
+      <c r="C143" s="151" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D143" s="151" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="49.5">
+      <c r="A144" s="166" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B144" s="157" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C144" s="157" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D144" s="157" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E144" s="163"/>
+    </row>
+    <row r="145" spans="1:5" ht="82.5">
+      <c r="A145" s="166"/>
+      <c r="B145" s="157" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C145" s="157" t="s">
         <v>1916</v>
       </c>
-      <c r="D135" s="157" t="s">
+      <c r="D145" s="157" t="s">
         <v>1915</v>
       </c>
-      <c r="E135" s="163"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="166"/>
-      <c r="B136" s="157" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C136" s="157" t="s">
+      <c r="E145" s="163"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="166"/>
+      <c r="B146" s="157" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C146" s="157" t="s">
         <v>1914</v>
       </c>
-      <c r="D136" s="157" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E136" s="163"/>
-    </row>
-    <row r="137" spans="1:5" ht="49.5">
-      <c r="A137" s="166" t="s">
+      <c r="D146" s="157" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E146" s="163"/>
+    </row>
+    <row r="147" spans="1:5" ht="66">
+      <c r="A147" s="182"/>
+      <c r="B147" s="157" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C147" s="157" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D147" s="157" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E147" s="163"/>
+    </row>
+    <row r="148" spans="1:5" ht="49.5">
+      <c r="A148" s="166" t="s">
         <v>1852</v>
       </c>
-      <c r="B137" s="157" t="s">
+      <c r="B148" s="157" t="s">
         <v>1839</v>
       </c>
-      <c r="C137" s="157" t="s">
+      <c r="C148" s="157" t="s">
         <v>1856</v>
       </c>
-      <c r="D137" s="157" t="s">
+      <c r="D148" s="157" t="s">
         <v>1853</v>
       </c>
-      <c r="E137" s="163"/>
-    </row>
-    <row r="138" spans="1:5" ht="33">
-      <c r="A138" s="166" t="s">
+      <c r="E148" s="163"/>
+    </row>
+    <row r="149" spans="1:5" ht="33">
+      <c r="A149" s="166" t="s">
         <v>1855</v>
       </c>
-      <c r="B138" s="157" t="s">
+      <c r="B149" s="157" t="s">
         <v>1839</v>
       </c>
-      <c r="C138" s="157" t="s">
+      <c r="C149" s="157" t="s">
         <v>1857</v>
       </c>
-      <c r="D138" s="157" t="s">
+      <c r="D149" s="157" t="s">
         <v>1854</v>
       </c>
-      <c r="E138" s="163"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="166" t="s">
-        <v>1858</v>
-      </c>
-      <c r="B139" s="157" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C139" s="157" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D139" s="157" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E139" s="163"/>
-    </row>
-    <row r="140" spans="1:5" ht="33">
-      <c r="A140" s="166" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B140" s="157" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C140" s="157" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D140" s="157" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E140" s="163"/>
-    </row>
-    <row r="141" spans="1:5" ht="33">
-      <c r="A141" s="166" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B141" s="157" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C141" s="157" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D141" s="157" t="s">
-        <v>1867</v>
-      </c>
-      <c r="E141" s="163"/>
-    </row>
-    <row r="142" spans="1:5" ht="82.5">
-      <c r="A142" s="166" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B142" s="157" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C142" s="157" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D142" s="157" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E142" s="163"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="191" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B143" s="157" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C143" s="157" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D143" s="157" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E143" s="186"/>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="191" t="str">
-        <f>A143</f>
-        <v>from_</v>
-      </c>
-      <c r="B144" s="157" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C144" s="157" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D144" s="157" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E144" s="188"/>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="191" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B145" s="157" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C145" s="157" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D145" s="157" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E145" s="186"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="191" t="str">
-        <f>A145</f>
-        <v>to</v>
-      </c>
-      <c r="B146" s="157" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C146" s="157" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D146" s="157" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E146" s="188"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="212" t="s">
-        <v>1829</v>
-      </c>
-      <c r="B147" s="157" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C147" s="157" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D147" s="157"/>
-      <c r="E147" s="163"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="215"/>
-      <c r="B148" s="157"/>
-      <c r="C148" s="157" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D148" s="157" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E148" s="164"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="213"/>
-      <c r="B149" s="157"/>
-      <c r="C149" s="157" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D149" s="157" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E149" s="164"/>
+      <c r="E149" s="163"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="166" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B150" s="157" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C150" s="157" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D150" s="157" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E150" s="163"/>
+    </row>
+    <row r="151" spans="1:5" ht="33">
+      <c r="A151" s="166" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B151" s="157" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C151" s="157" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D151" s="157" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E151" s="163"/>
+    </row>
+    <row r="152" spans="1:5" ht="33">
+      <c r="A152" s="166" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B152" s="157" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C152" s="157" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D152" s="157" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E152" s="163"/>
+    </row>
+    <row r="153" spans="1:5" ht="82.5">
+      <c r="A153" s="166" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B153" s="157" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C153" s="157" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D153" s="157" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E153" s="163"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="199" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B154" s="157" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C154" s="157" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D154" s="157" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E154" s="211"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="199" t="str">
+        <f>A154</f>
+        <v>from_</v>
+      </c>
+      <c r="B155" s="157" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C155" s="157" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D155" s="157" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E155" s="213"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="199" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B156" s="157" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C156" s="157" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D156" s="157" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E156" s="211"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="199" t="str">
+        <f>A156</f>
+        <v>to</v>
+      </c>
+      <c r="B157" s="157" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C157" s="157" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D157" s="157" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E157" s="213"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="193" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B158" s="157" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C158" s="157" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D158" s="157"/>
+      <c r="E158" s="163"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="195"/>
+      <c r="B159" s="157"/>
+      <c r="C159" s="157" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D159" s="157" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E159" s="164"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="194"/>
+      <c r="B160" s="157"/>
+      <c r="C160" s="157" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D160" s="157" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E160" s="164"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="166" t="s">
         <v>1882</v>
       </c>
-      <c r="B150" s="157" t="s">
+      <c r="B161" s="157" t="s">
         <v>1785</v>
       </c>
-      <c r="C150" s="157" t="s">
+      <c r="C161" s="157" t="s">
         <v>1885</v>
       </c>
-      <c r="D150" s="157" t="s">
+      <c r="D161" s="157" t="s">
         <v>1886</v>
       </c>
-      <c r="E150" s="164"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="166" t="s">
+      <c r="E161" s="164"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="166" t="s">
         <v>1902</v>
       </c>
-      <c r="B151" s="157" t="s">
+      <c r="B162" s="157" t="s">
         <v>1898</v>
       </c>
-      <c r="C151" s="157" t="s">
+      <c r="C162" s="157" t="s">
         <v>1903</v>
       </c>
-      <c r="D151" s="157" t="s">
+      <c r="D162" s="157" t="s">
         <v>1904</v>
       </c>
-      <c r="E151" s="164"/>
-    </row>
-    <row r="152" spans="1:5" ht="99">
-      <c r="A152" s="166" t="s">
+      <c r="E162" s="164"/>
+    </row>
+    <row r="163" spans="1:5" ht="99">
+      <c r="A163" s="166" t="s">
         <v>1889</v>
       </c>
-      <c r="B152" s="157" t="s">
+      <c r="B163" s="157" t="s">
         <v>1785</v>
       </c>
-      <c r="C152" s="157" t="s">
+      <c r="C163" s="157" t="s">
         <v>1890</v>
       </c>
-      <c r="D152" s="157" t="s">
+      <c r="D163" s="157" t="s">
         <v>1891</v>
       </c>
-      <c r="E152" s="164"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="166" t="s">
+      <c r="E163" s="164"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="166" t="s">
         <v>1892</v>
       </c>
-      <c r="B153" s="157" t="s">
+      <c r="B164" s="157" t="s">
         <v>1785</v>
       </c>
-      <c r="C153" s="157" t="s">
+      <c r="C164" s="157" t="s">
         <v>1893</v>
       </c>
-      <c r="D153" s="157" t="s">
+      <c r="D164" s="157" t="s">
         <v>1894</v>
       </c>
-      <c r="E153" s="164"/>
-    </row>
-    <row r="154" spans="1:5" ht="49.5">
-      <c r="A154" s="166" t="s">
+      <c r="E164" s="164"/>
+    </row>
+    <row r="165" spans="1:5" ht="49.5">
+      <c r="A165" s="166" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B165" s="157" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C165" s="157" t="s">
         <v>1938</v>
       </c>
-      <c r="B154" s="157" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C154" s="157" t="s">
+      <c r="D165" s="157" t="s">
         <v>1939</v>
       </c>
-      <c r="D154" s="157" t="s">
+      <c r="E165" s="164"/>
+    </row>
+    <row r="166" spans="1:5" ht="33">
+      <c r="A166" s="166" t="s">
         <v>1940</v>
       </c>
-      <c r="E154" s="164"/>
-    </row>
-    <row r="155" spans="1:5" ht="33">
-      <c r="A155" s="166" t="s">
+      <c r="B166" s="157" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C166" s="157" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D166" s="157" t="s">
         <v>1941</v>
       </c>
-      <c r="B155" s="157" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C155" s="157" t="s">
+      <c r="E166" s="163"/>
+    </row>
+    <row r="167" spans="1:5" ht="49.5">
+      <c r="A167" s="152" t="s">
         <v>1943</v>
       </c>
-      <c r="D155" s="157" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E155" s="163"/>
-    </row>
-    <row r="156" spans="1:5" ht="49.5">
-      <c r="A156" s="152" t="s">
+      <c r="B167" s="165" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C167" s="165" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D167" s="165" t="s">
         <v>1944</v>
       </c>
-      <c r="B156" s="165" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C156" s="165" t="s">
+    </row>
+    <row r="168" spans="1:5" ht="165">
+      <c r="A168" s="153" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B168" s="151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C168" s="151" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D168" s="151" t="s">
         <v>1947</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="165">
-      <c r="A157" s="153" t="s">
-        <v>1946</v>
-      </c>
-      <c r="B157" s="151" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C157" s="151" t="s">
+    </row>
+    <row r="169" spans="1:5" ht="82.5">
+      <c r="A169" s="153" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B169" s="151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C169" s="151" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D169" s="151" t="s">
         <v>1952</v>
       </c>
-      <c r="D157" s="151" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="82.5">
-      <c r="A158" s="153" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B158" s="151" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C158" s="151" t="s">
-        <v>1951</v>
-      </c>
-      <c r="D158" s="151" t="s">
+    </row>
+    <row r="170" spans="1:5" ht="49.5">
+      <c r="A170" s="153" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="49.5">
-      <c r="A159" s="153" t="s">
+      <c r="B170" s="151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C170" s="151" t="s">
         <v>1954</v>
       </c>
-      <c r="B159" s="151" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C159" s="151" t="s">
+      <c r="D170" s="151" t="s">
         <v>1955</v>
       </c>
-      <c r="D159" s="151" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="33">
-      <c r="A160" s="166" t="s">
+    </row>
+    <row r="171" spans="1:5" ht="33">
+      <c r="A171" s="166" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B171" s="157" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C171" s="157" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D171" s="157" t="s">
         <v>1959</v>
       </c>
-      <c r="B160" s="157" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C160" s="157" t="s">
+      <c r="E171" s="163"/>
+    </row>
+    <row r="172" spans="1:5" ht="33">
+      <c r="A172" s="153" t="s">
         <v>1961</v>
       </c>
-      <c r="D160" s="157" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E160" s="163"/>
-    </row>
-    <row r="161" spans="1:4" ht="33">
-      <c r="A161" s="153" t="s">
+      <c r="B172" s="151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C172" s="157" t="s">
         <v>1962</v>
       </c>
-      <c r="B161" s="151" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C161" s="157" t="s">
+      <c r="D172" s="151" t="s">
         <v>1963</v>
       </c>
-      <c r="D161" s="151" t="s">
+    </row>
+    <row r="173" spans="1:5" ht="33">
+      <c r="A173" s="153" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="33">
-      <c r="A162" s="153" t="s">
+      <c r="B173" s="151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C173" s="157" t="s">
         <v>1965</v>
       </c>
-      <c r="B162" s="151" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C162" s="157" t="s">
+      <c r="D173" s="151" t="s">
         <v>1966</v>
       </c>
-      <c r="D162" s="151" t="s">
+    </row>
+    <row r="174" spans="1:5" ht="33">
+      <c r="A174" s="153" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="33">
-      <c r="A163" s="153" t="s">
+      <c r="B174" s="151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C174" s="151" t="s">
         <v>1968</v>
       </c>
-      <c r="B163" s="151" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C163" s="151" t="s">
+      <c r="D174" s="151" t="s">
         <v>1969</v>
       </c>
-      <c r="D163" s="151" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="33">
-      <c r="A164" s="153" t="s">
+    </row>
+    <row r="175" spans="1:5" ht="33">
+      <c r="A175" s="153" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B175" s="190" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C175" s="151" t="s">
         <v>1988</v>
       </c>
-      <c r="B164" s="209" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C164" s="151" t="s">
+    </row>
+    <row r="176" spans="1:5" ht="49.5">
+      <c r="A176" s="153" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="49.5">
-      <c r="A165" s="153" t="s">
+      <c r="B176" s="191"/>
+      <c r="C176" s="151" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="153" t="s">
         <v>1990</v>
       </c>
-      <c r="B165" s="210"/>
-      <c r="C165" s="151" t="s">
+      <c r="B177" s="191"/>
+      <c r="C177" s="151" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="153" t="s">
+    <row r="178" spans="1:4" ht="33">
+      <c r="A178" s="153" t="s">
         <v>1991</v>
       </c>
-      <c r="B166" s="210"/>
-      <c r="C166" s="151" t="s">
+      <c r="B178" s="191"/>
+      <c r="C178" s="151" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="33">
-      <c r="A167" s="153" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="153" t="s">
         <v>1992</v>
       </c>
-      <c r="B167" s="210"/>
-      <c r="C167" s="151" t="s">
+      <c r="B179" s="191"/>
+      <c r="C179" s="151" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="153" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="153" t="s">
         <v>1993</v>
       </c>
-      <c r="B168" s="210"/>
-      <c r="C168" s="151" t="s">
+      <c r="B180" s="191"/>
+      <c r="C180" s="151" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="153" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="153" t="s">
         <v>1994</v>
       </c>
-      <c r="B169" s="210"/>
-      <c r="C169" s="151" t="s">
+      <c r="B181" s="191"/>
+      <c r="C181" s="151" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="153" t="s">
+    <row r="182" spans="1:4">
+      <c r="A182" s="153" t="s">
         <v>1995</v>
       </c>
-      <c r="B170" s="210"/>
-      <c r="C170" s="151" t="s">
+      <c r="B182" s="191"/>
+      <c r="C182" s="151" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="153" t="s">
+    <row r="183" spans="1:4" ht="33">
+      <c r="A183" s="153" t="s">
         <v>1996</v>
       </c>
-      <c r="B171" s="210"/>
-      <c r="C171" s="151" t="s">
+      <c r="B183" s="191"/>
+      <c r="C183" s="151" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="33">
-      <c r="A172" s="153" t="s">
+    <row r="184" spans="1:4">
+      <c r="A184" s="153" t="s">
         <v>1997</v>
       </c>
-      <c r="B172" s="210"/>
-      <c r="C172" s="151" t="s">
+      <c r="B184" s="191"/>
+      <c r="C184" s="151" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="153" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B173" s="211"/>
-      <c r="C173" s="151" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="33">
-      <c r="A174" s="153" t="s">
-        <v>2027</v>
-      </c>
-      <c r="B174" s="151" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C174" s="151" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D174" s="151" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="148.5">
-      <c r="A175" s="153" t="s">
-        <v>2030</v>
-      </c>
-      <c r="B175" s="151" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C175" s="151" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D175" s="151" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="33">
-      <c r="A176" s="153" t="s">
-        <v>2033</v>
-      </c>
-      <c r="B176" s="151" t="s">
-        <v>2034</v>
-      </c>
-      <c r="C176" s="151" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D176" s="151" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="33">
-      <c r="A177" s="153" t="s">
-        <v>2046</v>
-      </c>
-      <c r="B177" s="151" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C177" s="151" t="s">
-        <v>2040</v>
-      </c>
-      <c r="D177" s="151" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="33">
-      <c r="B178" s="151" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C178" s="151" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D178" s="151" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="33">
-      <c r="A179" s="153" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B179" s="151" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C179" s="151" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D179" s="151" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="99">
-      <c r="A180" s="153" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B180" s="151" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C180" s="151" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D180" s="151" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="49.5">
-      <c r="A181" s="153" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B181" s="209" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C181" s="151" t="s">
-        <v>2089</v>
-      </c>
-      <c r="D181" s="151" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="33">
-      <c r="B182" s="210"/>
-      <c r="C182" s="151" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D182" s="151" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="66">
-      <c r="A183" s="153" t="s">
-        <v>2071</v>
-      </c>
-      <c r="B183" s="151" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C183" s="151" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D183" s="151" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="33">
-      <c r="A184" s="153" t="s">
-        <v>2078</v>
-      </c>
-      <c r="B184" s="151" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C184" s="151" t="s">
-        <v>2079</v>
-      </c>
-      <c r="D184" s="151" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="33">
+    <row r="185" spans="1:4">
       <c r="A185" s="153" t="s">
-        <v>2083</v>
-      </c>
-      <c r="B185" s="151" t="s">
-        <v>2049</v>
-      </c>
+        <v>2232</v>
+      </c>
+      <c r="B185" s="191"/>
       <c r="C185" s="151" t="s">
-        <v>2084</v>
+        <v>2227</v>
       </c>
       <c r="D185" s="151" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="82.5">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="153" t="s">
-        <v>2086</v>
-      </c>
-      <c r="B186" s="151" t="s">
-        <v>2049</v>
-      </c>
+        <v>2233</v>
+      </c>
+      <c r="B186" s="191"/>
       <c r="C186" s="151" t="s">
-        <v>2087</v>
+        <v>2228</v>
       </c>
       <c r="D186" s="151" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="49.5">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="153" t="s">
-        <v>2090</v>
-      </c>
-      <c r="B187" s="151" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C187" s="216" t="s">
-        <v>2091</v>
+        <v>2234</v>
+      </c>
+      <c r="B187" s="191"/>
+      <c r="C187" s="151" t="s">
+        <v>2229</v>
       </c>
       <c r="D187" s="151" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="82.5">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="33">
       <c r="A188" s="153" t="s">
-        <v>2096</v>
-      </c>
-      <c r="B188" s="151" t="s">
-        <v>2093</v>
-      </c>
+        <v>2235</v>
+      </c>
+      <c r="B188" s="191"/>
       <c r="C188" s="151" t="s">
-        <v>2111</v>
+        <v>2230</v>
       </c>
       <c r="D188" s="151" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="33">
       <c r="A189" s="153" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B189" s="151" t="s">
-        <v>2093</v>
-      </c>
+        <v>2236</v>
+      </c>
+      <c r="B189" s="191"/>
       <c r="C189" s="151" t="s">
-        <v>2098</v>
+        <v>2231</v>
       </c>
       <c r="D189" s="151" t="s">
-        <v>2099</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="153" t="s">
-        <v>2101</v>
-      </c>
-      <c r="B190" s="151" t="s">
-        <v>2093</v>
-      </c>
+        <v>2237</v>
+      </c>
+      <c r="B190" s="191"/>
       <c r="C190" s="151" t="s">
-        <v>2102</v>
+        <v>2240</v>
       </c>
       <c r="D190" s="151" t="s">
-        <v>2103</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="153" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B191" s="191"/>
+      <c r="C191" s="151" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D191" s="151" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="153" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B192" s="191"/>
+      <c r="C192" s="151" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D192" s="151" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="33">
+      <c r="A193" s="153" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B193" s="191"/>
+      <c r="C193" s="151" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="33">
+      <c r="A194" s="153" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B194" s="191"/>
+      <c r="C194" s="151" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="33">
+      <c r="A195" s="153" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B195" s="191"/>
+      <c r="C195" s="151" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="153" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B196" s="191"/>
+      <c r="C196" s="151" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="153" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B197" s="191"/>
+      <c r="C197" s="151" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="153" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B198" s="191"/>
+      <c r="C198" s="151" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="153" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B199" s="191"/>
+      <c r="C199" s="151" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="153" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B200" s="191"/>
+      <c r="C200" s="151" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="153" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B201" s="191"/>
+      <c r="C201" s="151" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="153" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B202" s="191"/>
+      <c r="C202" s="151" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="153" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B203" s="191"/>
+      <c r="C203" s="151" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="153" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B204" s="191"/>
+      <c r="C204" s="151" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="198">
+      <c r="B205" s="191"/>
+      <c r="C205" s="151" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="153" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B206" s="191"/>
+      <c r="C206" s="151" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D206" s="151" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="B207" s="191"/>
+      <c r="C207" s="151" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="B208" s="192"/>
+    </row>
+    <row r="209" spans="1:4" ht="33">
+      <c r="A209" s="153" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B209" s="151" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C209" s="151" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D209" s="151" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="148.5">
+      <c r="A210" s="153" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B210" s="151" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C210" s="151" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D210" s="151" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="33">
+      <c r="A211" s="153" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B211" s="151" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C211" s="151" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D211" s="151" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="33">
+      <c r="A212" s="153" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B212" s="151" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C212" s="151" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D212" s="151" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="33">
+      <c r="B213" s="151" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C213" s="151" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D213" s="151" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="33">
+      <c r="A214" s="153" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B214" s="151" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C214" s="151" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D214" s="151" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="99">
+      <c r="A215" s="153" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B215" s="151" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C215" s="151" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D215" s="151" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="49.5">
+      <c r="A216" s="153" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B216" s="190" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C216" s="151" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D216" s="151" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="33">
+      <c r="B217" s="191"/>
+      <c r="C217" s="151" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D217" s="151" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="66">
+      <c r="A218" s="153" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B218" s="151" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C218" s="151" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D218" s="151" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="33">
+      <c r="A219" s="153" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B219" s="151" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C219" s="151" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D219" s="151" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="33">
+      <c r="A220" s="153" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B220" s="151" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C220" s="151" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D220" s="151" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="82.5">
+      <c r="A221" s="153" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B221" s="151" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C221" s="151" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D221" s="151" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="33">
+      <c r="B222" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C222" s="151" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D222" s="151" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="49.5">
+      <c r="A223" s="153" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B223" s="151" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C223" s="184" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D223" s="151" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="82.5">
+      <c r="A224" s="153" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B224" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C224" s="151" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D224" s="151" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="153" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B225" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C225" s="151" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D225" s="151" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="153" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B226" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C226" s="151" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D226" s="151" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="153" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B227" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C227" s="151" t="s">
         <v>2104</v>
       </c>
-      <c r="B191" s="151" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C191" s="151" t="s">
+      <c r="D227" s="151" t="s">
         <v>2105</v>
       </c>
-      <c r="D191" s="151" t="s">
+    </row>
+    <row r="228" spans="1:4" ht="33">
+      <c r="A228" s="153" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="33">
-      <c r="A192" s="153" t="s">
+      <c r="B228" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C228" s="151" t="s">
         <v>2107</v>
       </c>
-      <c r="B192" s="151" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C192" s="151" t="s">
+      <c r="D228" s="151" t="s">
         <v>2108</v>
       </c>
-      <c r="D192" s="151" t="s">
+    </row>
+    <row r="229" spans="1:4" ht="99">
+      <c r="A229" s="153" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B229" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C229" s="151" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D229" s="151" t="s">
         <v>2109</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="99">
-      <c r="A193" s="153" t="s">
+    <row r="230" spans="1:4" ht="49.5">
+      <c r="A230" s="153" t="s">
         <v>2114</v>
       </c>
-      <c r="B193" s="151" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C193" s="151" t="s">
+      <c r="B230" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C230" s="151" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D230" s="151" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="33">
+      <c r="A231" s="153" t="s">
         <v>2116</v>
       </c>
-      <c r="D193" s="151" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="49.5">
-      <c r="A194" s="153" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B194" s="151" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C194" s="151" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D194" s="151" t="s">
-        <v>2112</v>
+      <c r="B231" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C231" s="151" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D231" s="151" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="153" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B232" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C232" s="151" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D232" s="151" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="66">
+      <c r="A233" s="153" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B233" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C233" s="151" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D233" s="151" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="49.5">
+      <c r="A234" s="153" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B234" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C234" s="151" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D234" s="151" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="99">
+      <c r="A235" s="153" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B235" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C235" s="151" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D235" s="151" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="33">
+      <c r="A236" s="153" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B236" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C236" s="151" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D236" s="151" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="68.25" customHeight="1">
+      <c r="A237" s="153" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B237" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C237" s="151" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D237" s="151" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="33">
+      <c r="A238" s="153" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B238" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C238" s="151" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D238" s="151" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="153" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B239" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C239" s="151" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D239" s="151" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="153" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B240" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C240" s="151" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D240" s="151" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="66">
+      <c r="A241" s="153" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B241" s="151" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C241" s="151" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D241" s="151" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="66">
+      <c r="A242" s="153" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B242" s="151" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C242" s="151" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D242" s="151" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="33">
+      <c r="A243" s="153" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B243" s="151" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C243" s="151" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D243" s="151" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="33">
+      <c r="C244" s="151" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D244" s="151" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="148.5">
+      <c r="C245" s="151" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D245" s="151" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="33">
+      <c r="C246" s="151" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D246" s="151" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="49.5">
+      <c r="C247" s="151" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D247" s="151" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="C248" s="151" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="C249" s="151" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="66">
+      <c r="A250" s="153" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B250" s="151" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C250" s="151" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D250" s="151" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="33">
+      <c r="C251" s="151" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D251" s="151" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="33">
+      <c r="C252" s="151" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D252" s="151" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="C253" s="151" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D253" s="151" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="49.5">
+      <c r="C254" s="151" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D254" s="151" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="66">
+      <c r="A255" s="153" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B255" s="151" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C255" s="151" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D255" s="151" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="82.5">
+      <c r="C256" s="151" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D256" s="151" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" ht="82.5">
+      <c r="C257" s="151" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D257" s="151" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" ht="33">
+      <c r="C258" s="151" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D258" s="151" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" ht="33">
+      <c r="C259" s="151" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D259" s="151" t="s">
+        <v>2204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D155"/>
-  <mergeCells count="42">
-    <mergeCell ref="B164:B173"/>
+  <autoFilter ref="A1:D166"/>
+  <mergeCells count="43">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="E103:E109"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A6:A30"/>
+    <mergeCell ref="E6:E30"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E44:E54"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="E61:E74"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="B175:B208"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B126:B133"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A67"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A6:A23"/>
-    <mergeCell ref="E6:E23"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E37:E47"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="E54:E67"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E84:E89"/>
-    <mergeCell ref="E96:E102"/>
-    <mergeCell ref="E104:E107"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A74"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A103:A109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -20765,10 +22085,10 @@
     </row>
     <row r="5" spans="1:4" ht="68.25" customHeight="1">
       <c r="A5" s="50"/>
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="216" t="s">
         <v>1383</v>
       </c>
-      <c r="C5" s="206"/>
+      <c r="C5" s="216"/>
       <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" ht="66">
@@ -20880,20 +22200,20 @@
       <c r="A16" s="132" t="s">
         <v>1444</v>
       </c>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="217" t="s">
         <v>1445</v>
       </c>
-      <c r="C16" s="207"/>
+      <c r="C16" s="217"/>
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="1:4" ht="87.75" customHeight="1">
       <c r="A17" s="132" t="s">
         <v>1446</v>
       </c>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="217" t="s">
         <v>1447</v>
       </c>
-      <c r="C17" s="207"/>
+      <c r="C17" s="217"/>
       <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:4">
@@ -20975,7 +22295,7 @@
       <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="203" t="s">
+      <c r="A28" s="218" t="s">
         <v>1213</v>
       </c>
       <c r="B28" s="106" t="s">
@@ -20984,33 +22304,33 @@
       <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="203"/>
+      <c r="A29" s="218"/>
       <c r="B29" s="106"/>
       <c r="D29" s="96"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="203"/>
+      <c r="A30" s="218"/>
       <c r="B30" s="13" t="s">
         <v>1215</v>
       </c>
       <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="203"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="77" t="s">
         <v>1216</v>
       </c>
       <c r="D31" s="96"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="203"/>
+      <c r="A32" s="218"/>
       <c r="B32" s="13" t="s">
         <v>1217</v>
       </c>
       <c r="D32" s="96"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="203"/>
+      <c r="A33" s="218"/>
       <c r="B33" s="106"/>
       <c r="D33" s="96"/>
     </row>
@@ -21033,7 +22353,7 @@
       <c r="D35" s="96"/>
     </row>
     <row r="36" spans="1:4" ht="49.5">
-      <c r="A36" s="203" t="s">
+      <c r="A36" s="218" t="s">
         <v>1222</v>
       </c>
       <c r="B36" s="106" t="s">
@@ -21042,33 +22362,33 @@
       <c r="D36" s="96"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="203"/>
+      <c r="A37" s="218"/>
       <c r="B37" s="106"/>
       <c r="D37" s="96"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="203"/>
+      <c r="A38" s="218"/>
       <c r="B38" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="D38" s="96"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="203"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="13" t="s">
         <v>1225</v>
       </c>
       <c r="D39" s="96"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="203"/>
+      <c r="A40" s="218"/>
       <c r="B40" s="13" t="s">
         <v>1226</v>
       </c>
       <c r="D40" s="96"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="203"/>
+      <c r="A41" s="218"/>
       <c r="B41" s="106"/>
       <c r="D41" s="96"/>
     </row>
@@ -21098,7 +22418,7 @@
       <c r="D44" s="96"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="203" t="s">
+      <c r="A45" s="218" t="s">
         <v>1232</v>
       </c>
       <c r="B45" s="106" t="s">
@@ -21107,31 +22427,31 @@
       <c r="D45" s="96"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="203"/>
+      <c r="A46" s="218"/>
       <c r="B46" s="106"/>
       <c r="D46" s="96"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="203"/>
+      <c r="A47" s="218"/>
       <c r="B47" s="13" t="s">
         <v>1234</v>
       </c>
       <c r="D47" s="96"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="203"/>
+      <c r="A48" s="218"/>
       <c r="B48" s="77" t="s">
         <v>1235</v>
       </c>
       <c r="D48" s="96"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="203"/>
+      <c r="A49" s="218"/>
       <c r="B49" s="106"/>
       <c r="D49" s="96"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="218" t="s">
         <v>1236</v>
       </c>
       <c r="B50" s="106" t="s">
@@ -21140,45 +22460,45 @@
       <c r="D50" s="96"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="203"/>
+      <c r="A51" s="218"/>
       <c r="B51" s="106"/>
       <c r="D51" s="96"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="203"/>
+      <c r="A52" s="218"/>
       <c r="B52" s="13" t="s">
         <v>1238</v>
       </c>
       <c r="D52" s="96"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="203"/>
+      <c r="A53" s="218"/>
       <c r="B53" s="78" t="s">
         <v>1239</v>
       </c>
       <c r="D53" s="96"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="203"/>
+      <c r="A54" s="218"/>
       <c r="B54" s="79" t="s">
         <v>1240</v>
       </c>
       <c r="D54" s="96"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="203"/>
+      <c r="A55" s="218"/>
       <c r="B55" s="78" t="s">
         <v>1241</v>
       </c>
       <c r="D55" s="96"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="203"/>
+      <c r="A56" s="218"/>
       <c r="B56" s="106"/>
       <c r="D56" s="96"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="203" t="s">
+      <c r="A57" s="218" t="s">
         <v>1242</v>
       </c>
       <c r="B57" s="106" t="s">
@@ -21187,24 +22507,24 @@
       <c r="D57" s="96"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="203"/>
+      <c r="A58" s="218"/>
       <c r="B58" s="106"/>
       <c r="D58" s="96"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="203"/>
+      <c r="A59" s="218"/>
       <c r="B59" s="13" t="s">
         <v>1244</v>
       </c>
       <c r="D59" s="96"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="203"/>
+      <c r="A60" s="218"/>
       <c r="B60" s="106"/>
       <c r="D60" s="96"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="203"/>
+      <c r="A61" s="218"/>
       <c r="B61" s="106"/>
       <c r="D61" s="96"/>
     </row>
@@ -21290,7 +22610,7 @@
       <c r="D71" s="96"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="203" t="s">
+      <c r="A72" s="218" t="s">
         <v>1393</v>
       </c>
       <c r="B72" s="106" t="s">
@@ -21299,24 +22619,24 @@
       <c r="D72" s="96"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="203"/>
+      <c r="A73" s="218"/>
       <c r="B73" s="106"/>
       <c r="D73" s="96"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="203"/>
+      <c r="A74" s="218"/>
       <c r="B74" s="13" t="s">
         <v>1259</v>
       </c>
       <c r="D74" s="96"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="203"/>
+      <c r="A75" s="218"/>
       <c r="B75" s="106"/>
       <c r="D75" s="96"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="203" t="s">
+      <c r="A76" s="218" t="s">
         <v>1395</v>
       </c>
       <c r="B76" s="106" t="s">
@@ -21325,31 +22645,31 @@
       <c r="D76" s="96"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="203"/>
+      <c r="A77" s="218"/>
       <c r="B77" s="106"/>
       <c r="D77" s="96"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="203"/>
+      <c r="A78" s="218"/>
       <c r="B78" s="77" t="s">
         <v>1260</v>
       </c>
       <c r="D78" s="96"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="203"/>
+      <c r="A79" s="218"/>
       <c r="B79" s="80" t="s">
         <v>1261</v>
       </c>
       <c r="D79" s="96"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="203"/>
+      <c r="A80" s="218"/>
       <c r="B80" s="106"/>
       <c r="D80" s="96"/>
     </row>
     <row r="81" spans="1:4" ht="33">
-      <c r="A81" s="203" t="s">
+      <c r="A81" s="218" t="s">
         <v>1397</v>
       </c>
       <c r="B81" s="106" t="s">
@@ -21358,68 +22678,68 @@
       <c r="D81" s="96"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="203"/>
+      <c r="A82" s="218"/>
       <c r="B82" s="106"/>
       <c r="D82" s="96"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="203"/>
+      <c r="A83" s="218"/>
       <c r="B83" s="106" t="s">
         <v>1576</v>
       </c>
       <c r="D83" s="96"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="203"/>
+      <c r="A84" s="218"/>
       <c r="B84" s="81" t="s">
         <v>1262</v>
       </c>
       <c r="D84" s="96"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="203"/>
+      <c r="A85" s="218"/>
       <c r="B85" s="77" t="s">
         <v>1263</v>
       </c>
       <c r="D85" s="96"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="203"/>
+      <c r="A86" s="218"/>
       <c r="B86" s="77" t="s">
         <v>1264</v>
       </c>
       <c r="D86" s="96"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="203"/>
+      <c r="A87" s="218"/>
       <c r="B87" s="77" t="s">
         <v>1265</v>
       </c>
       <c r="D87" s="96"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="203"/>
+      <c r="A88" s="218"/>
       <c r="B88" s="77" t="s">
         <v>1266</v>
       </c>
       <c r="D88" s="96"/>
     </row>
     <row r="89" spans="1:4" ht="33">
-      <c r="A89" s="203"/>
+      <c r="A89" s="218"/>
       <c r="B89" s="106" t="s">
         <v>1574</v>
       </c>
       <c r="D89" s="96"/>
     </row>
     <row r="90" spans="1:4" ht="49.5">
-      <c r="A90" s="203"/>
+      <c r="A90" s="218"/>
       <c r="B90" s="106" t="s">
         <v>1575</v>
       </c>
       <c r="D90" s="96"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="203" t="s">
+      <c r="A91" s="218" t="s">
         <v>1399</v>
       </c>
       <c r="B91" s="106" t="s">
@@ -21428,40 +22748,40 @@
       <c r="D91" s="96"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="203"/>
+      <c r="A92" s="218"/>
       <c r="B92" s="106"/>
       <c r="D92" s="96"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="203"/>
+      <c r="A93" s="218"/>
       <c r="B93" s="13" t="s">
         <v>1267</v>
       </c>
       <c r="D93" s="96"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="203"/>
+      <c r="A94" s="218"/>
       <c r="B94" s="13" t="s">
         <v>1268</v>
       </c>
       <c r="D94" s="96"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="203"/>
+      <c r="A95" s="218"/>
       <c r="B95" s="77" t="s">
         <v>1269</v>
       </c>
       <c r="D95" s="96"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="203"/>
+      <c r="A96" s="218"/>
       <c r="B96" s="106" t="s">
         <v>1573</v>
       </c>
       <c r="D96" s="96"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="203" t="s">
+      <c r="A97" s="218" t="s">
         <v>1401</v>
       </c>
       <c r="B97" s="106" t="s">
@@ -21470,31 +22790,31 @@
       <c r="D97" s="96"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="203"/>
+      <c r="A98" s="218"/>
       <c r="B98" s="106"/>
       <c r="D98" s="96"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="203"/>
+      <c r="A99" s="218"/>
       <c r="B99" s="77" t="s">
         <v>1270</v>
       </c>
       <c r="D99" s="96"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="203"/>
+      <c r="A100" s="218"/>
       <c r="B100" s="80" t="s">
         <v>1271</v>
       </c>
       <c r="D100" s="96"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="203"/>
+      <c r="A101" s="218"/>
       <c r="B101" s="106"/>
       <c r="D101" s="96"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="203" t="s">
+      <c r="A102" s="218" t="s">
         <v>1403</v>
       </c>
       <c r="B102" s="106" t="s">
@@ -21503,26 +22823,26 @@
       <c r="D102" s="96"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="203"/>
+      <c r="A103" s="218"/>
       <c r="B103" s="106"/>
       <c r="D103" s="96"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="203"/>
+      <c r="A104" s="218"/>
       <c r="B104" s="77" t="s">
         <v>1272</v>
       </c>
       <c r="D104" s="96"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="203"/>
+      <c r="A105" s="218"/>
       <c r="B105" s="80" t="s">
         <v>1273</v>
       </c>
       <c r="D105" s="96"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="203"/>
+      <c r="A106" s="218"/>
       <c r="B106" s="106"/>
       <c r="D106" s="96"/>
     </row>
@@ -21534,7 +22854,7 @@
       <c r="D107" s="96"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="203" t="s">
+      <c r="A108" s="218" t="s">
         <v>1274</v>
       </c>
       <c r="B108" s="106" t="s">
@@ -21543,55 +22863,55 @@
       <c r="D108" s="96"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="203"/>
+      <c r="A109" s="218"/>
       <c r="B109" s="106"/>
       <c r="D109" s="96"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="203"/>
+      <c r="A110" s="218"/>
       <c r="B110" s="106"/>
       <c r="D110" s="96"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="203"/>
+      <c r="A111" s="218"/>
       <c r="B111" s="13" t="s">
         <v>1275</v>
       </c>
       <c r="D111" s="96"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="203"/>
+      <c r="A112" s="218"/>
       <c r="B112" s="82" t="s">
         <v>1276</v>
       </c>
       <c r="D112" s="96"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="203"/>
+      <c r="A113" s="218"/>
       <c r="B113" s="13" t="s">
         <v>1277</v>
       </c>
       <c r="D113" s="96"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="203"/>
+      <c r="A114" s="218"/>
       <c r="B114" s="82" t="s">
         <v>1278</v>
       </c>
       <c r="D114" s="96"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="203"/>
+      <c r="A115" s="218"/>
       <c r="B115" s="106"/>
       <c r="D115" s="96"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="203"/>
+      <c r="A116" s="218"/>
       <c r="B116" s="106"/>
       <c r="D116" s="96"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="205" t="s">
+      <c r="A117" s="220" t="s">
         <v>1279</v>
       </c>
       <c r="B117" s="106" t="s">
@@ -21600,33 +22920,33 @@
       <c r="D117" s="96"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="205"/>
+      <c r="A118" s="220"/>
       <c r="B118" s="106"/>
       <c r="D118" s="96"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="205"/>
+      <c r="A119" s="220"/>
       <c r="B119" s="13" t="s">
         <v>1280</v>
       </c>
       <c r="D119" s="96"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="205"/>
+      <c r="A120" s="220"/>
       <c r="B120" s="77" t="s">
         <v>1281</v>
       </c>
       <c r="D120" s="96"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="205"/>
+      <c r="A121" s="220"/>
       <c r="B121" s="82" t="s">
         <v>1282</v>
       </c>
       <c r="D121" s="96"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="205"/>
+      <c r="A122" s="220"/>
       <c r="B122" s="106"/>
       <c r="D122" s="96"/>
     </row>
@@ -22932,7 +24252,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="115"/>
-      <c r="B278" s="204" t="s">
+      <c r="B278" s="219" t="s">
         <v>720</v>
       </c>
       <c r="C278" s="106" t="s">
@@ -22942,7 +24262,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="115"/>
-      <c r="B279" s="204"/>
+      <c r="B279" s="219"/>
       <c r="C279" s="106" t="s">
         <v>722</v>
       </c>
@@ -22950,7 +24270,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="115"/>
-      <c r="B280" s="204"/>
+      <c r="B280" s="219"/>
       <c r="C280" s="106" t="s">
         <v>723</v>
       </c>
@@ -22958,7 +24278,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="115"/>
-      <c r="B281" s="204"/>
+      <c r="B281" s="219"/>
       <c r="C281" s="106" t="s">
         <v>724</v>
       </c>
@@ -22966,7 +24286,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="115"/>
-      <c r="B282" s="204"/>
+      <c r="B282" s="219"/>
       <c r="C282" s="116" t="s">
         <v>725</v>
       </c>
@@ -22974,7 +24294,7 @@
     </row>
     <row r="283" spans="1:4" ht="66">
       <c r="A283" s="115"/>
-      <c r="B283" s="204"/>
+      <c r="B283" s="219"/>
       <c r="C283" s="106" t="s">
         <v>1625</v>
       </c>
@@ -22984,7 +24304,7 @@
     </row>
     <row r="284" spans="1:4" ht="49.5">
       <c r="A284" s="115"/>
-      <c r="B284" s="204"/>
+      <c r="B284" s="219"/>
       <c r="C284" s="106" t="s">
         <v>1622</v>
       </c>
@@ -22994,7 +24314,7 @@
     </row>
     <row r="285" spans="1:4" ht="33">
       <c r="A285" s="115"/>
-      <c r="B285" s="204"/>
+      <c r="B285" s="219"/>
       <c r="C285" s="106" t="s">
         <v>726</v>
       </c>
@@ -25402,19 +26722,27 @@
       </c>
     </row>
     <row r="589" spans="1:3">
-      <c r="B589" s="204"/>
+      <c r="B589" s="219"/>
     </row>
     <row r="590" spans="1:3">
-      <c r="B590" s="204"/>
+      <c r="B590" s="219"/>
     </row>
     <row r="591" spans="1:3">
-      <c r="B591" s="204"/>
+      <c r="B591" s="219"/>
     </row>
     <row r="592" spans="1:3">
-      <c r="B592" s="204"/>
+      <c r="B592" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B589:B592"/>
+    <mergeCell ref="B278:B285"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="A117:A122"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -25425,14 +26753,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="B278:B285"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27390,13 +28710,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" customHeight="1">
-      <c r="A18" s="208" t="s">
+      <c r="A18" s="221" t="s">
         <v>1031</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Python2.7/Python summary-filter.xlsx
+++ b/Python2.7/Python summary-filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="2281">
   <si>
     <t>Python教程</t>
   </si>
@@ -13261,6 +13261,18 @@
   </si>
   <si>
     <t>bt1.bind_all('&lt;Return&gt;',printAppAll)</t>
+  </si>
+  <si>
+    <t>TabError</t>
+  </si>
+  <si>
+    <t>语句块缩进不正确引发的异常</t>
+  </si>
+  <si>
+    <t>EOFError</t>
+  </si>
+  <si>
+    <t>遇到文件末尾引发的异常</t>
   </si>
 </sst>
 </file>
@@ -14999,13 +15011,7 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15014,14 +15020,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15029,25 +15032,25 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15071,32 +15074,35 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -15106,6 +15112,12 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15335,13 +15347,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1743074</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2838449</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15382,13 +15394,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>510</xdr:row>
+      <xdr:row>512</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15429,13 +15441,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>540</xdr:row>
+      <xdr:row>542</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>547</xdr:row>
+      <xdr:row>549</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17063,146 +17075,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="186" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="188" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
     </row>
     <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="188" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="188" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="7" t="s">
@@ -17228,17 +17240,17 @@
       <c r="A11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="188" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="7" t="s">
@@ -17297,8 +17309,8 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
       <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
@@ -17312,33 +17324,33 @@
       <c r="A15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="188" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="188" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="7" t="s">
@@ -17361,50 +17373,50 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="16.5">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="185"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="188" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" ht="16.5">
       <c r="A20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="188" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
     </row>
     <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="10" t="s">
@@ -17422,29 +17434,29 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
     </row>
     <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="188" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
       <c r="G22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="187" t="s">
+      <c r="H22" s="188" t="s">
         <v>213</v>
       </c>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
     </row>
     <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="10" t="s">
@@ -17462,9 +17474,9 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="10" t="s">
@@ -17482,18 +17494,18 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
     </row>
     <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="187" t="s">
+      <c r="B25" s="188" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="187"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="10" t="s">
         <v>157</v>
       </c>
@@ -17514,10 +17526,10 @@
       <c r="A26" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="187" t="s">
+      <c r="B26" s="188" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="187"/>
+      <c r="C26" s="188"/>
       <c r="D26" s="10" t="s">
         <v>153</v>
       </c>
@@ -17528,41 +17540,41 @@
       <c r="G26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="187" t="s">
+      <c r="H26" s="188" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" ht="16.5">
-      <c r="A27" s="185" t="s">
+      <c r="A27" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="185"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="185"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
     </row>
     <row r="28" spans="1:10" ht="16.5">
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="187" t="s">
+      <c r="B28" s="188" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="187"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
     </row>
     <row r="29" spans="1:10" ht="16.5">
       <c r="A29" s="10" t="s">
@@ -17584,17 +17596,17 @@
       <c r="A30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="186" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="10" t="s">
@@ -17616,49 +17628,49 @@
       <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
       <c r="A33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:10" ht="33" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
     </row>
     <row r="35" spans="1:10" ht="16.5">
       <c r="A35" s="10" t="s">
@@ -17672,23 +17684,23 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="185"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="185"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
     </row>
     <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="10" t="s">
@@ -17702,21 +17714,21 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
     </row>
     <row r="38" spans="1:10" ht="16.5">
       <c r="A38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="188" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
       <c r="G38" s="10" t="s">
         <v>133</v>
       </c>
@@ -17740,11 +17752,11 @@
       <c r="G39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="187" t="s">
+      <c r="H39" s="188" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:10" ht="16.5">
       <c r="A40" s="10" t="s">
@@ -17764,11 +17776,11 @@
       <c r="G40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="187" t="s">
+      <c r="H40" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:10" ht="16.5">
       <c r="A41" s="10" t="s">
@@ -17788,20 +17800,20 @@
       <c r="G41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="187" t="s">
+      <c r="H41" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
     </row>
     <row r="42" spans="1:10" ht="16.5">
       <c r="A42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="187"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
@@ -17810,9 +17822,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="4"/>
@@ -17837,11 +17849,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="E14:F14"/>
@@ -17858,27 +17886,11 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18332,7 +18344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
@@ -18720,7 +18732,7 @@
       <c r="E5" s="159"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="194" t="s">
         <v>1816</v>
       </c>
       <c r="B6" s="166" t="s">
@@ -18732,10 +18744,10 @@
       <c r="D6" s="157" t="s">
         <v>1640</v>
       </c>
-      <c r="E6" s="202"/>
+      <c r="E6" s="199"/>
     </row>
     <row r="7" spans="1:5" ht="49.5">
-      <c r="A7" s="199" t="str">
+      <c r="A7" s="194" t="str">
         <f t="shared" ref="A7:A12" si="0">A6</f>
         <v>控件</v>
       </c>
@@ -18748,10 +18760,10 @@
       <c r="D7" s="157" t="s">
         <v>1651</v>
       </c>
-      <c r="E7" s="203"/>
+      <c r="E7" s="200"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="199" t="str">
+      <c r="A8" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18764,10 +18776,10 @@
       <c r="D8" s="168" t="s">
         <v>1778</v>
       </c>
-      <c r="E8" s="203"/>
+      <c r="E8" s="200"/>
     </row>
     <row r="9" spans="1:5" ht="49.5">
-      <c r="A9" s="199" t="str">
+      <c r="A9" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18780,10 +18792,10 @@
       <c r="D9" s="168" t="s">
         <v>1805</v>
       </c>
-      <c r="E9" s="203"/>
+      <c r="E9" s="200"/>
     </row>
     <row r="10" spans="1:5" ht="66">
-      <c r="A10" s="199" t="str">
+      <c r="A10" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18796,10 +18808,10 @@
       <c r="D10" s="168" t="s">
         <v>1819</v>
       </c>
-      <c r="E10" s="203"/>
+      <c r="E10" s="200"/>
     </row>
     <row r="11" spans="1:5" ht="66">
-      <c r="A11" s="199" t="str">
+      <c r="A11" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18812,10 +18824,10 @@
       <c r="D11" s="168" t="s">
         <v>1837</v>
       </c>
-      <c r="E11" s="203"/>
+      <c r="E11" s="200"/>
     </row>
     <row r="12" spans="1:5" ht="49.5">
-      <c r="A12" s="199" t="str">
+      <c r="A12" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18828,10 +18840,10 @@
       <c r="D12" s="157" t="s">
         <v>1645</v>
       </c>
-      <c r="E12" s="203"/>
+      <c r="E12" s="200"/>
     </row>
     <row r="13" spans="1:5" ht="33">
-      <c r="A13" s="199"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="166" t="s">
         <v>1920</v>
       </c>
@@ -18841,10 +18853,10 @@
       <c r="D13" s="157" t="s">
         <v>1922</v>
       </c>
-      <c r="E13" s="203"/>
+      <c r="E13" s="200"/>
     </row>
     <row r="14" spans="1:5" ht="115.5">
-      <c r="A14" s="199"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="166" t="s">
         <v>1934</v>
       </c>
@@ -18854,10 +18866,10 @@
       <c r="D14" s="157" t="s">
         <v>1936</v>
       </c>
-      <c r="E14" s="203"/>
+      <c r="E14" s="200"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="199"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="169" t="s">
         <v>1971</v>
       </c>
@@ -18867,10 +18879,10 @@
       <c r="D15" s="157" t="s">
         <v>1973</v>
       </c>
-      <c r="E15" s="203"/>
+      <c r="E15" s="200"/>
     </row>
     <row r="16" spans="1:5" ht="82.5">
-      <c r="A16" s="199"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="169" t="s">
         <v>1983</v>
       </c>
@@ -18880,11 +18892,11 @@
       <c r="D16" s="157" t="s">
         <v>1984</v>
       </c>
-      <c r="E16" s="203"/>
+      <c r="E16" s="200"/>
     </row>
     <row r="17" spans="1:5" ht="33">
-      <c r="A17" s="199"/>
-      <c r="B17" s="193" t="s">
+      <c r="A17" s="194"/>
+      <c r="B17" s="190" t="s">
         <v>2013</v>
       </c>
       <c r="C17" s="157" t="s">
@@ -18893,22 +18905,22 @@
       <c r="D17" s="157" t="s">
         <v>2015</v>
       </c>
-      <c r="E17" s="203"/>
+      <c r="E17" s="200"/>
     </row>
     <row r="18" spans="1:5" ht="115.5">
-      <c r="A18" s="199"/>
-      <c r="B18" s="194"/>
+      <c r="A18" s="194"/>
+      <c r="B18" s="191"/>
       <c r="C18" s="157" t="s">
         <v>2016</v>
       </c>
       <c r="D18" s="157" t="s">
         <v>2017</v>
       </c>
-      <c r="E18" s="203"/>
+      <c r="E18" s="200"/>
     </row>
     <row r="19" spans="1:5" ht="33">
-      <c r="A19" s="199"/>
-      <c r="B19" s="193" t="s">
+      <c r="A19" s="194"/>
+      <c r="B19" s="190" t="s">
         <v>2018</v>
       </c>
       <c r="C19" s="157" t="s">
@@ -18917,21 +18929,21 @@
       <c r="D19" s="157" t="s">
         <v>2020</v>
       </c>
-      <c r="E19" s="203"/>
+      <c r="E19" s="200"/>
     </row>
     <row r="20" spans="1:5" ht="66">
-      <c r="A20" s="199"/>
-      <c r="B20" s="194"/>
+      <c r="A20" s="194"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="157" t="s">
         <v>2163</v>
       </c>
       <c r="D20" s="157" t="s">
         <v>2162</v>
       </c>
-      <c r="E20" s="203"/>
+      <c r="E20" s="200"/>
     </row>
     <row r="21" spans="1:5" ht="66">
-      <c r="A21" s="199"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="183" t="s">
         <v>2021</v>
       </c>
@@ -18941,10 +18953,10 @@
       <c r="D21" s="157" t="s">
         <v>2022</v>
       </c>
-      <c r="E21" s="203"/>
+      <c r="E21" s="200"/>
     </row>
     <row r="22" spans="1:5" ht="115.5">
-      <c r="A22" s="199"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="183" t="s">
         <v>2036</v>
       </c>
@@ -18954,10 +18966,10 @@
       <c r="D22" s="157" t="s">
         <v>2037</v>
       </c>
-      <c r="E22" s="203"/>
+      <c r="E22" s="200"/>
     </row>
     <row r="23" spans="1:5" ht="82.5">
-      <c r="A23" s="199"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="183" t="s">
         <v>2092</v>
       </c>
@@ -18967,10 +18979,10 @@
       <c r="D23" s="157" t="s">
         <v>2094</v>
       </c>
-      <c r="E23" s="203"/>
+      <c r="E23" s="200"/>
     </row>
     <row r="24" spans="1:5" ht="165">
-      <c r="A24" s="199"/>
+      <c r="A24" s="194"/>
       <c r="B24" s="183" t="s">
         <v>2205</v>
       </c>
@@ -18980,10 +18992,10 @@
       <c r="D24" s="157" t="s">
         <v>2207</v>
       </c>
-      <c r="E24" s="203"/>
+      <c r="E24" s="200"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="199"/>
+      <c r="A25" s="194"/>
       <c r="B25" s="182" t="s">
         <v>1898</v>
       </c>
@@ -18993,10 +19005,10 @@
       <c r="D25" s="157" t="s">
         <v>1900</v>
       </c>
-      <c r="E25" s="203"/>
+      <c r="E25" s="200"/>
     </row>
     <row r="26" spans="1:5" ht="280.5">
-      <c r="A26" s="199"/>
+      <c r="A26" s="194"/>
       <c r="B26" s="182" t="s">
         <v>2210</v>
       </c>
@@ -19006,10 +19018,10 @@
       <c r="D26" s="157" t="s">
         <v>2212</v>
       </c>
-      <c r="E26" s="203"/>
+      <c r="E26" s="200"/>
     </row>
     <row r="27" spans="1:5" ht="165">
-      <c r="A27" s="199"/>
+      <c r="A27" s="194"/>
       <c r="B27" s="182" t="s">
         <v>2213</v>
       </c>
@@ -19019,10 +19031,10 @@
       <c r="D27" s="157" t="s">
         <v>2214</v>
       </c>
-      <c r="E27" s="203"/>
+      <c r="E27" s="200"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="199"/>
+      <c r="A28" s="194"/>
       <c r="B28" s="182" t="s">
         <v>2217</v>
       </c>
@@ -19032,10 +19044,10 @@
       <c r="D28" s="157" t="s">
         <v>2218</v>
       </c>
-      <c r="E28" s="203"/>
+      <c r="E28" s="200"/>
     </row>
     <row r="29" spans="1:5" ht="198">
-      <c r="A29" s="199"/>
+      <c r="A29" s="194"/>
       <c r="B29" s="182" t="s">
         <v>2220</v>
       </c>
@@ -19045,10 +19057,10 @@
       <c r="D29" s="157" t="s">
         <v>2221</v>
       </c>
-      <c r="E29" s="203"/>
+      <c r="E29" s="200"/>
     </row>
     <row r="30" spans="1:5" ht="264">
-      <c r="A30" s="199" t="str">
+      <c r="A30" s="194" t="str">
         <f>A12</f>
         <v>控件</v>
       </c>
@@ -19061,7 +19073,7 @@
       <c r="D30" s="157" t="s">
         <v>2209</v>
       </c>
-      <c r="E30" s="204"/>
+      <c r="E30" s="201"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="166" t="s">
@@ -19103,7 +19115,7 @@
       <c r="E33" s="158"/>
     </row>
     <row r="34" spans="1:5" ht="165">
-      <c r="A34" s="199" t="s">
+      <c r="A34" s="194" t="s">
         <v>1773</v>
       </c>
       <c r="B34" s="170" t="s">
@@ -19115,10 +19127,10 @@
       <c r="D34" s="168" t="s">
         <v>1774</v>
       </c>
-      <c r="E34" s="202"/>
+      <c r="E34" s="199"/>
     </row>
     <row r="35" spans="1:5" ht="66">
-      <c r="A35" s="199" t="str">
+      <c r="A35" s="194" t="str">
         <f t="shared" ref="A35" si="1">A34</f>
         <v>textvariable</v>
       </c>
@@ -19131,10 +19143,10 @@
       <c r="D35" s="168" t="s">
         <v>1780</v>
       </c>
-      <c r="E35" s="203"/>
+      <c r="E35" s="200"/>
     </row>
     <row r="36" spans="1:5" ht="66">
-      <c r="A36" s="199"/>
+      <c r="A36" s="194"/>
       <c r="B36" s="170" t="s">
         <v>1971</v>
       </c>
@@ -19144,10 +19156,10 @@
       <c r="D36" s="168" t="s">
         <v>1979</v>
       </c>
-      <c r="E36" s="203"/>
+      <c r="E36" s="200"/>
     </row>
     <row r="37" spans="1:5" ht="49.5">
-      <c r="A37" s="199"/>
+      <c r="A37" s="194"/>
       <c r="B37" s="170" t="s">
         <v>2048</v>
       </c>
@@ -19157,10 +19169,10 @@
       <c r="D37" s="168" t="s">
         <v>2050</v>
       </c>
-      <c r="E37" s="203"/>
+      <c r="E37" s="200"/>
     </row>
     <row r="38" spans="1:5" ht="49.5">
-      <c r="A38" s="199" t="str">
+      <c r="A38" s="194" t="str">
         <f>A35</f>
         <v>textvariable</v>
       </c>
@@ -19173,10 +19185,10 @@
       <c r="D38" s="168" t="s">
         <v>1909</v>
       </c>
-      <c r="E38" s="204"/>
+      <c r="E38" s="201"/>
     </row>
     <row r="39" spans="1:5" ht="82.5">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="205" t="s">
         <v>1810</v>
       </c>
       <c r="B39" s="157" t="s">
@@ -19188,10 +19200,10 @@
       <c r="D39" s="168" t="s">
         <v>1812</v>
       </c>
-      <c r="E39" s="205"/>
+      <c r="E39" s="202"/>
     </row>
     <row r="40" spans="1:5" ht="66">
-      <c r="A40" s="208" t="str">
+      <c r="A40" s="205" t="str">
         <f>A39</f>
         <v>variable</v>
       </c>
@@ -19204,10 +19216,10 @@
       <c r="D40" s="168" t="s">
         <v>1823</v>
       </c>
-      <c r="E40" s="205"/>
+      <c r="E40" s="202"/>
     </row>
     <row r="41" spans="1:5" ht="66">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="205" t="s">
         <v>1830</v>
       </c>
       <c r="B41" s="157" t="s">
@@ -19219,10 +19231,10 @@
       <c r="D41" s="168" t="s">
         <v>1831</v>
       </c>
-      <c r="E41" s="206"/>
+      <c r="E41" s="203"/>
     </row>
     <row r="42" spans="1:5" ht="66">
-      <c r="A42" s="208" t="str">
+      <c r="A42" s="205" t="str">
         <f>A41</f>
         <v>value</v>
       </c>
@@ -19235,7 +19247,7 @@
       <c r="D42" s="168" t="s">
         <v>1905</v>
       </c>
-      <c r="E42" s="207"/>
+      <c r="E42" s="204"/>
     </row>
     <row r="43" spans="1:5" ht="99">
       <c r="A43" s="171" t="s">
@@ -19253,7 +19265,7 @@
       <c r="E43" s="160"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="199" t="s">
+      <c r="A44" s="194" t="s">
         <v>1656</v>
       </c>
       <c r="B44" s="170" t="s">
@@ -19265,10 +19277,10 @@
       <c r="D44" s="157" t="s">
         <v>1824</v>
       </c>
-      <c r="E44" s="209"/>
+      <c r="E44" s="195"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="199" t="str">
+      <c r="A45" s="194" t="str">
         <f t="shared" ref="A45:A54" si="2">A44</f>
         <v>bitmap</v>
       </c>
@@ -19279,10 +19291,10 @@
       <c r="D45" s="157" t="s">
         <v>1706</v>
       </c>
-      <c r="E45" s="209"/>
+      <c r="E45" s="195"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="199" t="str">
+      <c r="A46" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19293,10 +19305,10 @@
       <c r="D46" s="157" t="s">
         <v>1707</v>
       </c>
-      <c r="E46" s="209"/>
+      <c r="E46" s="195"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="199" t="str">
+      <c r="A47" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19307,10 +19319,10 @@
       <c r="D47" s="157" t="s">
         <v>1708</v>
       </c>
-      <c r="E47" s="209"/>
+      <c r="E47" s="195"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="199" t="str">
+      <c r="A48" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19321,10 +19333,10 @@
       <c r="D48" s="157" t="s">
         <v>1709</v>
       </c>
-      <c r="E48" s="209"/>
+      <c r="E48" s="195"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="199" t="str">
+      <c r="A49" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19335,10 +19347,10 @@
       <c r="D49" s="157" t="s">
         <v>1710</v>
       </c>
-      <c r="E49" s="209"/>
+      <c r="E49" s="195"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="199" t="str">
+      <c r="A50" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19349,10 +19361,10 @@
       <c r="D50" s="157" t="s">
         <v>1711</v>
       </c>
-      <c r="E50" s="209"/>
+      <c r="E50" s="195"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="199" t="str">
+      <c r="A51" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19363,10 +19375,10 @@
       <c r="D51" s="157" t="s">
         <v>1712</v>
       </c>
-      <c r="E51" s="209"/>
+      <c r="E51" s="195"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="199" t="str">
+      <c r="A52" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19377,10 +19389,10 @@
       <c r="D52" s="157" t="s">
         <v>1713</v>
       </c>
-      <c r="E52" s="209"/>
+      <c r="E52" s="195"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="199" t="str">
+      <c r="A53" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19391,10 +19403,10 @@
       <c r="D53" s="157" t="s">
         <v>1714</v>
       </c>
-      <c r="E53" s="209"/>
+      <c r="E53" s="195"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="199" t="str">
+      <c r="A54" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19405,10 +19417,10 @@
       <c r="D54" s="157" t="s">
         <v>1715</v>
       </c>
-      <c r="E54" s="209"/>
+      <c r="E54" s="195"/>
     </row>
     <row r="55" spans="1:5" ht="33">
-      <c r="A55" s="199" t="s">
+      <c r="A55" s="194" t="s">
         <v>1688</v>
       </c>
       <c r="B55" s="170" t="s">
@@ -19420,10 +19432,10 @@
       <c r="D55" s="157" t="s">
         <v>1690</v>
       </c>
-      <c r="E55" s="209"/>
+      <c r="E55" s="195"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="199" t="str">
+      <c r="A56" s="194" t="str">
         <f t="shared" ref="A56:A60" si="3">A55</f>
         <v>compound</v>
       </c>
@@ -19432,10 +19444,10 @@
         <v>1692</v>
       </c>
       <c r="D56" s="157"/>
-      <c r="E56" s="209"/>
+      <c r="E56" s="195"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="199" t="str">
+      <c r="A57" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19444,10 +19456,10 @@
         <v>1693</v>
       </c>
       <c r="D57" s="157"/>
-      <c r="E57" s="209"/>
+      <c r="E57" s="195"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="199" t="str">
+      <c r="A58" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19456,10 +19468,10 @@
         <v>1694</v>
       </c>
       <c r="D58" s="157"/>
-      <c r="E58" s="209"/>
+      <c r="E58" s="195"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="199" t="str">
+      <c r="A59" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19468,10 +19480,10 @@
         <v>1695</v>
       </c>
       <c r="D59" s="157"/>
-      <c r="E59" s="209"/>
+      <c r="E59" s="195"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="199" t="str">
+      <c r="A60" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19480,10 +19492,10 @@
         <v>1825</v>
       </c>
       <c r="D60" s="157"/>
-      <c r="E60" s="209"/>
+      <c r="E60" s="195"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="199" t="s">
+      <c r="A61" s="194" t="s">
         <v>1672</v>
       </c>
       <c r="B61" s="170" t="s">
@@ -19493,10 +19505,10 @@
         <v>1673</v>
       </c>
       <c r="D61" s="157"/>
-      <c r="E61" s="209"/>
+      <c r="E61" s="195"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="199" t="str">
+      <c r="A62" s="194" t="str">
         <f t="shared" ref="A62:A74" si="4">A61</f>
         <v>fg/bg</v>
       </c>
@@ -19505,10 +19517,10 @@
         <v>1679</v>
       </c>
       <c r="D62" s="157"/>
-      <c r="E62" s="209"/>
+      <c r="E62" s="195"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="199" t="str">
+      <c r="A63" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19519,10 +19531,10 @@
       <c r="D63" s="157" t="s">
         <v>1716</v>
       </c>
-      <c r="E63" s="209"/>
+      <c r="E63" s="195"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="199" t="str">
+      <c r="A64" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19533,10 +19545,10 @@
       <c r="D64" s="157" t="s">
         <v>1717</v>
       </c>
-      <c r="E64" s="209"/>
+      <c r="E64" s="195"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="199" t="str">
+      <c r="A65" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19547,10 +19559,10 @@
       <c r="D65" s="157" t="s">
         <v>1718</v>
       </c>
-      <c r="E65" s="209"/>
+      <c r="E65" s="195"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="199" t="str">
+      <c r="A66" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19561,10 +19573,10 @@
       <c r="D66" s="157" t="s">
         <v>1719</v>
       </c>
-      <c r="E66" s="209"/>
+      <c r="E66" s="195"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="199" t="str">
+      <c r="A67" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19575,10 +19587,10 @@
       <c r="D67" s="157" t="s">
         <v>1720</v>
       </c>
-      <c r="E67" s="209"/>
+      <c r="E67" s="195"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="199" t="str">
+      <c r="A68" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19587,10 +19599,10 @@
         <v>1680</v>
       </c>
       <c r="D68" s="157"/>
-      <c r="E68" s="209"/>
+      <c r="E68" s="195"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="199" t="str">
+      <c r="A69" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19599,10 +19611,10 @@
         <v>1681</v>
       </c>
       <c r="D69" s="157"/>
-      <c r="E69" s="209"/>
+      <c r="E69" s="195"/>
     </row>
     <row r="70" spans="1:5" ht="33">
-      <c r="A70" s="199" t="str">
+      <c r="A70" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19611,10 +19623,10 @@
         <v>1682</v>
       </c>
       <c r="D70" s="157"/>
-      <c r="E70" s="209"/>
+      <c r="E70" s="195"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="199" t="str">
+      <c r="A71" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19623,10 +19635,10 @@
         <v>1683</v>
       </c>
       <c r="D71" s="157"/>
-      <c r="E71" s="209"/>
+      <c r="E71" s="195"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="199" t="str">
+      <c r="A72" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19635,10 +19647,10 @@
         <v>1684</v>
       </c>
       <c r="D72" s="157"/>
-      <c r="E72" s="209"/>
+      <c r="E72" s="195"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="199" t="str">
+      <c r="A73" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19647,10 +19659,10 @@
         <v>1685</v>
       </c>
       <c r="D73" s="173"/>
-      <c r="E73" s="209"/>
+      <c r="E73" s="195"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="199" t="str">
+      <c r="A74" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19659,7 +19671,7 @@
         <v>1686</v>
       </c>
       <c r="D74" s="173"/>
-      <c r="E74" s="209"/>
+      <c r="E74" s="195"/>
     </row>
     <row r="75" spans="1:5" ht="33">
       <c r="A75" s="166" t="s">
@@ -19718,7 +19730,7 @@
       <c r="E78" s="158"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="199" t="s">
+      <c r="A79" s="194" t="s">
         <v>1700</v>
       </c>
       <c r="B79" s="170" t="s">
@@ -19728,10 +19740,10 @@
         <v>1721</v>
       </c>
       <c r="D79" s="157"/>
-      <c r="E79" s="209"/>
+      <c r="E79" s="195"/>
     </row>
     <row r="80" spans="1:5" ht="33">
-      <c r="A80" s="199" t="str">
+      <c r="A80" s="194" t="str">
         <f t="shared" ref="A80:A81" si="5">A79</f>
         <v>justify</v>
       </c>
@@ -19742,10 +19754,10 @@
       <c r="D80" s="157" t="s">
         <v>1723</v>
       </c>
-      <c r="E80" s="209"/>
+      <c r="E80" s="195"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="199" t="str">
+      <c r="A81" s="194" t="str">
         <f t="shared" si="5"/>
         <v>justify</v>
       </c>
@@ -19754,7 +19766,7 @@
         <v>1705</v>
       </c>
       <c r="D81" s="157"/>
-      <c r="E81" s="209"/>
+      <c r="E81" s="195"/>
     </row>
     <row r="82" spans="1:5" ht="33">
       <c r="A82" s="169"/>
@@ -19770,7 +19782,7 @@
       <c r="E82" s="161"/>
     </row>
     <row r="83" spans="1:5" ht="33">
-      <c r="A83" s="199" t="s">
+      <c r="A83" s="194" t="s">
         <v>1701</v>
       </c>
       <c r="B83" s="170" t="s">
@@ -19780,10 +19792,10 @@
         <v>1702</v>
       </c>
       <c r="D83" s="157"/>
-      <c r="E83" s="209"/>
+      <c r="E83" s="195"/>
     </row>
     <row r="84" spans="1:5" ht="66">
-      <c r="A84" s="199" t="str">
+      <c r="A84" s="194" t="str">
         <f>A83</f>
         <v>ahchor</v>
       </c>
@@ -19794,10 +19806,10 @@
       <c r="D84" s="157" t="s">
         <v>1724</v>
       </c>
-      <c r="E84" s="209"/>
+      <c r="E84" s="195"/>
     </row>
     <row r="85" spans="1:5" s="91" customFormat="1" ht="33">
-      <c r="A85" s="200" t="s">
+      <c r="A85" s="214" t="s">
         <v>1765</v>
       </c>
       <c r="B85" s="174" t="s">
@@ -19809,10 +19821,10 @@
       <c r="D85" s="174" t="s">
         <v>1766</v>
       </c>
-      <c r="E85" s="210"/>
+      <c r="E85" s="206"/>
     </row>
     <row r="86" spans="1:5" s="91" customFormat="1">
-      <c r="A86" s="200" t="str">
+      <c r="A86" s="214" t="str">
         <f t="shared" ref="A86:A87" si="6">A85</f>
         <v>StringVar</v>
       </c>
@@ -19825,10 +19837,10 @@
       <c r="D86" s="174" t="s">
         <v>1767</v>
       </c>
-      <c r="E86" s="210"/>
+      <c r="E86" s="206"/>
     </row>
     <row r="87" spans="1:5" s="91" customFormat="1">
-      <c r="A87" s="200" t="str">
+      <c r="A87" s="214" t="str">
         <f t="shared" si="6"/>
         <v>StringVar</v>
       </c>
@@ -19841,10 +19853,10 @@
       <c r="D87" s="174" t="s">
         <v>1771</v>
       </c>
-      <c r="E87" s="210"/>
+      <c r="E87" s="206"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="199" t="s">
+      <c r="A88" s="194" t="s">
         <v>1870</v>
       </c>
       <c r="B88" s="174" t="s">
@@ -19856,10 +19868,10 @@
       <c r="D88" s="157" t="s">
         <v>1872</v>
       </c>
-      <c r="E88" s="209"/>
+      <c r="E88" s="195"/>
     </row>
     <row r="89" spans="1:5" s="91" customFormat="1">
-      <c r="A89" s="199" t="str">
+      <c r="A89" s="194" t="str">
         <f t="shared" ref="A89:A90" si="7">A88</f>
         <v>IntVar</v>
       </c>
@@ -19872,10 +19884,10 @@
       <c r="D89" s="174" t="s">
         <v>1767</v>
       </c>
-      <c r="E89" s="209"/>
+      <c r="E89" s="195"/>
     </row>
     <row r="90" spans="1:5" s="91" customFormat="1">
-      <c r="A90" s="199" t="str">
+      <c r="A90" s="194" t="str">
         <f t="shared" si="7"/>
         <v>IntVar</v>
       </c>
@@ -19888,10 +19900,10 @@
       <c r="D90" s="174" t="s">
         <v>1873</v>
       </c>
-      <c r="E90" s="209"/>
+      <c r="E90" s="195"/>
     </row>
     <row r="91" spans="1:5" ht="33">
-      <c r="A91" s="201" t="s">
+      <c r="A91" s="215" t="s">
         <v>1730</v>
       </c>
       <c r="B91" s="170" t="s">
@@ -19903,10 +19915,10 @@
       <c r="D91" s="168" t="s">
         <v>1731</v>
       </c>
-      <c r="E91" s="209"/>
+      <c r="E91" s="195"/>
     </row>
     <row r="92" spans="1:5" ht="33">
-      <c r="A92" s="201" t="str">
+      <c r="A92" s="215" t="str">
         <f t="shared" ref="A92" si="8">A91</f>
         <v>command</v>
       </c>
@@ -19919,10 +19931,10 @@
       <c r="D92" s="168" t="s">
         <v>1808</v>
       </c>
-      <c r="E92" s="209"/>
+      <c r="E92" s="195"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="201"/>
+      <c r="A93" s="215"/>
       <c r="B93" s="170" t="s">
         <v>1920</v>
       </c>
@@ -19932,10 +19944,10 @@
       <c r="D93" s="168" t="s">
         <v>1926</v>
       </c>
-      <c r="E93" s="209"/>
+      <c r="E93" s="195"/>
     </row>
     <row r="94" spans="1:5" ht="49.5">
-      <c r="A94" s="201" t="str">
+      <c r="A94" s="215" t="str">
         <f>A91</f>
         <v>command</v>
       </c>
@@ -19948,10 +19960,10 @@
       <c r="D94" s="168" t="s">
         <v>1910</v>
       </c>
-      <c r="E94" s="209"/>
+      <c r="E94" s="195"/>
     </row>
     <row r="95" spans="1:5" ht="82.5">
-      <c r="A95" s="201"/>
+      <c r="A95" s="215"/>
       <c r="B95" s="170" t="s">
         <v>1983</v>
       </c>
@@ -19961,10 +19973,10 @@
       <c r="D95" s="168" t="s">
         <v>1986</v>
       </c>
-      <c r="E95" s="209"/>
+      <c r="E95" s="195"/>
     </row>
     <row r="96" spans="1:5" ht="115.5">
-      <c r="A96" s="201" t="str">
+      <c r="A96" s="215" t="str">
         <f>A92</f>
         <v>command</v>
       </c>
@@ -19977,7 +19989,7 @@
       <c r="D96" s="168" t="s">
         <v>1887</v>
       </c>
-      <c r="E96" s="209"/>
+      <c r="E96" s="195"/>
     </row>
     <row r="97" spans="1:5" ht="132">
       <c r="A97" s="180"/>
@@ -20058,7 +20070,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="199" t="s">
+      <c r="A103" s="194" t="s">
         <v>1733</v>
       </c>
       <c r="B103" s="170" t="s">
@@ -20068,10 +20080,10 @@
         <v>1761</v>
       </c>
       <c r="D103" s="168"/>
-      <c r="E103" s="209"/>
+      <c r="E103" s="195"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="199" t="str">
+      <c r="A104" s="194" t="str">
         <f t="shared" ref="A104:A109" si="9">A103</f>
         <v>relief</v>
       </c>
@@ -20082,10 +20094,10 @@
       <c r="D104" s="168" t="s">
         <v>1740</v>
       </c>
-      <c r="E104" s="209"/>
+      <c r="E104" s="195"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="199" t="str">
+      <c r="A105" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20096,10 +20108,10 @@
       <c r="D105" s="168" t="s">
         <v>1741</v>
       </c>
-      <c r="E105" s="209"/>
+      <c r="E105" s="195"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="199" t="str">
+      <c r="A106" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20110,10 +20122,10 @@
       <c r="D106" s="168" t="s">
         <v>1742</v>
       </c>
-      <c r="E106" s="209"/>
+      <c r="E106" s="195"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="199" t="str">
+      <c r="A107" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20124,10 +20136,10 @@
       <c r="D107" s="168" t="s">
         <v>1743</v>
       </c>
-      <c r="E107" s="209"/>
+      <c r="E107" s="195"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="199" t="str">
+      <c r="A108" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20138,10 +20150,10 @@
       <c r="D108" s="168" t="s">
         <v>1744</v>
       </c>
-      <c r="E108" s="209"/>
+      <c r="E108" s="195"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="199" t="str">
+      <c r="A109" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20152,7 +20164,7 @@
       <c r="D109" s="168" t="s">
         <v>1745</v>
       </c>
-      <c r="E109" s="209"/>
+      <c r="E109" s="195"/>
     </row>
     <row r="110" spans="1:5" ht="33">
       <c r="A110" s="166" t="s">
@@ -20170,7 +20182,7 @@
       <c r="E110" s="158"/>
     </row>
     <row r="111" spans="1:5" ht="99">
-      <c r="A111" s="199" t="s">
+      <c r="A111" s="194" t="s">
         <v>1762</v>
       </c>
       <c r="B111" s="170" t="s">
@@ -20182,10 +20194,10 @@
       <c r="D111" s="168" t="s">
         <v>1763</v>
       </c>
-      <c r="E111" s="209"/>
+      <c r="E111" s="195"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="199" t="str">
+      <c r="A112" s="194" t="str">
         <f t="shared" ref="A112:A114" si="10">A111</f>
         <v>state</v>
       </c>
@@ -20196,10 +20208,10 @@
       <c r="D112" s="168" t="s">
         <v>1793</v>
       </c>
-      <c r="E112" s="209"/>
+      <c r="E112" s="195"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="199" t="str">
+      <c r="A113" s="194" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
@@ -20210,10 +20222,10 @@
       <c r="D113" s="168" t="s">
         <v>1794</v>
       </c>
-      <c r="E113" s="209"/>
+      <c r="E113" s="195"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="199" t="str">
+      <c r="A114" s="194" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
@@ -20224,7 +20236,7 @@
       <c r="D114" s="168" t="s">
         <v>1795</v>
       </c>
-      <c r="E114" s="209"/>
+      <c r="E114" s="195"/>
     </row>
     <row r="115" spans="1:5" ht="33">
       <c r="A115" s="166" t="s">
@@ -20270,59 +20282,59 @@
       <c r="E117" s="160"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="199" t="s">
+      <c r="A118" s="194" t="s">
         <v>1838</v>
       </c>
-      <c r="B118" s="199" t="s">
+      <c r="B118" s="194" t="s">
         <v>1839</v>
       </c>
       <c r="C118" s="157" t="s">
         <v>1841</v>
       </c>
       <c r="D118" s="157"/>
-      <c r="E118" s="211"/>
+      <c r="E118" s="192"/>
     </row>
     <row r="119" spans="1:5" ht="33">
-      <c r="A119" s="199" t="str">
+      <c r="A119" s="194" t="str">
         <f t="shared" ref="A119:A121" si="11">A118</f>
         <v>selectmode</v>
       </c>
-      <c r="B119" s="199"/>
+      <c r="B119" s="194"/>
       <c r="C119" s="157" t="s">
         <v>1842</v>
       </c>
       <c r="D119" s="157" t="s">
         <v>1843</v>
       </c>
-      <c r="E119" s="212"/>
+      <c r="E119" s="196"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="199" t="str">
+      <c r="A120" s="194" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B120" s="199"/>
+      <c r="B120" s="194"/>
       <c r="C120" s="157" t="s">
         <v>1844</v>
       </c>
       <c r="D120" s="157" t="s">
         <v>1840</v>
       </c>
-      <c r="E120" s="212"/>
+      <c r="E120" s="196"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="199" t="str">
+      <c r="A121" s="194" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B121" s="199"/>
+      <c r="B121" s="194"/>
       <c r="C121" s="157" t="s">
         <v>1846</v>
       </c>
       <c r="D121" s="157" t="s">
         <v>1845</v>
       </c>
-      <c r="E121" s="213"/>
+      <c r="E121" s="193"/>
     </row>
     <row r="122" spans="1:5" ht="49.5">
       <c r="A122" s="166" t="s">
@@ -20405,7 +20417,7 @@
       <c r="E127" s="181"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="199" t="s">
+      <c r="A128" s="194" t="s">
         <v>1861</v>
       </c>
       <c r="B128" s="157" t="s">
@@ -20417,10 +20429,10 @@
       <c r="D128" s="157" t="s">
         <v>1866</v>
       </c>
-      <c r="E128" s="214"/>
+      <c r="E128" s="197"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="199"/>
+      <c r="A129" s="194"/>
       <c r="B129" s="157" t="s">
         <v>1785</v>
       </c>
@@ -20430,10 +20442,10 @@
       <c r="D129" s="157" t="s">
         <v>1897</v>
       </c>
-      <c r="E129" s="215"/>
+      <c r="E129" s="198"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="199"/>
+      <c r="A130" s="194"/>
       <c r="B130" s="157" t="s">
         <v>2048</v>
       </c>
@@ -20446,7 +20458,7 @@
       <c r="E130" s="156"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="199"/>
+      <c r="A131" s="194"/>
       <c r="B131" s="157" t="s">
         <v>1898</v>
       </c>
@@ -20516,7 +20528,7 @@
     </row>
     <row r="136" spans="1:5" ht="99">
       <c r="A136" s="169"/>
-      <c r="B136" s="196" t="s">
+      <c r="B136" s="211" t="s">
         <v>2048</v>
       </c>
       <c r="C136" s="157" t="s">
@@ -20529,7 +20541,7 @@
     </row>
     <row r="137" spans="1:5" ht="33">
       <c r="A137" s="169"/>
-      <c r="B137" s="197"/>
+      <c r="B137" s="212"/>
       <c r="C137" s="157" t="s">
         <v>2053</v>
       </c>
@@ -20540,7 +20552,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="169"/>
-      <c r="B138" s="197"/>
+      <c r="B138" s="212"/>
       <c r="C138" s="157" t="s">
         <v>2054</v>
       </c>
@@ -20551,7 +20563,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="169"/>
-      <c r="B139" s="197"/>
+      <c r="B139" s="212"/>
       <c r="C139" s="157" t="s">
         <v>2055</v>
       </c>
@@ -20562,7 +20574,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="169"/>
-      <c r="B140" s="197"/>
+      <c r="B140" s="212"/>
       <c r="C140" s="157" t="s">
         <v>2056</v>
       </c>
@@ -20573,7 +20585,7 @@
     </row>
     <row r="141" spans="1:5" ht="33">
       <c r="A141" s="169"/>
-      <c r="B141" s="197"/>
+      <c r="B141" s="212"/>
       <c r="C141" s="157" t="s">
         <v>2057</v>
       </c>
@@ -20584,7 +20596,7 @@
     </row>
     <row r="142" spans="1:5" ht="33">
       <c r="A142" s="169"/>
-      <c r="B142" s="197"/>
+      <c r="B142" s="212"/>
       <c r="C142" s="157" t="s">
         <v>2058</v>
       </c>
@@ -20594,7 +20606,7 @@
       <c r="E142" s="163"/>
     </row>
     <row r="143" spans="1:5" ht="82.5">
-      <c r="B143" s="198"/>
+      <c r="B143" s="213"/>
       <c r="C143" s="151" t="s">
         <v>2081</v>
       </c>
@@ -20701,7 +20713,7 @@
       </c>
       <c r="E150" s="163"/>
     </row>
-    <row r="151" spans="1:5" ht="33">
+    <row r="151" spans="1:5">
       <c r="A151" s="166" t="s">
         <v>1862</v>
       </c>
@@ -20747,7 +20759,7 @@
       <c r="E153" s="163"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="199" t="s">
+      <c r="A154" s="194" t="s">
         <v>1827</v>
       </c>
       <c r="B154" s="157" t="s">
@@ -20759,10 +20771,10 @@
       <c r="D154" s="157" t="s">
         <v>1645</v>
       </c>
-      <c r="E154" s="211"/>
+      <c r="E154" s="192"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="199" t="str">
+      <c r="A155" s="194" t="str">
         <f>A154</f>
         <v>from_</v>
       </c>
@@ -20775,10 +20787,10 @@
       <c r="D155" s="157" t="s">
         <v>1904</v>
       </c>
-      <c r="E155" s="213"/>
+      <c r="E155" s="193"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="199" t="s">
+      <c r="A156" s="194" t="s">
         <v>1828</v>
       </c>
       <c r="B156" s="157" t="s">
@@ -20790,10 +20802,10 @@
       <c r="D156" s="157" t="s">
         <v>1645</v>
       </c>
-      <c r="E156" s="211"/>
+      <c r="E156" s="192"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="199" t="str">
+      <c r="A157" s="194" t="str">
         <f>A156</f>
         <v>to</v>
       </c>
@@ -20806,10 +20818,10 @@
       <c r="D157" s="157" t="s">
         <v>1904</v>
       </c>
-      <c r="E157" s="213"/>
+      <c r="E157" s="193"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="193" t="s">
+      <c r="A158" s="190" t="s">
         <v>1829</v>
       </c>
       <c r="B158" s="157" t="s">
@@ -20822,7 +20834,7 @@
       <c r="E158" s="163"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="195"/>
+      <c r="A159" s="210"/>
       <c r="B159" s="157"/>
       <c r="C159" s="157" t="s">
         <v>1881</v>
@@ -20833,7 +20845,7 @@
       <c r="E159" s="164"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="194"/>
+      <c r="A160" s="191"/>
       <c r="B160" s="157"/>
       <c r="C160" s="157" t="s">
         <v>2024</v>
@@ -21050,7 +21062,7 @@
       <c r="A175" s="153" t="s">
         <v>1987</v>
       </c>
-      <c r="B175" s="190" t="s">
+      <c r="B175" s="207" t="s">
         <v>1987</v>
       </c>
       <c r="C175" s="151" t="s">
@@ -21061,7 +21073,7 @@
       <c r="A176" s="153" t="s">
         <v>1989</v>
       </c>
-      <c r="B176" s="191"/>
+      <c r="B176" s="208"/>
       <c r="C176" s="151" t="s">
         <v>1998</v>
       </c>
@@ -21070,7 +21082,7 @@
       <c r="A177" s="153" t="s">
         <v>1990</v>
       </c>
-      <c r="B177" s="191"/>
+      <c r="B177" s="208"/>
       <c r="C177" s="151" t="s">
         <v>1999</v>
       </c>
@@ -21079,7 +21091,7 @@
       <c r="A178" s="153" t="s">
         <v>1991</v>
       </c>
-      <c r="B178" s="191"/>
+      <c r="B178" s="208"/>
       <c r="C178" s="151" t="s">
         <v>2000</v>
       </c>
@@ -21088,7 +21100,7 @@
       <c r="A179" s="153" t="s">
         <v>1992</v>
       </c>
-      <c r="B179" s="191"/>
+      <c r="B179" s="208"/>
       <c r="C179" s="151" t="s">
         <v>2001</v>
       </c>
@@ -21097,7 +21109,7 @@
       <c r="A180" s="153" t="s">
         <v>1993</v>
       </c>
-      <c r="B180" s="191"/>
+      <c r="B180" s="208"/>
       <c r="C180" s="151" t="s">
         <v>2002</v>
       </c>
@@ -21106,7 +21118,7 @@
       <c r="A181" s="153" t="s">
         <v>1994</v>
       </c>
-      <c r="B181" s="191"/>
+      <c r="B181" s="208"/>
       <c r="C181" s="151" t="s">
         <v>2003</v>
       </c>
@@ -21115,7 +21127,7 @@
       <c r="A182" s="153" t="s">
         <v>1995</v>
       </c>
-      <c r="B182" s="191"/>
+      <c r="B182" s="208"/>
       <c r="C182" s="151" t="s">
         <v>2004</v>
       </c>
@@ -21124,7 +21136,7 @@
       <c r="A183" s="153" t="s">
         <v>1996</v>
       </c>
-      <c r="B183" s="191"/>
+      <c r="B183" s="208"/>
       <c r="C183" s="151" t="s">
         <v>2005</v>
       </c>
@@ -21133,7 +21145,7 @@
       <c r="A184" s="153" t="s">
         <v>1997</v>
       </c>
-      <c r="B184" s="191"/>
+      <c r="B184" s="208"/>
       <c r="C184" s="151" t="s">
         <v>2006</v>
       </c>
@@ -21142,7 +21154,7 @@
       <c r="A185" s="153" t="s">
         <v>2232</v>
       </c>
-      <c r="B185" s="191"/>
+      <c r="B185" s="208"/>
       <c r="C185" s="151" t="s">
         <v>2227</v>
       </c>
@@ -21154,7 +21166,7 @@
       <c r="A186" s="153" t="s">
         <v>2233</v>
       </c>
-      <c r="B186" s="191"/>
+      <c r="B186" s="208"/>
       <c r="C186" s="151" t="s">
         <v>2228</v>
       </c>
@@ -21166,7 +21178,7 @@
       <c r="A187" s="153" t="s">
         <v>2234</v>
       </c>
-      <c r="B187" s="191"/>
+      <c r="B187" s="208"/>
       <c r="C187" s="151" t="s">
         <v>2229</v>
       </c>
@@ -21178,7 +21190,7 @@
       <c r="A188" s="153" t="s">
         <v>2235</v>
       </c>
-      <c r="B188" s="191"/>
+      <c r="B188" s="208"/>
       <c r="C188" s="151" t="s">
         <v>2230</v>
       </c>
@@ -21190,7 +21202,7 @@
       <c r="A189" s="153" t="s">
         <v>2236</v>
       </c>
-      <c r="B189" s="191"/>
+      <c r="B189" s="208"/>
       <c r="C189" s="151" t="s">
         <v>2231</v>
       </c>
@@ -21202,7 +21214,7 @@
       <c r="A190" s="153" t="s">
         <v>2237</v>
       </c>
-      <c r="B190" s="191"/>
+      <c r="B190" s="208"/>
       <c r="C190" s="151" t="s">
         <v>2240</v>
       </c>
@@ -21214,7 +21226,7 @@
       <c r="A191" s="153" t="s">
         <v>2238</v>
       </c>
-      <c r="B191" s="191"/>
+      <c r="B191" s="208"/>
       <c r="C191" s="151" t="s">
         <v>2241</v>
       </c>
@@ -21226,7 +21238,7 @@
       <c r="A192" s="153" t="s">
         <v>2239</v>
       </c>
-      <c r="B192" s="191"/>
+      <c r="B192" s="208"/>
       <c r="C192" s="151" t="s">
         <v>2242</v>
       </c>
@@ -21238,7 +21250,7 @@
       <c r="A193" s="153" t="s">
         <v>2246</v>
       </c>
-      <c r="B193" s="191"/>
+      <c r="B193" s="208"/>
       <c r="C193" s="151" t="s">
         <v>2249</v>
       </c>
@@ -21247,7 +21259,7 @@
       <c r="A194" s="153" t="s">
         <v>2247</v>
       </c>
-      <c r="B194" s="191"/>
+      <c r="B194" s="208"/>
       <c r="C194" s="151" t="s">
         <v>2250</v>
       </c>
@@ -21256,7 +21268,7 @@
       <c r="A195" s="153" t="s">
         <v>2248</v>
       </c>
-      <c r="B195" s="191"/>
+      <c r="B195" s="208"/>
       <c r="C195" s="151" t="s">
         <v>2251</v>
       </c>
@@ -21265,7 +21277,7 @@
       <c r="A196" s="153" t="s">
         <v>2252</v>
       </c>
-      <c r="B196" s="191"/>
+      <c r="B196" s="208"/>
       <c r="C196" s="151" t="s">
         <v>2253</v>
       </c>
@@ -21274,7 +21286,7 @@
       <c r="A197" s="153" t="s">
         <v>2254</v>
       </c>
-      <c r="B197" s="191"/>
+      <c r="B197" s="208"/>
       <c r="C197" s="151" t="s">
         <v>2259</v>
       </c>
@@ -21283,7 +21295,7 @@
       <c r="A198" s="153" t="s">
         <v>2255</v>
       </c>
-      <c r="B198" s="191"/>
+      <c r="B198" s="208"/>
       <c r="C198" s="151" t="s">
         <v>2260</v>
       </c>
@@ -21292,7 +21304,7 @@
       <c r="A199" s="153" t="s">
         <v>2256</v>
       </c>
-      <c r="B199" s="191"/>
+      <c r="B199" s="208"/>
       <c r="C199" s="151" t="s">
         <v>2261</v>
       </c>
@@ -21301,7 +21313,7 @@
       <c r="A200" s="153" t="s">
         <v>2257</v>
       </c>
-      <c r="B200" s="191"/>
+      <c r="B200" s="208"/>
       <c r="C200" s="151" t="s">
         <v>2262</v>
       </c>
@@ -21310,7 +21322,7 @@
       <c r="A201" s="153" t="s">
         <v>2258</v>
       </c>
-      <c r="B201" s="191"/>
+      <c r="B201" s="208"/>
       <c r="C201" s="151" t="s">
         <v>2264</v>
       </c>
@@ -21319,7 +21331,7 @@
       <c r="A202" s="153" t="s">
         <v>2268</v>
       </c>
-      <c r="B202" s="191"/>
+      <c r="B202" s="208"/>
       <c r="C202" s="151" t="s">
         <v>2269</v>
       </c>
@@ -21328,7 +21340,7 @@
       <c r="A203" s="153" t="s">
         <v>2272</v>
       </c>
-      <c r="B203" s="191"/>
+      <c r="B203" s="208"/>
       <c r="C203" s="151" t="s">
         <v>2273</v>
       </c>
@@ -21337,13 +21349,13 @@
       <c r="A204" s="153" t="s">
         <v>2265</v>
       </c>
-      <c r="B204" s="191"/>
+      <c r="B204" s="208"/>
       <c r="C204" s="151" t="s">
         <v>2266</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="198">
-      <c r="B205" s="191"/>
+      <c r="B205" s="208"/>
       <c r="C205" s="151" t="s">
         <v>2263</v>
       </c>
@@ -21352,7 +21364,7 @@
       <c r="A206" s="153" t="s">
         <v>2267</v>
       </c>
-      <c r="B206" s="191"/>
+      <c r="B206" s="208"/>
       <c r="C206" s="151" t="s">
         <v>2270</v>
       </c>
@@ -21361,13 +21373,13 @@
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="B207" s="191"/>
+      <c r="B207" s="208"/>
       <c r="C207" s="151" t="s">
         <v>2274</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="B208" s="192"/>
+      <c r="B208" s="209"/>
     </row>
     <row r="209" spans="1:4" ht="33">
       <c r="A209" s="153" t="s">
@@ -21468,7 +21480,7 @@
       <c r="A216" s="153" t="s">
         <v>2066</v>
       </c>
-      <c r="B216" s="190" t="s">
+      <c r="B216" s="207" t="s">
         <v>2048</v>
       </c>
       <c r="C216" s="151" t="s">
@@ -21479,7 +21491,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="33">
-      <c r="B217" s="191"/>
+      <c r="B217" s="208"/>
       <c r="C217" s="151" t="s">
         <v>2068</v>
       </c>
@@ -21501,7 +21513,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="33">
+    <row r="219" spans="1:4">
       <c r="A219" s="153" t="s">
         <v>2077</v>
       </c>
@@ -21736,7 +21748,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="33">
+    <row r="236" spans="1:4">
       <c r="A236" s="153" t="s">
         <v>2135</v>
       </c>
@@ -21985,6 +21997,33 @@
   </sheetData>
   <autoFilter ref="A1:D166"/>
   <mergeCells count="43">
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A74"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="B175:B208"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="E61:E74"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E44:E54"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="E154:E155"/>
     <mergeCell ref="E156:E157"/>
@@ -22001,33 +22040,6 @@
     <mergeCell ref="E6:E30"/>
     <mergeCell ref="E34:E38"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E44:E54"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="E61:E74"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="B175:B208"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B136:B143"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A74"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A103:A109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22036,10 +22048,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E592"/>
+  <dimension ref="A1:E594"/>
   <sheetViews>
-    <sheetView topLeftCell="A576" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B589" sqref="B589:B592"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22085,10 +22097,10 @@
     </row>
     <row r="5" spans="1:4" ht="68.25" customHeight="1">
       <c r="A5" s="50"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="219" t="s">
         <v>1383</v>
       </c>
-      <c r="C5" s="216"/>
+      <c r="C5" s="219"/>
       <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" ht="66">
@@ -22200,20 +22212,20 @@
       <c r="A16" s="132" t="s">
         <v>1444</v>
       </c>
-      <c r="B16" s="217" t="s">
+      <c r="B16" s="220" t="s">
         <v>1445</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="1:4" ht="87.75" customHeight="1">
       <c r="A17" s="132" t="s">
         <v>1446</v>
       </c>
-      <c r="B17" s="217" t="s">
+      <c r="B17" s="220" t="s">
         <v>1447</v>
       </c>
-      <c r="C17" s="217"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:4">
@@ -22295,7 +22307,7 @@
       <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="218" t="s">
+      <c r="A28" s="216" t="s">
         <v>1213</v>
       </c>
       <c r="B28" s="106" t="s">
@@ -22304,33 +22316,33 @@
       <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="218"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="106"/>
       <c r="D29" s="96"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="218"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="13" t="s">
         <v>1215</v>
       </c>
       <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="218"/>
+      <c r="A31" s="216"/>
       <c r="B31" s="77" t="s">
         <v>1216</v>
       </c>
       <c r="D31" s="96"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="218"/>
+      <c r="A32" s="216"/>
       <c r="B32" s="13" t="s">
         <v>1217</v>
       </c>
       <c r="D32" s="96"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="218"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="106"/>
       <c r="D33" s="96"/>
     </row>
@@ -22353,7 +22365,7 @@
       <c r="D35" s="96"/>
     </row>
     <row r="36" spans="1:4" ht="49.5">
-      <c r="A36" s="218" t="s">
+      <c r="A36" s="216" t="s">
         <v>1222</v>
       </c>
       <c r="B36" s="106" t="s">
@@ -22362,33 +22374,33 @@
       <c r="D36" s="96"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="218"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="106"/>
       <c r="D37" s="96"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="218"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="D38" s="96"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="218"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="13" t="s">
         <v>1225</v>
       </c>
       <c r="D39" s="96"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="218"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="13" t="s">
         <v>1226</v>
       </c>
       <c r="D40" s="96"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="218"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="106"/>
       <c r="D41" s="96"/>
     </row>
@@ -22418,7 +22430,7 @@
       <c r="D44" s="96"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="218" t="s">
+      <c r="A45" s="216" t="s">
         <v>1232</v>
       </c>
       <c r="B45" s="106" t="s">
@@ -22427,31 +22439,31 @@
       <c r="D45" s="96"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="218"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="106"/>
       <c r="D46" s="96"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="218"/>
+      <c r="A47" s="216"/>
       <c r="B47" s="13" t="s">
         <v>1234</v>
       </c>
       <c r="D47" s="96"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="218"/>
+      <c r="A48" s="216"/>
       <c r="B48" s="77" t="s">
         <v>1235</v>
       </c>
       <c r="D48" s="96"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="218"/>
+      <c r="A49" s="216"/>
       <c r="B49" s="106"/>
       <c r="D49" s="96"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="218" t="s">
+      <c r="A50" s="216" t="s">
         <v>1236</v>
       </c>
       <c r="B50" s="106" t="s">
@@ -22460,45 +22472,45 @@
       <c r="D50" s="96"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="218"/>
+      <c r="A51" s="216"/>
       <c r="B51" s="106"/>
       <c r="D51" s="96"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="218"/>
+      <c r="A52" s="216"/>
       <c r="B52" s="13" t="s">
         <v>1238</v>
       </c>
       <c r="D52" s="96"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="218"/>
+      <c r="A53" s="216"/>
       <c r="B53" s="78" t="s">
         <v>1239</v>
       </c>
       <c r="D53" s="96"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="218"/>
+      <c r="A54" s="216"/>
       <c r="B54" s="79" t="s">
         <v>1240</v>
       </c>
       <c r="D54" s="96"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="218"/>
+      <c r="A55" s="216"/>
       <c r="B55" s="78" t="s">
         <v>1241</v>
       </c>
       <c r="D55" s="96"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="218"/>
+      <c r="A56" s="216"/>
       <c r="B56" s="106"/>
       <c r="D56" s="96"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="218" t="s">
+      <c r="A57" s="216" t="s">
         <v>1242</v>
       </c>
       <c r="B57" s="106" t="s">
@@ -22507,24 +22519,24 @@
       <c r="D57" s="96"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="218"/>
+      <c r="A58" s="216"/>
       <c r="B58" s="106"/>
       <c r="D58" s="96"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="218"/>
+      <c r="A59" s="216"/>
       <c r="B59" s="13" t="s">
         <v>1244</v>
       </c>
       <c r="D59" s="96"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="218"/>
+      <c r="A60" s="216"/>
       <c r="B60" s="106"/>
       <c r="D60" s="96"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="218"/>
+      <c r="A61" s="216"/>
       <c r="B61" s="106"/>
       <c r="D61" s="96"/>
     </row>
@@ -22610,7 +22622,7 @@
       <c r="D71" s="96"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="218" t="s">
+      <c r="A72" s="216" t="s">
         <v>1393</v>
       </c>
       <c r="B72" s="106" t="s">
@@ -22619,24 +22631,24 @@
       <c r="D72" s="96"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="218"/>
+      <c r="A73" s="216"/>
       <c r="B73" s="106"/>
       <c r="D73" s="96"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="218"/>
+      <c r="A74" s="216"/>
       <c r="B74" s="13" t="s">
         <v>1259</v>
       </c>
       <c r="D74" s="96"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="218"/>
+      <c r="A75" s="216"/>
       <c r="B75" s="106"/>
       <c r="D75" s="96"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="218" t="s">
+      <c r="A76" s="216" t="s">
         <v>1395</v>
       </c>
       <c r="B76" s="106" t="s">
@@ -22645,31 +22657,31 @@
       <c r="D76" s="96"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="218"/>
+      <c r="A77" s="216"/>
       <c r="B77" s="106"/>
       <c r="D77" s="96"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="218"/>
+      <c r="A78" s="216"/>
       <c r="B78" s="77" t="s">
         <v>1260</v>
       </c>
       <c r="D78" s="96"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="218"/>
+      <c r="A79" s="216"/>
       <c r="B79" s="80" t="s">
         <v>1261</v>
       </c>
       <c r="D79" s="96"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="218"/>
+      <c r="A80" s="216"/>
       <c r="B80" s="106"/>
       <c r="D80" s="96"/>
     </row>
     <row r="81" spans="1:4" ht="33">
-      <c r="A81" s="218" t="s">
+      <c r="A81" s="216" t="s">
         <v>1397</v>
       </c>
       <c r="B81" s="106" t="s">
@@ -22678,68 +22690,68 @@
       <c r="D81" s="96"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="218"/>
+      <c r="A82" s="216"/>
       <c r="B82" s="106"/>
       <c r="D82" s="96"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="218"/>
+      <c r="A83" s="216"/>
       <c r="B83" s="106" t="s">
         <v>1576</v>
       </c>
       <c r="D83" s="96"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="218"/>
+      <c r="A84" s="216"/>
       <c r="B84" s="81" t="s">
         <v>1262</v>
       </c>
       <c r="D84" s="96"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="218"/>
+      <c r="A85" s="216"/>
       <c r="B85" s="77" t="s">
         <v>1263</v>
       </c>
       <c r="D85" s="96"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="218"/>
+      <c r="A86" s="216"/>
       <c r="B86" s="77" t="s">
         <v>1264</v>
       </c>
       <c r="D86" s="96"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="218"/>
+      <c r="A87" s="216"/>
       <c r="B87" s="77" t="s">
         <v>1265</v>
       </c>
       <c r="D87" s="96"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="218"/>
+      <c r="A88" s="216"/>
       <c r="B88" s="77" t="s">
         <v>1266</v>
       </c>
       <c r="D88" s="96"/>
     </row>
     <row r="89" spans="1:4" ht="33">
-      <c r="A89" s="218"/>
+      <c r="A89" s="216"/>
       <c r="B89" s="106" t="s">
         <v>1574</v>
       </c>
       <c r="D89" s="96"/>
     </row>
     <row r="90" spans="1:4" ht="49.5">
-      <c r="A90" s="218"/>
+      <c r="A90" s="216"/>
       <c r="B90" s="106" t="s">
         <v>1575</v>
       </c>
       <c r="D90" s="96"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="218" t="s">
+      <c r="A91" s="216" t="s">
         <v>1399</v>
       </c>
       <c r="B91" s="106" t="s">
@@ -22748,40 +22760,40 @@
       <c r="D91" s="96"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="218"/>
+      <c r="A92" s="216"/>
       <c r="B92" s="106"/>
       <c r="D92" s="96"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="218"/>
+      <c r="A93" s="216"/>
       <c r="B93" s="13" t="s">
         <v>1267</v>
       </c>
       <c r="D93" s="96"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="218"/>
+      <c r="A94" s="216"/>
       <c r="B94" s="13" t="s">
         <v>1268</v>
       </c>
       <c r="D94" s="96"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="218"/>
+      <c r="A95" s="216"/>
       <c r="B95" s="77" t="s">
         <v>1269</v>
       </c>
       <c r="D95" s="96"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="218"/>
+      <c r="A96" s="216"/>
       <c r="B96" s="106" t="s">
         <v>1573</v>
       </c>
       <c r="D96" s="96"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="218" t="s">
+      <c r="A97" s="216" t="s">
         <v>1401</v>
       </c>
       <c r="B97" s="106" t="s">
@@ -22790,31 +22802,31 @@
       <c r="D97" s="96"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="218"/>
+      <c r="A98" s="216"/>
       <c r="B98" s="106"/>
       <c r="D98" s="96"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="218"/>
+      <c r="A99" s="216"/>
       <c r="B99" s="77" t="s">
         <v>1270</v>
       </c>
       <c r="D99" s="96"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="218"/>
+      <c r="A100" s="216"/>
       <c r="B100" s="80" t="s">
         <v>1271</v>
       </c>
       <c r="D100" s="96"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="218"/>
+      <c r="A101" s="216"/>
       <c r="B101" s="106"/>
       <c r="D101" s="96"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="218" t="s">
+      <c r="A102" s="216" t="s">
         <v>1403</v>
       </c>
       <c r="B102" s="106" t="s">
@@ -22823,26 +22835,26 @@
       <c r="D102" s="96"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="218"/>
+      <c r="A103" s="216"/>
       <c r="B103" s="106"/>
       <c r="D103" s="96"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="218"/>
+      <c r="A104" s="216"/>
       <c r="B104" s="77" t="s">
         <v>1272</v>
       </c>
       <c r="D104" s="96"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="218"/>
+      <c r="A105" s="216"/>
       <c r="B105" s="80" t="s">
         <v>1273</v>
       </c>
       <c r="D105" s="96"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="218"/>
+      <c r="A106" s="216"/>
       <c r="B106" s="106"/>
       <c r="D106" s="96"/>
     </row>
@@ -22854,7 +22866,7 @@
       <c r="D107" s="96"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="218" t="s">
+      <c r="A108" s="216" t="s">
         <v>1274</v>
       </c>
       <c r="B108" s="106" t="s">
@@ -22863,55 +22875,55 @@
       <c r="D108" s="96"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="218"/>
+      <c r="A109" s="216"/>
       <c r="B109" s="106"/>
       <c r="D109" s="96"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="218"/>
+      <c r="A110" s="216"/>
       <c r="B110" s="106"/>
       <c r="D110" s="96"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="218"/>
+      <c r="A111" s="216"/>
       <c r="B111" s="13" t="s">
         <v>1275</v>
       </c>
       <c r="D111" s="96"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="218"/>
+      <c r="A112" s="216"/>
       <c r="B112" s="82" t="s">
         <v>1276</v>
       </c>
       <c r="D112" s="96"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="218"/>
+      <c r="A113" s="216"/>
       <c r="B113" s="13" t="s">
         <v>1277</v>
       </c>
       <c r="D113" s="96"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="218"/>
+      <c r="A114" s="216"/>
       <c r="B114" s="82" t="s">
         <v>1278</v>
       </c>
       <c r="D114" s="96"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="218"/>
+      <c r="A115" s="216"/>
       <c r="B115" s="106"/>
       <c r="D115" s="96"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="218"/>
+      <c r="A116" s="216"/>
       <c r="B116" s="106"/>
       <c r="D116" s="96"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="220" t="s">
+      <c r="A117" s="218" t="s">
         <v>1279</v>
       </c>
       <c r="B117" s="106" t="s">
@@ -22920,33 +22932,33 @@
       <c r="D117" s="96"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="220"/>
+      <c r="A118" s="218"/>
       <c r="B118" s="106"/>
       <c r="D118" s="96"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="220"/>
+      <c r="A119" s="218"/>
       <c r="B119" s="13" t="s">
         <v>1280</v>
       </c>
       <c r="D119" s="96"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="220"/>
+      <c r="A120" s="218"/>
       <c r="B120" s="77" t="s">
         <v>1281</v>
       </c>
       <c r="D120" s="96"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="220"/>
+      <c r="A121" s="218"/>
       <c r="B121" s="82" t="s">
         <v>1282</v>
       </c>
       <c r="D121" s="96"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="220"/>
+      <c r="A122" s="218"/>
       <c r="B122" s="106"/>
       <c r="D122" s="96"/>
     </row>
@@ -24252,7 +24264,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="115"/>
-      <c r="B278" s="219" t="s">
+      <c r="B278" s="217" t="s">
         <v>720</v>
       </c>
       <c r="C278" s="106" t="s">
@@ -24262,7 +24274,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="115"/>
-      <c r="B279" s="219"/>
+      <c r="B279" s="217"/>
       <c r="C279" s="106" t="s">
         <v>722</v>
       </c>
@@ -24270,7 +24282,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="115"/>
-      <c r="B280" s="219"/>
+      <c r="B280" s="217"/>
       <c r="C280" s="106" t="s">
         <v>723</v>
       </c>
@@ -24278,7 +24290,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="115"/>
-      <c r="B281" s="219"/>
+      <c r="B281" s="217"/>
       <c r="C281" s="106" t="s">
         <v>724</v>
       </c>
@@ -24286,7 +24298,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="115"/>
-      <c r="B282" s="219"/>
+      <c r="B282" s="217"/>
       <c r="C282" s="116" t="s">
         <v>725</v>
       </c>
@@ -24294,7 +24306,7 @@
     </row>
     <row r="283" spans="1:4" ht="66">
       <c r="A283" s="115"/>
-      <c r="B283" s="219"/>
+      <c r="B283" s="217"/>
       <c r="C283" s="106" t="s">
         <v>1625</v>
       </c>
@@ -24304,7 +24316,7 @@
     </row>
     <row r="284" spans="1:4" ht="49.5">
       <c r="A284" s="115"/>
-      <c r="B284" s="219"/>
+      <c r="B284" s="217"/>
       <c r="C284" s="106" t="s">
         <v>1622</v>
       </c>
@@ -24314,7 +24326,7 @@
     </row>
     <row r="285" spans="1:4" ht="33">
       <c r="A285" s="115"/>
-      <c r="B285" s="219"/>
+      <c r="B285" s="217"/>
       <c r="C285" s="106" t="s">
         <v>726</v>
       </c>
@@ -25503,1118 +25515,1118 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="33">
+    <row r="433" spans="1:4">
       <c r="A433" s="112" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B433" s="92" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="112" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B434" s="92" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="33">
+      <c r="A435" s="112" t="s">
         <v>1388</v>
       </c>
-      <c r="B433" s="92" t="s">
+      <c r="B435" s="92" t="s">
         <v>1389</v>
       </c>
-      <c r="C433" s="95" t="s">
+      <c r="C435" s="95" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="129" t="s">
+    <row r="436" spans="1:4">
+      <c r="A436" s="129" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="115.5">
-      <c r="A435" s="112" t="s">
+    <row r="437" spans="1:4" ht="115.5">
+      <c r="A437" s="112" t="s">
         <v>1310</v>
       </c>
-      <c r="B435" s="92" t="s">
+      <c r="B437" s="92" t="s">
         <v>1312</v>
       </c>
-      <c r="C435" s="92" t="s">
+      <c r="C437" s="92" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="115.5">
-      <c r="A436" s="112" t="s">
+    <row r="438" spans="1:4" ht="115.5">
+      <c r="A438" s="112" t="s">
         <v>1313</v>
       </c>
-      <c r="B436" s="92" t="s">
+      <c r="B438" s="92" t="s">
         <v>1315</v>
       </c>
-      <c r="C436" s="92" t="s">
+      <c r="C438" s="92" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="438" spans="1:4">
-      <c r="A438" s="102" t="s">
+    <row r="439" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="440" spans="1:4">
+      <c r="A440" s="102" t="s">
         <v>1316</v>
       </c>
-      <c r="B438" s="103"/>
-      <c r="C438" s="104"/>
-      <c r="D438" s="94"/>
-    </row>
-    <row r="439" spans="1:4" ht="82.5">
-      <c r="A439" s="122" t="s">
+      <c r="B440" s="103"/>
+      <c r="C440" s="104"/>
+      <c r="D440" s="94"/>
+    </row>
+    <row r="441" spans="1:4" ht="82.5">
+      <c r="A441" s="122" t="s">
         <v>1317</v>
       </c>
-      <c r="C439" s="92" t="s">
+      <c r="C441" s="92" t="s">
         <v>1318</v>
-      </c>
-      <c r="D439" s="96"/>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="122" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B440" s="92" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C440" s="92"/>
-      <c r="D440" s="96"/>
-    </row>
-    <row r="441" spans="1:4" ht="49.5">
-      <c r="A441" s="122" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B441" s="92" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C441" s="92" t="s">
-        <v>1323</v>
       </c>
       <c r="D441" s="96"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="122" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B442" s="92" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C442" s="92"/>
+      <c r="D442" s="96"/>
+    </row>
+    <row r="443" spans="1:4" ht="49.5">
+      <c r="A443" s="122" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B443" s="92" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C443" s="92" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D443" s="96"/>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="122" t="s">
         <v>1321</v>
       </c>
-      <c r="B442" s="92" t="s">
+      <c r="B444" s="92" t="s">
         <v>1322</v>
       </c>
-      <c r="C442" s="95" t="s">
+      <c r="C444" s="95" t="s">
         <v>1324</v>
       </c>
-      <c r="D442" s="96"/>
-    </row>
-    <row r="443" spans="1:4" ht="148.5">
-      <c r="A443" s="97" t="s">
+      <c r="D444" s="96"/>
+    </row>
+    <row r="445" spans="1:4" ht="148.5">
+      <c r="A445" s="97" t="s">
         <v>1327</v>
       </c>
-      <c r="B443" s="92" t="s">
+      <c r="B445" s="92" t="s">
         <v>1332</v>
       </c>
-      <c r="C443" s="92" t="s">
+      <c r="C445" s="92" t="s">
         <v>1325</v>
       </c>
-      <c r="D443" s="96"/>
-    </row>
-    <row r="444" spans="1:4" ht="148.5">
-      <c r="A444" s="97" t="s">
+      <c r="D445" s="96"/>
+    </row>
+    <row r="446" spans="1:4" ht="148.5">
+      <c r="A446" s="97" t="s">
         <v>1328</v>
       </c>
-      <c r="B444" s="92" t="s">
+      <c r="B446" s="92" t="s">
         <v>1333</v>
       </c>
-      <c r="C444" s="92" t="s">
+      <c r="C446" s="92" t="s">
         <v>1326</v>
       </c>
-      <c r="D444" s="96"/>
-    </row>
-    <row r="445" spans="1:4" ht="66">
-      <c r="A445" s="122" t="s">
+      <c r="D446" s="96"/>
+    </row>
+    <row r="447" spans="1:4" ht="66">
+      <c r="A447" s="122" t="s">
         <v>1330</v>
       </c>
-      <c r="B445" s="92" t="s">
+      <c r="B447" s="92" t="s">
         <v>1329</v>
       </c>
-      <c r="C445" s="95" t="s">
+      <c r="C447" s="95" t="s">
         <v>1331</v>
       </c>
-      <c r="D445" s="96"/>
-    </row>
-    <row r="446" spans="1:4" ht="66">
-      <c r="A446" s="139" t="s">
+      <c r="D447" s="96"/>
+    </row>
+    <row r="448" spans="1:4" ht="66">
+      <c r="A448" s="139" t="s">
         <v>500</v>
       </c>
-      <c r="B446" s="92" t="s">
+      <c r="B448" s="92" t="s">
         <v>1524</v>
       </c>
-      <c r="C446" s="95" t="s">
+      <c r="C448" s="95" t="s">
         <v>1515</v>
       </c>
-      <c r="D446" s="96"/>
-    </row>
-    <row r="447" spans="1:4" ht="33">
-      <c r="A447" s="122" t="s">
+      <c r="D448" s="96"/>
+    </row>
+    <row r="449" spans="1:4" ht="33">
+      <c r="A449" s="122" t="s">
         <v>1525</v>
       </c>
-      <c r="B447" s="92" t="s">
+      <c r="B449" s="92" t="s">
         <v>1517</v>
       </c>
-      <c r="C447" s="95" t="s">
+      <c r="C449" s="95" t="s">
         <v>1516</v>
-      </c>
-      <c r="D447" s="96"/>
-    </row>
-    <row r="448" spans="1:4" ht="82.5">
-      <c r="A448" s="122"/>
-      <c r="B448" s="92" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C448" s="95" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D448" s="96"/>
-    </row>
-    <row r="449" spans="1:4" ht="82.5">
-      <c r="A449" s="122"/>
-      <c r="B449" s="92" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C449" s="95" t="s">
-        <v>1521</v>
       </c>
       <c r="D449" s="96"/>
     </row>
     <row r="450" spans="1:4" ht="82.5">
       <c r="A450" s="122"/>
       <c r="B450" s="92" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C450" s="95" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D450" s="96"/>
+    </row>
+    <row r="451" spans="1:4" ht="82.5">
+      <c r="A451" s="122"/>
+      <c r="B451" s="92" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C451" s="95" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D451" s="96"/>
+    </row>
+    <row r="452" spans="1:4" ht="82.5">
+      <c r="A452" s="122"/>
+      <c r="B452" s="92" t="s">
         <v>1522</v>
       </c>
-      <c r="C450" s="95" t="s">
+      <c r="C452" s="95" t="s">
         <v>1523</v>
       </c>
-      <c r="D450" s="96"/>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="122"/>
-      <c r="C451" s="95"/>
-      <c r="D451" s="96"/>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="122"/>
-      <c r="C452" s="95"/>
       <c r="D452" s="96"/>
     </row>
-    <row r="453" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A453" s="111"/>
-      <c r="B453" s="99"/>
-      <c r="C453" s="100"/>
-      <c r="D453" s="101"/>
-    </row>
-    <row r="454" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="455" spans="1:4" s="104" customFormat="1" ht="82.5">
-      <c r="A455" s="102" t="s">
+    <row r="453" spans="1:4">
+      <c r="A453" s="122"/>
+      <c r="C453" s="95"/>
+      <c r="D453" s="96"/>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="122"/>
+      <c r="C454" s="95"/>
+      <c r="D454" s="96"/>
+    </row>
+    <row r="455" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A455" s="111"/>
+      <c r="B455" s="99"/>
+      <c r="C455" s="100"/>
+      <c r="D455" s="101"/>
+    </row>
+    <row r="456" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="457" spans="1:4" s="104" customFormat="1" ht="82.5">
+      <c r="A457" s="102" t="s">
         <v>1334</v>
       </c>
-      <c r="B455" s="103" t="s">
+      <c r="B457" s="103" t="s">
         <v>1335</v>
       </c>
-      <c r="C455" s="130" t="s">
+      <c r="C457" s="130" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="115.5">
-      <c r="A456" s="110"/>
-      <c r="B456" s="92" t="s">
+    <row r="458" spans="1:4" ht="115.5">
+      <c r="A458" s="110"/>
+      <c r="B458" s="92" t="s">
         <v>1337</v>
       </c>
-      <c r="C456" s="92" t="s">
+      <c r="C458" s="92" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="132">
-      <c r="A457" s="110"/>
-      <c r="B457" s="92" t="s">
+    <row r="459" spans="1:4" ht="132">
+      <c r="A459" s="110"/>
+      <c r="B459" s="92" t="s">
         <v>1339</v>
       </c>
-      <c r="C457" s="92" t="s">
+      <c r="C459" s="92" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="214.5">
-      <c r="A458" s="110"/>
-      <c r="B458" s="91" t="s">
+    <row r="460" spans="1:4" ht="214.5">
+      <c r="A460" s="110"/>
+      <c r="B460" s="91" t="s">
         <v>1341</v>
       </c>
-      <c r="C458" s="92" t="s">
+      <c r="C460" s="92" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="459" spans="1:4" s="100" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A459" s="111"/>
-      <c r="B459" s="99"/>
-    </row>
-    <row r="460" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="461" spans="1:4" ht="33">
-      <c r="A461" s="131" t="s">
+    <row r="461" spans="1:4" s="100" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A461" s="111"/>
+      <c r="B461" s="99"/>
+    </row>
+    <row r="462" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="463" spans="1:4" ht="33">
+      <c r="A463" s="131" t="s">
         <v>1345</v>
       </c>
-      <c r="B461" s="103" t="s">
+      <c r="B463" s="103" t="s">
         <v>1346</v>
       </c>
-      <c r="C461" s="104"/>
-      <c r="D461" s="94"/>
-    </row>
-    <row r="462" spans="1:4" ht="82.5">
-      <c r="A462" s="110" t="s">
+      <c r="C463" s="104"/>
+      <c r="D463" s="94"/>
+    </row>
+    <row r="464" spans="1:4" ht="82.5">
+      <c r="A464" s="110" t="s">
         <v>1350</v>
       </c>
-      <c r="B462" s="92" t="s">
+      <c r="B464" s="92" t="s">
         <v>1347</v>
       </c>
-      <c r="C462" s="92" t="s">
+      <c r="C464" s="92" t="s">
         <v>1348</v>
       </c>
-      <c r="D462" s="96"/>
-    </row>
-    <row r="463" spans="1:4" ht="49.5">
-      <c r="A463" s="110" t="s">
+      <c r="D464" s="96"/>
+    </row>
+    <row r="465" spans="1:4" ht="49.5">
+      <c r="A465" s="110" t="s">
         <v>1349</v>
       </c>
-      <c r="B463" s="92" t="s">
+      <c r="B465" s="92" t="s">
         <v>1351</v>
       </c>
-      <c r="C463" s="91" t="s">
+      <c r="C465" s="91" t="s">
         <v>1352</v>
       </c>
-      <c r="D463" s="96"/>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="110"/>
-      <c r="B464" s="92" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C464" s="91" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D464" s="96"/>
-    </row>
-    <row r="465" spans="1:4" ht="132">
-      <c r="A465" s="110"/>
-      <c r="B465" s="92" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C465" s="92" t="s">
-        <v>1356</v>
-      </c>
       <c r="D465" s="96"/>
     </row>
-    <row r="466" spans="1:4" ht="33">
+    <row r="466" spans="1:4">
       <c r="A466" s="110"/>
       <c r="B466" s="92" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C466" s="91" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D466" s="96"/>
+    </row>
+    <row r="467" spans="1:4" ht="132">
+      <c r="A467" s="110"/>
+      <c r="B467" s="92" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C467" s="92" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D467" s="96"/>
+    </row>
+    <row r="468" spans="1:4" ht="33">
+      <c r="A468" s="110"/>
+      <c r="B468" s="92" t="s">
         <v>1357</v>
       </c>
-      <c r="D466" s="96"/>
-    </row>
-    <row r="467" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A467" s="111"/>
-      <c r="B467" s="99"/>
-      <c r="C467" s="100"/>
-      <c r="D467" s="101"/>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="91" t="s">
+      <c r="D468" s="96"/>
+    </row>
+    <row r="469" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A469" s="111"/>
+      <c r="B469" s="99"/>
+      <c r="C469" s="100"/>
+      <c r="D469" s="101"/>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B469" s="92" t="s">
+      <c r="B471" s="92" t="s">
         <v>1377</v>
       </c>
-      <c r="C469" s="91" t="s">
+      <c r="C471" s="91" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="330">
-      <c r="A470" s="91" t="s">
+    <row r="472" spans="1:4" ht="330">
+      <c r="A472" s="91" t="s">
         <v>1380</v>
       </c>
-      <c r="B470" s="92" t="s">
+      <c r="B472" s="92" t="s">
         <v>1379</v>
       </c>
-      <c r="C470" s="92" t="s">
+      <c r="C472" s="92" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="91" t="s">
+    <row r="474" spans="1:4">
+      <c r="A474" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B472" s="92" t="s">
+      <c r="B474" s="92" t="s">
         <v>1538</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="141" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="141" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="141" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="141" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="141" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="141" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="141" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="141" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="141" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="141" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="141" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="141" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="141" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="115.5">
-      <c r="A485" s="149" t="s">
+    <row r="487" spans="1:3" ht="115.5">
+      <c r="A487" s="149" t="s">
         <v>1628</v>
       </c>
-      <c r="B485" s="92" t="s">
+      <c r="B487" s="92" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="91" t="s">
+    <row r="488" spans="1:3">
+      <c r="A488" s="91" t="s">
         <v>1630</v>
       </c>
-      <c r="B486" s="92" t="s">
+      <c r="B488" s="92" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
-      <c r="A487" s="127" t="s">
+    <row r="489" spans="1:3">
+      <c r="A489" s="127" t="s">
         <v>1633</v>
       </c>
-      <c r="B487" s="92" t="s">
+      <c r="B489" s="92" t="s">
         <v>1654</v>
       </c>
-      <c r="C487" s="91" t="s">
+      <c r="C489" s="91" t="s">
         <v>1633</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" s="127" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B488" s="92" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C488" s="91" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="A489" s="91" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B489" s="92" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C489" s="91" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="127" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B490" s="92" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C490" s="91" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="91" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B491" s="92" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C491" s="91" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="127" t="s">
         <v>1638</v>
       </c>
-      <c r="B490" s="92" t="s">
+      <c r="B492" s="92" t="s">
         <v>1639</v>
       </c>
-      <c r="C490" s="91" t="s">
+      <c r="C492" s="91" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="33">
-      <c r="A491" s="146" t="s">
+    <row r="493" spans="1:3" ht="33">
+      <c r="A493" s="146" t="s">
         <v>1634</v>
       </c>
-      <c r="B491" s="92" t="s">
+      <c r="B493" s="92" t="s">
         <v>1670</v>
       </c>
-      <c r="C491" s="91" t="s">
+      <c r="C493" s="91" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
-      <c r="A492" s="146" t="s">
+    <row r="494" spans="1:3">
+      <c r="A494" s="146" t="s">
         <v>1725</v>
       </c>
-      <c r="B492" s="92" t="s">
+      <c r="B494" s="92" t="s">
         <v>1726</v>
       </c>
-      <c r="C492" s="91" t="s">
+      <c r="C494" s="91" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
-      <c r="A493" s="146" t="s">
+    <row r="495" spans="1:3">
+      <c r="A495" s="146" t="s">
         <v>1656</v>
       </c>
-      <c r="B493" s="92" t="s">
+      <c r="B495" s="92" t="s">
         <v>1691</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="B494" s="92" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C494" s="91" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="B495" s="92" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C495" s="91" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="B496" s="92" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C496" s="91" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="B497" s="92" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C497" s="91" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="B498" s="92" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C498" s="91" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="B499" s="92" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C499" s="91" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="B500" s="92" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C500" s="91" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="B501" s="92" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C501" s="91" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="B502" s="92" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C502" s="91" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="B503" s="92" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C503" s="91" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="B504" s="92" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C504" s="91" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="B505" s="92" t="s">
         <v>1669</v>
       </c>
-      <c r="C503" s="91" t="s">
+      <c r="C505" s="91" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
-      <c r="A504" s="146" t="s">
+    <row r="506" spans="1:3">
+      <c r="A506" s="146" t="s">
         <v>1672</v>
       </c>
-      <c r="B504" s="92" t="s">
+      <c r="B506" s="92" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
-      <c r="A505" s="146"/>
-      <c r="B505" s="92" t="s">
+    <row r="507" spans="1:3">
+      <c r="A507" s="146"/>
+      <c r="B507" s="92" t="s">
         <v>1679</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="B506" s="92" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C506" s="91" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="B507" s="92" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C507" s="91" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="B508" s="92" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C508" s="91" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="B509" s="92" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C509" s="91" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="B510" s="92" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C510" s="91" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="B511" s="92" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C511" s="91" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="B512" s="92" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C512" s="91" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="B513" s="92" t="s">
         <v>1680</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="B512" s="148" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" ht="33">
-      <c r="B513" s="92" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="B514" s="148" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="B515" s="148" t="s">
-        <v>1684</v>
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="33">
+      <c r="B515" s="92" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="B516" s="148" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C516" s="147"/>
+        <v>1683</v>
+      </c>
     </row>
     <row r="517" spans="1:3">
       <c r="B517" s="148" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="B518" s="148" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C518" s="147"/>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="B519" s="148" t="s">
         <v>1686</v>
       </c>
-      <c r="C517" s="147"/>
-    </row>
-    <row r="518" spans="1:3" ht="33">
-      <c r="A518" s="146" t="s">
+      <c r="C519" s="147"/>
+    </row>
+    <row r="520" spans="1:3" ht="33">
+      <c r="A520" s="146" t="s">
         <v>1687</v>
       </c>
-      <c r="B518" s="92" t="s">
+      <c r="B520" s="92" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="33">
-      <c r="A519" s="146" t="s">
+    <row r="521" spans="1:3" ht="33">
+      <c r="A521" s="146" t="s">
         <v>1688</v>
       </c>
-      <c r="B519" s="92" t="s">
+      <c r="B521" s="92" t="s">
         <v>1689</v>
       </c>
-      <c r="C519" s="91" t="s">
+      <c r="C521" s="91" t="s">
         <v>1690</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
-      <c r="A520" s="146"/>
-      <c r="B520" s="148" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
-      <c r="A521" s="146"/>
-      <c r="B521" s="148" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="146"/>
       <c r="B522" s="148" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="146"/>
       <c r="B523" s="148" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" ht="33">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
       <c r="A524" s="146"/>
       <c r="B524" s="148" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="146"/>
+      <c r="B525" s="148" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" ht="33">
+      <c r="A526" s="146"/>
+      <c r="B526" s="148" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="146" t="s">
+    <row r="527" spans="1:3">
+      <c r="A527" s="146" t="s">
         <v>1698</v>
       </c>
-      <c r="B525" s="92" t="s">
+      <c r="B527" s="92" t="s">
         <v>1699</v>
       </c>
-      <c r="C525" s="91" t="s">
+      <c r="C527" s="91" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="146" t="s">
+    <row r="528" spans="1:3">
+      <c r="A528" s="146" t="s">
         <v>1700</v>
       </c>
-      <c r="B526" s="92" t="s">
+      <c r="B528" s="92" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="146"/>
-      <c r="B527" s="148" t="s">
+    <row r="529" spans="1:3">
+      <c r="A529" s="146"/>
+      <c r="B529" s="148" t="s">
         <v>1704</v>
       </c>
-      <c r="C527" s="91" t="s">
+      <c r="C529" s="91" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="146"/>
-      <c r="B528" s="148" t="s">
+    <row r="530" spans="1:3">
+      <c r="A530" s="146"/>
+      <c r="B530" s="148" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="33">
-      <c r="A529" s="146" t="s">
+    <row r="531" spans="1:3" ht="33">
+      <c r="A531" s="146" t="s">
         <v>1701</v>
       </c>
-      <c r="B529" s="92" t="s">
+      <c r="B531" s="92" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="66">
-      <c r="A530" s="146"/>
-      <c r="B530" s="92" t="s">
+    <row r="532" spans="1:3" ht="66">
+      <c r="A532" s="146"/>
+      <c r="B532" s="92" t="s">
         <v>1703</v>
       </c>
-      <c r="C530" s="91" t="s">
+      <c r="C532" s="91" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="49.5">
-      <c r="A531" s="91" t="s">
+    <row r="533" spans="1:3" ht="49.5">
+      <c r="A533" s="91" t="s">
         <v>1641</v>
       </c>
-      <c r="B531" s="92" t="s">
+      <c r="B533" s="92" t="s">
         <v>1642</v>
       </c>
-      <c r="C531" s="92" t="s">
+      <c r="C533" s="92" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="66">
-      <c r="A532" s="127" t="s">
+    <row r="534" spans="1:3" ht="66">
+      <c r="A534" s="127" t="s">
         <v>1643</v>
       </c>
-      <c r="B532" s="92" t="s">
+      <c r="B534" s="92" t="s">
         <v>1644</v>
       </c>
-      <c r="C532" s="91" t="s">
+      <c r="C534" s="91" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="91" t="s">
+    <row r="535" spans="1:3">
+      <c r="A535" s="91" t="s">
         <v>1646</v>
       </c>
-      <c r="B533" s="92" t="s">
+      <c r="B535" s="92" t="s">
         <v>1647</v>
       </c>
-      <c r="C533" s="91" t="s">
+      <c r="C535" s="91" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="49.5">
-      <c r="A534" s="127" t="s">
+    <row r="536" spans="1:3" ht="49.5">
+      <c r="A536" s="127" t="s">
         <v>1649</v>
       </c>
-      <c r="B534" s="92" t="s">
+      <c r="B536" s="92" t="s">
         <v>1650</v>
       </c>
-      <c r="C534" s="91" t="s">
+      <c r="C536" s="91" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="33">
-      <c r="A535" s="146" t="s">
+    <row r="537" spans="1:3" ht="33">
+      <c r="A537" s="146" t="s">
         <v>1634</v>
       </c>
-      <c r="B535" s="92" t="s">
+      <c r="B537" s="92" t="s">
         <v>1670</v>
       </c>
-      <c r="C535" s="91" t="s">
+      <c r="C537" s="91" t="s">
         <v>1728</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3">
-      <c r="A536" s="146" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B536" s="92" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C536" s="91" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" ht="198">
-      <c r="A537" s="146" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B537" s="92" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C537" s="92" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="146" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B538" s="92" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C538" s="91" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="198">
+      <c r="A539" s="146" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B539" s="92" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C539" s="92" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="146" t="s">
         <v>1730</v>
       </c>
-      <c r="B538" s="92" t="s">
+      <c r="B540" s="92" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
-      <c r="A539" s="146"/>
-      <c r="B539" s="92" t="s">
+    <row r="541" spans="1:3">
+      <c r="A541" s="146"/>
+      <c r="B541" s="92" t="s">
         <v>1750</v>
       </c>
-      <c r="C539" s="91" t="s">
+      <c r="C541" s="91" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="214.5">
-      <c r="A540" s="146" t="s">
+    <row r="542" spans="1:3" ht="214.5">
+      <c r="A542" s="146" t="s">
         <v>1747</v>
       </c>
-      <c r="B540" s="92" t="s">
+      <c r="B542" s="92" t="s">
         <v>1749</v>
       </c>
-      <c r="C540" s="92" t="s">
+      <c r="C542" s="92" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
-      <c r="A541" s="146" t="s">
+    <row r="543" spans="1:3">
+      <c r="A543" s="146" t="s">
         <v>1733</v>
       </c>
-      <c r="B541" s="92" t="s">
+      <c r="B543" s="92" t="s">
         <v>1761</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="A542" s="146"/>
-      <c r="B542" s="92" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C542" s="91" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
-      <c r="A543" s="146"/>
-      <c r="B543" s="92" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C543" s="91" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="146"/>
       <c r="B544" s="92" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C544" s="91" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="146"/>
       <c r="B545" s="92" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C545" s="91" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="146"/>
       <c r="B546" s="92" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C546" s="91" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="146"/>
       <c r="B547" s="92" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C547" s="91" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="146"/>
+      <c r="B548" s="92" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C548" s="91" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="146"/>
+      <c r="B549" s="92" t="s">
         <v>1739</v>
       </c>
-      <c r="C547" s="91" t="s">
+      <c r="C549" s="91" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
-      <c r="A548" s="146" t="s">
+    <row r="550" spans="1:3">
+      <c r="A550" s="146" t="s">
         <v>1656</v>
       </c>
-      <c r="B548" s="92" t="s">
+      <c r="B550" s="92" t="s">
         <v>1691</v>
-      </c>
-      <c r="C548" s="91" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" ht="33">
-      <c r="A549" s="146" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B549" s="92" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C549" s="91" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" ht="33">
-      <c r="A550" s="146" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B550" s="92" t="s">
-        <v>1697</v>
       </c>
       <c r="C550" s="91" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
-      <c r="A551" s="146"/>
+    <row r="551" spans="1:3" ht="33">
+      <c r="A551" s="146" t="s">
+        <v>1688</v>
+      </c>
       <c r="B551" s="92" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C551" s="91" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" ht="33">
+      <c r="A552" s="146" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B552" s="92" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C552" s="91" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="146"/>
+      <c r="B553" s="92" t="s">
         <v>1751</v>
       </c>
-      <c r="C551" s="91" t="s">
+      <c r="C553" s="91" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="49.5">
-      <c r="B552" s="92" t="s">
+    <row r="554" spans="1:3" ht="49.5">
+      <c r="B554" s="92" t="s">
         <v>1752</v>
       </c>
-      <c r="C552" s="92" t="s">
+      <c r="C554" s="92" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="49.5">
-      <c r="B553" s="92" t="s">
+    <row r="555" spans="1:3" ht="49.5">
+      <c r="B555" s="92" t="s">
         <v>1753</v>
       </c>
-      <c r="C553" s="92" t="s">
+      <c r="C555" s="92" t="s">
         <v>1756</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" ht="33">
-      <c r="A554" s="146" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B554" s="92" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" ht="82.5">
-      <c r="A555" s="146"/>
-      <c r="B555" s="92" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C555" s="92" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="33">
       <c r="A556" s="146" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B556" s="92" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" ht="82.5">
+      <c r="A557" s="146"/>
+      <c r="B557" s="92" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C557" s="92" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" ht="33">
+      <c r="A558" s="146" t="s">
         <v>1758</v>
       </c>
-      <c r="B556" s="92" t="s">
+      <c r="B558" s="92" t="s">
         <v>1759</v>
       </c>
-      <c r="C556" s="92" t="s">
+      <c r="C558" s="92" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="99">
-      <c r="A557" s="91" t="s">
+    <row r="559" spans="1:3" ht="99">
+      <c r="A559" s="91" t="s">
         <v>1762</v>
       </c>
-      <c r="B557" s="92" t="s">
+      <c r="B559" s="92" t="s">
         <v>1764</v>
       </c>
-      <c r="C557" s="92" t="s">
+      <c r="C559" s="92" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
-      <c r="A558" s="127" t="s">
+    <row r="560" spans="1:3">
+      <c r="A560" s="127" t="s">
         <v>1776</v>
       </c>
-      <c r="B558" s="92" t="s">
+      <c r="B560" s="92" t="s">
         <v>1777</v>
       </c>
-      <c r="C558" s="91" t="s">
+      <c r="C560" s="91" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="66">
-      <c r="A559" s="91" t="s">
+    <row r="561" spans="1:3" ht="66">
+      <c r="A561" s="91" t="s">
         <v>1773</v>
       </c>
-      <c r="B559" s="92" t="s">
+      <c r="B561" s="92" t="s">
         <v>1779</v>
       </c>
-      <c r="C559" s="92" t="s">
+      <c r="C561" s="92" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
-      <c r="A560" s="91" t="s">
+    <row r="562" spans="1:3">
+      <c r="A562" s="91" t="s">
         <v>1762</v>
       </c>
-      <c r="B560" s="92" t="s">
+      <c r="B562" s="92" t="s">
         <v>1789</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
-      <c r="B561" s="92" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C561" s="91" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3">
-      <c r="B562" s="92" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C562" s="91" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="B563" s="92" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C563" s="91" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="B564" s="92" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C564" s="91" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="B565" s="92" t="s">
         <v>1791</v>
       </c>
-      <c r="C563" s="91" t="s">
+      <c r="C565" s="91" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="33">
-      <c r="A564" s="91" t="s">
+    <row r="566" spans="1:3" ht="33">
+      <c r="A566" s="91" t="s">
         <v>1796</v>
       </c>
-      <c r="B564" s="92" t="s">
+      <c r="B566" s="92" t="s">
         <v>1797</v>
       </c>
-      <c r="C564" s="91" t="s">
+      <c r="C566" s="91" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="132">
-      <c r="A565" s="91" t="s">
+    <row r="567" spans="1:3" ht="132">
+      <c r="A567" s="91" t="s">
         <v>1799</v>
       </c>
-      <c r="B565" s="92" t="s">
+      <c r="B567" s="92" t="s">
         <v>1800</v>
       </c>
-      <c r="C565" s="150" t="s">
+      <c r="C567" s="150" t="s">
         <v>1801</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
-      <c r="A566" s="91" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B566" s="92" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
-      <c r="A567" s="91" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B567" s="92" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="91" t="s">
-        <v>1687</v>
+        <v>1672</v>
       </c>
       <c r="B568" s="92" t="s">
         <v>1802</v>
@@ -26622,127 +26634,135 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="91" t="s">
-        <v>1700</v>
+        <v>1733</v>
       </c>
       <c r="B569" s="92" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="49.5">
-      <c r="A570" s="127" t="s">
+    <row r="570" spans="1:3">
+      <c r="A570" s="91" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B570" s="92" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="91" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B571" s="92" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" ht="49.5">
+      <c r="A572" s="127" t="s">
         <v>1803</v>
       </c>
-      <c r="B570" s="92" t="s">
+      <c r="B572" s="92" t="s">
         <v>1804</v>
       </c>
-      <c r="C570" s="92" t="s">
+      <c r="C572" s="92" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="33">
-      <c r="A571" s="91" t="s">
+    <row r="573" spans="1:3" ht="33">
+      <c r="A573" s="91" t="s">
         <v>1730</v>
       </c>
-      <c r="B571" s="92" t="s">
+      <c r="B573" s="92" t="s">
         <v>1806</v>
       </c>
-      <c r="C571" s="92" t="s">
+      <c r="C573" s="92" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="181.5">
-      <c r="A572" s="91" t="s">
+    <row r="574" spans="1:3" ht="181.5">
+      <c r="A574" s="91" t="s">
         <v>1773</v>
       </c>
-      <c r="B572" s="92" t="s">
+      <c r="B574" s="92" t="s">
         <v>1809</v>
       </c>
-      <c r="C572" s="92" t="s">
+      <c r="C574" s="92" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="99">
-      <c r="A573" s="91" t="s">
+    <row r="575" spans="1:3" ht="99">
+      <c r="A575" s="91" t="s">
         <v>1810</v>
       </c>
-      <c r="B573" s="92" t="s">
+      <c r="B575" s="92" t="s">
         <v>1811</v>
       </c>
-      <c r="C573" s="92" t="s">
+      <c r="C575" s="92" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="99">
-      <c r="A574" s="91" t="s">
+    <row r="576" spans="1:3" ht="99">
+      <c r="A576" s="91" t="s">
         <v>1813</v>
       </c>
-      <c r="B574" s="92" t="s">
+      <c r="B576" s="92" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="33">
-      <c r="A583" s="127" t="s">
+    <row r="585" spans="1:3" ht="33">
+      <c r="A585" s="127" t="s">
         <v>1765</v>
       </c>
-      <c r="B583" s="92" t="s">
+      <c r="B585" s="92" t="s">
         <v>1772</v>
       </c>
-      <c r="C583" s="91" t="s">
+      <c r="C585" s="91" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
-      <c r="A584" s="146" t="s">
+    <row r="586" spans="1:3">
+      <c r="A586" s="146" t="s">
         <v>1767</v>
       </c>
-      <c r="B584" s="92" t="s">
+      <c r="B586" s="92" t="s">
         <v>1769</v>
       </c>
-      <c r="C584" s="91" t="s">
+      <c r="C586" s="91" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
-      <c r="A585" s="146" t="s">
+    <row r="587" spans="1:3">
+      <c r="A587" s="146" t="s">
         <v>1768</v>
       </c>
-      <c r="B585" s="92" t="s">
+      <c r="B587" s="92" t="s">
         <v>1770</v>
       </c>
-      <c r="C585" s="91" t="s">
+      <c r="C587" s="91" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
-      <c r="A586" s="127" t="s">
+    <row r="588" spans="1:3">
+      <c r="A588" s="127" t="s">
         <v>1653</v>
       </c>
-      <c r="B586" s="92" t="s">
+      <c r="B588" s="92" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
-      <c r="B589" s="219"/>
-    </row>
-    <row r="590" spans="1:3">
-      <c r="B590" s="219"/>
-    </row>
     <row r="591" spans="1:3">
-      <c r="B591" s="219"/>
+      <c r="B591" s="217"/>
     </row>
     <row r="592" spans="1:3">
-      <c r="B592" s="219"/>
+      <c r="B592" s="217"/>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" s="217"/>
+    </row>
+    <row r="594" spans="2:2">
+      <c r="B594" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="B278:B285"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="A117:A122"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -26753,6 +26773,14 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B591:B594"/>
+    <mergeCell ref="B278:B285"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="A117:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Python2.7/Python summary-filter.xlsx
+++ b/Python2.7/Python summary-filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7965" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="2297">
   <si>
     <t>Python教程</t>
   </si>
@@ -13320,6 +13320,17 @@
 &gt;&gt;&gt; del aList[1]
 &gt;&gt;&gt; aList
 [[1, [2, [3, 7]]]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max(iter, key = None) or
+max(arg0, arg1, ..., key = None) 返回iter或（arg0, arg1...）中的最大值，如果指定了key,这个key必须是一个可以传给sort（）方法的，用于比较多回调函数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min(iter, key = None) or
+min(arg0, arg1, ..., key = None) 返回iter或（arg0, arg1...）中的最小值，如果指定了key,这个key必须是一个可以传给sort（）方法的，用于比较多回调函数 </t>
+  </si>
+  <si>
+    <t>sum(seq, init = 0) 返回seq和可选参数init的总和</t>
   </si>
 </sst>
 </file>
@@ -14502,7 +14513,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15061,7 +15072,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15070,49 +15090,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15136,6 +15126,9 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15148,11 +15141,38 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -15162,12 +15182,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -16729,7 +16743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -17125,18 +17139,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="7" t="s">
@@ -17158,33 +17172,33 @@
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="187" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="7" t="s">
@@ -17206,17 +17220,17 @@
       <c r="A6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="190" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="7" t="s">
@@ -17230,9 +17244,9 @@
       <c r="E7" s="189"/>
       <c r="F7" s="189"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
     </row>
     <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="7" t="s">
@@ -17359,8 +17373,8 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
       <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
@@ -17423,18 +17437,18 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="16.5">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="190"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="10" t="s">
@@ -17464,9 +17478,9 @@
       <c r="E20" s="189"/>
       <c r="F20" s="189"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
     </row>
     <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="10" t="s">
@@ -17484,9 +17498,9 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
     </row>
     <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="10" t="s">
@@ -17524,9 +17538,9 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
     </row>
     <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="10" t="s">
@@ -17544,9 +17558,9 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="188"/>
     </row>
     <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="10" t="s">
@@ -17597,18 +17611,18 @@
       <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:10" ht="16.5">
-      <c r="A27" s="190" t="s">
+      <c r="A27" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="190"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="190"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
     </row>
     <row r="28" spans="1:10" ht="16.5">
       <c r="A28" s="10" t="s">
@@ -17622,9 +17636,9 @@
       <c r="E28" s="189"/>
       <c r="F28" s="189"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
     </row>
     <row r="29" spans="1:10" ht="16.5">
       <c r="A29" s="10" t="s">
@@ -17646,17 +17660,17 @@
       <c r="A30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="187" t="s">
+      <c r="B30" s="190" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="190"/>
     </row>
     <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="10" t="s">
@@ -17678,17 +17692,17 @@
       <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="190"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
       <c r="A33" s="10" t="s">
@@ -17710,17 +17724,17 @@
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="190"/>
     </row>
     <row r="35" spans="1:10" ht="16.5">
       <c r="A35" s="10" t="s">
@@ -17734,23 +17748,23 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="187" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
     </row>
     <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="10" t="s">
@@ -17764,9 +17778,9 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:10" ht="16.5">
       <c r="A38" s="10" t="s">
@@ -17872,9 +17886,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="188"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="4"/>
@@ -17899,6 +17913,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A27:J27"/>
@@ -17915,32 +17955,6 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18782,7 +18796,7 @@
       <c r="E5" s="159"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="194" t="s">
         <v>1814</v>
       </c>
       <c r="B6" s="166" t="s">
@@ -18794,10 +18808,10 @@
       <c r="D6" s="157" t="s">
         <v>1638</v>
       </c>
-      <c r="E6" s="192"/>
+      <c r="E6" s="214"/>
     </row>
     <row r="7" spans="1:5" ht="49.5">
-      <c r="A7" s="191" t="str">
+      <c r="A7" s="194" t="str">
         <f t="shared" ref="A7:A12" si="0">A6</f>
         <v>控件</v>
       </c>
@@ -18810,10 +18824,10 @@
       <c r="D7" s="157" t="s">
         <v>1649</v>
       </c>
-      <c r="E7" s="193"/>
+      <c r="E7" s="215"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="191" t="str">
+      <c r="A8" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18826,10 +18840,10 @@
       <c r="D8" s="168" t="s">
         <v>1776</v>
       </c>
-      <c r="E8" s="193"/>
+      <c r="E8" s="215"/>
     </row>
     <row r="9" spans="1:5" ht="49.5">
-      <c r="A9" s="191" t="str">
+      <c r="A9" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18842,10 +18856,10 @@
       <c r="D9" s="168" t="s">
         <v>1803</v>
       </c>
-      <c r="E9" s="193"/>
+      <c r="E9" s="215"/>
     </row>
     <row r="10" spans="1:5" ht="66">
-      <c r="A10" s="191" t="str">
+      <c r="A10" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18858,10 +18872,10 @@
       <c r="D10" s="168" t="s">
         <v>1817</v>
       </c>
-      <c r="E10" s="193"/>
+      <c r="E10" s="215"/>
     </row>
     <row r="11" spans="1:5" ht="66">
-      <c r="A11" s="191" t="str">
+      <c r="A11" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18874,10 +18888,10 @@
       <c r="D11" s="168" t="s">
         <v>1835</v>
       </c>
-      <c r="E11" s="193"/>
+      <c r="E11" s="215"/>
     </row>
     <row r="12" spans="1:5" ht="49.5">
-      <c r="A12" s="191" t="str">
+      <c r="A12" s="194" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18890,10 +18904,10 @@
       <c r="D12" s="157" t="s">
         <v>1643</v>
       </c>
-      <c r="E12" s="193"/>
+      <c r="E12" s="215"/>
     </row>
     <row r="13" spans="1:5" ht="33">
-      <c r="A13" s="191"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="166" t="s">
         <v>1918</v>
       </c>
@@ -18903,10 +18917,10 @@
       <c r="D13" s="157" t="s">
         <v>1920</v>
       </c>
-      <c r="E13" s="193"/>
+      <c r="E13" s="215"/>
     </row>
     <row r="14" spans="1:5" ht="115.5">
-      <c r="A14" s="191"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="166" t="s">
         <v>1932</v>
       </c>
@@ -18916,10 +18930,10 @@
       <c r="D14" s="157" t="s">
         <v>1934</v>
       </c>
-      <c r="E14" s="193"/>
+      <c r="E14" s="215"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="191"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="169" t="s">
         <v>1969</v>
       </c>
@@ -18929,10 +18943,10 @@
       <c r="D15" s="157" t="s">
         <v>1971</v>
       </c>
-      <c r="E15" s="193"/>
+      <c r="E15" s="215"/>
     </row>
     <row r="16" spans="1:5" ht="82.5">
-      <c r="A16" s="191"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="169" t="s">
         <v>1981</v>
       </c>
@@ -18942,11 +18956,11 @@
       <c r="D16" s="157" t="s">
         <v>1982</v>
       </c>
-      <c r="E16" s="193"/>
+      <c r="E16" s="215"/>
     </row>
     <row r="17" spans="1:5" ht="33">
-      <c r="A17" s="191"/>
-      <c r="B17" s="205" t="s">
+      <c r="A17" s="194"/>
+      <c r="B17" s="198" t="s">
         <v>2011</v>
       </c>
       <c r="C17" s="157" t="s">
@@ -18955,22 +18969,22 @@
       <c r="D17" s="157" t="s">
         <v>2013</v>
       </c>
-      <c r="E17" s="193"/>
+      <c r="E17" s="215"/>
     </row>
     <row r="18" spans="1:5" ht="115.5">
-      <c r="A18" s="191"/>
-      <c r="B18" s="206"/>
+      <c r="A18" s="194"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="157" t="s">
         <v>2014</v>
       </c>
       <c r="D18" s="157" t="s">
         <v>2015</v>
       </c>
-      <c r="E18" s="193"/>
+      <c r="E18" s="215"/>
     </row>
     <row r="19" spans="1:5" ht="33">
-      <c r="A19" s="191"/>
-      <c r="B19" s="205" t="s">
+      <c r="A19" s="194"/>
+      <c r="B19" s="198" t="s">
         <v>2016</v>
       </c>
       <c r="C19" s="157" t="s">
@@ -18979,21 +18993,21 @@
       <c r="D19" s="157" t="s">
         <v>2018</v>
       </c>
-      <c r="E19" s="193"/>
+      <c r="E19" s="215"/>
     </row>
     <row r="20" spans="1:5" ht="66">
-      <c r="A20" s="191"/>
-      <c r="B20" s="206"/>
+      <c r="A20" s="194"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="157" t="s">
         <v>2161</v>
       </c>
       <c r="D20" s="157" t="s">
         <v>2160</v>
       </c>
-      <c r="E20" s="193"/>
+      <c r="E20" s="215"/>
     </row>
     <row r="21" spans="1:5" ht="66">
-      <c r="A21" s="191"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="183" t="s">
         <v>2019</v>
       </c>
@@ -19003,10 +19017,10 @@
       <c r="D21" s="157" t="s">
         <v>2020</v>
       </c>
-      <c r="E21" s="193"/>
+      <c r="E21" s="215"/>
     </row>
     <row r="22" spans="1:5" ht="115.5">
-      <c r="A22" s="191"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="183" t="s">
         <v>2034</v>
       </c>
@@ -19016,10 +19030,10 @@
       <c r="D22" s="157" t="s">
         <v>2035</v>
       </c>
-      <c r="E22" s="193"/>
+      <c r="E22" s="215"/>
     </row>
     <row r="23" spans="1:5" ht="82.5">
-      <c r="A23" s="191"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="183" t="s">
         <v>2090</v>
       </c>
@@ -19029,10 +19043,10 @@
       <c r="D23" s="157" t="s">
         <v>2092</v>
       </c>
-      <c r="E23" s="193"/>
+      <c r="E23" s="215"/>
     </row>
     <row r="24" spans="1:5" ht="165">
-      <c r="A24" s="191"/>
+      <c r="A24" s="194"/>
       <c r="B24" s="183" t="s">
         <v>2203</v>
       </c>
@@ -19042,10 +19056,10 @@
       <c r="D24" s="157" t="s">
         <v>2205</v>
       </c>
-      <c r="E24" s="193"/>
+      <c r="E24" s="215"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="191"/>
+      <c r="A25" s="194"/>
       <c r="B25" s="182" t="s">
         <v>1896</v>
       </c>
@@ -19055,10 +19069,10 @@
       <c r="D25" s="157" t="s">
         <v>1898</v>
       </c>
-      <c r="E25" s="193"/>
+      <c r="E25" s="215"/>
     </row>
     <row r="26" spans="1:5" ht="280.5">
-      <c r="A26" s="191"/>
+      <c r="A26" s="194"/>
       <c r="B26" s="182" t="s">
         <v>2208</v>
       </c>
@@ -19068,10 +19082,10 @@
       <c r="D26" s="157" t="s">
         <v>2210</v>
       </c>
-      <c r="E26" s="193"/>
+      <c r="E26" s="215"/>
     </row>
     <row r="27" spans="1:5" ht="165">
-      <c r="A27" s="191"/>
+      <c r="A27" s="194"/>
       <c r="B27" s="182" t="s">
         <v>2211</v>
       </c>
@@ -19081,10 +19095,10 @@
       <c r="D27" s="157" t="s">
         <v>2212</v>
       </c>
-      <c r="E27" s="193"/>
+      <c r="E27" s="215"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="191"/>
+      <c r="A28" s="194"/>
       <c r="B28" s="182" t="s">
         <v>2215</v>
       </c>
@@ -19094,10 +19108,10 @@
       <c r="D28" s="157" t="s">
         <v>2216</v>
       </c>
-      <c r="E28" s="193"/>
+      <c r="E28" s="215"/>
     </row>
     <row r="29" spans="1:5" ht="198">
-      <c r="A29" s="191"/>
+      <c r="A29" s="194"/>
       <c r="B29" s="182" t="s">
         <v>2218</v>
       </c>
@@ -19107,10 +19121,10 @@
       <c r="D29" s="157" t="s">
         <v>2219</v>
       </c>
-      <c r="E29" s="193"/>
+      <c r="E29" s="215"/>
     </row>
     <row r="30" spans="1:5" ht="264">
-      <c r="A30" s="191" t="str">
+      <c r="A30" s="194" t="str">
         <f>A12</f>
         <v>控件</v>
       </c>
@@ -19123,7 +19137,7 @@
       <c r="D30" s="157" t="s">
         <v>2207</v>
       </c>
-      <c r="E30" s="194"/>
+      <c r="E30" s="216"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="166" t="s">
@@ -19165,7 +19179,7 @@
       <c r="E33" s="158"/>
     </row>
     <row r="34" spans="1:5" ht="165">
-      <c r="A34" s="191" t="s">
+      <c r="A34" s="194" t="s">
         <v>1771</v>
       </c>
       <c r="B34" s="170" t="s">
@@ -19177,10 +19191,10 @@
       <c r="D34" s="168" t="s">
         <v>1772</v>
       </c>
-      <c r="E34" s="192"/>
+      <c r="E34" s="214"/>
     </row>
     <row r="35" spans="1:5" ht="66">
-      <c r="A35" s="191" t="str">
+      <c r="A35" s="194" t="str">
         <f t="shared" ref="A35" si="1">A34</f>
         <v>textvariable</v>
       </c>
@@ -19193,10 +19207,10 @@
       <c r="D35" s="168" t="s">
         <v>1778</v>
       </c>
-      <c r="E35" s="193"/>
+      <c r="E35" s="215"/>
     </row>
     <row r="36" spans="1:5" ht="66">
-      <c r="A36" s="191"/>
+      <c r="A36" s="194"/>
       <c r="B36" s="170" t="s">
         <v>1969</v>
       </c>
@@ -19206,10 +19220,10 @@
       <c r="D36" s="168" t="s">
         <v>1977</v>
       </c>
-      <c r="E36" s="193"/>
+      <c r="E36" s="215"/>
     </row>
     <row r="37" spans="1:5" ht="49.5">
-      <c r="A37" s="191"/>
+      <c r="A37" s="194"/>
       <c r="B37" s="170" t="s">
         <v>2046</v>
       </c>
@@ -19219,10 +19233,10 @@
       <c r="D37" s="168" t="s">
         <v>2048</v>
       </c>
-      <c r="E37" s="193"/>
+      <c r="E37" s="215"/>
     </row>
     <row r="38" spans="1:5" ht="49.5">
-      <c r="A38" s="191" t="str">
+      <c r="A38" s="194" t="str">
         <f>A35</f>
         <v>textvariable</v>
       </c>
@@ -19235,10 +19249,10 @@
       <c r="D38" s="168" t="s">
         <v>1907</v>
       </c>
-      <c r="E38" s="194"/>
+      <c r="E38" s="216"/>
     </row>
     <row r="39" spans="1:5" ht="82.5">
-      <c r="A39" s="214" t="s">
+      <c r="A39" s="208" t="s">
         <v>1808</v>
       </c>
       <c r="B39" s="157" t="s">
@@ -19250,10 +19264,10 @@
       <c r="D39" s="168" t="s">
         <v>1810</v>
       </c>
-      <c r="E39" s="195"/>
+      <c r="E39" s="217"/>
     </row>
     <row r="40" spans="1:5" ht="66">
-      <c r="A40" s="214" t="str">
+      <c r="A40" s="208" t="str">
         <f>A39</f>
         <v>variable</v>
       </c>
@@ -19266,10 +19280,10 @@
       <c r="D40" s="168" t="s">
         <v>1821</v>
       </c>
-      <c r="E40" s="195"/>
+      <c r="E40" s="217"/>
     </row>
     <row r="41" spans="1:5" ht="66">
-      <c r="A41" s="214" t="s">
+      <c r="A41" s="208" t="s">
         <v>1828</v>
       </c>
       <c r="B41" s="157" t="s">
@@ -19281,10 +19295,10 @@
       <c r="D41" s="168" t="s">
         <v>1829</v>
       </c>
-      <c r="E41" s="212"/>
+      <c r="E41" s="206"/>
     </row>
     <row r="42" spans="1:5" ht="66">
-      <c r="A42" s="214" t="str">
+      <c r="A42" s="208" t="str">
         <f>A41</f>
         <v>value</v>
       </c>
@@ -19297,7 +19311,7 @@
       <c r="D42" s="168" t="s">
         <v>1903</v>
       </c>
-      <c r="E42" s="213"/>
+      <c r="E42" s="207"/>
     </row>
     <row r="43" spans="1:5" ht="99">
       <c r="A43" s="171" t="s">
@@ -19315,7 +19329,7 @@
       <c r="E43" s="160"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="191" t="s">
+      <c r="A44" s="194" t="s">
         <v>1654</v>
       </c>
       <c r="B44" s="170" t="s">
@@ -19327,10 +19341,10 @@
       <c r="D44" s="157" t="s">
         <v>1822</v>
       </c>
-      <c r="E44" s="196"/>
+      <c r="E44" s="204"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="191" t="str">
+      <c r="A45" s="194" t="str">
         <f t="shared" ref="A45:A54" si="2">A44</f>
         <v>bitmap</v>
       </c>
@@ -19341,10 +19355,10 @@
       <c r="D45" s="157" t="s">
         <v>1704</v>
       </c>
-      <c r="E45" s="196"/>
+      <c r="E45" s="204"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="191" t="str">
+      <c r="A46" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19355,10 +19369,10 @@
       <c r="D46" s="157" t="s">
         <v>1705</v>
       </c>
-      <c r="E46" s="196"/>
+      <c r="E46" s="204"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="191" t="str">
+      <c r="A47" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19369,10 +19383,10 @@
       <c r="D47" s="157" t="s">
         <v>1706</v>
       </c>
-      <c r="E47" s="196"/>
+      <c r="E47" s="204"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="191" t="str">
+      <c r="A48" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19383,10 +19397,10 @@
       <c r="D48" s="157" t="s">
         <v>1707</v>
       </c>
-      <c r="E48" s="196"/>
+      <c r="E48" s="204"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="191" t="str">
+      <c r="A49" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19397,10 +19411,10 @@
       <c r="D49" s="157" t="s">
         <v>1708</v>
       </c>
-      <c r="E49" s="196"/>
+      <c r="E49" s="204"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="191" t="str">
+      <c r="A50" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19411,10 +19425,10 @@
       <c r="D50" s="157" t="s">
         <v>1709</v>
       </c>
-      <c r="E50" s="196"/>
+      <c r="E50" s="204"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="191" t="str">
+      <c r="A51" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19425,10 +19439,10 @@
       <c r="D51" s="157" t="s">
         <v>1710</v>
       </c>
-      <c r="E51" s="196"/>
+      <c r="E51" s="204"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="191" t="str">
+      <c r="A52" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19439,10 +19453,10 @@
       <c r="D52" s="157" t="s">
         <v>1711</v>
       </c>
-      <c r="E52" s="196"/>
+      <c r="E52" s="204"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="191" t="str">
+      <c r="A53" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19453,10 +19467,10 @@
       <c r="D53" s="157" t="s">
         <v>1712</v>
       </c>
-      <c r="E53" s="196"/>
+      <c r="E53" s="204"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="191" t="str">
+      <c r="A54" s="194" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19467,10 +19481,10 @@
       <c r="D54" s="157" t="s">
         <v>1713</v>
       </c>
-      <c r="E54" s="196"/>
+      <c r="E54" s="204"/>
     </row>
     <row r="55" spans="1:5" ht="33">
-      <c r="A55" s="191" t="s">
+      <c r="A55" s="194" t="s">
         <v>1686</v>
       </c>
       <c r="B55" s="170" t="s">
@@ -19482,10 +19496,10 @@
       <c r="D55" s="157" t="s">
         <v>1688</v>
       </c>
-      <c r="E55" s="196"/>
+      <c r="E55" s="204"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="191" t="str">
+      <c r="A56" s="194" t="str">
         <f t="shared" ref="A56:A60" si="3">A55</f>
         <v>compound</v>
       </c>
@@ -19494,10 +19508,10 @@
         <v>1690</v>
       </c>
       <c r="D56" s="157"/>
-      <c r="E56" s="196"/>
+      <c r="E56" s="204"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="191" t="str">
+      <c r="A57" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19506,10 +19520,10 @@
         <v>1691</v>
       </c>
       <c r="D57" s="157"/>
-      <c r="E57" s="196"/>
+      <c r="E57" s="204"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="191" t="str">
+      <c r="A58" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19518,10 +19532,10 @@
         <v>1692</v>
       </c>
       <c r="D58" s="157"/>
-      <c r="E58" s="196"/>
+      <c r="E58" s="204"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="191" t="str">
+      <c r="A59" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19530,10 +19544,10 @@
         <v>1693</v>
       </c>
       <c r="D59" s="157"/>
-      <c r="E59" s="196"/>
+      <c r="E59" s="204"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="191" t="str">
+      <c r="A60" s="194" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19542,10 +19556,10 @@
         <v>1823</v>
       </c>
       <c r="D60" s="157"/>
-      <c r="E60" s="196"/>
+      <c r="E60" s="204"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="191" t="s">
+      <c r="A61" s="194" t="s">
         <v>1670</v>
       </c>
       <c r="B61" s="170" t="s">
@@ -19555,10 +19569,10 @@
         <v>1671</v>
       </c>
       <c r="D61" s="157"/>
-      <c r="E61" s="196"/>
+      <c r="E61" s="204"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="191" t="str">
+      <c r="A62" s="194" t="str">
         <f t="shared" ref="A62:A74" si="4">A61</f>
         <v>fg/bg</v>
       </c>
@@ -19567,10 +19581,10 @@
         <v>1677</v>
       </c>
       <c r="D62" s="157"/>
-      <c r="E62" s="196"/>
+      <c r="E62" s="204"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="191" t="str">
+      <c r="A63" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19581,10 +19595,10 @@
       <c r="D63" s="157" t="s">
         <v>1714</v>
       </c>
-      <c r="E63" s="196"/>
+      <c r="E63" s="204"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="191" t="str">
+      <c r="A64" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19595,10 +19609,10 @@
       <c r="D64" s="157" t="s">
         <v>1715</v>
       </c>
-      <c r="E64" s="196"/>
+      <c r="E64" s="204"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="191" t="str">
+      <c r="A65" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19609,10 +19623,10 @@
       <c r="D65" s="157" t="s">
         <v>1716</v>
       </c>
-      <c r="E65" s="196"/>
+      <c r="E65" s="204"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="191" t="str">
+      <c r="A66" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19623,10 +19637,10 @@
       <c r="D66" s="157" t="s">
         <v>1717</v>
       </c>
-      <c r="E66" s="196"/>
+      <c r="E66" s="204"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="191" t="str">
+      <c r="A67" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19637,10 +19651,10 @@
       <c r="D67" s="157" t="s">
         <v>1718</v>
       </c>
-      <c r="E67" s="196"/>
+      <c r="E67" s="204"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="191" t="str">
+      <c r="A68" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19649,10 +19663,10 @@
         <v>1678</v>
       </c>
       <c r="D68" s="157"/>
-      <c r="E68" s="196"/>
+      <c r="E68" s="204"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="191" t="str">
+      <c r="A69" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19661,10 +19675,10 @@
         <v>1679</v>
       </c>
       <c r="D69" s="157"/>
-      <c r="E69" s="196"/>
+      <c r="E69" s="204"/>
     </row>
     <row r="70" spans="1:5" ht="33">
-      <c r="A70" s="191" t="str">
+      <c r="A70" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19673,10 +19687,10 @@
         <v>1680</v>
       </c>
       <c r="D70" s="157"/>
-      <c r="E70" s="196"/>
+      <c r="E70" s="204"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="191" t="str">
+      <c r="A71" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19685,10 +19699,10 @@
         <v>1681</v>
       </c>
       <c r="D71" s="157"/>
-      <c r="E71" s="196"/>
+      <c r="E71" s="204"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="191" t="str">
+      <c r="A72" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19697,10 +19711,10 @@
         <v>1682</v>
       </c>
       <c r="D72" s="157"/>
-      <c r="E72" s="196"/>
+      <c r="E72" s="204"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="191" t="str">
+      <c r="A73" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19709,10 +19723,10 @@
         <v>1683</v>
       </c>
       <c r="D73" s="173"/>
-      <c r="E73" s="196"/>
+      <c r="E73" s="204"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="191" t="str">
+      <c r="A74" s="194" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19721,7 +19735,7 @@
         <v>1684</v>
       </c>
       <c r="D74" s="173"/>
-      <c r="E74" s="196"/>
+      <c r="E74" s="204"/>
     </row>
     <row r="75" spans="1:5" ht="33">
       <c r="A75" s="166" t="s">
@@ -19780,7 +19794,7 @@
       <c r="E78" s="158"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="191" t="s">
+      <c r="A79" s="194" t="s">
         <v>1698</v>
       </c>
       <c r="B79" s="170" t="s">
@@ -19790,10 +19804,10 @@
         <v>1719</v>
       </c>
       <c r="D79" s="157"/>
-      <c r="E79" s="196"/>
+      <c r="E79" s="204"/>
     </row>
     <row r="80" spans="1:5" ht="33">
-      <c r="A80" s="191" t="str">
+      <c r="A80" s="194" t="str">
         <f t="shared" ref="A80:A81" si="5">A79</f>
         <v>justify</v>
       </c>
@@ -19804,10 +19818,10 @@
       <c r="D80" s="157" t="s">
         <v>1721</v>
       </c>
-      <c r="E80" s="196"/>
+      <c r="E80" s="204"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="191" t="str">
+      <c r="A81" s="194" t="str">
         <f t="shared" si="5"/>
         <v>justify</v>
       </c>
@@ -19816,7 +19830,7 @@
         <v>1703</v>
       </c>
       <c r="D81" s="157"/>
-      <c r="E81" s="196"/>
+      <c r="E81" s="204"/>
     </row>
     <row r="82" spans="1:5" ht="33">
       <c r="A82" s="169"/>
@@ -19832,7 +19846,7 @@
       <c r="E82" s="161"/>
     </row>
     <row r="83" spans="1:5" ht="33">
-      <c r="A83" s="191" t="s">
+      <c r="A83" s="194" t="s">
         <v>1699</v>
       </c>
       <c r="B83" s="170" t="s">
@@ -19842,10 +19856,10 @@
         <v>1700</v>
       </c>
       <c r="D83" s="157"/>
-      <c r="E83" s="196"/>
+      <c r="E83" s="204"/>
     </row>
     <row r="84" spans="1:5" ht="66">
-      <c r="A84" s="191" t="str">
+      <c r="A84" s="194" t="str">
         <f>A83</f>
         <v>ahchor</v>
       </c>
@@ -19856,10 +19870,10 @@
       <c r="D84" s="157" t="s">
         <v>1722</v>
       </c>
-      <c r="E84" s="196"/>
+      <c r="E84" s="204"/>
     </row>
     <row r="85" spans="1:5" s="91" customFormat="1" ht="33">
-      <c r="A85" s="215" t="s">
+      <c r="A85" s="195" t="s">
         <v>1763</v>
       </c>
       <c r="B85" s="174" t="s">
@@ -19871,10 +19885,10 @@
       <c r="D85" s="174" t="s">
         <v>1764</v>
       </c>
-      <c r="E85" s="211"/>
+      <c r="E85" s="205"/>
     </row>
     <row r="86" spans="1:5" s="91" customFormat="1">
-      <c r="A86" s="215" t="str">
+      <c r="A86" s="195" t="str">
         <f t="shared" ref="A86:A87" si="6">A85</f>
         <v>StringVar</v>
       </c>
@@ -19887,10 +19901,10 @@
       <c r="D86" s="174" t="s">
         <v>1765</v>
       </c>
-      <c r="E86" s="211"/>
+      <c r="E86" s="205"/>
     </row>
     <row r="87" spans="1:5" s="91" customFormat="1">
-      <c r="A87" s="215" t="str">
+      <c r="A87" s="195" t="str">
         <f t="shared" si="6"/>
         <v>StringVar</v>
       </c>
@@ -19903,10 +19917,10 @@
       <c r="D87" s="174" t="s">
         <v>1769</v>
       </c>
-      <c r="E87" s="211"/>
+      <c r="E87" s="205"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="191" t="s">
+      <c r="A88" s="194" t="s">
         <v>1868</v>
       </c>
       <c r="B88" s="174" t="s">
@@ -19918,10 +19932,10 @@
       <c r="D88" s="157" t="s">
         <v>1870</v>
       </c>
-      <c r="E88" s="196"/>
+      <c r="E88" s="204"/>
     </row>
     <row r="89" spans="1:5" s="91" customFormat="1">
-      <c r="A89" s="191" t="str">
+      <c r="A89" s="194" t="str">
         <f t="shared" ref="A89:A90" si="7">A88</f>
         <v>IntVar</v>
       </c>
@@ -19934,10 +19948,10 @@
       <c r="D89" s="174" t="s">
         <v>1765</v>
       </c>
-      <c r="E89" s="196"/>
+      <c r="E89" s="204"/>
     </row>
     <row r="90" spans="1:5" s="91" customFormat="1">
-      <c r="A90" s="191" t="str">
+      <c r="A90" s="194" t="str">
         <f t="shared" si="7"/>
         <v>IntVar</v>
       </c>
@@ -19950,10 +19964,10 @@
       <c r="D90" s="174" t="s">
         <v>1871</v>
       </c>
-      <c r="E90" s="196"/>
+      <c r="E90" s="204"/>
     </row>
     <row r="91" spans="1:5" ht="33">
-      <c r="A91" s="216" t="s">
+      <c r="A91" s="196" t="s">
         <v>1728</v>
       </c>
       <c r="B91" s="170" t="s">
@@ -19965,10 +19979,10 @@
       <c r="D91" s="168" t="s">
         <v>1729</v>
       </c>
-      <c r="E91" s="196"/>
+      <c r="E91" s="204"/>
     </row>
     <row r="92" spans="1:5" ht="33">
-      <c r="A92" s="216" t="str">
+      <c r="A92" s="196" t="str">
         <f t="shared" ref="A92" si="8">A91</f>
         <v>command</v>
       </c>
@@ -19981,10 +19995,10 @@
       <c r="D92" s="168" t="s">
         <v>1806</v>
       </c>
-      <c r="E92" s="196"/>
+      <c r="E92" s="204"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="216"/>
+      <c r="A93" s="196"/>
       <c r="B93" s="170" t="s">
         <v>1918</v>
       </c>
@@ -19994,10 +20008,10 @@
       <c r="D93" s="168" t="s">
         <v>1924</v>
       </c>
-      <c r="E93" s="196"/>
+      <c r="E93" s="204"/>
     </row>
     <row r="94" spans="1:5" ht="49.5">
-      <c r="A94" s="216" t="str">
+      <c r="A94" s="196" t="str">
         <f>A91</f>
         <v>command</v>
       </c>
@@ -20010,10 +20024,10 @@
       <c r="D94" s="168" t="s">
         <v>1908</v>
       </c>
-      <c r="E94" s="196"/>
+      <c r="E94" s="204"/>
     </row>
     <row r="95" spans="1:5" ht="82.5">
-      <c r="A95" s="216"/>
+      <c r="A95" s="196"/>
       <c r="B95" s="170" t="s">
         <v>1981</v>
       </c>
@@ -20023,10 +20037,10 @@
       <c r="D95" s="168" t="s">
         <v>1984</v>
       </c>
-      <c r="E95" s="196"/>
+      <c r="E95" s="204"/>
     </row>
     <row r="96" spans="1:5" ht="115.5">
-      <c r="A96" s="216" t="str">
+      <c r="A96" s="196" t="str">
         <f>A92</f>
         <v>command</v>
       </c>
@@ -20039,7 +20053,7 @@
       <c r="D96" s="168" t="s">
         <v>1885</v>
       </c>
-      <c r="E96" s="196"/>
+      <c r="E96" s="204"/>
     </row>
     <row r="97" spans="1:5" ht="132">
       <c r="A97" s="180"/>
@@ -20120,7 +20134,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="191" t="s">
+      <c r="A103" s="194" t="s">
         <v>1731</v>
       </c>
       <c r="B103" s="170" t="s">
@@ -20130,10 +20144,10 @@
         <v>1759</v>
       </c>
       <c r="D103" s="168"/>
-      <c r="E103" s="196"/>
+      <c r="E103" s="204"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="191" t="str">
+      <c r="A104" s="194" t="str">
         <f t="shared" ref="A104:A109" si="9">A103</f>
         <v>relief</v>
       </c>
@@ -20144,10 +20158,10 @@
       <c r="D104" s="168" t="s">
         <v>1738</v>
       </c>
-      <c r="E104" s="196"/>
+      <c r="E104" s="204"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="191" t="str">
+      <c r="A105" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20158,10 +20172,10 @@
       <c r="D105" s="168" t="s">
         <v>1739</v>
       </c>
-      <c r="E105" s="196"/>
+      <c r="E105" s="204"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="191" t="str">
+      <c r="A106" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20172,10 +20186,10 @@
       <c r="D106" s="168" t="s">
         <v>1740</v>
       </c>
-      <c r="E106" s="196"/>
+      <c r="E106" s="204"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="191" t="str">
+      <c r="A107" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20186,10 +20200,10 @@
       <c r="D107" s="168" t="s">
         <v>1741</v>
       </c>
-      <c r="E107" s="196"/>
+      <c r="E107" s="204"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="191" t="str">
+      <c r="A108" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20200,10 +20214,10 @@
       <c r="D108" s="168" t="s">
         <v>1742</v>
       </c>
-      <c r="E108" s="196"/>
+      <c r="E108" s="204"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="191" t="str">
+      <c r="A109" s="194" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20214,7 +20228,7 @@
       <c r="D109" s="168" t="s">
         <v>1743</v>
       </c>
-      <c r="E109" s="196"/>
+      <c r="E109" s="204"/>
     </row>
     <row r="110" spans="1:5" ht="33">
       <c r="A110" s="166" t="s">
@@ -20232,7 +20246,7 @@
       <c r="E110" s="158"/>
     </row>
     <row r="111" spans="1:5" ht="99">
-      <c r="A111" s="191" t="s">
+      <c r="A111" s="194" t="s">
         <v>1760</v>
       </c>
       <c r="B111" s="170" t="s">
@@ -20244,10 +20258,10 @@
       <c r="D111" s="168" t="s">
         <v>1761</v>
       </c>
-      <c r="E111" s="196"/>
+      <c r="E111" s="204"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="191" t="str">
+      <c r="A112" s="194" t="str">
         <f t="shared" ref="A112:A114" si="10">A111</f>
         <v>state</v>
       </c>
@@ -20258,10 +20272,10 @@
       <c r="D112" s="168" t="s">
         <v>1791</v>
       </c>
-      <c r="E112" s="196"/>
+      <c r="E112" s="204"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="191" t="str">
+      <c r="A113" s="194" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
@@ -20272,10 +20286,10 @@
       <c r="D113" s="168" t="s">
         <v>1792</v>
       </c>
-      <c r="E113" s="196"/>
+      <c r="E113" s="204"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="191" t="str">
+      <c r="A114" s="194" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
@@ -20286,7 +20300,7 @@
       <c r="D114" s="168" t="s">
         <v>1793</v>
       </c>
-      <c r="E114" s="196"/>
+      <c r="E114" s="204"/>
     </row>
     <row r="115" spans="1:5" ht="33">
       <c r="A115" s="166" t="s">
@@ -20332,59 +20346,59 @@
       <c r="E117" s="160"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="191" t="s">
+      <c r="A118" s="194" t="s">
         <v>1836</v>
       </c>
-      <c r="B118" s="191" t="s">
+      <c r="B118" s="194" t="s">
         <v>1837</v>
       </c>
       <c r="C118" s="157" t="s">
         <v>1839</v>
       </c>
       <c r="D118" s="157"/>
-      <c r="E118" s="197"/>
+      <c r="E118" s="209"/>
     </row>
     <row r="119" spans="1:5" ht="33">
-      <c r="A119" s="191" t="str">
+      <c r="A119" s="194" t="str">
         <f t="shared" ref="A119:A121" si="11">A118</f>
         <v>selectmode</v>
       </c>
-      <c r="B119" s="191"/>
+      <c r="B119" s="194"/>
       <c r="C119" s="157" t="s">
         <v>1840</v>
       </c>
       <c r="D119" s="157" t="s">
         <v>1841</v>
       </c>
-      <c r="E119" s="198"/>
+      <c r="E119" s="211"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="191" t="str">
+      <c r="A120" s="194" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B120" s="191"/>
+      <c r="B120" s="194"/>
       <c r="C120" s="157" t="s">
         <v>1842</v>
       </c>
       <c r="D120" s="157" t="s">
         <v>1838</v>
       </c>
-      <c r="E120" s="198"/>
+      <c r="E120" s="211"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="191" t="str">
+      <c r="A121" s="194" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B121" s="191"/>
+      <c r="B121" s="194"/>
       <c r="C121" s="157" t="s">
         <v>1844</v>
       </c>
       <c r="D121" s="157" t="s">
         <v>1843</v>
       </c>
-      <c r="E121" s="199"/>
+      <c r="E121" s="210"/>
     </row>
     <row r="122" spans="1:5" ht="49.5">
       <c r="A122" s="166" t="s">
@@ -20467,7 +20481,7 @@
       <c r="E127" s="181"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="191" t="s">
+      <c r="A128" s="194" t="s">
         <v>1859</v>
       </c>
       <c r="B128" s="157" t="s">
@@ -20479,10 +20493,10 @@
       <c r="D128" s="157" t="s">
         <v>1864</v>
       </c>
-      <c r="E128" s="200"/>
+      <c r="E128" s="212"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="191"/>
+      <c r="A129" s="194"/>
       <c r="B129" s="157" t="s">
         <v>1783</v>
       </c>
@@ -20492,10 +20506,10 @@
       <c r="D129" s="157" t="s">
         <v>1895</v>
       </c>
-      <c r="E129" s="201"/>
+      <c r="E129" s="213"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="191"/>
+      <c r="A130" s="194"/>
       <c r="B130" s="157" t="s">
         <v>2046</v>
       </c>
@@ -20508,7 +20522,7 @@
       <c r="E130" s="156"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="191"/>
+      <c r="A131" s="194"/>
       <c r="B131" s="157" t="s">
         <v>1896</v>
       </c>
@@ -20578,7 +20592,7 @@
     </row>
     <row r="136" spans="1:5" ht="99">
       <c r="A136" s="169"/>
-      <c r="B136" s="208" t="s">
+      <c r="B136" s="201" t="s">
         <v>2046</v>
       </c>
       <c r="C136" s="157" t="s">
@@ -20591,7 +20605,7 @@
     </row>
     <row r="137" spans="1:5" ht="33">
       <c r="A137" s="169"/>
-      <c r="B137" s="209"/>
+      <c r="B137" s="202"/>
       <c r="C137" s="157" t="s">
         <v>2051</v>
       </c>
@@ -20602,7 +20616,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="169"/>
-      <c r="B138" s="209"/>
+      <c r="B138" s="202"/>
       <c r="C138" s="157" t="s">
         <v>2052</v>
       </c>
@@ -20613,7 +20627,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="169"/>
-      <c r="B139" s="209"/>
+      <c r="B139" s="202"/>
       <c r="C139" s="157" t="s">
         <v>2053</v>
       </c>
@@ -20624,7 +20638,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="169"/>
-      <c r="B140" s="209"/>
+      <c r="B140" s="202"/>
       <c r="C140" s="157" t="s">
         <v>2054</v>
       </c>
@@ -20635,7 +20649,7 @@
     </row>
     <row r="141" spans="1:5" ht="33">
       <c r="A141" s="169"/>
-      <c r="B141" s="209"/>
+      <c r="B141" s="202"/>
       <c r="C141" s="157" t="s">
         <v>2055</v>
       </c>
@@ -20646,7 +20660,7 @@
     </row>
     <row r="142" spans="1:5" ht="33">
       <c r="A142" s="169"/>
-      <c r="B142" s="209"/>
+      <c r="B142" s="202"/>
       <c r="C142" s="157" t="s">
         <v>2056</v>
       </c>
@@ -20656,7 +20670,7 @@
       <c r="E142" s="163"/>
     </row>
     <row r="143" spans="1:5" ht="82.5">
-      <c r="B143" s="210"/>
+      <c r="B143" s="203"/>
       <c r="C143" s="151" t="s">
         <v>2079</v>
       </c>
@@ -20809,7 +20823,7 @@
       <c r="E153" s="163"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="191" t="s">
+      <c r="A154" s="194" t="s">
         <v>1825</v>
       </c>
       <c r="B154" s="157" t="s">
@@ -20821,10 +20835,10 @@
       <c r="D154" s="157" t="s">
         <v>1643</v>
       </c>
-      <c r="E154" s="197"/>
+      <c r="E154" s="209"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="191" t="str">
+      <c r="A155" s="194" t="str">
         <f>A154</f>
         <v>from_</v>
       </c>
@@ -20837,10 +20851,10 @@
       <c r="D155" s="157" t="s">
         <v>1902</v>
       </c>
-      <c r="E155" s="199"/>
+      <c r="E155" s="210"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="191" t="s">
+      <c r="A156" s="194" t="s">
         <v>1826</v>
       </c>
       <c r="B156" s="157" t="s">
@@ -20852,10 +20866,10 @@
       <c r="D156" s="157" t="s">
         <v>1643</v>
       </c>
-      <c r="E156" s="197"/>
+      <c r="E156" s="209"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="191" t="str">
+      <c r="A157" s="194" t="str">
         <f>A156</f>
         <v>to</v>
       </c>
@@ -20868,10 +20882,10 @@
       <c r="D157" s="157" t="s">
         <v>1902</v>
       </c>
-      <c r="E157" s="199"/>
+      <c r="E157" s="210"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="205" t="s">
+      <c r="A158" s="198" t="s">
         <v>1827</v>
       </c>
       <c r="B158" s="157" t="s">
@@ -20884,7 +20898,7 @@
       <c r="E158" s="163"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="207"/>
+      <c r="A159" s="200"/>
       <c r="B159" s="157"/>
       <c r="C159" s="157" t="s">
         <v>1879</v>
@@ -20895,7 +20909,7 @@
       <c r="E159" s="164"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="206"/>
+      <c r="A160" s="199"/>
       <c r="B160" s="157"/>
       <c r="C160" s="157" t="s">
         <v>2022</v>
@@ -21112,7 +21126,7 @@
       <c r="A175" s="153" t="s">
         <v>1985</v>
       </c>
-      <c r="B175" s="202" t="s">
+      <c r="B175" s="192" t="s">
         <v>1985</v>
       </c>
       <c r="C175" s="151" t="s">
@@ -21123,7 +21137,7 @@
       <c r="A176" s="153" t="s">
         <v>1987</v>
       </c>
-      <c r="B176" s="203"/>
+      <c r="B176" s="193"/>
       <c r="C176" s="151" t="s">
         <v>1996</v>
       </c>
@@ -21132,7 +21146,7 @@
       <c r="A177" s="153" t="s">
         <v>1988</v>
       </c>
-      <c r="B177" s="203"/>
+      <c r="B177" s="193"/>
       <c r="C177" s="151" t="s">
         <v>1997</v>
       </c>
@@ -21141,7 +21155,7 @@
       <c r="A178" s="153" t="s">
         <v>1989</v>
       </c>
-      <c r="B178" s="203"/>
+      <c r="B178" s="193"/>
       <c r="C178" s="151" t="s">
         <v>1998</v>
       </c>
@@ -21150,7 +21164,7 @@
       <c r="A179" s="153" t="s">
         <v>1990</v>
       </c>
-      <c r="B179" s="203"/>
+      <c r="B179" s="193"/>
       <c r="C179" s="151" t="s">
         <v>1999</v>
       </c>
@@ -21159,7 +21173,7 @@
       <c r="A180" s="153" t="s">
         <v>1991</v>
       </c>
-      <c r="B180" s="203"/>
+      <c r="B180" s="193"/>
       <c r="C180" s="151" t="s">
         <v>2000</v>
       </c>
@@ -21168,7 +21182,7 @@
       <c r="A181" s="153" t="s">
         <v>1992</v>
       </c>
-      <c r="B181" s="203"/>
+      <c r="B181" s="193"/>
       <c r="C181" s="151" t="s">
         <v>2001</v>
       </c>
@@ -21177,7 +21191,7 @@
       <c r="A182" s="153" t="s">
         <v>1993</v>
       </c>
-      <c r="B182" s="203"/>
+      <c r="B182" s="193"/>
       <c r="C182" s="151" t="s">
         <v>2002</v>
       </c>
@@ -21186,7 +21200,7 @@
       <c r="A183" s="153" t="s">
         <v>1994</v>
       </c>
-      <c r="B183" s="203"/>
+      <c r="B183" s="193"/>
       <c r="C183" s="151" t="s">
         <v>2003</v>
       </c>
@@ -21195,7 +21209,7 @@
       <c r="A184" s="153" t="s">
         <v>1995</v>
       </c>
-      <c r="B184" s="203"/>
+      <c r="B184" s="193"/>
       <c r="C184" s="151" t="s">
         <v>2004</v>
       </c>
@@ -21204,7 +21218,7 @@
       <c r="A185" s="153" t="s">
         <v>2230</v>
       </c>
-      <c r="B185" s="203"/>
+      <c r="B185" s="193"/>
       <c r="C185" s="151" t="s">
         <v>2225</v>
       </c>
@@ -21216,7 +21230,7 @@
       <c r="A186" s="153" t="s">
         <v>2231</v>
       </c>
-      <c r="B186" s="203"/>
+      <c r="B186" s="193"/>
       <c r="C186" s="151" t="s">
         <v>2226</v>
       </c>
@@ -21228,7 +21242,7 @@
       <c r="A187" s="153" t="s">
         <v>2232</v>
       </c>
-      <c r="B187" s="203"/>
+      <c r="B187" s="193"/>
       <c r="C187" s="151" t="s">
         <v>2227</v>
       </c>
@@ -21240,7 +21254,7 @@
       <c r="A188" s="153" t="s">
         <v>2233</v>
       </c>
-      <c r="B188" s="203"/>
+      <c r="B188" s="193"/>
       <c r="C188" s="151" t="s">
         <v>2228</v>
       </c>
@@ -21252,7 +21266,7 @@
       <c r="A189" s="153" t="s">
         <v>2234</v>
       </c>
-      <c r="B189" s="203"/>
+      <c r="B189" s="193"/>
       <c r="C189" s="151" t="s">
         <v>2229</v>
       </c>
@@ -21264,7 +21278,7 @@
       <c r="A190" s="153" t="s">
         <v>2235</v>
       </c>
-      <c r="B190" s="203"/>
+      <c r="B190" s="193"/>
       <c r="C190" s="151" t="s">
         <v>2238</v>
       </c>
@@ -21276,7 +21290,7 @@
       <c r="A191" s="153" t="s">
         <v>2236</v>
       </c>
-      <c r="B191" s="203"/>
+      <c r="B191" s="193"/>
       <c r="C191" s="151" t="s">
         <v>2239</v>
       </c>
@@ -21288,7 +21302,7 @@
       <c r="A192" s="153" t="s">
         <v>2237</v>
       </c>
-      <c r="B192" s="203"/>
+      <c r="B192" s="193"/>
       <c r="C192" s="151" t="s">
         <v>2240</v>
       </c>
@@ -21300,7 +21314,7 @@
       <c r="A193" s="153" t="s">
         <v>2244</v>
       </c>
-      <c r="B193" s="203"/>
+      <c r="B193" s="193"/>
       <c r="C193" s="151" t="s">
         <v>2247</v>
       </c>
@@ -21309,7 +21323,7 @@
       <c r="A194" s="153" t="s">
         <v>2245</v>
       </c>
-      <c r="B194" s="203"/>
+      <c r="B194" s="193"/>
       <c r="C194" s="151" t="s">
         <v>2248</v>
       </c>
@@ -21318,7 +21332,7 @@
       <c r="A195" s="153" t="s">
         <v>2246</v>
       </c>
-      <c r="B195" s="203"/>
+      <c r="B195" s="193"/>
       <c r="C195" s="151" t="s">
         <v>2249</v>
       </c>
@@ -21327,7 +21341,7 @@
       <c r="A196" s="153" t="s">
         <v>2250</v>
       </c>
-      <c r="B196" s="203"/>
+      <c r="B196" s="193"/>
       <c r="C196" s="151" t="s">
         <v>2251</v>
       </c>
@@ -21336,7 +21350,7 @@
       <c r="A197" s="153" t="s">
         <v>2252</v>
       </c>
-      <c r="B197" s="203"/>
+      <c r="B197" s="193"/>
       <c r="C197" s="151" t="s">
         <v>2257</v>
       </c>
@@ -21345,7 +21359,7 @@
       <c r="A198" s="153" t="s">
         <v>2253</v>
       </c>
-      <c r="B198" s="203"/>
+      <c r="B198" s="193"/>
       <c r="C198" s="151" t="s">
         <v>2258</v>
       </c>
@@ -21354,7 +21368,7 @@
       <c r="A199" s="153" t="s">
         <v>2254</v>
       </c>
-      <c r="B199" s="203"/>
+      <c r="B199" s="193"/>
       <c r="C199" s="151" t="s">
         <v>2259</v>
       </c>
@@ -21363,7 +21377,7 @@
       <c r="A200" s="153" t="s">
         <v>2255</v>
       </c>
-      <c r="B200" s="203"/>
+      <c r="B200" s="193"/>
       <c r="C200" s="151" t="s">
         <v>2260</v>
       </c>
@@ -21372,7 +21386,7 @@
       <c r="A201" s="153" t="s">
         <v>2256</v>
       </c>
-      <c r="B201" s="203"/>
+      <c r="B201" s="193"/>
       <c r="C201" s="151" t="s">
         <v>2262</v>
       </c>
@@ -21381,7 +21395,7 @@
       <c r="A202" s="153" t="s">
         <v>2266</v>
       </c>
-      <c r="B202" s="203"/>
+      <c r="B202" s="193"/>
       <c r="C202" s="151" t="s">
         <v>2267</v>
       </c>
@@ -21390,7 +21404,7 @@
       <c r="A203" s="153" t="s">
         <v>2270</v>
       </c>
-      <c r="B203" s="203"/>
+      <c r="B203" s="193"/>
       <c r="C203" s="151" t="s">
         <v>2271</v>
       </c>
@@ -21399,13 +21413,13 @@
       <c r="A204" s="153" t="s">
         <v>2263</v>
       </c>
-      <c r="B204" s="203"/>
+      <c r="B204" s="193"/>
       <c r="C204" s="151" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="198">
-      <c r="B205" s="203"/>
+      <c r="B205" s="193"/>
       <c r="C205" s="151" t="s">
         <v>2261</v>
       </c>
@@ -21414,7 +21428,7 @@
       <c r="A206" s="153" t="s">
         <v>2265</v>
       </c>
-      <c r="B206" s="203"/>
+      <c r="B206" s="193"/>
       <c r="C206" s="151" t="s">
         <v>2268</v>
       </c>
@@ -21423,13 +21437,13 @@
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="B207" s="203"/>
+      <c r="B207" s="193"/>
       <c r="C207" s="151" t="s">
         <v>2272</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="B208" s="204"/>
+      <c r="B208" s="197"/>
     </row>
     <row r="209" spans="1:4" ht="33">
       <c r="A209" s="153" t="s">
@@ -21530,7 +21544,7 @@
       <c r="A216" s="153" t="s">
         <v>2064</v>
       </c>
-      <c r="B216" s="202" t="s">
+      <c r="B216" s="192" t="s">
         <v>2046</v>
       </c>
       <c r="C216" s="151" t="s">
@@ -21541,7 +21555,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="33">
-      <c r="B217" s="203"/>
+      <c r="B217" s="193"/>
       <c r="C217" s="151" t="s">
         <v>2066</v>
       </c>
@@ -22047,20 +22061,17 @@
   </sheetData>
   <autoFilter ref="A1:D166"/>
   <mergeCells count="43">
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A74"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B175:B208"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="A6:A30"/>
+    <mergeCell ref="E6:E30"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E103:E109"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E128:E129"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A158:A160"/>
     <mergeCell ref="B136:B143"/>
@@ -22077,19 +22088,22 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="E156:E157"/>
     <mergeCell ref="A128:A131"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A74"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B175:B208"/>
     <mergeCell ref="B118:B121"/>
     <mergeCell ref="A118:A121"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E103:E109"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="A6:A30"/>
-    <mergeCell ref="E6:E30"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E91:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22100,8 +22114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22147,10 +22161,10 @@
     </row>
     <row r="5" spans="1:4" ht="68.25" customHeight="1">
       <c r="A5" s="50"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="218" t="s">
         <v>1381</v>
       </c>
-      <c r="C5" s="220"/>
+      <c r="C5" s="218"/>
       <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" ht="66">
@@ -22262,20 +22276,20 @@
       <c r="A16" s="132" t="s">
         <v>1442</v>
       </c>
-      <c r="B16" s="221" t="s">
+      <c r="B16" s="219" t="s">
         <v>1443</v>
       </c>
-      <c r="C16" s="221"/>
+      <c r="C16" s="219"/>
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="1:4" ht="87.75" customHeight="1">
       <c r="A17" s="132" t="s">
         <v>1444</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="219" t="s">
         <v>1445</v>
       </c>
-      <c r="C17" s="221"/>
+      <c r="C17" s="219"/>
       <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:4">
@@ -22357,7 +22371,7 @@
       <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="217" t="s">
+      <c r="A28" s="220" t="s">
         <v>1211</v>
       </c>
       <c r="B28" s="106" t="s">
@@ -22366,33 +22380,33 @@
       <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="217"/>
+      <c r="A29" s="220"/>
       <c r="B29" s="106"/>
       <c r="D29" s="96"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="217"/>
+      <c r="A30" s="220"/>
       <c r="B30" s="13" t="s">
         <v>1213</v>
       </c>
       <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="217"/>
+      <c r="A31" s="220"/>
       <c r="B31" s="77" t="s">
         <v>1214</v>
       </c>
       <c r="D31" s="96"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="217"/>
+      <c r="A32" s="220"/>
       <c r="B32" s="13" t="s">
         <v>1215</v>
       </c>
       <c r="D32" s="96"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="217"/>
+      <c r="A33" s="220"/>
       <c r="B33" s="106"/>
       <c r="D33" s="96"/>
     </row>
@@ -22415,7 +22429,7 @@
       <c r="D35" s="96"/>
     </row>
     <row r="36" spans="1:4" ht="49.5">
-      <c r="A36" s="217" t="s">
+      <c r="A36" s="220" t="s">
         <v>1220</v>
       </c>
       <c r="B36" s="106" t="s">
@@ -22424,33 +22438,33 @@
       <c r="D36" s="96"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="217"/>
+      <c r="A37" s="220"/>
       <c r="B37" s="106"/>
       <c r="D37" s="96"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="217"/>
+      <c r="A38" s="220"/>
       <c r="B38" s="13" t="s">
         <v>1222</v>
       </c>
       <c r="D38" s="96"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="217"/>
+      <c r="A39" s="220"/>
       <c r="B39" s="13" t="s">
         <v>1223</v>
       </c>
       <c r="D39" s="96"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="217"/>
+      <c r="A40" s="220"/>
       <c r="B40" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="D40" s="96"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="217"/>
+      <c r="A41" s="220"/>
       <c r="B41" s="106"/>
       <c r="D41" s="96"/>
     </row>
@@ -22480,7 +22494,7 @@
       <c r="D44" s="96"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="220" t="s">
         <v>1230</v>
       </c>
       <c r="B45" s="106" t="s">
@@ -22489,31 +22503,31 @@
       <c r="D45" s="96"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="217"/>
+      <c r="A46" s="220"/>
       <c r="B46" s="106"/>
       <c r="D46" s="96"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="217"/>
+      <c r="A47" s="220"/>
       <c r="B47" s="13" t="s">
         <v>1232</v>
       </c>
       <c r="D47" s="96"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="217"/>
+      <c r="A48" s="220"/>
       <c r="B48" s="77" t="s">
         <v>1233</v>
       </c>
       <c r="D48" s="96"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="217"/>
+      <c r="A49" s="220"/>
       <c r="B49" s="106"/>
       <c r="D49" s="96"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="220" t="s">
         <v>1234</v>
       </c>
       <c r="B50" s="106" t="s">
@@ -22522,45 +22536,45 @@
       <c r="D50" s="96"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="217"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="106"/>
       <c r="D51" s="96"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="217"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="13" t="s">
         <v>1236</v>
       </c>
       <c r="D52" s="96"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="217"/>
+      <c r="A53" s="220"/>
       <c r="B53" s="78" t="s">
         <v>1237</v>
       </c>
       <c r="D53" s="96"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="217"/>
+      <c r="A54" s="220"/>
       <c r="B54" s="79" t="s">
         <v>1238</v>
       </c>
       <c r="D54" s="96"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="217"/>
+      <c r="A55" s="220"/>
       <c r="B55" s="78" t="s">
         <v>1239</v>
       </c>
       <c r="D55" s="96"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="217"/>
+      <c r="A56" s="220"/>
       <c r="B56" s="106"/>
       <c r="D56" s="96"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="217" t="s">
+      <c r="A57" s="220" t="s">
         <v>1240</v>
       </c>
       <c r="B57" s="106" t="s">
@@ -22569,24 +22583,24 @@
       <c r="D57" s="96"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="217"/>
+      <c r="A58" s="220"/>
       <c r="B58" s="106"/>
       <c r="D58" s="96"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="217"/>
+      <c r="A59" s="220"/>
       <c r="B59" s="13" t="s">
         <v>1242</v>
       </c>
       <c r="D59" s="96"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="217"/>
+      <c r="A60" s="220"/>
       <c r="B60" s="106"/>
       <c r="D60" s="96"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="217"/>
+      <c r="A61" s="220"/>
       <c r="B61" s="106"/>
       <c r="D61" s="96"/>
     </row>
@@ -22672,7 +22686,7 @@
       <c r="D71" s="96"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="217" t="s">
+      <c r="A72" s="220" t="s">
         <v>1391</v>
       </c>
       <c r="B72" s="106" t="s">
@@ -22681,24 +22695,24 @@
       <c r="D72" s="96"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="217"/>
+      <c r="A73" s="220"/>
       <c r="B73" s="106"/>
       <c r="D73" s="96"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="217"/>
+      <c r="A74" s="220"/>
       <c r="B74" s="13" t="s">
         <v>1257</v>
       </c>
       <c r="D74" s="96"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="217"/>
+      <c r="A75" s="220"/>
       <c r="B75" s="106"/>
       <c r="D75" s="96"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="217" t="s">
+      <c r="A76" s="220" t="s">
         <v>1393</v>
       </c>
       <c r="B76" s="106" t="s">
@@ -22707,31 +22721,31 @@
       <c r="D76" s="96"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="217"/>
+      <c r="A77" s="220"/>
       <c r="B77" s="106"/>
       <c r="D77" s="96"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="217"/>
+      <c r="A78" s="220"/>
       <c r="B78" s="77" t="s">
         <v>1258</v>
       </c>
       <c r="D78" s="96"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="217"/>
+      <c r="A79" s="220"/>
       <c r="B79" s="80" t="s">
         <v>1259</v>
       </c>
       <c r="D79" s="96"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="217"/>
+      <c r="A80" s="220"/>
       <c r="B80" s="106"/>
       <c r="D80" s="96"/>
     </row>
     <row r="81" spans="1:4" ht="33">
-      <c r="A81" s="217" t="s">
+      <c r="A81" s="220" t="s">
         <v>1395</v>
       </c>
       <c r="B81" s="106" t="s">
@@ -22740,68 +22754,68 @@
       <c r="D81" s="96"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="217"/>
+      <c r="A82" s="220"/>
       <c r="B82" s="106"/>
       <c r="D82" s="96"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="217"/>
+      <c r="A83" s="220"/>
       <c r="B83" s="106" t="s">
         <v>1574</v>
       </c>
       <c r="D83" s="96"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="217"/>
+      <c r="A84" s="220"/>
       <c r="B84" s="81" t="s">
         <v>1260</v>
       </c>
       <c r="D84" s="96"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="217"/>
+      <c r="A85" s="220"/>
       <c r="B85" s="77" t="s">
         <v>1261</v>
       </c>
       <c r="D85" s="96"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="217"/>
+      <c r="A86" s="220"/>
       <c r="B86" s="77" t="s">
         <v>1262</v>
       </c>
       <c r="D86" s="96"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="217"/>
+      <c r="A87" s="220"/>
       <c r="B87" s="77" t="s">
         <v>1263</v>
       </c>
       <c r="D87" s="96"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="217"/>
+      <c r="A88" s="220"/>
       <c r="B88" s="77" t="s">
         <v>1264</v>
       </c>
       <c r="D88" s="96"/>
     </row>
     <row r="89" spans="1:4" ht="33">
-      <c r="A89" s="217"/>
+      <c r="A89" s="220"/>
       <c r="B89" s="106" t="s">
         <v>1572</v>
       </c>
       <c r="D89" s="96"/>
     </row>
     <row r="90" spans="1:4" ht="49.5">
-      <c r="A90" s="217"/>
+      <c r="A90" s="220"/>
       <c r="B90" s="106" t="s">
         <v>1573</v>
       </c>
       <c r="D90" s="96"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="220" t="s">
         <v>1397</v>
       </c>
       <c r="B91" s="106" t="s">
@@ -22810,40 +22824,40 @@
       <c r="D91" s="96"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="217"/>
+      <c r="A92" s="220"/>
       <c r="B92" s="106"/>
       <c r="D92" s="96"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="217"/>
+      <c r="A93" s="220"/>
       <c r="B93" s="13" t="s">
         <v>1265</v>
       </c>
       <c r="D93" s="96"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="217"/>
+      <c r="A94" s="220"/>
       <c r="B94" s="13" t="s">
         <v>1266</v>
       </c>
       <c r="D94" s="96"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="217"/>
+      <c r="A95" s="220"/>
       <c r="B95" s="77" t="s">
         <v>1267</v>
       </c>
       <c r="D95" s="96"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="217"/>
+      <c r="A96" s="220"/>
       <c r="B96" s="106" t="s">
         <v>1571</v>
       </c>
       <c r="D96" s="96"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="217" t="s">
+      <c r="A97" s="220" t="s">
         <v>1399</v>
       </c>
       <c r="B97" s="106" t="s">
@@ -22852,31 +22866,31 @@
       <c r="D97" s="96"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="217"/>
+      <c r="A98" s="220"/>
       <c r="B98" s="106"/>
       <c r="D98" s="96"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="217"/>
+      <c r="A99" s="220"/>
       <c r="B99" s="77" t="s">
         <v>1268</v>
       </c>
       <c r="D99" s="96"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="217"/>
+      <c r="A100" s="220"/>
       <c r="B100" s="80" t="s">
         <v>1269</v>
       </c>
       <c r="D100" s="96"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="217"/>
+      <c r="A101" s="220"/>
       <c r="B101" s="106"/>
       <c r="D101" s="96"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="217" t="s">
+      <c r="A102" s="220" t="s">
         <v>1401</v>
       </c>
       <c r="B102" s="106" t="s">
@@ -22885,26 +22899,26 @@
       <c r="D102" s="96"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="217"/>
+      <c r="A103" s="220"/>
       <c r="B103" s="106"/>
       <c r="D103" s="96"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="217"/>
+      <c r="A104" s="220"/>
       <c r="B104" s="77" t="s">
         <v>1270</v>
       </c>
       <c r="D104" s="96"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="217"/>
+      <c r="A105" s="220"/>
       <c r="B105" s="80" t="s">
         <v>1271</v>
       </c>
       <c r="D105" s="96"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="217"/>
+      <c r="A106" s="220"/>
       <c r="B106" s="106"/>
       <c r="D106" s="96"/>
     </row>
@@ -22916,7 +22930,7 @@
       <c r="D107" s="96"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="217" t="s">
+      <c r="A108" s="220" t="s">
         <v>1272</v>
       </c>
       <c r="B108" s="106" t="s">
@@ -22925,55 +22939,55 @@
       <c r="D108" s="96"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="217"/>
+      <c r="A109" s="220"/>
       <c r="B109" s="106"/>
       <c r="D109" s="96"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="217"/>
+      <c r="A110" s="220"/>
       <c r="B110" s="106"/>
       <c r="D110" s="96"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="217"/>
+      <c r="A111" s="220"/>
       <c r="B111" s="13" t="s">
         <v>1273</v>
       </c>
       <c r="D111" s="96"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="217"/>
+      <c r="A112" s="220"/>
       <c r="B112" s="82" t="s">
         <v>1274</v>
       </c>
       <c r="D112" s="96"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="217"/>
+      <c r="A113" s="220"/>
       <c r="B113" s="13" t="s">
         <v>1275</v>
       </c>
       <c r="D113" s="96"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="217"/>
+      <c r="A114" s="220"/>
       <c r="B114" s="82" t="s">
         <v>1276</v>
       </c>
       <c r="D114" s="96"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="217"/>
+      <c r="A115" s="220"/>
       <c r="B115" s="106"/>
       <c r="D115" s="96"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="217"/>
+      <c r="A116" s="220"/>
       <c r="B116" s="106"/>
       <c r="D116" s="96"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="219" t="s">
+      <c r="A117" s="222" t="s">
         <v>1277</v>
       </c>
       <c r="B117" s="106" t="s">
@@ -22982,33 +22996,33 @@
       <c r="D117" s="96"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="219"/>
+      <c r="A118" s="222"/>
       <c r="B118" s="106"/>
       <c r="D118" s="96"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="219"/>
+      <c r="A119" s="222"/>
       <c r="B119" s="13" t="s">
         <v>1278</v>
       </c>
       <c r="D119" s="96"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="219"/>
+      <c r="A120" s="222"/>
       <c r="B120" s="77" t="s">
         <v>1279</v>
       </c>
       <c r="D120" s="96"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="219"/>
+      <c r="A121" s="222"/>
       <c r="B121" s="82" t="s">
         <v>1280</v>
       </c>
       <c r="D121" s="96"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="219"/>
+      <c r="A122" s="222"/>
       <c r="B122" s="106"/>
       <c r="D122" s="96"/>
     </row>
@@ -24324,7 +24338,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="115"/>
-      <c r="B279" s="218" t="s">
+      <c r="B279" s="221" t="s">
         <v>720</v>
       </c>
       <c r="C279" s="106" t="s">
@@ -24334,7 +24348,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="115"/>
-      <c r="B280" s="218"/>
+      <c r="B280" s="221"/>
       <c r="C280" s="106" t="s">
         <v>722</v>
       </c>
@@ -24342,7 +24356,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="115"/>
-      <c r="B281" s="218"/>
+      <c r="B281" s="221"/>
       <c r="C281" s="106" t="s">
         <v>723</v>
       </c>
@@ -24350,7 +24364,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="115"/>
-      <c r="B282" s="218"/>
+      <c r="B282" s="221"/>
       <c r="C282" s="106" t="s">
         <v>724</v>
       </c>
@@ -24358,7 +24372,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="115"/>
-      <c r="B283" s="218"/>
+      <c r="B283" s="221"/>
       <c r="C283" s="116" t="s">
         <v>725</v>
       </c>
@@ -24366,7 +24380,7 @@
     </row>
     <row r="284" spans="1:4" ht="66">
       <c r="A284" s="115"/>
-      <c r="B284" s="218"/>
+      <c r="B284" s="221"/>
       <c r="C284" s="106" t="s">
         <v>1623</v>
       </c>
@@ -24376,7 +24390,7 @@
     </row>
     <row r="285" spans="1:4" ht="49.5">
       <c r="A285" s="115"/>
-      <c r="B285" s="218"/>
+      <c r="B285" s="221"/>
       <c r="C285" s="106" t="s">
         <v>1620</v>
       </c>
@@ -24386,7 +24400,7 @@
     </row>
     <row r="286" spans="1:4" ht="33">
       <c r="A286" s="115"/>
-      <c r="B286" s="218"/>
+      <c r="B286" s="221"/>
       <c r="C286" s="106" t="s">
         <v>726</v>
       </c>
@@ -26829,6 +26843,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B279:B286"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="A117:A122"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -26839,13 +26860,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B279:B286"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="A117:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -28803,13 +28817,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" customHeight="1">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="223" t="s">
         <v>1030</v>
       </c>
-      <c r="B18" s="222"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28908,8 +28922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29242,9 +29256,12 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="75">
       <c r="A55" s="64" t="s">
         <v>1010</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2294</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -29252,9 +29269,12 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="75">
       <c r="A57" s="64" t="s">
         <v>1016</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2295</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -29438,7 +29458,9 @@
       <c r="A86" s="140" t="s">
         <v>979</v>
       </c>
-      <c r="B86" s="106"/>
+      <c r="B86" s="186" t="s">
+        <v>2296</v>
+      </c>
       <c r="C86" s="106"/>
     </row>
     <row r="87" spans="1:3" ht="16.5">

--- a/Python2.7/Python summary-filter.xlsx
+++ b/Python2.7/Python summary-filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7965" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="2297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="2300">
   <si>
     <t>Python教程</t>
   </si>
@@ -13331,6 +13331,15 @@
   </si>
   <si>
     <t>sum(seq, init = 0) 返回seq和可选参数init的总和</t>
+  </si>
+  <si>
+    <t>dict.pop(key)</t>
+  </si>
+  <si>
+    <t>sorted(dic.iteritems(), key=lambda d:d[1], reverse = False )</t>
+  </si>
+  <si>
+    <t>将每一项dic.iteritems()键值对的元祖进行迭代，每一项都作为参数传入key()函数</t>
   </si>
 </sst>
 </file>
@@ -14513,7 +14522,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15075,13 +15084,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15090,22 +15096,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15126,9 +15153,6 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15141,38 +15165,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -15182,6 +15188,12 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15411,13 +15423,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1743074</xdr:colOff>
-      <xdr:row>497</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2838449</xdr:colOff>
-      <xdr:row>507</xdr:row>
+      <xdr:row>509</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15458,13 +15470,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>508</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>514</xdr:row>
+      <xdr:row>516</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15505,13 +15517,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>544</xdr:row>
+      <xdr:row>546</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>551</xdr:row>
+      <xdr:row>553</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16743,7 +16755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -17139,110 +17151,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="191" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="190" t="s">
+      <c r="B6" s="189" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="10"/>
       <c r="H7" s="188"/>
       <c r="I7" s="188"/>
@@ -17252,33 +17264,33 @@
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="7" t="s">
@@ -17304,17 +17316,17 @@
       <c r="A11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="191"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="7" t="s">
@@ -17388,33 +17400,33 @@
       <c r="A15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="191" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="189" t="s">
+      <c r="B16" s="191" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="7" t="s">
@@ -17437,46 +17449,46 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="16.5">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="189" t="s">
+      <c r="B19" s="191" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="189"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
     </row>
     <row r="20" spans="1:10" ht="16.5">
       <c r="A20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="189" t="s">
+      <c r="B20" s="191" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="189"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
       <c r="G20" s="10"/>
       <c r="H20" s="188"/>
       <c r="I20" s="188"/>
@@ -17506,21 +17518,21 @@
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="189" t="s">
+      <c r="B22" s="191" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
       <c r="G22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="191" t="s">
         <v>213</v>
       </c>
-      <c r="I22" s="189"/>
-      <c r="J22" s="189"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
     </row>
     <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="10" t="s">
@@ -17566,10 +17578,10 @@
       <c r="A25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="189" t="s">
+      <c r="B25" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="189"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="10" t="s">
         <v>157</v>
       </c>
@@ -17590,10 +17602,10 @@
       <c r="A26" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="189" t="s">
+      <c r="B26" s="191" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="189"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="10" t="s">
         <v>153</v>
       </c>
@@ -17604,37 +17616,37 @@
       <c r="G26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="189" t="s">
+      <c r="H26" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="189"/>
-      <c r="J26" s="189"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
     </row>
     <row r="27" spans="1:10" ht="16.5">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="192"/>
     </row>
     <row r="28" spans="1:10" ht="16.5">
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
       <c r="G28" s="10"/>
       <c r="H28" s="188"/>
       <c r="I28" s="188"/>
@@ -17660,17 +17672,17 @@
       <c r="A30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="190"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
     </row>
     <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="10" t="s">
@@ -17692,49 +17704,49 @@
       <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="190"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
       <c r="A33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="189"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
     </row>
     <row r="34" spans="1:10" ht="33" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="189" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="190"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:10" ht="16.5">
       <c r="A35" s="10" t="s">
@@ -17753,18 +17765,18 @@
       <c r="J35" s="188"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="187"/>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
     </row>
     <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="10" t="s">
@@ -17786,13 +17798,13 @@
       <c r="A38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="191" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="189"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="189"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
       <c r="G38" s="10" t="s">
         <v>133</v>
       </c>
@@ -17816,11 +17828,11 @@
       <c r="G39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="189" t="s">
+      <c r="H39" s="191" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="189"/>
-      <c r="J39" s="189"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
     </row>
     <row r="40" spans="1:10" ht="16.5">
       <c r="A40" s="10" t="s">
@@ -17840,11 +17852,11 @@
       <c r="G40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="189" t="s">
+      <c r="H40" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="189"/>
-      <c r="J40" s="189"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
     </row>
     <row r="41" spans="1:10" ht="16.5">
       <c r="A41" s="10" t="s">
@@ -17864,20 +17876,20 @@
       <c r="G41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="189" t="s">
+      <c r="H41" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
     </row>
     <row r="42" spans="1:10" ht="16.5">
       <c r="A42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="189" t="s">
+      <c r="B42" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="189"/>
+      <c r="C42" s="191"/>
       <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
@@ -17886,9 +17898,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="191"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="4"/>
@@ -17913,11 +17925,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="E14:F14"/>
@@ -17934,27 +17962,11 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18408,7 +18420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
@@ -18796,7 +18808,7 @@
       <c r="E5" s="159"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>1814</v>
       </c>
       <c r="B6" s="166" t="s">
@@ -18808,10 +18820,10 @@
       <c r="D6" s="157" t="s">
         <v>1638</v>
       </c>
-      <c r="E6" s="214"/>
+      <c r="E6" s="196"/>
     </row>
     <row r="7" spans="1:5" ht="49.5">
-      <c r="A7" s="194" t="str">
+      <c r="A7" s="195" t="str">
         <f t="shared" ref="A7:A12" si="0">A6</f>
         <v>控件</v>
       </c>
@@ -18824,10 +18836,10 @@
       <c r="D7" s="157" t="s">
         <v>1649</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="197"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="194" t="str">
+      <c r="A8" s="195" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18840,10 +18852,10 @@
       <c r="D8" s="168" t="s">
         <v>1776</v>
       </c>
-      <c r="E8" s="215"/>
+      <c r="E8" s="197"/>
     </row>
     <row r="9" spans="1:5" ht="49.5">
-      <c r="A9" s="194" t="str">
+      <c r="A9" s="195" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18856,10 +18868,10 @@
       <c r="D9" s="168" t="s">
         <v>1803</v>
       </c>
-      <c r="E9" s="215"/>
+      <c r="E9" s="197"/>
     </row>
     <row r="10" spans="1:5" ht="66">
-      <c r="A10" s="194" t="str">
+      <c r="A10" s="195" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18872,10 +18884,10 @@
       <c r="D10" s="168" t="s">
         <v>1817</v>
       </c>
-      <c r="E10" s="215"/>
+      <c r="E10" s="197"/>
     </row>
     <row r="11" spans="1:5" ht="66">
-      <c r="A11" s="194" t="str">
+      <c r="A11" s="195" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18888,10 +18900,10 @@
       <c r="D11" s="168" t="s">
         <v>1835</v>
       </c>
-      <c r="E11" s="215"/>
+      <c r="E11" s="197"/>
     </row>
     <row r="12" spans="1:5" ht="49.5">
-      <c r="A12" s="194" t="str">
+      <c r="A12" s="195" t="str">
         <f t="shared" si="0"/>
         <v>控件</v>
       </c>
@@ -18904,10 +18916,10 @@
       <c r="D12" s="157" t="s">
         <v>1643</v>
       </c>
-      <c r="E12" s="215"/>
+      <c r="E12" s="197"/>
     </row>
     <row r="13" spans="1:5" ht="33">
-      <c r="A13" s="194"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="166" t="s">
         <v>1918</v>
       </c>
@@ -18917,10 +18929,10 @@
       <c r="D13" s="157" t="s">
         <v>1920</v>
       </c>
-      <c r="E13" s="215"/>
+      <c r="E13" s="197"/>
     </row>
     <row r="14" spans="1:5" ht="115.5">
-      <c r="A14" s="194"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="166" t="s">
         <v>1932</v>
       </c>
@@ -18930,10 +18942,10 @@
       <c r="D14" s="157" t="s">
         <v>1934</v>
       </c>
-      <c r="E14" s="215"/>
+      <c r="E14" s="197"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="194"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="169" t="s">
         <v>1969</v>
       </c>
@@ -18943,10 +18955,10 @@
       <c r="D15" s="157" t="s">
         <v>1971</v>
       </c>
-      <c r="E15" s="215"/>
+      <c r="E15" s="197"/>
     </row>
     <row r="16" spans="1:5" ht="82.5">
-      <c r="A16" s="194"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="169" t="s">
         <v>1981</v>
       </c>
@@ -18956,11 +18968,11 @@
       <c r="D16" s="157" t="s">
         <v>1982</v>
       </c>
-      <c r="E16" s="215"/>
+      <c r="E16" s="197"/>
     </row>
     <row r="17" spans="1:5" ht="33">
-      <c r="A17" s="194"/>
-      <c r="B17" s="198" t="s">
+      <c r="A17" s="195"/>
+      <c r="B17" s="204" t="s">
         <v>2011</v>
       </c>
       <c r="C17" s="157" t="s">
@@ -18969,22 +18981,22 @@
       <c r="D17" s="157" t="s">
         <v>2013</v>
       </c>
-      <c r="E17" s="215"/>
+      <c r="E17" s="197"/>
     </row>
     <row r="18" spans="1:5" ht="115.5">
-      <c r="A18" s="194"/>
-      <c r="B18" s="199"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="157" t="s">
         <v>2014</v>
       </c>
       <c r="D18" s="157" t="s">
         <v>2015</v>
       </c>
-      <c r="E18" s="215"/>
+      <c r="E18" s="197"/>
     </row>
     <row r="19" spans="1:5" ht="33">
-      <c r="A19" s="194"/>
-      <c r="B19" s="198" t="s">
+      <c r="A19" s="195"/>
+      <c r="B19" s="204" t="s">
         <v>2016</v>
       </c>
       <c r="C19" s="157" t="s">
@@ -18993,21 +19005,21 @@
       <c r="D19" s="157" t="s">
         <v>2018</v>
       </c>
-      <c r="E19" s="215"/>
+      <c r="E19" s="197"/>
     </row>
     <row r="20" spans="1:5" ht="66">
-      <c r="A20" s="194"/>
-      <c r="B20" s="199"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="157" t="s">
         <v>2161</v>
       </c>
       <c r="D20" s="157" t="s">
         <v>2160</v>
       </c>
-      <c r="E20" s="215"/>
+      <c r="E20" s="197"/>
     </row>
     <row r="21" spans="1:5" ht="66">
-      <c r="A21" s="194"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="183" t="s">
         <v>2019</v>
       </c>
@@ -19017,10 +19029,10 @@
       <c r="D21" s="157" t="s">
         <v>2020</v>
       </c>
-      <c r="E21" s="215"/>
+      <c r="E21" s="197"/>
     </row>
     <row r="22" spans="1:5" ht="115.5">
-      <c r="A22" s="194"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="183" t="s">
         <v>2034</v>
       </c>
@@ -19030,10 +19042,10 @@
       <c r="D22" s="157" t="s">
         <v>2035</v>
       </c>
-      <c r="E22" s="215"/>
+      <c r="E22" s="197"/>
     </row>
     <row r="23" spans="1:5" ht="82.5">
-      <c r="A23" s="194"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="183" t="s">
         <v>2090</v>
       </c>
@@ -19043,10 +19055,10 @@
       <c r="D23" s="157" t="s">
         <v>2092</v>
       </c>
-      <c r="E23" s="215"/>
+      <c r="E23" s="197"/>
     </row>
     <row r="24" spans="1:5" ht="165">
-      <c r="A24" s="194"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="183" t="s">
         <v>2203</v>
       </c>
@@ -19056,10 +19068,10 @@
       <c r="D24" s="157" t="s">
         <v>2205</v>
       </c>
-      <c r="E24" s="215"/>
+      <c r="E24" s="197"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="194"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="182" t="s">
         <v>1896</v>
       </c>
@@ -19069,10 +19081,10 @@
       <c r="D25" s="157" t="s">
         <v>1898</v>
       </c>
-      <c r="E25" s="215"/>
+      <c r="E25" s="197"/>
     </row>
     <row r="26" spans="1:5" ht="280.5">
-      <c r="A26" s="194"/>
+      <c r="A26" s="195"/>
       <c r="B26" s="182" t="s">
         <v>2208</v>
       </c>
@@ -19082,10 +19094,10 @@
       <c r="D26" s="157" t="s">
         <v>2210</v>
       </c>
-      <c r="E26" s="215"/>
+      <c r="E26" s="197"/>
     </row>
     <row r="27" spans="1:5" ht="165">
-      <c r="A27" s="194"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="182" t="s">
         <v>2211</v>
       </c>
@@ -19095,10 +19107,10 @@
       <c r="D27" s="157" t="s">
         <v>2212</v>
       </c>
-      <c r="E27" s="215"/>
+      <c r="E27" s="197"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="194"/>
+      <c r="A28" s="195"/>
       <c r="B28" s="182" t="s">
         <v>2215</v>
       </c>
@@ -19108,10 +19120,10 @@
       <c r="D28" s="157" t="s">
         <v>2216</v>
       </c>
-      <c r="E28" s="215"/>
+      <c r="E28" s="197"/>
     </row>
     <row r="29" spans="1:5" ht="198">
-      <c r="A29" s="194"/>
+      <c r="A29" s="195"/>
       <c r="B29" s="182" t="s">
         <v>2218</v>
       </c>
@@ -19121,10 +19133,10 @@
       <c r="D29" s="157" t="s">
         <v>2219</v>
       </c>
-      <c r="E29" s="215"/>
+      <c r="E29" s="197"/>
     </row>
     <row r="30" spans="1:5" ht="264">
-      <c r="A30" s="194" t="str">
+      <c r="A30" s="195" t="str">
         <f>A12</f>
         <v>控件</v>
       </c>
@@ -19137,7 +19149,7 @@
       <c r="D30" s="157" t="s">
         <v>2207</v>
       </c>
-      <c r="E30" s="216"/>
+      <c r="E30" s="198"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="166" t="s">
@@ -19179,7 +19191,7 @@
       <c r="E33" s="158"/>
     </row>
     <row r="34" spans="1:5" ht="165">
-      <c r="A34" s="194" t="s">
+      <c r="A34" s="195" t="s">
         <v>1771</v>
       </c>
       <c r="B34" s="170" t="s">
@@ -19191,10 +19203,10 @@
       <c r="D34" s="168" t="s">
         <v>1772</v>
       </c>
-      <c r="E34" s="214"/>
+      <c r="E34" s="196"/>
     </row>
     <row r="35" spans="1:5" ht="66">
-      <c r="A35" s="194" t="str">
+      <c r="A35" s="195" t="str">
         <f t="shared" ref="A35" si="1">A34</f>
         <v>textvariable</v>
       </c>
@@ -19207,10 +19219,10 @@
       <c r="D35" s="168" t="s">
         <v>1778</v>
       </c>
-      <c r="E35" s="215"/>
+      <c r="E35" s="197"/>
     </row>
     <row r="36" spans="1:5" ht="66">
-      <c r="A36" s="194"/>
+      <c r="A36" s="195"/>
       <c r="B36" s="170" t="s">
         <v>1969</v>
       </c>
@@ -19220,10 +19232,10 @@
       <c r="D36" s="168" t="s">
         <v>1977</v>
       </c>
-      <c r="E36" s="215"/>
+      <c r="E36" s="197"/>
     </row>
     <row r="37" spans="1:5" ht="49.5">
-      <c r="A37" s="194"/>
+      <c r="A37" s="195"/>
       <c r="B37" s="170" t="s">
         <v>2046</v>
       </c>
@@ -19233,10 +19245,10 @@
       <c r="D37" s="168" t="s">
         <v>2048</v>
       </c>
-      <c r="E37" s="215"/>
+      <c r="E37" s="197"/>
     </row>
     <row r="38" spans="1:5" ht="49.5">
-      <c r="A38" s="194" t="str">
+      <c r="A38" s="195" t="str">
         <f>A35</f>
         <v>textvariable</v>
       </c>
@@ -19249,10 +19261,10 @@
       <c r="D38" s="168" t="s">
         <v>1907</v>
       </c>
-      <c r="E38" s="216"/>
+      <c r="E38" s="198"/>
     </row>
     <row r="39" spans="1:5" ht="82.5">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="213" t="s">
         <v>1808</v>
       </c>
       <c r="B39" s="157" t="s">
@@ -19264,10 +19276,10 @@
       <c r="D39" s="168" t="s">
         <v>1810</v>
       </c>
-      <c r="E39" s="217"/>
+      <c r="E39" s="199"/>
     </row>
     <row r="40" spans="1:5" ht="66">
-      <c r="A40" s="208" t="str">
+      <c r="A40" s="213" t="str">
         <f>A39</f>
         <v>variable</v>
       </c>
@@ -19280,10 +19292,10 @@
       <c r="D40" s="168" t="s">
         <v>1821</v>
       </c>
-      <c r="E40" s="217"/>
+      <c r="E40" s="199"/>
     </row>
     <row r="41" spans="1:5" ht="66">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="213" t="s">
         <v>1828</v>
       </c>
       <c r="B41" s="157" t="s">
@@ -19295,10 +19307,10 @@
       <c r="D41" s="168" t="s">
         <v>1829</v>
       </c>
-      <c r="E41" s="206"/>
+      <c r="E41" s="211"/>
     </row>
     <row r="42" spans="1:5" ht="66">
-      <c r="A42" s="208" t="str">
+      <c r="A42" s="213" t="str">
         <f>A41</f>
         <v>value</v>
       </c>
@@ -19311,7 +19323,7 @@
       <c r="D42" s="168" t="s">
         <v>1903</v>
       </c>
-      <c r="E42" s="207"/>
+      <c r="E42" s="212"/>
     </row>
     <row r="43" spans="1:5" ht="99">
       <c r="A43" s="171" t="s">
@@ -19329,7 +19341,7 @@
       <c r="E43" s="160"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="195" t="s">
         <v>1654</v>
       </c>
       <c r="B44" s="170" t="s">
@@ -19341,10 +19353,10 @@
       <c r="D44" s="157" t="s">
         <v>1822</v>
       </c>
-      <c r="E44" s="204"/>
+      <c r="E44" s="200"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="194" t="str">
+      <c r="A45" s="195" t="str">
         <f t="shared" ref="A45:A54" si="2">A44</f>
         <v>bitmap</v>
       </c>
@@ -19355,10 +19367,10 @@
       <c r="D45" s="157" t="s">
         <v>1704</v>
       </c>
-      <c r="E45" s="204"/>
+      <c r="E45" s="200"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="194" t="str">
+      <c r="A46" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19369,10 +19381,10 @@
       <c r="D46" s="157" t="s">
         <v>1705</v>
       </c>
-      <c r="E46" s="204"/>
+      <c r="E46" s="200"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="194" t="str">
+      <c r="A47" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19383,10 +19395,10 @@
       <c r="D47" s="157" t="s">
         <v>1706</v>
       </c>
-      <c r="E47" s="204"/>
+      <c r="E47" s="200"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="194" t="str">
+      <c r="A48" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19397,10 +19409,10 @@
       <c r="D48" s="157" t="s">
         <v>1707</v>
       </c>
-      <c r="E48" s="204"/>
+      <c r="E48" s="200"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="194" t="str">
+      <c r="A49" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19411,10 +19423,10 @@
       <c r="D49" s="157" t="s">
         <v>1708</v>
       </c>
-      <c r="E49" s="204"/>
+      <c r="E49" s="200"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="194" t="str">
+      <c r="A50" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19425,10 +19437,10 @@
       <c r="D50" s="157" t="s">
         <v>1709</v>
       </c>
-      <c r="E50" s="204"/>
+      <c r="E50" s="200"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="194" t="str">
+      <c r="A51" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19439,10 +19451,10 @@
       <c r="D51" s="157" t="s">
         <v>1710</v>
       </c>
-      <c r="E51" s="204"/>
+      <c r="E51" s="200"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="194" t="str">
+      <c r="A52" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19453,10 +19465,10 @@
       <c r="D52" s="157" t="s">
         <v>1711</v>
       </c>
-      <c r="E52" s="204"/>
+      <c r="E52" s="200"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="194" t="str">
+      <c r="A53" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19467,10 +19479,10 @@
       <c r="D53" s="157" t="s">
         <v>1712</v>
       </c>
-      <c r="E53" s="204"/>
+      <c r="E53" s="200"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="194" t="str">
+      <c r="A54" s="195" t="str">
         <f t="shared" si="2"/>
         <v>bitmap</v>
       </c>
@@ -19481,10 +19493,10 @@
       <c r="D54" s="157" t="s">
         <v>1713</v>
       </c>
-      <c r="E54" s="204"/>
+      <c r="E54" s="200"/>
     </row>
     <row r="55" spans="1:5" ht="33">
-      <c r="A55" s="194" t="s">
+      <c r="A55" s="195" t="s">
         <v>1686</v>
       </c>
       <c r="B55" s="170" t="s">
@@ -19496,10 +19508,10 @@
       <c r="D55" s="157" t="s">
         <v>1688</v>
       </c>
-      <c r="E55" s="204"/>
+      <c r="E55" s="200"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="194" t="str">
+      <c r="A56" s="195" t="str">
         <f t="shared" ref="A56:A60" si="3">A55</f>
         <v>compound</v>
       </c>
@@ -19508,10 +19520,10 @@
         <v>1690</v>
       </c>
       <c r="D56" s="157"/>
-      <c r="E56" s="204"/>
+      <c r="E56" s="200"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="194" t="str">
+      <c r="A57" s="195" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19520,10 +19532,10 @@
         <v>1691</v>
       </c>
       <c r="D57" s="157"/>
-      <c r="E57" s="204"/>
+      <c r="E57" s="200"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="194" t="str">
+      <c r="A58" s="195" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19532,10 +19544,10 @@
         <v>1692</v>
       </c>
       <c r="D58" s="157"/>
-      <c r="E58" s="204"/>
+      <c r="E58" s="200"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="194" t="str">
+      <c r="A59" s="195" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19544,10 +19556,10 @@
         <v>1693</v>
       </c>
       <c r="D59" s="157"/>
-      <c r="E59" s="204"/>
+      <c r="E59" s="200"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="194" t="str">
+      <c r="A60" s="195" t="str">
         <f t="shared" si="3"/>
         <v>compound</v>
       </c>
@@ -19556,10 +19568,10 @@
         <v>1823</v>
       </c>
       <c r="D60" s="157"/>
-      <c r="E60" s="204"/>
+      <c r="E60" s="200"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="194" t="s">
+      <c r="A61" s="195" t="s">
         <v>1670</v>
       </c>
       <c r="B61" s="170" t="s">
@@ -19569,10 +19581,10 @@
         <v>1671</v>
       </c>
       <c r="D61" s="157"/>
-      <c r="E61" s="204"/>
+      <c r="E61" s="200"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="194" t="str">
+      <c r="A62" s="195" t="str">
         <f t="shared" ref="A62:A74" si="4">A61</f>
         <v>fg/bg</v>
       </c>
@@ -19581,10 +19593,10 @@
         <v>1677</v>
       </c>
       <c r="D62" s="157"/>
-      <c r="E62" s="204"/>
+      <c r="E62" s="200"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="194" t="str">
+      <c r="A63" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19595,10 +19607,10 @@
       <c r="D63" s="157" t="s">
         <v>1714</v>
       </c>
-      <c r="E63" s="204"/>
+      <c r="E63" s="200"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="194" t="str">
+      <c r="A64" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19609,10 +19621,10 @@
       <c r="D64" s="157" t="s">
         <v>1715</v>
       </c>
-      <c r="E64" s="204"/>
+      <c r="E64" s="200"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="194" t="str">
+      <c r="A65" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19623,10 +19635,10 @@
       <c r="D65" s="157" t="s">
         <v>1716</v>
       </c>
-      <c r="E65" s="204"/>
+      <c r="E65" s="200"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="194" t="str">
+      <c r="A66" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19637,10 +19649,10 @@
       <c r="D66" s="157" t="s">
         <v>1717</v>
       </c>
-      <c r="E66" s="204"/>
+      <c r="E66" s="200"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="194" t="str">
+      <c r="A67" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19651,10 +19663,10 @@
       <c r="D67" s="157" t="s">
         <v>1718</v>
       </c>
-      <c r="E67" s="204"/>
+      <c r="E67" s="200"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="194" t="str">
+      <c r="A68" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19663,10 +19675,10 @@
         <v>1678</v>
       </c>
       <c r="D68" s="157"/>
-      <c r="E68" s="204"/>
+      <c r="E68" s="200"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="194" t="str">
+      <c r="A69" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19675,10 +19687,10 @@
         <v>1679</v>
       </c>
       <c r="D69" s="157"/>
-      <c r="E69" s="204"/>
+      <c r="E69" s="200"/>
     </row>
     <row r="70" spans="1:5" ht="33">
-      <c r="A70" s="194" t="str">
+      <c r="A70" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19687,10 +19699,10 @@
         <v>1680</v>
       </c>
       <c r="D70" s="157"/>
-      <c r="E70" s="204"/>
+      <c r="E70" s="200"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="194" t="str">
+      <c r="A71" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19699,10 +19711,10 @@
         <v>1681</v>
       </c>
       <c r="D71" s="157"/>
-      <c r="E71" s="204"/>
+      <c r="E71" s="200"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="194" t="str">
+      <c r="A72" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19711,10 +19723,10 @@
         <v>1682</v>
       </c>
       <c r="D72" s="157"/>
-      <c r="E72" s="204"/>
+      <c r="E72" s="200"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="194" t="str">
+      <c r="A73" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19723,10 +19735,10 @@
         <v>1683</v>
       </c>
       <c r="D73" s="173"/>
-      <c r="E73" s="204"/>
+      <c r="E73" s="200"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="194" t="str">
+      <c r="A74" s="195" t="str">
         <f t="shared" si="4"/>
         <v>fg/bg</v>
       </c>
@@ -19735,7 +19747,7 @@
         <v>1684</v>
       </c>
       <c r="D74" s="173"/>
-      <c r="E74" s="204"/>
+      <c r="E74" s="200"/>
     </row>
     <row r="75" spans="1:5" ht="33">
       <c r="A75" s="166" t="s">
@@ -19794,7 +19806,7 @@
       <c r="E78" s="158"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="194" t="s">
+      <c r="A79" s="195" t="s">
         <v>1698</v>
       </c>
       <c r="B79" s="170" t="s">
@@ -19804,10 +19816,10 @@
         <v>1719</v>
       </c>
       <c r="D79" s="157"/>
-      <c r="E79" s="204"/>
+      <c r="E79" s="200"/>
     </row>
     <row r="80" spans="1:5" ht="33">
-      <c r="A80" s="194" t="str">
+      <c r="A80" s="195" t="str">
         <f t="shared" ref="A80:A81" si="5">A79</f>
         <v>justify</v>
       </c>
@@ -19818,10 +19830,10 @@
       <c r="D80" s="157" t="s">
         <v>1721</v>
       </c>
-      <c r="E80" s="204"/>
+      <c r="E80" s="200"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="194" t="str">
+      <c r="A81" s="195" t="str">
         <f t="shared" si="5"/>
         <v>justify</v>
       </c>
@@ -19830,7 +19842,7 @@
         <v>1703</v>
       </c>
       <c r="D81" s="157"/>
-      <c r="E81" s="204"/>
+      <c r="E81" s="200"/>
     </row>
     <row r="82" spans="1:5" ht="33">
       <c r="A82" s="169"/>
@@ -19846,7 +19858,7 @@
       <c r="E82" s="161"/>
     </row>
     <row r="83" spans="1:5" ht="33">
-      <c r="A83" s="194" t="s">
+      <c r="A83" s="195" t="s">
         <v>1699</v>
       </c>
       <c r="B83" s="170" t="s">
@@ -19856,10 +19868,10 @@
         <v>1700</v>
       </c>
       <c r="D83" s="157"/>
-      <c r="E83" s="204"/>
+      <c r="E83" s="200"/>
     </row>
     <row r="84" spans="1:5" ht="66">
-      <c r="A84" s="194" t="str">
+      <c r="A84" s="195" t="str">
         <f>A83</f>
         <v>ahchor</v>
       </c>
@@ -19870,10 +19882,10 @@
       <c r="D84" s="157" t="s">
         <v>1722</v>
       </c>
-      <c r="E84" s="204"/>
+      <c r="E84" s="200"/>
     </row>
     <row r="85" spans="1:5" s="91" customFormat="1" ht="33">
-      <c r="A85" s="195" t="s">
+      <c r="A85" s="216" t="s">
         <v>1763</v>
       </c>
       <c r="B85" s="174" t="s">
@@ -19885,10 +19897,10 @@
       <c r="D85" s="174" t="s">
         <v>1764</v>
       </c>
-      <c r="E85" s="205"/>
+      <c r="E85" s="210"/>
     </row>
     <row r="86" spans="1:5" s="91" customFormat="1">
-      <c r="A86" s="195" t="str">
+      <c r="A86" s="216" t="str">
         <f t="shared" ref="A86:A87" si="6">A85</f>
         <v>StringVar</v>
       </c>
@@ -19901,10 +19913,10 @@
       <c r="D86" s="174" t="s">
         <v>1765</v>
       </c>
-      <c r="E86" s="205"/>
+      <c r="E86" s="210"/>
     </row>
     <row r="87" spans="1:5" s="91" customFormat="1">
-      <c r="A87" s="195" t="str">
+      <c r="A87" s="216" t="str">
         <f t="shared" si="6"/>
         <v>StringVar</v>
       </c>
@@ -19917,10 +19929,10 @@
       <c r="D87" s="174" t="s">
         <v>1769</v>
       </c>
-      <c r="E87" s="205"/>
+      <c r="E87" s="210"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="194" t="s">
+      <c r="A88" s="195" t="s">
         <v>1868</v>
       </c>
       <c r="B88" s="174" t="s">
@@ -19932,10 +19944,10 @@
       <c r="D88" s="157" t="s">
         <v>1870</v>
       </c>
-      <c r="E88" s="204"/>
+      <c r="E88" s="200"/>
     </row>
     <row r="89" spans="1:5" s="91" customFormat="1">
-      <c r="A89" s="194" t="str">
+      <c r="A89" s="195" t="str">
         <f t="shared" ref="A89:A90" si="7">A88</f>
         <v>IntVar</v>
       </c>
@@ -19948,10 +19960,10 @@
       <c r="D89" s="174" t="s">
         <v>1765</v>
       </c>
-      <c r="E89" s="204"/>
+      <c r="E89" s="200"/>
     </row>
     <row r="90" spans="1:5" s="91" customFormat="1">
-      <c r="A90" s="194" t="str">
+      <c r="A90" s="195" t="str">
         <f t="shared" si="7"/>
         <v>IntVar</v>
       </c>
@@ -19964,10 +19976,10 @@
       <c r="D90" s="174" t="s">
         <v>1871</v>
       </c>
-      <c r="E90" s="204"/>
+      <c r="E90" s="200"/>
     </row>
     <row r="91" spans="1:5" ht="33">
-      <c r="A91" s="196" t="s">
+      <c r="A91" s="217" t="s">
         <v>1728</v>
       </c>
       <c r="B91" s="170" t="s">
@@ -19979,10 +19991,10 @@
       <c r="D91" s="168" t="s">
         <v>1729</v>
       </c>
-      <c r="E91" s="204"/>
+      <c r="E91" s="200"/>
     </row>
     <row r="92" spans="1:5" ht="33">
-      <c r="A92" s="196" t="str">
+      <c r="A92" s="217" t="str">
         <f t="shared" ref="A92" si="8">A91</f>
         <v>command</v>
       </c>
@@ -19995,10 +20007,10 @@
       <c r="D92" s="168" t="s">
         <v>1806</v>
       </c>
-      <c r="E92" s="204"/>
+      <c r="E92" s="200"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="196"/>
+      <c r="A93" s="217"/>
       <c r="B93" s="170" t="s">
         <v>1918</v>
       </c>
@@ -20008,10 +20020,10 @@
       <c r="D93" s="168" t="s">
         <v>1924</v>
       </c>
-      <c r="E93" s="204"/>
+      <c r="E93" s="200"/>
     </row>
     <row r="94" spans="1:5" ht="49.5">
-      <c r="A94" s="196" t="str">
+      <c r="A94" s="217" t="str">
         <f>A91</f>
         <v>command</v>
       </c>
@@ -20024,10 +20036,10 @@
       <c r="D94" s="168" t="s">
         <v>1908</v>
       </c>
-      <c r="E94" s="204"/>
+      <c r="E94" s="200"/>
     </row>
     <row r="95" spans="1:5" ht="82.5">
-      <c r="A95" s="196"/>
+      <c r="A95" s="217"/>
       <c r="B95" s="170" t="s">
         <v>1981</v>
       </c>
@@ -20037,10 +20049,10 @@
       <c r="D95" s="168" t="s">
         <v>1984</v>
       </c>
-      <c r="E95" s="204"/>
+      <c r="E95" s="200"/>
     </row>
     <row r="96" spans="1:5" ht="115.5">
-      <c r="A96" s="196" t="str">
+      <c r="A96" s="217" t="str">
         <f>A92</f>
         <v>command</v>
       </c>
@@ -20053,7 +20065,7 @@
       <c r="D96" s="168" t="s">
         <v>1885</v>
       </c>
-      <c r="E96" s="204"/>
+      <c r="E96" s="200"/>
     </row>
     <row r="97" spans="1:5" ht="132">
       <c r="A97" s="180"/>
@@ -20134,7 +20146,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="194" t="s">
+      <c r="A103" s="195" t="s">
         <v>1731</v>
       </c>
       <c r="B103" s="170" t="s">
@@ -20144,10 +20156,10 @@
         <v>1759</v>
       </c>
       <c r="D103" s="168"/>
-      <c r="E103" s="204"/>
+      <c r="E103" s="200"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="194" t="str">
+      <c r="A104" s="195" t="str">
         <f t="shared" ref="A104:A109" si="9">A103</f>
         <v>relief</v>
       </c>
@@ -20158,10 +20170,10 @@
       <c r="D104" s="168" t="s">
         <v>1738</v>
       </c>
-      <c r="E104" s="204"/>
+      <c r="E104" s="200"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="194" t="str">
+      <c r="A105" s="195" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20172,10 +20184,10 @@
       <c r="D105" s="168" t="s">
         <v>1739</v>
       </c>
-      <c r="E105" s="204"/>
+      <c r="E105" s="200"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="194" t="str">
+      <c r="A106" s="195" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20186,10 +20198,10 @@
       <c r="D106" s="168" t="s">
         <v>1740</v>
       </c>
-      <c r="E106" s="204"/>
+      <c r="E106" s="200"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="194" t="str">
+      <c r="A107" s="195" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20200,10 +20212,10 @@
       <c r="D107" s="168" t="s">
         <v>1741</v>
       </c>
-      <c r="E107" s="204"/>
+      <c r="E107" s="200"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="194" t="str">
+      <c r="A108" s="195" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20214,10 +20226,10 @@
       <c r="D108" s="168" t="s">
         <v>1742</v>
       </c>
-      <c r="E108" s="204"/>
+      <c r="E108" s="200"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="194" t="str">
+      <c r="A109" s="195" t="str">
         <f t="shared" si="9"/>
         <v>relief</v>
       </c>
@@ -20228,7 +20240,7 @@
       <c r="D109" s="168" t="s">
         <v>1743</v>
       </c>
-      <c r="E109" s="204"/>
+      <c r="E109" s="200"/>
     </row>
     <row r="110" spans="1:5" ht="33">
       <c r="A110" s="166" t="s">
@@ -20246,7 +20258,7 @@
       <c r="E110" s="158"/>
     </row>
     <row r="111" spans="1:5" ht="99">
-      <c r="A111" s="194" t="s">
+      <c r="A111" s="195" t="s">
         <v>1760</v>
       </c>
       <c r="B111" s="170" t="s">
@@ -20258,10 +20270,10 @@
       <c r="D111" s="168" t="s">
         <v>1761</v>
       </c>
-      <c r="E111" s="204"/>
+      <c r="E111" s="200"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="194" t="str">
+      <c r="A112" s="195" t="str">
         <f t="shared" ref="A112:A114" si="10">A111</f>
         <v>state</v>
       </c>
@@ -20272,10 +20284,10 @@
       <c r="D112" s="168" t="s">
         <v>1791</v>
       </c>
-      <c r="E112" s="204"/>
+      <c r="E112" s="200"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="194" t="str">
+      <c r="A113" s="195" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
@@ -20286,10 +20298,10 @@
       <c r="D113" s="168" t="s">
         <v>1792</v>
       </c>
-      <c r="E113" s="204"/>
+      <c r="E113" s="200"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="194" t="str">
+      <c r="A114" s="195" t="str">
         <f t="shared" si="10"/>
         <v>state</v>
       </c>
@@ -20300,7 +20312,7 @@
       <c r="D114" s="168" t="s">
         <v>1793</v>
       </c>
-      <c r="E114" s="204"/>
+      <c r="E114" s="200"/>
     </row>
     <row r="115" spans="1:5" ht="33">
       <c r="A115" s="166" t="s">
@@ -20346,59 +20358,59 @@
       <c r="E117" s="160"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="194" t="s">
+      <c r="A118" s="195" t="s">
         <v>1836</v>
       </c>
-      <c r="B118" s="194" t="s">
+      <c r="B118" s="195" t="s">
         <v>1837</v>
       </c>
       <c r="C118" s="157" t="s">
         <v>1839</v>
       </c>
       <c r="D118" s="157"/>
-      <c r="E118" s="209"/>
+      <c r="E118" s="193"/>
     </row>
     <row r="119" spans="1:5" ht="33">
-      <c r="A119" s="194" t="str">
+      <c r="A119" s="195" t="str">
         <f t="shared" ref="A119:A121" si="11">A118</f>
         <v>selectmode</v>
       </c>
-      <c r="B119" s="194"/>
+      <c r="B119" s="195"/>
       <c r="C119" s="157" t="s">
         <v>1840</v>
       </c>
       <c r="D119" s="157" t="s">
         <v>1841</v>
       </c>
-      <c r="E119" s="211"/>
+      <c r="E119" s="201"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="194" t="str">
+      <c r="A120" s="195" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B120" s="194"/>
+      <c r="B120" s="195"/>
       <c r="C120" s="157" t="s">
         <v>1842</v>
       </c>
       <c r="D120" s="157" t="s">
         <v>1838</v>
       </c>
-      <c r="E120" s="211"/>
+      <c r="E120" s="201"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="194" t="str">
+      <c r="A121" s="195" t="str">
         <f t="shared" si="11"/>
         <v>selectmode</v>
       </c>
-      <c r="B121" s="194"/>
+      <c r="B121" s="195"/>
       <c r="C121" s="157" t="s">
         <v>1844</v>
       </c>
       <c r="D121" s="157" t="s">
         <v>1843</v>
       </c>
-      <c r="E121" s="210"/>
+      <c r="E121" s="194"/>
     </row>
     <row r="122" spans="1:5" ht="49.5">
       <c r="A122" s="166" t="s">
@@ -20481,7 +20493,7 @@
       <c r="E127" s="181"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="194" t="s">
+      <c r="A128" s="195" t="s">
         <v>1859</v>
       </c>
       <c r="B128" s="157" t="s">
@@ -20493,10 +20505,10 @@
       <c r="D128" s="157" t="s">
         <v>1864</v>
       </c>
-      <c r="E128" s="212"/>
+      <c r="E128" s="202"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="194"/>
+      <c r="A129" s="195"/>
       <c r="B129" s="157" t="s">
         <v>1783</v>
       </c>
@@ -20506,10 +20518,10 @@
       <c r="D129" s="157" t="s">
         <v>1895</v>
       </c>
-      <c r="E129" s="213"/>
+      <c r="E129" s="203"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="194"/>
+      <c r="A130" s="195"/>
       <c r="B130" s="157" t="s">
         <v>2046</v>
       </c>
@@ -20522,7 +20534,7 @@
       <c r="E130" s="156"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="194"/>
+      <c r="A131" s="195"/>
       <c r="B131" s="157" t="s">
         <v>1896</v>
       </c>
@@ -20592,7 +20604,7 @@
     </row>
     <row r="136" spans="1:5" ht="99">
       <c r="A136" s="169"/>
-      <c r="B136" s="201" t="s">
+      <c r="B136" s="207" t="s">
         <v>2046</v>
       </c>
       <c r="C136" s="157" t="s">
@@ -20605,7 +20617,7 @@
     </row>
     <row r="137" spans="1:5" ht="33">
       <c r="A137" s="169"/>
-      <c r="B137" s="202"/>
+      <c r="B137" s="208"/>
       <c r="C137" s="157" t="s">
         <v>2051</v>
       </c>
@@ -20616,7 +20628,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="169"/>
-      <c r="B138" s="202"/>
+      <c r="B138" s="208"/>
       <c r="C138" s="157" t="s">
         <v>2052</v>
       </c>
@@ -20627,7 +20639,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="169"/>
-      <c r="B139" s="202"/>
+      <c r="B139" s="208"/>
       <c r="C139" s="157" t="s">
         <v>2053</v>
       </c>
@@ -20638,7 +20650,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="169"/>
-      <c r="B140" s="202"/>
+      <c r="B140" s="208"/>
       <c r="C140" s="157" t="s">
         <v>2054</v>
       </c>
@@ -20649,7 +20661,7 @@
     </row>
     <row r="141" spans="1:5" ht="33">
       <c r="A141" s="169"/>
-      <c r="B141" s="202"/>
+      <c r="B141" s="208"/>
       <c r="C141" s="157" t="s">
         <v>2055</v>
       </c>
@@ -20660,7 +20672,7 @@
     </row>
     <row r="142" spans="1:5" ht="33">
       <c r="A142" s="169"/>
-      <c r="B142" s="202"/>
+      <c r="B142" s="208"/>
       <c r="C142" s="157" t="s">
         <v>2056</v>
       </c>
@@ -20670,7 +20682,7 @@
       <c r="E142" s="163"/>
     </row>
     <row r="143" spans="1:5" ht="82.5">
-      <c r="B143" s="203"/>
+      <c r="B143" s="209"/>
       <c r="C143" s="151" t="s">
         <v>2079</v>
       </c>
@@ -20823,7 +20835,7 @@
       <c r="E153" s="163"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="194" t="s">
+      <c r="A154" s="195" t="s">
         <v>1825</v>
       </c>
       <c r="B154" s="157" t="s">
@@ -20835,10 +20847,10 @@
       <c r="D154" s="157" t="s">
         <v>1643</v>
       </c>
-      <c r="E154" s="209"/>
+      <c r="E154" s="193"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="194" t="str">
+      <c r="A155" s="195" t="str">
         <f>A154</f>
         <v>from_</v>
       </c>
@@ -20851,10 +20863,10 @@
       <c r="D155" s="157" t="s">
         <v>1902</v>
       </c>
-      <c r="E155" s="210"/>
+      <c r="E155" s="194"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="194" t="s">
+      <c r="A156" s="195" t="s">
         <v>1826</v>
       </c>
       <c r="B156" s="157" t="s">
@@ -20866,10 +20878,10 @@
       <c r="D156" s="157" t="s">
         <v>1643</v>
       </c>
-      <c r="E156" s="209"/>
+      <c r="E156" s="193"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="194" t="str">
+      <c r="A157" s="195" t="str">
         <f>A156</f>
         <v>to</v>
       </c>
@@ -20882,10 +20894,10 @@
       <c r="D157" s="157" t="s">
         <v>1902</v>
       </c>
-      <c r="E157" s="210"/>
+      <c r="E157" s="194"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="198" t="s">
+      <c r="A158" s="204" t="s">
         <v>1827</v>
       </c>
       <c r="B158" s="157" t="s">
@@ -20898,7 +20910,7 @@
       <c r="E158" s="163"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="200"/>
+      <c r="A159" s="206"/>
       <c r="B159" s="157"/>
       <c r="C159" s="157" t="s">
         <v>1879</v>
@@ -20909,7 +20921,7 @@
       <c r="E159" s="164"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="199"/>
+      <c r="A160" s="205"/>
       <c r="B160" s="157"/>
       <c r="C160" s="157" t="s">
         <v>2022</v>
@@ -21126,7 +21138,7 @@
       <c r="A175" s="153" t="s">
         <v>1985</v>
       </c>
-      <c r="B175" s="192" t="s">
+      <c r="B175" s="214" t="s">
         <v>1985</v>
       </c>
       <c r="C175" s="151" t="s">
@@ -21137,7 +21149,7 @@
       <c r="A176" s="153" t="s">
         <v>1987</v>
       </c>
-      <c r="B176" s="193"/>
+      <c r="B176" s="215"/>
       <c r="C176" s="151" t="s">
         <v>1996</v>
       </c>
@@ -21146,7 +21158,7 @@
       <c r="A177" s="153" t="s">
         <v>1988</v>
       </c>
-      <c r="B177" s="193"/>
+      <c r="B177" s="215"/>
       <c r="C177" s="151" t="s">
         <v>1997</v>
       </c>
@@ -21155,7 +21167,7 @@
       <c r="A178" s="153" t="s">
         <v>1989</v>
       </c>
-      <c r="B178" s="193"/>
+      <c r="B178" s="215"/>
       <c r="C178" s="151" t="s">
         <v>1998</v>
       </c>
@@ -21164,7 +21176,7 @@
       <c r="A179" s="153" t="s">
         <v>1990</v>
       </c>
-      <c r="B179" s="193"/>
+      <c r="B179" s="215"/>
       <c r="C179" s="151" t="s">
         <v>1999</v>
       </c>
@@ -21173,7 +21185,7 @@
       <c r="A180" s="153" t="s">
         <v>1991</v>
       </c>
-      <c r="B180" s="193"/>
+      <c r="B180" s="215"/>
       <c r="C180" s="151" t="s">
         <v>2000</v>
       </c>
@@ -21182,7 +21194,7 @@
       <c r="A181" s="153" t="s">
         <v>1992</v>
       </c>
-      <c r="B181" s="193"/>
+      <c r="B181" s="215"/>
       <c r="C181" s="151" t="s">
         <v>2001</v>
       </c>
@@ -21191,7 +21203,7 @@
       <c r="A182" s="153" t="s">
         <v>1993</v>
       </c>
-      <c r="B182" s="193"/>
+      <c r="B182" s="215"/>
       <c r="C182" s="151" t="s">
         <v>2002</v>
       </c>
@@ -21200,7 +21212,7 @@
       <c r="A183" s="153" t="s">
         <v>1994</v>
       </c>
-      <c r="B183" s="193"/>
+      <c r="B183" s="215"/>
       <c r="C183" s="151" t="s">
         <v>2003</v>
       </c>
@@ -21209,7 +21221,7 @@
       <c r="A184" s="153" t="s">
         <v>1995</v>
       </c>
-      <c r="B184" s="193"/>
+      <c r="B184" s="215"/>
       <c r="C184" s="151" t="s">
         <v>2004</v>
       </c>
@@ -21218,7 +21230,7 @@
       <c r="A185" s="153" t="s">
         <v>2230</v>
       </c>
-      <c r="B185" s="193"/>
+      <c r="B185" s="215"/>
       <c r="C185" s="151" t="s">
         <v>2225</v>
       </c>
@@ -21230,7 +21242,7 @@
       <c r="A186" s="153" t="s">
         <v>2231</v>
       </c>
-      <c r="B186" s="193"/>
+      <c r="B186" s="215"/>
       <c r="C186" s="151" t="s">
         <v>2226</v>
       </c>
@@ -21242,7 +21254,7 @@
       <c r="A187" s="153" t="s">
         <v>2232</v>
       </c>
-      <c r="B187" s="193"/>
+      <c r="B187" s="215"/>
       <c r="C187" s="151" t="s">
         <v>2227</v>
       </c>
@@ -21254,7 +21266,7 @@
       <c r="A188" s="153" t="s">
         <v>2233</v>
       </c>
-      <c r="B188" s="193"/>
+      <c r="B188" s="215"/>
       <c r="C188" s="151" t="s">
         <v>2228</v>
       </c>
@@ -21266,7 +21278,7 @@
       <c r="A189" s="153" t="s">
         <v>2234</v>
       </c>
-      <c r="B189" s="193"/>
+      <c r="B189" s="215"/>
       <c r="C189" s="151" t="s">
         <v>2229</v>
       </c>
@@ -21278,7 +21290,7 @@
       <c r="A190" s="153" t="s">
         <v>2235</v>
       </c>
-      <c r="B190" s="193"/>
+      <c r="B190" s="215"/>
       <c r="C190" s="151" t="s">
         <v>2238</v>
       </c>
@@ -21290,7 +21302,7 @@
       <c r="A191" s="153" t="s">
         <v>2236</v>
       </c>
-      <c r="B191" s="193"/>
+      <c r="B191" s="215"/>
       <c r="C191" s="151" t="s">
         <v>2239</v>
       </c>
@@ -21302,7 +21314,7 @@
       <c r="A192" s="153" t="s">
         <v>2237</v>
       </c>
-      <c r="B192" s="193"/>
+      <c r="B192" s="215"/>
       <c r="C192" s="151" t="s">
         <v>2240</v>
       </c>
@@ -21314,7 +21326,7 @@
       <c r="A193" s="153" t="s">
         <v>2244</v>
       </c>
-      <c r="B193" s="193"/>
+      <c r="B193" s="215"/>
       <c r="C193" s="151" t="s">
         <v>2247</v>
       </c>
@@ -21323,7 +21335,7 @@
       <c r="A194" s="153" t="s">
         <v>2245</v>
       </c>
-      <c r="B194" s="193"/>
+      <c r="B194" s="215"/>
       <c r="C194" s="151" t="s">
         <v>2248</v>
       </c>
@@ -21332,7 +21344,7 @@
       <c r="A195" s="153" t="s">
         <v>2246</v>
       </c>
-      <c r="B195" s="193"/>
+      <c r="B195" s="215"/>
       <c r="C195" s="151" t="s">
         <v>2249</v>
       </c>
@@ -21341,7 +21353,7 @@
       <c r="A196" s="153" t="s">
         <v>2250</v>
       </c>
-      <c r="B196" s="193"/>
+      <c r="B196" s="215"/>
       <c r="C196" s="151" t="s">
         <v>2251</v>
       </c>
@@ -21350,7 +21362,7 @@
       <c r="A197" s="153" t="s">
         <v>2252</v>
       </c>
-      <c r="B197" s="193"/>
+      <c r="B197" s="215"/>
       <c r="C197" s="151" t="s">
         <v>2257</v>
       </c>
@@ -21359,7 +21371,7 @@
       <c r="A198" s="153" t="s">
         <v>2253</v>
       </c>
-      <c r="B198" s="193"/>
+      <c r="B198" s="215"/>
       <c r="C198" s="151" t="s">
         <v>2258</v>
       </c>
@@ -21368,7 +21380,7 @@
       <c r="A199" s="153" t="s">
         <v>2254</v>
       </c>
-      <c r="B199" s="193"/>
+      <c r="B199" s="215"/>
       <c r="C199" s="151" t="s">
         <v>2259</v>
       </c>
@@ -21377,7 +21389,7 @@
       <c r="A200" s="153" t="s">
         <v>2255</v>
       </c>
-      <c r="B200" s="193"/>
+      <c r="B200" s="215"/>
       <c r="C200" s="151" t="s">
         <v>2260</v>
       </c>
@@ -21386,7 +21398,7 @@
       <c r="A201" s="153" t="s">
         <v>2256</v>
       </c>
-      <c r="B201" s="193"/>
+      <c r="B201" s="215"/>
       <c r="C201" s="151" t="s">
         <v>2262</v>
       </c>
@@ -21395,7 +21407,7 @@
       <c r="A202" s="153" t="s">
         <v>2266</v>
       </c>
-      <c r="B202" s="193"/>
+      <c r="B202" s="215"/>
       <c r="C202" s="151" t="s">
         <v>2267</v>
       </c>
@@ -21404,7 +21416,7 @@
       <c r="A203" s="153" t="s">
         <v>2270</v>
       </c>
-      <c r="B203" s="193"/>
+      <c r="B203" s="215"/>
       <c r="C203" s="151" t="s">
         <v>2271</v>
       </c>
@@ -21413,13 +21425,13 @@
       <c r="A204" s="153" t="s">
         <v>2263</v>
       </c>
-      <c r="B204" s="193"/>
+      <c r="B204" s="215"/>
       <c r="C204" s="151" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="198">
-      <c r="B205" s="193"/>
+      <c r="B205" s="215"/>
       <c r="C205" s="151" t="s">
         <v>2261</v>
       </c>
@@ -21428,7 +21440,7 @@
       <c r="A206" s="153" t="s">
         <v>2265</v>
       </c>
-      <c r="B206" s="193"/>
+      <c r="B206" s="215"/>
       <c r="C206" s="151" t="s">
         <v>2268</v>
       </c>
@@ -21437,13 +21449,13 @@
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="B207" s="193"/>
+      <c r="B207" s="215"/>
       <c r="C207" s="151" t="s">
         <v>2272</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="B208" s="197"/>
+      <c r="B208" s="218"/>
     </row>
     <row r="209" spans="1:4" ht="33">
       <c r="A209" s="153" t="s">
@@ -21544,7 +21556,7 @@
       <c r="A216" s="153" t="s">
         <v>2064</v>
       </c>
-      <c r="B216" s="192" t="s">
+      <c r="B216" s="214" t="s">
         <v>2046</v>
       </c>
       <c r="C216" s="151" t="s">
@@ -21555,7 +21567,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="33">
-      <c r="B217" s="193"/>
+      <c r="B217" s="215"/>
       <c r="C217" s="151" t="s">
         <v>2066</v>
       </c>
@@ -22061,29 +22073,9 @@
   </sheetData>
   <autoFilter ref="A1:D166"/>
   <mergeCells count="43">
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="A6:A30"/>
-    <mergeCell ref="E6:E30"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E91:E96"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E103:E109"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B136:B143"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="E61:E74"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B175:B208"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A118:A121"/>
     <mergeCell ref="E44:E54"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="E156:E157"/>
@@ -22100,10 +22092,30 @@
     <mergeCell ref="A154:A155"/>
     <mergeCell ref="A156:A157"/>
     <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="E61:E74"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E87"/>
     <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B175:B208"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="A6:A30"/>
+    <mergeCell ref="E6:E30"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E103:E109"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22112,10 +22124,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E593"/>
+  <dimension ref="A1:E595"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView tabSelected="1" topLeftCell="B289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22161,10 +22173,10 @@
     </row>
     <row r="5" spans="1:4" ht="68.25" customHeight="1">
       <c r="A5" s="50"/>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="222" t="s">
         <v>1381</v>
       </c>
-      <c r="C5" s="218"/>
+      <c r="C5" s="222"/>
       <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" ht="66">
@@ -22276,20 +22288,20 @@
       <c r="A16" s="132" t="s">
         <v>1442</v>
       </c>
-      <c r="B16" s="219" t="s">
+      <c r="B16" s="223" t="s">
         <v>1443</v>
       </c>
-      <c r="C16" s="219"/>
+      <c r="C16" s="223"/>
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="1:4" ht="87.75" customHeight="1">
       <c r="A17" s="132" t="s">
         <v>1444</v>
       </c>
-      <c r="B17" s="219" t="s">
+      <c r="B17" s="223" t="s">
         <v>1445</v>
       </c>
-      <c r="C17" s="219"/>
+      <c r="C17" s="223"/>
       <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:4">
@@ -22371,7 +22383,7 @@
       <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="219" t="s">
         <v>1211</v>
       </c>
       <c r="B28" s="106" t="s">
@@ -22380,33 +22392,33 @@
       <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="220"/>
+      <c r="A29" s="219"/>
       <c r="B29" s="106"/>
       <c r="D29" s="96"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="220"/>
+      <c r="A30" s="219"/>
       <c r="B30" s="13" t="s">
         <v>1213</v>
       </c>
       <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="220"/>
+      <c r="A31" s="219"/>
       <c r="B31" s="77" t="s">
         <v>1214</v>
       </c>
       <c r="D31" s="96"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="220"/>
+      <c r="A32" s="219"/>
       <c r="B32" s="13" t="s">
         <v>1215</v>
       </c>
       <c r="D32" s="96"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="220"/>
+      <c r="A33" s="219"/>
       <c r="B33" s="106"/>
       <c r="D33" s="96"/>
     </row>
@@ -22429,7 +22441,7 @@
       <c r="D35" s="96"/>
     </row>
     <row r="36" spans="1:4" ht="49.5">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="219" t="s">
         <v>1220</v>
       </c>
       <c r="B36" s="106" t="s">
@@ -22438,33 +22450,33 @@
       <c r="D36" s="96"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="220"/>
+      <c r="A37" s="219"/>
       <c r="B37" s="106"/>
       <c r="D37" s="96"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="220"/>
+      <c r="A38" s="219"/>
       <c r="B38" s="13" t="s">
         <v>1222</v>
       </c>
       <c r="D38" s="96"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="220"/>
+      <c r="A39" s="219"/>
       <c r="B39" s="13" t="s">
         <v>1223</v>
       </c>
       <c r="D39" s="96"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="220"/>
+      <c r="A40" s="219"/>
       <c r="B40" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="D40" s="96"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="220"/>
+      <c r="A41" s="219"/>
       <c r="B41" s="106"/>
       <c r="D41" s="96"/>
     </row>
@@ -22494,7 +22506,7 @@
       <c r="D44" s="96"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="220" t="s">
+      <c r="A45" s="219" t="s">
         <v>1230</v>
       </c>
       <c r="B45" s="106" t="s">
@@ -22503,31 +22515,31 @@
       <c r="D45" s="96"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="220"/>
+      <c r="A46" s="219"/>
       <c r="B46" s="106"/>
       <c r="D46" s="96"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="220"/>
+      <c r="A47" s="219"/>
       <c r="B47" s="13" t="s">
         <v>1232</v>
       </c>
       <c r="D47" s="96"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="220"/>
+      <c r="A48" s="219"/>
       <c r="B48" s="77" t="s">
         <v>1233</v>
       </c>
       <c r="D48" s="96"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="220"/>
+      <c r="A49" s="219"/>
       <c r="B49" s="106"/>
       <c r="D49" s="96"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="220" t="s">
+      <c r="A50" s="219" t="s">
         <v>1234</v>
       </c>
       <c r="B50" s="106" t="s">
@@ -22536,45 +22548,45 @@
       <c r="D50" s="96"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="220"/>
+      <c r="A51" s="219"/>
       <c r="B51" s="106"/>
       <c r="D51" s="96"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="220"/>
+      <c r="A52" s="219"/>
       <c r="B52" s="13" t="s">
         <v>1236</v>
       </c>
       <c r="D52" s="96"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="220"/>
+      <c r="A53" s="219"/>
       <c r="B53" s="78" t="s">
         <v>1237</v>
       </c>
       <c r="D53" s="96"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="220"/>
+      <c r="A54" s="219"/>
       <c r="B54" s="79" t="s">
         <v>1238</v>
       </c>
       <c r="D54" s="96"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="220"/>
+      <c r="A55" s="219"/>
       <c r="B55" s="78" t="s">
         <v>1239</v>
       </c>
       <c r="D55" s="96"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="220"/>
+      <c r="A56" s="219"/>
       <c r="B56" s="106"/>
       <c r="D56" s="96"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="220" t="s">
+      <c r="A57" s="219" t="s">
         <v>1240</v>
       </c>
       <c r="B57" s="106" t="s">
@@ -22583,24 +22595,24 @@
       <c r="D57" s="96"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="220"/>
+      <c r="A58" s="219"/>
       <c r="B58" s="106"/>
       <c r="D58" s="96"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="220"/>
+      <c r="A59" s="219"/>
       <c r="B59" s="13" t="s">
         <v>1242</v>
       </c>
       <c r="D59" s="96"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="220"/>
+      <c r="A60" s="219"/>
       <c r="B60" s="106"/>
       <c r="D60" s="96"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="220"/>
+      <c r="A61" s="219"/>
       <c r="B61" s="106"/>
       <c r="D61" s="96"/>
     </row>
@@ -22686,7 +22698,7 @@
       <c r="D71" s="96"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="220" t="s">
+      <c r="A72" s="219" t="s">
         <v>1391</v>
       </c>
       <c r="B72" s="106" t="s">
@@ -22695,24 +22707,24 @@
       <c r="D72" s="96"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="220"/>
+      <c r="A73" s="219"/>
       <c r="B73" s="106"/>
       <c r="D73" s="96"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="220"/>
+      <c r="A74" s="219"/>
       <c r="B74" s="13" t="s">
         <v>1257</v>
       </c>
       <c r="D74" s="96"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="220"/>
+      <c r="A75" s="219"/>
       <c r="B75" s="106"/>
       <c r="D75" s="96"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="220" t="s">
+      <c r="A76" s="219" t="s">
         <v>1393</v>
       </c>
       <c r="B76" s="106" t="s">
@@ -22721,31 +22733,31 @@
       <c r="D76" s="96"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="220"/>
+      <c r="A77" s="219"/>
       <c r="B77" s="106"/>
       <c r="D77" s="96"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="220"/>
+      <c r="A78" s="219"/>
       <c r="B78" s="77" t="s">
         <v>1258</v>
       </c>
       <c r="D78" s="96"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="220"/>
+      <c r="A79" s="219"/>
       <c r="B79" s="80" t="s">
         <v>1259</v>
       </c>
       <c r="D79" s="96"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="220"/>
+      <c r="A80" s="219"/>
       <c r="B80" s="106"/>
       <c r="D80" s="96"/>
     </row>
     <row r="81" spans="1:4" ht="33">
-      <c r="A81" s="220" t="s">
+      <c r="A81" s="219" t="s">
         <v>1395</v>
       </c>
       <c r="B81" s="106" t="s">
@@ -22754,68 +22766,68 @@
       <c r="D81" s="96"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="220"/>
+      <c r="A82" s="219"/>
       <c r="B82" s="106"/>
       <c r="D82" s="96"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="220"/>
+      <c r="A83" s="219"/>
       <c r="B83" s="106" t="s">
         <v>1574</v>
       </c>
       <c r="D83" s="96"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="220"/>
+      <c r="A84" s="219"/>
       <c r="B84" s="81" t="s">
         <v>1260</v>
       </c>
       <c r="D84" s="96"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="220"/>
+      <c r="A85" s="219"/>
       <c r="B85" s="77" t="s">
         <v>1261</v>
       </c>
       <c r="D85" s="96"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="220"/>
+      <c r="A86" s="219"/>
       <c r="B86" s="77" t="s">
         <v>1262</v>
       </c>
       <c r="D86" s="96"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="220"/>
+      <c r="A87" s="219"/>
       <c r="B87" s="77" t="s">
         <v>1263</v>
       </c>
       <c r="D87" s="96"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="220"/>
+      <c r="A88" s="219"/>
       <c r="B88" s="77" t="s">
         <v>1264</v>
       </c>
       <c r="D88" s="96"/>
     </row>
     <row r="89" spans="1:4" ht="33">
-      <c r="A89" s="220"/>
+      <c r="A89" s="219"/>
       <c r="B89" s="106" t="s">
         <v>1572</v>
       </c>
       <c r="D89" s="96"/>
     </row>
     <row r="90" spans="1:4" ht="49.5">
-      <c r="A90" s="220"/>
+      <c r="A90" s="219"/>
       <c r="B90" s="106" t="s">
         <v>1573</v>
       </c>
       <c r="D90" s="96"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="220" t="s">
+      <c r="A91" s="219" t="s">
         <v>1397</v>
       </c>
       <c r="B91" s="106" t="s">
@@ -22824,40 +22836,40 @@
       <c r="D91" s="96"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="220"/>
+      <c r="A92" s="219"/>
       <c r="B92" s="106"/>
       <c r="D92" s="96"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="220"/>
+      <c r="A93" s="219"/>
       <c r="B93" s="13" t="s">
         <v>1265</v>
       </c>
       <c r="D93" s="96"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="220"/>
+      <c r="A94" s="219"/>
       <c r="B94" s="13" t="s">
         <v>1266</v>
       </c>
       <c r="D94" s="96"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="220"/>
+      <c r="A95" s="219"/>
       <c r="B95" s="77" t="s">
         <v>1267</v>
       </c>
       <c r="D95" s="96"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="220"/>
+      <c r="A96" s="219"/>
       <c r="B96" s="106" t="s">
         <v>1571</v>
       </c>
       <c r="D96" s="96"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="220" t="s">
+      <c r="A97" s="219" t="s">
         <v>1399</v>
       </c>
       <c r="B97" s="106" t="s">
@@ -22866,31 +22878,31 @@
       <c r="D97" s="96"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="220"/>
+      <c r="A98" s="219"/>
       <c r="B98" s="106"/>
       <c r="D98" s="96"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="220"/>
+      <c r="A99" s="219"/>
       <c r="B99" s="77" t="s">
         <v>1268</v>
       </c>
       <c r="D99" s="96"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="220"/>
+      <c r="A100" s="219"/>
       <c r="B100" s="80" t="s">
         <v>1269</v>
       </c>
       <c r="D100" s="96"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="220"/>
+      <c r="A101" s="219"/>
       <c r="B101" s="106"/>
       <c r="D101" s="96"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="220" t="s">
+      <c r="A102" s="219" t="s">
         <v>1401</v>
       </c>
       <c r="B102" s="106" t="s">
@@ -22899,26 +22911,26 @@
       <c r="D102" s="96"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="220"/>
+      <c r="A103" s="219"/>
       <c r="B103" s="106"/>
       <c r="D103" s="96"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="220"/>
+      <c r="A104" s="219"/>
       <c r="B104" s="77" t="s">
         <v>1270</v>
       </c>
       <c r="D104" s="96"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="220"/>
+      <c r="A105" s="219"/>
       <c r="B105" s="80" t="s">
         <v>1271</v>
       </c>
       <c r="D105" s="96"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="220"/>
+      <c r="A106" s="219"/>
       <c r="B106" s="106"/>
       <c r="D106" s="96"/>
     </row>
@@ -22930,7 +22942,7 @@
       <c r="D107" s="96"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="220" t="s">
+      <c r="A108" s="219" t="s">
         <v>1272</v>
       </c>
       <c r="B108" s="106" t="s">
@@ -22939,55 +22951,55 @@
       <c r="D108" s="96"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="220"/>
+      <c r="A109" s="219"/>
       <c r="B109" s="106"/>
       <c r="D109" s="96"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="220"/>
+      <c r="A110" s="219"/>
       <c r="B110" s="106"/>
       <c r="D110" s="96"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="220"/>
+      <c r="A111" s="219"/>
       <c r="B111" s="13" t="s">
         <v>1273</v>
       </c>
       <c r="D111" s="96"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="220"/>
+      <c r="A112" s="219"/>
       <c r="B112" s="82" t="s">
         <v>1274</v>
       </c>
       <c r="D112" s="96"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="220"/>
+      <c r="A113" s="219"/>
       <c r="B113" s="13" t="s">
         <v>1275</v>
       </c>
       <c r="D113" s="96"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="220"/>
+      <c r="A114" s="219"/>
       <c r="B114" s="82" t="s">
         <v>1276</v>
       </c>
       <c r="D114" s="96"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="220"/>
+      <c r="A115" s="219"/>
       <c r="B115" s="106"/>
       <c r="D115" s="96"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="220"/>
+      <c r="A116" s="219"/>
       <c r="B116" s="106"/>
       <c r="D116" s="96"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="222" t="s">
+      <c r="A117" s="221" t="s">
         <v>1277</v>
       </c>
       <c r="B117" s="106" t="s">
@@ -22996,33 +23008,33 @@
       <c r="D117" s="96"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="222"/>
+      <c r="A118" s="221"/>
       <c r="B118" s="106"/>
       <c r="D118" s="96"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="222"/>
+      <c r="A119" s="221"/>
       <c r="B119" s="13" t="s">
         <v>1278</v>
       </c>
       <c r="D119" s="96"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="222"/>
+      <c r="A120" s="221"/>
       <c r="B120" s="77" t="s">
         <v>1279</v>
       </c>
       <c r="D120" s="96"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="222"/>
+      <c r="A121" s="221"/>
       <c r="B121" s="82" t="s">
         <v>1280</v>
       </c>
       <c r="D121" s="96"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="222"/>
+      <c r="A122" s="221"/>
       <c r="B122" s="106"/>
       <c r="D122" s="96"/>
     </row>
@@ -24338,7 +24350,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="115"/>
-      <c r="B279" s="221" t="s">
+      <c r="B279" s="220" t="s">
         <v>720</v>
       </c>
       <c r="C279" s="106" t="s">
@@ -24348,7 +24360,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="115"/>
-      <c r="B280" s="221"/>
+      <c r="B280" s="220"/>
       <c r="C280" s="106" t="s">
         <v>722</v>
       </c>
@@ -24356,7 +24368,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="115"/>
-      <c r="B281" s="221"/>
+      <c r="B281" s="220"/>
       <c r="C281" s="106" t="s">
         <v>723</v>
       </c>
@@ -24364,7 +24376,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="115"/>
-      <c r="B282" s="221"/>
+      <c r="B282" s="220"/>
       <c r="C282" s="106" t="s">
         <v>724</v>
       </c>
@@ -24372,7 +24384,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="115"/>
-      <c r="B283" s="221"/>
+      <c r="B283" s="220"/>
       <c r="C283" s="116" t="s">
         <v>725</v>
       </c>
@@ -24380,7 +24392,7 @@
     </row>
     <row r="284" spans="1:4" ht="66">
       <c r="A284" s="115"/>
-      <c r="B284" s="221"/>
+      <c r="B284" s="220"/>
       <c r="C284" s="106" t="s">
         <v>1623</v>
       </c>
@@ -24390,7 +24402,7 @@
     </row>
     <row r="285" spans="1:4" ht="49.5">
       <c r="A285" s="115"/>
-      <c r="B285" s="221"/>
+      <c r="B285" s="220"/>
       <c r="C285" s="106" t="s">
         <v>1620</v>
       </c>
@@ -24398,100 +24410,101 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="33">
+    <row r="286" spans="1:4">
       <c r="A286" s="115"/>
-      <c r="B286" s="221"/>
-      <c r="C286" s="106" t="s">
-        <v>726</v>
-      </c>
-      <c r="D286" s="96"/>
+      <c r="B286" s="220"/>
+      <c r="C286" s="187" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D286" s="123"/>
     </row>
     <row r="287" spans="1:4" ht="33">
       <c r="A287" s="115"/>
-      <c r="B287" s="117" t="s">
-        <v>849</v>
-      </c>
-      <c r="C287" s="116" t="s">
-        <v>850</v>
-      </c>
-      <c r="D287" s="96"/>
+      <c r="B287" s="220"/>
+      <c r="C287" s="187" t="s">
+        <v>713</v>
+      </c>
+      <c r="D287" s="123"/>
     </row>
     <row r="288" spans="1:4" ht="33">
       <c r="A288" s="115"/>
-      <c r="B288" s="92" t="s">
+      <c r="B288" s="220"/>
+      <c r="C288" s="106" t="s">
+        <v>726</v>
+      </c>
+      <c r="D288" s="96"/>
+    </row>
+    <row r="289" spans="1:5" ht="33">
+      <c r="A289" s="115"/>
+      <c r="B289" s="117" t="s">
+        <v>849</v>
+      </c>
+      <c r="C289" s="116" t="s">
+        <v>850</v>
+      </c>
+      <c r="D289" s="96"/>
+    </row>
+    <row r="290" spans="1:5" ht="33">
+      <c r="A290" s="115"/>
+      <c r="B290" s="92" t="s">
         <v>727</v>
       </c>
-      <c r="C288" s="118" t="s">
+      <c r="C290" s="118" t="s">
         <v>1423</v>
       </c>
-      <c r="D288" s="96"/>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="115"/>
-      <c r="C289" s="118" t="s">
+      <c r="D290" s="96"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="115"/>
+      <c r="C291" s="118" t="s">
         <v>1424</v>
-      </c>
-      <c r="D289" s="96"/>
-    </row>
-    <row r="290" spans="1:5" ht="49.5">
-      <c r="A290" s="115"/>
-      <c r="C290" s="118" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D290" s="96"/>
-    </row>
-    <row r="291" spans="1:5" ht="82.5">
-      <c r="A291" s="115"/>
-      <c r="C291" s="92" t="s">
-        <v>728</v>
       </c>
       <c r="D291" s="96"/>
     </row>
     <row r="292" spans="1:5" ht="49.5">
       <c r="A292" s="115"/>
       <c r="C292" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D292" s="96"/>
+    </row>
+    <row r="293" spans="1:5" ht="82.5">
+      <c r="A293" s="115"/>
+      <c r="C293" s="92" t="s">
+        <v>728</v>
+      </c>
+      <c r="D293" s="96"/>
+    </row>
+    <row r="294" spans="1:5" ht="49.5">
+      <c r="A294" s="115"/>
+      <c r="C294" s="118" t="s">
         <v>1426</v>
       </c>
-      <c r="D292" s="96"/>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="110"/>
-      <c r="C293" s="92"/>
-      <c r="D293" s="96"/>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="110"/>
-      <c r="C294" s="92"/>
       <c r="D294" s="96"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" ht="33">
       <c r="A295" s="110"/>
-      <c r="C295" s="92"/>
-      <c r="D295" s="96"/>
+      <c r="C295" s="92" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D295" s="96" t="s">
+        <v>2299</v>
+      </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="110"/>
       <c r="C296" s="92"/>
       <c r="D296" s="96"/>
     </row>
-    <row r="297" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A297" s="111"/>
-      <c r="B297" s="99"/>
-      <c r="C297" s="100"/>
-      <c r="D297" s="101"/>
-    </row>
-    <row r="298" spans="1:5" ht="33">
-      <c r="A298" s="102" t="s">
-        <v>950</v>
-      </c>
-      <c r="B298" s="103" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C298" s="103" t="s">
-        <v>680</v>
-      </c>
-      <c r="D298" s="94"/>
-      <c r="E298" s="119"/>
+    <row r="297" spans="1:5">
+      <c r="A297" s="110"/>
+      <c r="C297" s="92"/>
+      <c r="D297" s="96"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="110"/>
+      <c r="C298" s="92"/>
+      <c r="D298" s="96"/>
     </row>
     <row r="299" spans="1:5" ht="17.25" thickBot="1">
       <c r="A299" s="111"/>
@@ -24499,2234 +24512,2237 @@
       <c r="C299" s="100"/>
       <c r="D299" s="101"/>
     </row>
-    <row r="300" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="301" spans="1:5" ht="33">
-      <c r="A301" s="120" t="s">
+    <row r="300" spans="1:5" ht="33">
+      <c r="A300" s="102" t="s">
+        <v>950</v>
+      </c>
+      <c r="B300" s="103" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C300" s="103" t="s">
+        <v>680</v>
+      </c>
+      <c r="D300" s="94"/>
+      <c r="E300" s="119"/>
+    </row>
+    <row r="301" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A301" s="111"/>
+      <c r="B301" s="99"/>
+      <c r="C301" s="100"/>
+      <c r="D301" s="101"/>
+    </row>
+    <row r="302" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="303" spans="1:5" ht="33">
+      <c r="A303" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="B301" s="103" t="s">
+      <c r="B303" s="103" t="s">
         <v>730</v>
       </c>
-      <c r="C301" s="104"/>
-      <c r="D301" s="94"/>
-    </row>
-    <row r="302" spans="1:5" ht="33">
-      <c r="A302" s="110" t="s">
+      <c r="C303" s="104"/>
+      <c r="D303" s="94"/>
+    </row>
+    <row r="304" spans="1:5" ht="33">
+      <c r="A304" s="110" t="s">
         <v>734</v>
       </c>
-      <c r="B302" s="92" t="s">
+      <c r="B304" s="92" t="s">
         <v>731</v>
       </c>
-      <c r="C302" s="91" t="s">
+      <c r="C304" s="91" t="s">
         <v>737</v>
       </c>
-      <c r="D302" s="96"/>
-    </row>
-    <row r="303" spans="1:5" ht="99">
-      <c r="A303" s="110" t="s">
+      <c r="D304" s="96"/>
+    </row>
+    <row r="305" spans="1:4" ht="99">
+      <c r="A305" s="110" t="s">
         <v>733</v>
       </c>
-      <c r="B303" s="95" t="s">
+      <c r="B305" s="95" t="s">
         <v>730</v>
       </c>
-      <c r="C303" s="92" t="s">
+      <c r="C305" s="92" t="s">
         <v>1496</v>
       </c>
-      <c r="D303" s="96"/>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="110" t="s">
+      <c r="D305" s="96"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="110" t="s">
         <v>736</v>
       </c>
-      <c r="B304" s="95" t="s">
+      <c r="B306" s="95" t="s">
         <v>732</v>
       </c>
-      <c r="D304" s="96"/>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="110"/>
-      <c r="D305" s="96"/>
-    </row>
-    <row r="306" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A306" s="111"/>
-      <c r="B306" s="99"/>
-      <c r="C306" s="100"/>
-      <c r="D306" s="101"/>
-    </row>
-    <row r="307" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="308" spans="1:4">
-      <c r="A308" s="138" t="s">
+      <c r="D306" s="96"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="110"/>
+      <c r="D307" s="96"/>
+    </row>
+    <row r="308" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A308" s="111"/>
+      <c r="B308" s="99"/>
+      <c r="C308" s="100"/>
+      <c r="D308" s="101"/>
+    </row>
+    <row r="309" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="310" spans="1:4">
+      <c r="A310" s="138" t="s">
         <v>1462</v>
       </c>
-      <c r="B308" s="103"/>
-      <c r="C308" s="104"/>
-      <c r="D308" s="94"/>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="110" t="s">
+      <c r="B310" s="103"/>
+      <c r="C310" s="104"/>
+      <c r="D310" s="94"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="110" t="s">
         <v>425</v>
       </c>
-      <c r="B309" s="133" t="s">
+      <c r="B311" s="133" t="s">
         <v>739</v>
       </c>
-      <c r="D309" s="96"/>
-    </row>
-    <row r="310" spans="1:4" ht="33">
-      <c r="A310" s="110" t="s">
+      <c r="D311" s="96"/>
+    </row>
+    <row r="312" spans="1:4" ht="33">
+      <c r="A312" s="110" t="s">
         <v>740</v>
       </c>
-      <c r="B310" s="133" t="s">
+      <c r="B312" s="133" t="s">
         <v>741</v>
       </c>
-      <c r="D310" s="96"/>
-    </row>
-    <row r="311" spans="1:4" ht="33">
-      <c r="A311" s="110" t="s">
+      <c r="D312" s="96"/>
+    </row>
+    <row r="313" spans="1:4" ht="33">
+      <c r="A313" s="110" t="s">
         <v>756</v>
       </c>
-      <c r="B311" s="133" t="s">
+      <c r="B313" s="133" t="s">
         <v>742</v>
       </c>
-      <c r="D311" s="96"/>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="110" t="s">
+      <c r="D313" s="96"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="110" t="s">
         <v>431</v>
       </c>
-      <c r="B312" s="133" t="s">
+      <c r="B314" s="133" t="s">
         <v>743</v>
-      </c>
-      <c r="D312" s="96"/>
-    </row>
-    <row r="313" spans="1:4" ht="49.5">
-      <c r="A313" s="110" t="s">
-        <v>744</v>
-      </c>
-      <c r="B313" s="133" t="s">
-        <v>745</v>
-      </c>
-      <c r="D313" s="96"/>
-    </row>
-    <row r="314" spans="1:4" ht="49.5">
-      <c r="A314" s="110" t="s">
-        <v>755</v>
-      </c>
-      <c r="B314" s="133" t="s">
-        <v>746</v>
       </c>
       <c r="D314" s="96"/>
     </row>
     <row r="315" spans="1:4" ht="49.5">
       <c r="A315" s="110" t="s">
+        <v>744</v>
+      </c>
+      <c r="B315" s="133" t="s">
+        <v>745</v>
+      </c>
+      <c r="D315" s="96"/>
+    </row>
+    <row r="316" spans="1:4" ht="49.5">
+      <c r="A316" s="110" t="s">
+        <v>755</v>
+      </c>
+      <c r="B316" s="133" t="s">
+        <v>746</v>
+      </c>
+      <c r="D316" s="96"/>
+    </row>
+    <row r="317" spans="1:4" ht="49.5">
+      <c r="A317" s="110" t="s">
         <v>747</v>
       </c>
-      <c r="B315" s="133" t="s">
+      <c r="B317" s="133" t="s">
         <v>748</v>
       </c>
-      <c r="D315" s="96"/>
-    </row>
-    <row r="316" spans="1:4" ht="33">
-      <c r="A316" s="110" t="s">
+      <c r="D317" s="96"/>
+    </row>
+    <row r="318" spans="1:4" ht="33">
+      <c r="A318" s="110" t="s">
         <v>749</v>
       </c>
-      <c r="B316" s="133" t="s">
+      <c r="B318" s="133" t="s">
         <v>750</v>
       </c>
-      <c r="D316" s="96"/>
-    </row>
-    <row r="317" spans="1:4" ht="33">
-      <c r="A317" s="110" t="s">
+      <c r="D318" s="96"/>
+    </row>
+    <row r="319" spans="1:4" ht="33">
+      <c r="A319" s="110" t="s">
         <v>751</v>
       </c>
-      <c r="B317" s="133" t="s">
+      <c r="B319" s="133" t="s">
         <v>752</v>
       </c>
-      <c r="D317" s="96"/>
-    </row>
-    <row r="318" spans="1:4" ht="49.5">
-      <c r="A318" s="110" t="s">
+      <c r="D319" s="96"/>
+    </row>
+    <row r="320" spans="1:4" ht="49.5">
+      <c r="A320" s="110" t="s">
         <v>753</v>
       </c>
-      <c r="B318" s="133" t="s">
+      <c r="B320" s="133" t="s">
         <v>754</v>
       </c>
-      <c r="D318" s="96"/>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="110"/>
-      <c r="B319" s="133"/>
-      <c r="D319" s="96"/>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="110" t="s">
-        <v>757</v>
-      </c>
-      <c r="B320" s="133" t="s">
-        <v>758</v>
-      </c>
       <c r="D320" s="96"/>
     </row>
-    <row r="321" spans="1:4" ht="33">
-      <c r="A321" s="110" t="s">
-        <v>759</v>
-      </c>
-      <c r="B321" s="133" t="s">
-        <v>760</v>
-      </c>
+    <row r="321" spans="1:4">
+      <c r="A321" s="110"/>
+      <c r="B321" s="133"/>
       <c r="D321" s="96"/>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="110" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B322" s="133" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D322" s="96"/>
     </row>
     <row r="323" spans="1:4" ht="33">
       <c r="A323" s="110" t="s">
+        <v>759</v>
+      </c>
+      <c r="B323" s="133" t="s">
+        <v>760</v>
+      </c>
+      <c r="D323" s="96"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="110" t="s">
+        <v>761</v>
+      </c>
+      <c r="B324" s="133" t="s">
+        <v>762</v>
+      </c>
+      <c r="D324" s="96"/>
+    </row>
+    <row r="325" spans="1:4" ht="33">
+      <c r="A325" s="110" t="s">
         <v>763</v>
       </c>
-      <c r="B323" s="133" t="s">
+      <c r="B325" s="133" t="s">
         <v>764</v>
       </c>
-      <c r="D323" s="96"/>
-    </row>
-    <row r="324" spans="1:4" ht="33">
-      <c r="A324" s="110" t="s">
+      <c r="D325" s="96"/>
+    </row>
+    <row r="326" spans="1:4" ht="33">
+      <c r="A326" s="110" t="s">
         <v>765</v>
       </c>
-      <c r="B324" s="133" t="s">
+      <c r="B326" s="133" t="s">
         <v>766</v>
       </c>
-      <c r="D324" s="96"/>
-    </row>
-    <row r="325" spans="1:4" ht="66">
-      <c r="A325" s="110" t="s">
+      <c r="D326" s="96"/>
+    </row>
+    <row r="327" spans="1:4" ht="66">
+      <c r="A327" s="110" t="s">
         <v>1446</v>
       </c>
-      <c r="B325" s="92" t="s">
+      <c r="B327" s="92" t="s">
         <v>1447</v>
       </c>
-      <c r="C325" s="92" t="s">
+      <c r="C327" s="92" t="s">
         <v>1448</v>
       </c>
-      <c r="D325" s="96"/>
-    </row>
-    <row r="326" spans="1:4" ht="49.5">
-      <c r="A326" s="110" t="s">
+      <c r="D327" s="96"/>
+    </row>
+    <row r="328" spans="1:4" ht="49.5">
+      <c r="A328" s="110" t="s">
         <v>1449</v>
       </c>
-      <c r="B326" s="92" t="s">
+      <c r="B328" s="92" t="s">
         <v>1450</v>
       </c>
-      <c r="C326" s="92" t="s">
+      <c r="C328" s="92" t="s">
         <v>1451</v>
       </c>
-      <c r="D326" s="96"/>
-    </row>
-    <row r="327" spans="1:4" ht="99">
-      <c r="A327" s="110" t="s">
+      <c r="D328" s="96"/>
+    </row>
+    <row r="329" spans="1:4" ht="99">
+      <c r="A329" s="110" t="s">
         <v>1452</v>
       </c>
-      <c r="B327" s="92" t="s">
+      <c r="B329" s="92" t="s">
         <v>1453</v>
       </c>
-      <c r="C327" s="92" t="s">
+      <c r="C329" s="92" t="s">
         <v>1454</v>
       </c>
-      <c r="D327" s="96"/>
-    </row>
-    <row r="328" spans="1:4" ht="132">
-      <c r="A328" s="134" t="s">
+      <c r="D329" s="96"/>
+    </row>
+    <row r="330" spans="1:4" ht="132">
+      <c r="A330" s="134" t="s">
         <v>1458</v>
       </c>
-      <c r="B328" s="92" t="s">
+      <c r="B330" s="92" t="s">
         <v>1455</v>
       </c>
-      <c r="C328" s="92" t="s">
+      <c r="C330" s="92" t="s">
         <v>1467</v>
       </c>
-      <c r="D328" s="96"/>
-    </row>
-    <row r="329" spans="1:4" ht="33">
-      <c r="A329" s="136" t="s">
+      <c r="D330" s="96"/>
+    </row>
+    <row r="331" spans="1:4" ht="33">
+      <c r="A331" s="136" t="s">
         <v>1464</v>
       </c>
-      <c r="B329" s="92" t="s">
+      <c r="B331" s="92" t="s">
         <v>1465</v>
       </c>
-      <c r="C329" s="92" t="s">
+      <c r="C331" s="92" t="s">
         <v>1468</v>
       </c>
-      <c r="D329" s="96"/>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="136" t="s">
+      <c r="D331" s="96"/>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="136" t="s">
         <v>1466</v>
       </c>
-      <c r="C330" s="92" t="s">
+      <c r="C332" s="92" t="s">
         <v>1469</v>
       </c>
-      <c r="D330" s="96"/>
-    </row>
-    <row r="331" spans="1:4" ht="99">
-      <c r="A331" s="136" t="s">
+      <c r="D332" s="96"/>
+    </row>
+    <row r="333" spans="1:4" ht="99">
+      <c r="A333" s="136" t="s">
         <v>1456</v>
       </c>
-      <c r="B331" s="92" t="s">
+      <c r="B333" s="92" t="s">
         <v>1457</v>
       </c>
-      <c r="C331" s="92" t="s">
+      <c r="C333" s="92" t="s">
         <v>1459</v>
       </c>
-      <c r="D331" s="96"/>
-    </row>
-    <row r="332" spans="1:4" ht="33">
-      <c r="A332" s="110" t="s">
+      <c r="D333" s="96"/>
+    </row>
+    <row r="334" spans="1:4" ht="33">
+      <c r="A334" s="110" t="s">
         <v>1460</v>
       </c>
-      <c r="B332" s="92" t="s">
+      <c r="B334" s="92" t="s">
         <v>1461</v>
       </c>
-      <c r="D332" s="96"/>
-    </row>
-    <row r="333" spans="1:4" ht="148.5">
-      <c r="A333" s="139" t="s">
+      <c r="D334" s="96"/>
+    </row>
+    <row r="335" spans="1:4" ht="148.5">
+      <c r="A335" s="139" t="s">
         <v>1493</v>
       </c>
-      <c r="B333" s="133" t="s">
+      <c r="B335" s="133" t="s">
         <v>1511</v>
       </c>
-      <c r="C333" s="133" t="s">
+      <c r="C335" s="133" t="s">
         <v>1463</v>
       </c>
-      <c r="D333" s="96"/>
-    </row>
-    <row r="334" spans="1:4" ht="49.5">
-      <c r="A334" s="110" t="s">
+      <c r="D335" s="96"/>
+    </row>
+    <row r="336" spans="1:4" ht="49.5">
+      <c r="A336" s="110" t="s">
         <v>1492</v>
       </c>
-      <c r="B334" s="133" t="s">
+      <c r="B336" s="133" t="s">
         <v>1510</v>
       </c>
-      <c r="C334" s="133"/>
-      <c r="D334" s="96"/>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="110" t="s">
+      <c r="C336" s="133"/>
+      <c r="D336" s="96"/>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="110" t="s">
         <v>1494</v>
       </c>
-      <c r="B335" s="133" t="s">
+      <c r="B337" s="133" t="s">
         <v>1495</v>
       </c>
-      <c r="C335" s="133"/>
-      <c r="D335" s="96"/>
-    </row>
-    <row r="336" spans="1:4" ht="132">
-      <c r="A336" s="110" t="s">
+      <c r="C337" s="133"/>
+      <c r="D337" s="96"/>
+    </row>
+    <row r="338" spans="1:4" ht="132">
+      <c r="A338" s="110" t="s">
         <v>1497</v>
       </c>
-      <c r="B336" s="133" t="s">
+      <c r="B338" s="133" t="s">
         <v>1512</v>
       </c>
-      <c r="C336" s="133" t="s">
+      <c r="C338" s="133" t="s">
         <v>1498</v>
       </c>
-      <c r="D336" s="96"/>
-    </row>
-    <row r="337" spans="1:4" ht="115.5">
-      <c r="A337" s="110" t="s">
+      <c r="D338" s="96"/>
+    </row>
+    <row r="339" spans="1:4" ht="115.5">
+      <c r="A339" s="110" t="s">
         <v>2279</v>
       </c>
-      <c r="B337" s="133"/>
-      <c r="C337" s="133" t="s">
+      <c r="B339" s="133"/>
+      <c r="C339" s="133" t="s">
         <v>2280</v>
       </c>
-      <c r="D337" s="96"/>
-    </row>
-    <row r="338" spans="1:4" ht="49.5">
-      <c r="A338" s="139" t="s">
+      <c r="D339" s="96"/>
+    </row>
+    <row r="340" spans="1:4" ht="49.5">
+      <c r="A340" s="139" t="s">
         <v>1503</v>
       </c>
-      <c r="B338" s="133" t="s">
+      <c r="B340" s="133" t="s">
         <v>1504</v>
       </c>
-      <c r="C338" s="133" t="s">
+      <c r="C340" s="133" t="s">
         <v>1505</v>
       </c>
-      <c r="D338" s="96"/>
-    </row>
-    <row r="339" spans="1:4" ht="165">
-      <c r="A339" s="110"/>
-      <c r="B339" s="133" t="s">
+      <c r="D340" s="96"/>
+    </row>
+    <row r="341" spans="1:4" ht="165">
+      <c r="A341" s="110"/>
+      <c r="B341" s="133" t="s">
         <v>1506</v>
       </c>
-      <c r="C339" s="133" t="s">
+      <c r="C341" s="133" t="s">
         <v>1507</v>
       </c>
-      <c r="D339" s="96"/>
-    </row>
-    <row r="340" spans="1:4" ht="181.5">
-      <c r="A340" s="110"/>
-      <c r="B340" s="133" t="s">
+      <c r="D341" s="96"/>
+    </row>
+    <row r="342" spans="1:4" ht="181.5">
+      <c r="A342" s="110"/>
+      <c r="B342" s="133" t="s">
         <v>1509</v>
       </c>
-      <c r="C340" s="133" t="s">
+      <c r="C342" s="133" t="s">
         <v>1508</v>
       </c>
-      <c r="D340" s="96"/>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="110"/>
-      <c r="B341" s="133"/>
-      <c r="C341" s="133"/>
-      <c r="D341" s="96"/>
-    </row>
-    <row r="342" spans="1:4" ht="66">
-      <c r="A342" s="110" t="s">
+      <c r="D342" s="96"/>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="110"/>
+      <c r="B343" s="133"/>
+      <c r="C343" s="133"/>
+      <c r="D343" s="96"/>
+    </row>
+    <row r="344" spans="1:4" ht="66">
+      <c r="A344" s="110" t="s">
         <v>1472</v>
       </c>
-      <c r="C342" s="92" t="s">
+      <c r="C344" s="92" t="s">
         <v>1485</v>
-      </c>
-      <c r="D342" s="96"/>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="110" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B343" s="92" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C343" s="82" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D343" s="96"/>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="110" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B344" s="92" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C344" s="82" t="s">
-        <v>1487</v>
       </c>
       <c r="D344" s="96"/>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="110" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B345" s="92" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="C345" s="82" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="D345" s="96"/>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="110" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B346" s="92" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C346" s="82" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="D346" s="96"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="110" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B347" s="92" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C347" s="82" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="D347" s="96"/>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="110" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B348" s="92" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C348" s="82" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D348" s="96"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="110" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B349" s="92" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C349" s="82" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D349" s="96"/>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="110" t="s">
         <v>1478</v>
       </c>
-      <c r="B348" s="92" t="s">
+      <c r="B350" s="92" t="s">
         <v>1483</v>
       </c>
-      <c r="C348" s="82" t="s">
+      <c r="C350" s="82" t="s">
         <v>1491</v>
       </c>
-      <c r="D348" s="96"/>
-    </row>
-    <row r="349" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A349" s="111"/>
-      <c r="B349" s="135"/>
-      <c r="C349" s="100"/>
-      <c r="D349" s="101"/>
-    </row>
-    <row r="350" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="351" spans="1:4">
-      <c r="A351" s="102" t="s">
+      <c r="D350" s="96"/>
+    </row>
+    <row r="351" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A351" s="111"/>
+      <c r="B351" s="135"/>
+      <c r="C351" s="100"/>
+      <c r="D351" s="101"/>
+    </row>
+    <row r="352" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="353" spans="1:3">
+      <c r="A353" s="102" t="s">
         <v>773</v>
       </c>
-      <c r="B351" s="121" t="s">
+      <c r="B353" s="121" t="s">
         <v>774</v>
       </c>
-      <c r="C351" s="94"/>
-    </row>
-    <row r="352" spans="1:4" ht="82.5">
-      <c r="A352" s="122" t="s">
+      <c r="C353" s="94"/>
+    </row>
+    <row r="354" spans="1:3" ht="82.5">
+      <c r="A354" s="122" t="s">
         <v>777</v>
       </c>
-      <c r="B352" s="95" t="s">
+      <c r="B354" s="95" t="s">
         <v>781</v>
       </c>
-      <c r="C352" s="123" t="s">
+      <c r="C354" s="123" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="132">
-      <c r="A353" s="122" t="s">
+    <row r="355" spans="1:3" ht="132">
+      <c r="A355" s="122" t="s">
         <v>780</v>
       </c>
-      <c r="B353" s="95" t="s">
+      <c r="B355" s="95" t="s">
         <v>944</v>
       </c>
-      <c r="C353" s="123" t="s">
+      <c r="C355" s="123" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="99">
-      <c r="A354" s="122" t="s">
+    <row r="356" spans="1:3" ht="99">
+      <c r="A356" s="122" t="s">
         <v>778</v>
       </c>
-      <c r="B354" s="92" t="s">
+      <c r="B356" s="92" t="s">
         <v>775</v>
       </c>
-      <c r="C354" s="123" t="s">
+      <c r="C356" s="123" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="33">
-      <c r="A355" s="122" t="s">
+    <row r="357" spans="1:3" ht="33">
+      <c r="A357" s="122" t="s">
         <v>779</v>
       </c>
-      <c r="B355" s="92" t="s">
+      <c r="B357" s="92" t="s">
         <v>776</v>
       </c>
-      <c r="C355" s="96"/>
-    </row>
-    <row r="356" spans="1:3" ht="49.5">
-      <c r="A356" s="110" t="s">
+      <c r="C357" s="96"/>
+    </row>
+    <row r="358" spans="1:3" ht="49.5">
+      <c r="A358" s="110" t="s">
         <v>785</v>
       </c>
-      <c r="B356" s="92" t="s">
+      <c r="B358" s="92" t="s">
         <v>786</v>
       </c>
-      <c r="C356" s="123" t="s">
+      <c r="C358" s="123" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="33">
-      <c r="A357" s="110" t="s">
+    <row r="359" spans="1:3" ht="33">
+      <c r="A359" s="110" t="s">
         <v>788</v>
       </c>
-      <c r="B357" s="95" t="s">
+      <c r="B359" s="95" t="s">
         <v>789</v>
       </c>
-      <c r="C357" s="96" t="s">
+      <c r="C359" s="96" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="110"/>
-      <c r="B358" s="95" t="s">
+    <row r="360" spans="1:3">
+      <c r="A360" s="110"/>
+      <c r="B360" s="95" t="s">
         <v>790</v>
       </c>
-      <c r="C358" s="96" t="s">
+      <c r="C360" s="96" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="110" t="s">
-        <v>797</v>
-      </c>
-      <c r="B359" s="95" t="s">
-        <v>798</v>
-      </c>
-      <c r="C359" s="96"/>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="110" t="s">
-        <v>799</v>
-      </c>
-      <c r="B360" s="95" t="s">
-        <v>800</v>
-      </c>
-      <c r="C360" s="96"/>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="110" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B361" s="95" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C361" s="96"/>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="110" t="s">
+        <v>799</v>
+      </c>
+      <c r="B362" s="95" t="s">
+        <v>800</v>
+      </c>
+      <c r="C362" s="96"/>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="110" t="s">
+        <v>801</v>
+      </c>
+      <c r="B363" s="95" t="s">
+        <v>802</v>
+      </c>
+      <c r="C363" s="96"/>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="110" t="s">
         <v>803</v>
       </c>
-      <c r="B362" s="95" t="s">
+      <c r="B364" s="95" t="s">
         <v>804</v>
       </c>
-      <c r="C362" s="96"/>
-    </row>
-    <row r="363" spans="1:3" ht="82.5">
-      <c r="A363" s="110" t="s">
+      <c r="C364" s="96"/>
+    </row>
+    <row r="365" spans="1:3" ht="82.5">
+      <c r="A365" s="110" t="s">
         <v>842</v>
       </c>
-      <c r="B363" s="95" t="s">
+      <c r="B365" s="95" t="s">
         <v>1569</v>
       </c>
-      <c r="C363" s="123" t="s">
+      <c r="C365" s="123" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="33">
-      <c r="A364" s="110" t="s">
+    <row r="366" spans="1:3" ht="33">
+      <c r="A366" s="110" t="s">
         <v>1567</v>
       </c>
-      <c r="B364" s="92" t="s">
+      <c r="B366" s="92" t="s">
         <v>1568</v>
       </c>
-      <c r="C364" s="96"/>
-    </row>
-    <row r="365" spans="1:3" ht="115.5">
-      <c r="A365" s="110" t="s">
+      <c r="C366" s="96"/>
+    </row>
+    <row r="367" spans="1:3" ht="115.5">
+      <c r="A367" s="110" t="s">
         <v>1616</v>
       </c>
-      <c r="B365" s="92" t="s">
+      <c r="B367" s="92" t="s">
         <v>1618</v>
       </c>
-      <c r="C365" s="123" t="s">
+      <c r="C367" s="123" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A366" s="111"/>
-      <c r="B366" s="99"/>
-      <c r="C366" s="101"/>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="91" t="s">
+    <row r="368" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A368" s="111"/>
+      <c r="B368" s="99"/>
+      <c r="C368" s="101"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="91" t="s">
         <v>793</v>
       </c>
-      <c r="B368" s="92" t="s">
+      <c r="B370" s="92" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="91" t="s">
+    <row r="371" spans="1:4">
+      <c r="A371" s="91" t="s">
         <v>795</v>
       </c>
-      <c r="B369" s="92" t="s">
+      <c r="B371" s="92" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="B371" s="92" t="s">
+    <row r="373" spans="1:4">
+      <c r="B373" s="92" t="s">
         <v>946</v>
       </c>
-      <c r="C371" s="92"/>
-    </row>
-    <row r="376" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A376" s="124"/>
-      <c r="B376" s="125"/>
-      <c r="C376" s="126"/>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="112"/>
-      <c r="B377" s="95"/>
-      <c r="C377" s="92"/>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="91" t="s">
+      <c r="C373" s="92"/>
+    </row>
+    <row r="378" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A378" s="124"/>
+      <c r="B378" s="125"/>
+      <c r="C378" s="126"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="112"/>
+      <c r="B379" s="95"/>
+      <c r="C379" s="92"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="91" t="s">
         <v>1048</v>
       </c>
-      <c r="B378" s="106" t="s">
+      <c r="B380" s="106" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="264">
-      <c r="A380" s="127" t="s">
+    <row r="382" spans="1:4" ht="264">
+      <c r="A382" s="127" t="s">
         <v>1086</v>
       </c>
-      <c r="B380" s="95" t="s">
+      <c r="B382" s="95" t="s">
         <v>1087</v>
       </c>
-      <c r="C380" s="92" t="s">
+      <c r="C382" s="92" t="s">
         <v>1088</v>
       </c>
-      <c r="D380" s="92" t="s">
+      <c r="D382" s="92" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A381" s="112"/>
-      <c r="B381" s="95"/>
-      <c r="C381" s="92"/>
-    </row>
-    <row r="382" spans="1:4" ht="66">
-      <c r="A382" s="102" t="s">
+    <row r="383" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A383" s="112"/>
+      <c r="B383" s="95"/>
+      <c r="C383" s="92"/>
+    </row>
+    <row r="384" spans="1:4" ht="66">
+      <c r="A384" s="102" t="s">
         <v>1090</v>
       </c>
-      <c r="B382" s="103" t="s">
+      <c r="B384" s="103" t="s">
         <v>1091</v>
       </c>
-      <c r="C382" s="103" t="s">
+      <c r="C384" s="103" t="s">
         <v>1092</v>
       </c>
-      <c r="D382" s="94"/>
-    </row>
-    <row r="383" spans="1:4" ht="115.5">
-      <c r="A383" s="110"/>
-      <c r="B383" s="92" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C383" s="92" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D383" s="96"/>
-    </row>
-    <row r="384" spans="1:4" ht="115.5">
-      <c r="A384" s="110"/>
-      <c r="B384" s="92" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D384" s="96"/>
-    </row>
-    <row r="385" spans="1:4" ht="99">
+      <c r="D384" s="94"/>
+    </row>
+    <row r="385" spans="1:4" ht="115.5">
       <c r="A385" s="110"/>
       <c r="B385" s="92" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C385" s="92" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D385" s="96"/>
     </row>
     <row r="386" spans="1:4" ht="115.5">
       <c r="A386" s="110"/>
       <c r="B386" s="92" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C386" s="92" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D386" s="96"/>
     </row>
-    <row r="387" spans="1:4" ht="148.5">
+    <row r="387" spans="1:4" ht="99">
       <c r="A387" s="110"/>
       <c r="B387" s="92" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C387" s="92" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D387" s="96"/>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" ht="115.5">
       <c r="A388" s="110"/>
       <c r="B388" s="92" t="s">
-        <v>1102</v>
+        <v>1098</v>
+      </c>
+      <c r="C388" s="92" t="s">
+        <v>1099</v>
       </c>
       <c r="D388" s="96"/>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="110" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B389" s="128" t="s">
-        <v>1104</v>
+    <row r="389" spans="1:4" ht="148.5">
+      <c r="A389" s="110"/>
+      <c r="B389" s="92" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C389" s="92" t="s">
+        <v>1101</v>
       </c>
       <c r="D389" s="96"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="110"/>
-      <c r="B390" s="128" t="s">
+      <c r="B390" s="92" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D390" s="96"/>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="110" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B391" s="128" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D391" s="96"/>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="110"/>
+      <c r="B392" s="128" t="s">
         <v>1105</v>
-      </c>
-      <c r="D390" s="96"/>
-    </row>
-    <row r="391" spans="1:4" ht="66">
-      <c r="A391" s="110"/>
-      <c r="B391" s="128" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C391" s="92" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D391" s="96"/>
-    </row>
-    <row r="392" spans="1:4" ht="115.5">
-      <c r="A392" s="110"/>
-      <c r="B392" s="92" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C392" s="92" t="s">
-        <v>1109</v>
       </c>
       <c r="D392" s="96"/>
     </row>
     <row r="393" spans="1:4" ht="66">
       <c r="A393" s="110"/>
-      <c r="B393" s="92" t="s">
-        <v>1110</v>
+      <c r="B393" s="128" t="s">
+        <v>1106</v>
       </c>
       <c r="C393" s="92" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D393" s="96"/>
     </row>
-    <row r="394" spans="1:4" ht="66">
+    <row r="394" spans="1:4" ht="115.5">
       <c r="A394" s="110"/>
       <c r="B394" s="92" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C394" s="92" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D394" s="96"/>
     </row>
     <row r="395" spans="1:4" ht="66">
       <c r="A395" s="110"/>
       <c r="B395" s="92" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C395" s="92" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D395" s="96"/>
     </row>
-    <row r="396" spans="1:4" ht="82.5">
+    <row r="396" spans="1:4" ht="66">
       <c r="A396" s="110"/>
       <c r="B396" s="92" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C396" s="92" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D396" s="96"/>
     </row>
-    <row r="397" spans="1:4" ht="99">
+    <row r="397" spans="1:4" ht="66">
       <c r="A397" s="110"/>
-      <c r="B397" s="91" t="s">
-        <v>1118</v>
+      <c r="B397" s="92" t="s">
+        <v>1114</v>
       </c>
       <c r="C397" s="92" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D397" s="96"/>
     </row>
-    <row r="398" spans="1:4" ht="33">
+    <row r="398" spans="1:4" ht="82.5">
       <c r="A398" s="110"/>
       <c r="B398" s="92" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C398" s="92" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D398" s="96"/>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="110" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B399" s="92" t="s">
-        <v>1124</v>
+    <row r="399" spans="1:4" ht="99">
+      <c r="A399" s="110"/>
+      <c r="B399" s="91" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C399" s="92" t="s">
+        <v>1119</v>
       </c>
       <c r="D399" s="96"/>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" ht="33">
       <c r="A400" s="110"/>
       <c r="B400" s="92" t="s">
-        <v>1125</v>
+        <v>1120</v>
+      </c>
+      <c r="C400" s="92" t="s">
+        <v>1121</v>
       </c>
       <c r="D400" s="96"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="110"/>
+      <c r="A401" s="110" t="s">
+        <v>1123</v>
+      </c>
       <c r="B401" s="92" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D401" s="96"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="110"/>
       <c r="B402" s="92" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D402" s="96"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="110"/>
       <c r="B403" s="92" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D403" s="96"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="110"/>
       <c r="B404" s="92" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D404" s="96"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="110"/>
       <c r="B405" s="92" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D405" s="96"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="110" t="s">
-        <v>1131</v>
-      </c>
+      <c r="A406" s="110"/>
       <c r="B406" s="92" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D406" s="96"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="110"/>
       <c r="B407" s="92" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D407" s="96"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="110"/>
+      <c r="A408" s="110" t="s">
+        <v>1131</v>
+      </c>
       <c r="B408" s="92" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D408" s="96"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="110"/>
       <c r="B409" s="92" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D409" s="96"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="110"/>
       <c r="B410" s="92" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D410" s="96"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="110"/>
       <c r="B411" s="92" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D411" s="96"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="110"/>
       <c r="B412" s="92" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D412" s="96"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="110"/>
       <c r="B413" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D413" s="96"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="110"/>
       <c r="B414" s="92" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D414" s="96"/>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="110"/>
+      <c r="B415" s="92" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D415" s="96"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="110"/>
+      <c r="B416" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="D414" s="96"/>
-    </row>
-    <row r="415" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A415" s="111"/>
-      <c r="B415" s="99"/>
-      <c r="C415" s="100"/>
-      <c r="D415" s="101"/>
-    </row>
-    <row r="417" spans="1:3">
-      <c r="A417" s="127" t="s">
+      <c r="D416" s="96"/>
+    </row>
+    <row r="417" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A417" s="111"/>
+      <c r="B417" s="99"/>
+      <c r="C417" s="100"/>
+      <c r="D417" s="101"/>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="127" t="s">
         <v>1166</v>
       </c>
-      <c r="B417" s="92" t="s">
+      <c r="B419" s="92" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="99">
-      <c r="B418" s="92" t="s">
+    <row r="420" spans="1:4" ht="99">
+      <c r="B420" s="92" t="s">
         <v>1142</v>
       </c>
-      <c r="C418" s="92" t="s">
+      <c r="C420" s="92" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="247.5">
-      <c r="B419" s="92" t="s">
+    <row r="421" spans="1:4" ht="247.5">
+      <c r="B421" s="92" t="s">
         <v>1156</v>
       </c>
-      <c r="C419" s="92" t="s">
+      <c r="C421" s="92" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="264">
-      <c r="B420" s="92" t="s">
+    <row r="422" spans="1:4" ht="264">
+      <c r="B422" s="92" t="s">
         <v>1170</v>
       </c>
-      <c r="C420" s="92" t="s">
+      <c r="C422" s="92" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="409.5">
-      <c r="B422" s="92" t="s">
+    <row r="424" spans="1:4" ht="409.5">
+      <c r="B424" s="92" t="s">
         <v>1173</v>
       </c>
-      <c r="C422" s="92" t="s">
+      <c r="C424" s="92" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
-      <c r="A426" s="129" t="s">
+    <row r="428" spans="1:4">
+      <c r="A428" s="129" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="82.5">
-      <c r="A427" s="91" t="s">
+    <row r="429" spans="1:4" ht="82.5">
+      <c r="A429" s="91" t="s">
         <v>1285</v>
       </c>
-      <c r="B427" s="92" t="s">
+      <c r="B429" s="92" t="s">
         <v>1374</v>
       </c>
-      <c r="C427" s="92" t="s">
+      <c r="C429" s="92" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="115.5">
-      <c r="A428" s="91" t="s">
+    <row r="430" spans="1:4" ht="115.5">
+      <c r="A430" s="91" t="s">
         <v>1287</v>
       </c>
-      <c r="B428" s="92" t="s">
+      <c r="B430" s="92" t="s">
         <v>1288</v>
       </c>
-      <c r="C428" s="92" t="s">
+      <c r="C430" s="92" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="115.5">
-      <c r="A429" s="112" t="s">
+    <row r="431" spans="1:4" ht="115.5">
+      <c r="A431" s="112" t="s">
         <v>1290</v>
       </c>
-      <c r="B429" s="92" t="s">
+      <c r="B431" s="92" t="s">
         <v>1292</v>
       </c>
-      <c r="C429" s="92" t="s">
+      <c r="C431" s="92" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="115.5">
-      <c r="A430" s="112" t="s">
+    <row r="432" spans="1:4" ht="115.5">
+      <c r="A432" s="112" t="s">
         <v>1293</v>
       </c>
-      <c r="B430" s="92" t="s">
+      <c r="B432" s="92" t="s">
         <v>1294</v>
       </c>
-      <c r="C430" s="92" t="s">
+      <c r="C432" s="92" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="66">
-      <c r="A431" s="112" t="s">
+    <row r="433" spans="1:4" ht="66">
+      <c r="A433" s="112" t="s">
         <v>1296</v>
       </c>
-      <c r="B431" s="92" t="s">
+      <c r="B433" s="92" t="s">
         <v>1297</v>
       </c>
-      <c r="C431" s="92" t="s">
+      <c r="C433" s="92" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="82.5">
-      <c r="A432" s="112" t="s">
+    <row r="434" spans="1:4" ht="82.5">
+      <c r="A434" s="112" t="s">
         <v>1299</v>
       </c>
-      <c r="B432" s="92" t="s">
+      <c r="B434" s="92" t="s">
         <v>1300</v>
       </c>
-      <c r="C432" s="92" t="s">
+      <c r="C434" s="92" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="82.5">
-      <c r="A433" s="112" t="s">
+    <row r="435" spans="1:4" ht="82.5">
+      <c r="A435" s="112" t="s">
         <v>1302</v>
       </c>
-      <c r="B433" s="92" t="s">
+      <c r="B435" s="92" t="s">
         <v>1303</v>
       </c>
-      <c r="C433" s="92" t="s">
+      <c r="C435" s="92" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="33">
-      <c r="A434" s="112" t="s">
+    <row r="436" spans="1:4" ht="33">
+      <c r="A436" s="112" t="s">
         <v>1305</v>
       </c>
-      <c r="B434" s="92" t="s">
+      <c r="B436" s="92" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="112" t="s">
+    <row r="437" spans="1:4">
+      <c r="A437" s="112" t="s">
         <v>2275</v>
       </c>
-      <c r="B435" s="92" t="s">
+      <c r="B437" s="92" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="112" t="s">
+    <row r="438" spans="1:4">
+      <c r="A438" s="112" t="s">
         <v>2277</v>
       </c>
-      <c r="B436" s="92" t="s">
+      <c r="B438" s="92" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="33">
-      <c r="A437" s="112" t="s">
+    <row r="439" spans="1:4" ht="33">
+      <c r="A439" s="112" t="s">
         <v>1386</v>
       </c>
-      <c r="B437" s="92" t="s">
+      <c r="B439" s="92" t="s">
         <v>1387</v>
       </c>
-      <c r="C437" s="95" t="s">
+      <c r="C439" s="95" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="129" t="s">
+    <row r="440" spans="1:4">
+      <c r="A440" s="129" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="115.5">
-      <c r="A439" s="112" t="s">
+    <row r="441" spans="1:4" ht="115.5">
+      <c r="A441" s="112" t="s">
         <v>1308</v>
       </c>
-      <c r="B439" s="92" t="s">
+      <c r="B441" s="92" t="s">
         <v>1310</v>
       </c>
-      <c r="C439" s="92" t="s">
+      <c r="C441" s="92" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="115.5">
-      <c r="A440" s="112" t="s">
+    <row r="442" spans="1:4" ht="115.5">
+      <c r="A442" s="112" t="s">
         <v>1311</v>
       </c>
-      <c r="B440" s="92" t="s">
+      <c r="B442" s="92" t="s">
         <v>1313</v>
       </c>
-      <c r="C440" s="92" t="s">
+      <c r="C442" s="92" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="442" spans="1:4">
-      <c r="A442" s="102" t="s">
+    <row r="443" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="444" spans="1:4">
+      <c r="A444" s="102" t="s">
         <v>1314</v>
       </c>
-      <c r="B442" s="103"/>
-      <c r="C442" s="104"/>
-      <c r="D442" s="94"/>
-    </row>
-    <row r="443" spans="1:4" ht="82.5">
-      <c r="A443" s="122" t="s">
+      <c r="B444" s="103"/>
+      <c r="C444" s="104"/>
+      <c r="D444" s="94"/>
+    </row>
+    <row r="445" spans="1:4" ht="82.5">
+      <c r="A445" s="122" t="s">
         <v>1315</v>
       </c>
-      <c r="C443" s="92" t="s">
+      <c r="C445" s="92" t="s">
         <v>1316</v>
-      </c>
-      <c r="D443" s="96"/>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="122" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B444" s="92" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C444" s="92"/>
-      <c r="D444" s="96"/>
-    </row>
-    <row r="445" spans="1:4" ht="49.5">
-      <c r="A445" s="122" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B445" s="92" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C445" s="92" t="s">
-        <v>1321</v>
       </c>
       <c r="D445" s="96"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="122" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B446" s="92" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C446" s="92"/>
+      <c r="D446" s="96"/>
+    </row>
+    <row r="447" spans="1:4" ht="49.5">
+      <c r="A447" s="122" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B447" s="92" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C447" s="92" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D447" s="96"/>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="122" t="s">
         <v>1319</v>
       </c>
-      <c r="B446" s="92" t="s">
+      <c r="B448" s="92" t="s">
         <v>1320</v>
       </c>
-      <c r="C446" s="95" t="s">
+      <c r="C448" s="95" t="s">
         <v>1322</v>
       </c>
-      <c r="D446" s="96"/>
-    </row>
-    <row r="447" spans="1:4" ht="148.5">
-      <c r="A447" s="97" t="s">
+      <c r="D448" s="96"/>
+    </row>
+    <row r="449" spans="1:4" ht="148.5">
+      <c r="A449" s="97" t="s">
         <v>1325</v>
       </c>
-      <c r="B447" s="92" t="s">
+      <c r="B449" s="92" t="s">
         <v>1330</v>
       </c>
-      <c r="C447" s="92" t="s">
+      <c r="C449" s="92" t="s">
         <v>1323</v>
       </c>
-      <c r="D447" s="96"/>
-    </row>
-    <row r="448" spans="1:4" ht="148.5">
-      <c r="A448" s="97" t="s">
+      <c r="D449" s="96"/>
+    </row>
+    <row r="450" spans="1:4" ht="148.5">
+      <c r="A450" s="97" t="s">
         <v>1326</v>
       </c>
-      <c r="B448" s="92" t="s">
+      <c r="B450" s="92" t="s">
         <v>1331</v>
       </c>
-      <c r="C448" s="92" t="s">
+      <c r="C450" s="92" t="s">
         <v>1324</v>
       </c>
-      <c r="D448" s="96"/>
-    </row>
-    <row r="449" spans="1:4" ht="66">
-      <c r="A449" s="122" t="s">
+      <c r="D450" s="96"/>
+    </row>
+    <row r="451" spans="1:4" ht="66">
+      <c r="A451" s="122" t="s">
         <v>1328</v>
       </c>
-      <c r="B449" s="92" t="s">
+      <c r="B451" s="92" t="s">
         <v>1327</v>
       </c>
-      <c r="C449" s="95" t="s">
+      <c r="C451" s="95" t="s">
         <v>1329</v>
       </c>
-      <c r="D449" s="96"/>
-    </row>
-    <row r="450" spans="1:4" ht="66">
-      <c r="A450" s="139" t="s">
+      <c r="D451" s="96"/>
+    </row>
+    <row r="452" spans="1:4" ht="66">
+      <c r="A452" s="139" t="s">
         <v>500</v>
       </c>
-      <c r="B450" s="92" t="s">
+      <c r="B452" s="92" t="s">
         <v>1522</v>
       </c>
-      <c r="C450" s="95" t="s">
+      <c r="C452" s="95" t="s">
         <v>1513</v>
       </c>
-      <c r="D450" s="96"/>
-    </row>
-    <row r="451" spans="1:4" ht="33">
-      <c r="A451" s="122" t="s">
+      <c r="D452" s="96"/>
+    </row>
+    <row r="453" spans="1:4" ht="33">
+      <c r="A453" s="122" t="s">
         <v>1523</v>
       </c>
-      <c r="B451" s="92" t="s">
+      <c r="B453" s="92" t="s">
         <v>1515</v>
       </c>
-      <c r="C451" s="95" t="s">
+      <c r="C453" s="95" t="s">
         <v>1514</v>
-      </c>
-      <c r="D451" s="96"/>
-    </row>
-    <row r="452" spans="1:4" ht="82.5">
-      <c r="A452" s="122"/>
-      <c r="B452" s="92" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C452" s="95" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D452" s="96"/>
-    </row>
-    <row r="453" spans="1:4" ht="82.5">
-      <c r="A453" s="122"/>
-      <c r="B453" s="92" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C453" s="95" t="s">
-        <v>1519</v>
       </c>
       <c r="D453" s="96"/>
     </row>
     <row r="454" spans="1:4" ht="82.5">
       <c r="A454" s="122"/>
       <c r="B454" s="92" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C454" s="95" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D454" s="96"/>
+    </row>
+    <row r="455" spans="1:4" ht="82.5">
+      <c r="A455" s="122"/>
+      <c r="B455" s="92" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C455" s="95" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D455" s="96"/>
+    </row>
+    <row r="456" spans="1:4" ht="82.5">
+      <c r="A456" s="122"/>
+      <c r="B456" s="92" t="s">
         <v>1520</v>
       </c>
-      <c r="C454" s="95" t="s">
+      <c r="C456" s="95" t="s">
         <v>1521</v>
       </c>
-      <c r="D454" s="96"/>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="122"/>
-      <c r="C455" s="95"/>
-      <c r="D455" s="96"/>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="122"/>
-      <c r="C456" s="95"/>
       <c r="D456" s="96"/>
     </row>
-    <row r="457" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A457" s="111"/>
-      <c r="B457" s="99"/>
-      <c r="C457" s="100"/>
-      <c r="D457" s="101"/>
-    </row>
-    <row r="458" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="459" spans="1:4" s="104" customFormat="1" ht="82.5">
-      <c r="A459" s="102" t="s">
+    <row r="457" spans="1:4">
+      <c r="A457" s="122"/>
+      <c r="C457" s="95"/>
+      <c r="D457" s="96"/>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="122"/>
+      <c r="C458" s="95"/>
+      <c r="D458" s="96"/>
+    </row>
+    <row r="459" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A459" s="111"/>
+      <c r="B459" s="99"/>
+      <c r="C459" s="100"/>
+      <c r="D459" s="101"/>
+    </row>
+    <row r="460" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="461" spans="1:4" s="104" customFormat="1" ht="82.5">
+      <c r="A461" s="102" t="s">
         <v>1332</v>
       </c>
-      <c r="B459" s="103" t="s">
+      <c r="B461" s="103" t="s">
         <v>1333</v>
       </c>
-      <c r="C459" s="130" t="s">
+      <c r="C461" s="130" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="115.5">
-      <c r="A460" s="110"/>
-      <c r="B460" s="92" t="s">
+    <row r="462" spans="1:4" ht="115.5">
+      <c r="A462" s="110"/>
+      <c r="B462" s="92" t="s">
         <v>1335</v>
       </c>
-      <c r="C460" s="92" t="s">
+      <c r="C462" s="92" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="132">
-      <c r="A461" s="110"/>
-      <c r="B461" s="92" t="s">
+    <row r="463" spans="1:4" ht="132">
+      <c r="A463" s="110"/>
+      <c r="B463" s="92" t="s">
         <v>1337</v>
       </c>
-      <c r="C461" s="92" t="s">
+      <c r="C463" s="92" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="214.5">
-      <c r="A462" s="110"/>
-      <c r="B462" s="91" t="s">
+    <row r="464" spans="1:4" ht="214.5">
+      <c r="A464" s="110"/>
+      <c r="B464" s="91" t="s">
         <v>1339</v>
       </c>
-      <c r="C462" s="92" t="s">
+      <c r="C464" s="92" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="463" spans="1:4" s="100" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A463" s="111"/>
-      <c r="B463" s="99"/>
-    </row>
-    <row r="464" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="465" spans="1:4" ht="33">
-      <c r="A465" s="131" t="s">
+    <row r="465" spans="1:4" s="100" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A465" s="111"/>
+      <c r="B465" s="99"/>
+    </row>
+    <row r="466" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="467" spans="1:4" ht="33">
+      <c r="A467" s="131" t="s">
         <v>1343</v>
       </c>
-      <c r="B465" s="103" t="s">
+      <c r="B467" s="103" t="s">
         <v>1344</v>
       </c>
-      <c r="C465" s="104"/>
-      <c r="D465" s="94"/>
-    </row>
-    <row r="466" spans="1:4" ht="82.5">
-      <c r="A466" s="110" t="s">
+      <c r="C467" s="104"/>
+      <c r="D467" s="94"/>
+    </row>
+    <row r="468" spans="1:4" ht="82.5">
+      <c r="A468" s="110" t="s">
         <v>1348</v>
       </c>
-      <c r="B466" s="92" t="s">
+      <c r="B468" s="92" t="s">
         <v>1345</v>
       </c>
-      <c r="C466" s="92" t="s">
+      <c r="C468" s="92" t="s">
         <v>1346</v>
       </c>
-      <c r="D466" s="96"/>
-    </row>
-    <row r="467" spans="1:4" ht="49.5">
-      <c r="A467" s="110" t="s">
+      <c r="D468" s="96"/>
+    </row>
+    <row r="469" spans="1:4" ht="49.5">
+      <c r="A469" s="110" t="s">
         <v>1347</v>
       </c>
-      <c r="B467" s="92" t="s">
+      <c r="B469" s="92" t="s">
         <v>1349</v>
       </c>
-      <c r="C467" s="91" t="s">
+      <c r="C469" s="91" t="s">
         <v>1350</v>
       </c>
-      <c r="D467" s="96"/>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="110"/>
-      <c r="B468" s="92" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C468" s="91" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D468" s="96"/>
-    </row>
-    <row r="469" spans="1:4" ht="132">
-      <c r="A469" s="110"/>
-      <c r="B469" s="92" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C469" s="92" t="s">
-        <v>1354</v>
-      </c>
       <c r="D469" s="96"/>
     </row>
-    <row r="470" spans="1:4" ht="33">
+    <row r="470" spans="1:4">
       <c r="A470" s="110"/>
       <c r="B470" s="92" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C470" s="91" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D470" s="96"/>
+    </row>
+    <row r="471" spans="1:4" ht="132">
+      <c r="A471" s="110"/>
+      <c r="B471" s="92" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C471" s="92" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D471" s="96"/>
+    </row>
+    <row r="472" spans="1:4" ht="33">
+      <c r="A472" s="110"/>
+      <c r="B472" s="92" t="s">
         <v>1355</v>
       </c>
-      <c r="D470" s="96"/>
-    </row>
-    <row r="471" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A471" s="111"/>
-      <c r="B471" s="99"/>
-      <c r="C471" s="100"/>
-      <c r="D471" s="101"/>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="91" t="s">
+      <c r="D472" s="96"/>
+    </row>
+    <row r="473" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A473" s="111"/>
+      <c r="B473" s="99"/>
+      <c r="C473" s="100"/>
+      <c r="D473" s="101"/>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B473" s="92" t="s">
+      <c r="B475" s="92" t="s">
         <v>1375</v>
       </c>
-      <c r="C473" s="91" t="s">
+      <c r="C475" s="91" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="330">
-      <c r="A474" s="91" t="s">
+    <row r="476" spans="1:4" ht="330">
+      <c r="A476" s="91" t="s">
         <v>1378</v>
       </c>
-      <c r="B474" s="92" t="s">
+      <c r="B476" s="92" t="s">
         <v>1377</v>
       </c>
-      <c r="C474" s="92" t="s">
+      <c r="C476" s="92" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="91" t="s">
+    <row r="478" spans="1:4">
+      <c r="A478" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B476" s="92" t="s">
+      <c r="B478" s="92" t="s">
         <v>1536</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="141" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="141" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="141" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="141" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="141" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="141" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="141" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="141" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="141" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="141" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="141" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="141" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="141" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="115.5">
-      <c r="A489" s="149" t="s">
+    <row r="491" spans="1:3" ht="115.5">
+      <c r="A491" s="149" t="s">
         <v>1626</v>
       </c>
-      <c r="B489" s="92" t="s">
+      <c r="B491" s="92" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
-      <c r="A490" s="91" t="s">
+    <row r="492" spans="1:3">
+      <c r="A492" s="91" t="s">
         <v>1628</v>
       </c>
-      <c r="B490" s="92" t="s">
+      <c r="B492" s="92" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="127" t="s">
+    <row r="493" spans="1:3">
+      <c r="A493" s="127" t="s">
         <v>1631</v>
       </c>
-      <c r="B491" s="92" t="s">
+      <c r="B493" s="92" t="s">
         <v>1652</v>
       </c>
-      <c r="C491" s="91" t="s">
+      <c r="C493" s="91" t="s">
         <v>1631</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
-      <c r="A492" s="127" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B492" s="92" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C492" s="91" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
-      <c r="A493" s="91" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B493" s="92" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C493" s="91" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="127" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B494" s="92" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C494" s="91" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="91" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B495" s="92" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C495" s="91" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="127" t="s">
         <v>1636</v>
       </c>
-      <c r="B494" s="92" t="s">
+      <c r="B496" s="92" t="s">
         <v>1637</v>
       </c>
-      <c r="C494" s="91" t="s">
+      <c r="C496" s="91" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="33">
-      <c r="A495" s="146" t="s">
+    <row r="497" spans="1:3" ht="33">
+      <c r="A497" s="146" t="s">
         <v>1632</v>
       </c>
-      <c r="B495" s="92" t="s">
+      <c r="B497" s="92" t="s">
         <v>1668</v>
       </c>
-      <c r="C495" s="91" t="s">
+      <c r="C497" s="91" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
-      <c r="A496" s="146" t="s">
+    <row r="498" spans="1:3">
+      <c r="A498" s="146" t="s">
         <v>1723</v>
       </c>
-      <c r="B496" s="92" t="s">
+      <c r="B498" s="92" t="s">
         <v>1724</v>
       </c>
-      <c r="C496" s="91" t="s">
+      <c r="C498" s="91" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
-      <c r="A497" s="146" t="s">
+    <row r="499" spans="1:3">
+      <c r="A499" s="146" t="s">
         <v>1654</v>
       </c>
-      <c r="B497" s="92" t="s">
+      <c r="B499" s="92" t="s">
         <v>1689</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="B498" s="92" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C498" s="91" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="B499" s="92" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C499" s="91" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="B500" s="92" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C500" s="91" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="B501" s="92" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C501" s="91" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="B502" s="92" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C502" s="91" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="B503" s="92" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C503" s="91" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="B504" s="92" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C504" s="91" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="B505" s="92" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C505" s="91" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="B506" s="92" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C506" s="91" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="B507" s="92" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C507" s="91" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="B508" s="92" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C508" s="91" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="B509" s="92" t="s">
         <v>1667</v>
       </c>
-      <c r="C507" s="91" t="s">
+      <c r="C509" s="91" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
-      <c r="A508" s="146" t="s">
+    <row r="510" spans="1:3">
+      <c r="A510" s="146" t="s">
         <v>1670</v>
       </c>
-      <c r="B508" s="92" t="s">
+      <c r="B510" s="92" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
-      <c r="A509" s="146"/>
-      <c r="B509" s="92" t="s">
+    <row r="511" spans="1:3">
+      <c r="A511" s="146"/>
+      <c r="B511" s="92" t="s">
         <v>1677</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="B510" s="92" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C510" s="91" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
-      <c r="B511" s="92" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C511" s="91" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="B512" s="92" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C512" s="91" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="B513" s="92" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C513" s="91" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="B514" s="92" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C514" s="91" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="B515" s="92" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C515" s="91" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="B516" s="92" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C516" s="91" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="B517" s="92" t="s">
         <v>1678</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="B516" s="148" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" ht="33">
-      <c r="B517" s="92" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="B518" s="148" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
-      <c r="B519" s="148" t="s">
-        <v>1682</v>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="33">
+      <c r="B519" s="92" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="B520" s="148" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C520" s="147"/>
+        <v>1681</v>
+      </c>
     </row>
     <row r="521" spans="1:3">
       <c r="B521" s="148" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="B522" s="148" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C522" s="147"/>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="B523" s="148" t="s">
         <v>1684</v>
       </c>
-      <c r="C521" s="147"/>
-    </row>
-    <row r="522" spans="1:3" ht="33">
-      <c r="A522" s="146" t="s">
+      <c r="C523" s="147"/>
+    </row>
+    <row r="524" spans="1:3" ht="33">
+      <c r="A524" s="146" t="s">
         <v>1685</v>
       </c>
-      <c r="B522" s="92" t="s">
+      <c r="B524" s="92" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="33">
-      <c r="A523" s="146" t="s">
+    <row r="525" spans="1:3" ht="33">
+      <c r="A525" s="146" t="s">
         <v>1686</v>
       </c>
-      <c r="B523" s="92" t="s">
+      <c r="B525" s="92" t="s">
         <v>1687</v>
       </c>
-      <c r="C523" s="91" t="s">
+      <c r="C525" s="91" t="s">
         <v>1688</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="146"/>
-      <c r="B524" s="148" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="146"/>
-      <c r="B525" s="148" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="146"/>
       <c r="B526" s="148" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="146"/>
       <c r="B527" s="148" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" ht="33">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
       <c r="A528" s="146"/>
       <c r="B528" s="148" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="146"/>
+      <c r="B529" s="148" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="33">
+      <c r="A530" s="146"/>
+      <c r="B530" s="148" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
-      <c r="A529" s="146" t="s">
+    <row r="531" spans="1:3">
+      <c r="A531" s="146" t="s">
         <v>1696</v>
       </c>
-      <c r="B529" s="92" t="s">
+      <c r="B531" s="92" t="s">
         <v>1697</v>
       </c>
-      <c r="C529" s="91" t="s">
+      <c r="C531" s="91" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
-      <c r="A530" s="146" t="s">
+    <row r="532" spans="1:3">
+      <c r="A532" s="146" t="s">
         <v>1698</v>
       </c>
-      <c r="B530" s="92" t="s">
+      <c r="B532" s="92" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
-      <c r="A531" s="146"/>
-      <c r="B531" s="148" t="s">
+    <row r="533" spans="1:3">
+      <c r="A533" s="146"/>
+      <c r="B533" s="148" t="s">
         <v>1702</v>
       </c>
-      <c r="C531" s="91" t="s">
+      <c r="C533" s="91" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
-      <c r="A532" s="146"/>
-      <c r="B532" s="148" t="s">
+    <row r="534" spans="1:3">
+      <c r="A534" s="146"/>
+      <c r="B534" s="148" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="33">
-      <c r="A533" s="146" t="s">
+    <row r="535" spans="1:3" ht="33">
+      <c r="A535" s="146" t="s">
         <v>1699</v>
       </c>
-      <c r="B533" s="92" t="s">
+      <c r="B535" s="92" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="66">
-      <c r="A534" s="146"/>
-      <c r="B534" s="92" t="s">
+    <row r="536" spans="1:3" ht="66">
+      <c r="A536" s="146"/>
+      <c r="B536" s="92" t="s">
         <v>1701</v>
       </c>
-      <c r="C534" s="91" t="s">
+      <c r="C536" s="91" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="49.5">
-      <c r="A535" s="91" t="s">
+    <row r="537" spans="1:3" ht="49.5">
+      <c r="A537" s="91" t="s">
         <v>1639</v>
       </c>
-      <c r="B535" s="92" t="s">
+      <c r="B537" s="92" t="s">
         <v>1640</v>
       </c>
-      <c r="C535" s="92" t="s">
+      <c r="C537" s="92" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="66">
-      <c r="A536" s="127" t="s">
+    <row r="538" spans="1:3" ht="66">
+      <c r="A538" s="127" t="s">
         <v>1641</v>
       </c>
-      <c r="B536" s="92" t="s">
+      <c r="B538" s="92" t="s">
         <v>1642</v>
       </c>
-      <c r="C536" s="91" t="s">
+      <c r="C538" s="91" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
-      <c r="A537" s="91" t="s">
+    <row r="539" spans="1:3">
+      <c r="A539" s="91" t="s">
         <v>1644</v>
       </c>
-      <c r="B537" s="92" t="s">
+      <c r="B539" s="92" t="s">
         <v>1645</v>
       </c>
-      <c r="C537" s="91" t="s">
+      <c r="C539" s="91" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="49.5">
-      <c r="A538" s="127" t="s">
+    <row r="540" spans="1:3" ht="49.5">
+      <c r="A540" s="127" t="s">
         <v>1647</v>
       </c>
-      <c r="B538" s="92" t="s">
+      <c r="B540" s="92" t="s">
         <v>1648</v>
       </c>
-      <c r="C538" s="91" t="s">
+      <c r="C540" s="91" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="33">
-      <c r="A539" s="146" t="s">
+    <row r="541" spans="1:3" ht="33">
+      <c r="A541" s="146" t="s">
         <v>1632</v>
       </c>
-      <c r="B539" s="92" t="s">
+      <c r="B541" s="92" t="s">
         <v>1668</v>
       </c>
-      <c r="C539" s="91" t="s">
+      <c r="C541" s="91" t="s">
         <v>1726</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
-      <c r="A540" s="146" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B540" s="92" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C540" s="91" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" ht="198">
-      <c r="A541" s="146" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B541" s="92" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C541" s="92" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="146" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B542" s="92" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C542" s="91" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="198">
+      <c r="A543" s="146" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B543" s="92" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C543" s="92" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="146" t="s">
         <v>1728</v>
       </c>
-      <c r="B542" s="92" t="s">
+      <c r="B544" s="92" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
-      <c r="A543" s="146"/>
-      <c r="B543" s="92" t="s">
+    <row r="545" spans="1:3">
+      <c r="A545" s="146"/>
+      <c r="B545" s="92" t="s">
         <v>1748</v>
       </c>
-      <c r="C543" s="91" t="s">
+      <c r="C545" s="91" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="214.5">
-      <c r="A544" s="146" t="s">
+    <row r="546" spans="1:3" ht="214.5">
+      <c r="A546" s="146" t="s">
         <v>1745</v>
       </c>
-      <c r="B544" s="92" t="s">
+      <c r="B546" s="92" t="s">
         <v>1747</v>
       </c>
-      <c r="C544" s="92" t="s">
+      <c r="C546" s="92" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
-      <c r="A545" s="146" t="s">
+    <row r="547" spans="1:3">
+      <c r="A547" s="146" t="s">
         <v>1731</v>
       </c>
-      <c r="B545" s="92" t="s">
+      <c r="B547" s="92" t="s">
         <v>1759</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3">
-      <c r="A546" s="146"/>
-      <c r="B546" s="92" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C546" s="91" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3">
-      <c r="A547" s="146"/>
-      <c r="B547" s="92" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C547" s="91" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="146"/>
       <c r="B548" s="92" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C548" s="91" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="146"/>
       <c r="B549" s="92" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C549" s="91" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="146"/>
       <c r="B550" s="92" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C550" s="91" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="146"/>
       <c r="B551" s="92" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C551" s="91" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="146"/>
+      <c r="B552" s="92" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C552" s="91" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="146"/>
+      <c r="B553" s="92" t="s">
         <v>1737</v>
       </c>
-      <c r="C551" s="91" t="s">
+      <c r="C553" s="91" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
-      <c r="A552" s="146" t="s">
+    <row r="554" spans="1:3">
+      <c r="A554" s="146" t="s">
         <v>1654</v>
       </c>
-      <c r="B552" s="92" t="s">
+      <c r="B554" s="92" t="s">
         <v>1689</v>
-      </c>
-      <c r="C552" s="91" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" ht="33">
-      <c r="A553" s="146" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B553" s="92" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C553" s="91" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" ht="33">
-      <c r="A554" s="146" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B554" s="92" t="s">
-        <v>1695</v>
       </c>
       <c r="C554" s="91" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
-      <c r="A555" s="146"/>
+    <row r="555" spans="1:3" ht="33">
+      <c r="A555" s="146" t="s">
+        <v>1686</v>
+      </c>
       <c r="B555" s="92" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C555" s="91" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="33">
+      <c r="A556" s="146" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B556" s="92" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C556" s="91" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="146"/>
+      <c r="B557" s="92" t="s">
         <v>1749</v>
       </c>
-      <c r="C555" s="91" t="s">
+      <c r="C557" s="91" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="49.5">
-      <c r="B556" s="92" t="s">
+    <row r="558" spans="1:3" ht="49.5">
+      <c r="B558" s="92" t="s">
         <v>1750</v>
       </c>
-      <c r="C556" s="92" t="s">
+      <c r="C558" s="92" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="49.5">
-      <c r="B557" s="92" t="s">
+    <row r="559" spans="1:3" ht="49.5">
+      <c r="B559" s="92" t="s">
         <v>1751</v>
       </c>
-      <c r="C557" s="92" t="s">
+      <c r="C559" s="92" t="s">
         <v>1754</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" ht="33">
-      <c r="A558" s="146" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B558" s="92" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" ht="82.5">
-      <c r="A559" s="146"/>
-      <c r="B559" s="92" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C559" s="92" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="33">
       <c r="A560" s="146" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B560" s="92" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="82.5">
+      <c r="A561" s="146"/>
+      <c r="B561" s="92" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C561" s="92" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" ht="33">
+      <c r="A562" s="146" t="s">
         <v>1756</v>
       </c>
-      <c r="B560" s="92" t="s">
+      <c r="B562" s="92" t="s">
         <v>1757</v>
       </c>
-      <c r="C560" s="92" t="s">
+      <c r="C562" s="92" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="99">
-      <c r="A561" s="91" t="s">
+    <row r="563" spans="1:3" ht="99">
+      <c r="A563" s="91" t="s">
         <v>1760</v>
       </c>
-      <c r="B561" s="92" t="s">
+      <c r="B563" s="92" t="s">
         <v>1762</v>
       </c>
-      <c r="C561" s="92" t="s">
+      <c r="C563" s="92" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
-      <c r="A562" s="127" t="s">
+    <row r="564" spans="1:3">
+      <c r="A564" s="127" t="s">
         <v>1774</v>
       </c>
-      <c r="B562" s="92" t="s">
+      <c r="B564" s="92" t="s">
         <v>1775</v>
       </c>
-      <c r="C562" s="91" t="s">
+      <c r="C564" s="91" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="66">
-      <c r="A563" s="91" t="s">
+    <row r="565" spans="1:3" ht="66">
+      <c r="A565" s="91" t="s">
         <v>1771</v>
       </c>
-      <c r="B563" s="92" t="s">
+      <c r="B565" s="92" t="s">
         <v>1777</v>
       </c>
-      <c r="C563" s="92" t="s">
+      <c r="C565" s="92" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
-      <c r="A564" s="91" t="s">
+    <row r="566" spans="1:3">
+      <c r="A566" s="91" t="s">
         <v>1760</v>
       </c>
-      <c r="B564" s="92" t="s">
+      <c r="B566" s="92" t="s">
         <v>1787</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3">
-      <c r="B565" s="92" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C565" s="91" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
-      <c r="B566" s="92" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C566" s="91" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="B567" s="92" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C567" s="91" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="B568" s="92" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C568" s="91" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="B569" s="92" t="s">
         <v>1789</v>
       </c>
-      <c r="C567" s="91" t="s">
+      <c r="C569" s="91" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="33">
-      <c r="A568" s="91" t="s">
+    <row r="570" spans="1:3" ht="33">
+      <c r="A570" s="91" t="s">
         <v>1794</v>
       </c>
-      <c r="B568" s="92" t="s">
+      <c r="B570" s="92" t="s">
         <v>1795</v>
       </c>
-      <c r="C568" s="91" t="s">
+      <c r="C570" s="91" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="132">
-      <c r="A569" s="91" t="s">
+    <row r="571" spans="1:3" ht="132">
+      <c r="A571" s="91" t="s">
         <v>1797</v>
       </c>
-      <c r="B569" s="92" t="s">
+      <c r="B571" s="92" t="s">
         <v>1798</v>
       </c>
-      <c r="C569" s="150" t="s">
+      <c r="C571" s="150" t="s">
         <v>1799</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
-      <c r="A570" s="91" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B570" s="92" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3">
-      <c r="A571" s="91" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B571" s="92" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="91" t="s">
-        <v>1685</v>
+        <v>1670</v>
       </c>
       <c r="B572" s="92" t="s">
         <v>1800</v>
@@ -26734,122 +26750,131 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="91" t="s">
-        <v>1698</v>
+        <v>1731</v>
       </c>
       <c r="B573" s="92" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="49.5">
-      <c r="A574" s="127" t="s">
+    <row r="574" spans="1:3">
+      <c r="A574" s="91" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B574" s="92" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="91" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B575" s="92" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" ht="49.5">
+      <c r="A576" s="127" t="s">
         <v>1801</v>
       </c>
-      <c r="B574" s="92" t="s">
+      <c r="B576" s="92" t="s">
         <v>1802</v>
       </c>
-      <c r="C574" s="92" t="s">
+      <c r="C576" s="92" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="33">
-      <c r="A575" s="91" t="s">
+    <row r="577" spans="1:3" ht="33">
+      <c r="A577" s="91" t="s">
         <v>1728</v>
       </c>
-      <c r="B575" s="92" t="s">
+      <c r="B577" s="92" t="s">
         <v>1804</v>
       </c>
-      <c r="C575" s="92" t="s">
+      <c r="C577" s="92" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="181.5">
-      <c r="A576" s="91" t="s">
+    <row r="578" spans="1:3" ht="181.5">
+      <c r="A578" s="91" t="s">
         <v>1771</v>
       </c>
-      <c r="B576" s="92" t="s">
+      <c r="B578" s="92" t="s">
         <v>1807</v>
       </c>
-      <c r="C576" s="92" t="s">
+      <c r="C578" s="92" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="99">
-      <c r="A577" s="91" t="s">
+    <row r="579" spans="1:3" ht="99">
+      <c r="A579" s="91" t="s">
         <v>1808</v>
       </c>
-      <c r="B577" s="92" t="s">
+      <c r="B579" s="92" t="s">
         <v>1809</v>
       </c>
-      <c r="C577" s="92" t="s">
+      <c r="C579" s="92" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="99">
-      <c r="A578" s="91" t="s">
+    <row r="580" spans="1:3" ht="99">
+      <c r="A580" s="91" t="s">
         <v>1811</v>
       </c>
-      <c r="B578" s="92" t="s">
+      <c r="B580" s="92" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="33">
-      <c r="A587" s="127" t="s">
+    <row r="589" spans="1:3" ht="33">
+      <c r="A589" s="127" t="s">
         <v>1763</v>
       </c>
-      <c r="B587" s="92" t="s">
+      <c r="B589" s="92" t="s">
         <v>1770</v>
       </c>
-      <c r="C587" s="91" t="s">
+      <c r="C589" s="91" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
-      <c r="A588" s="146" t="s">
+    <row r="590" spans="1:3">
+      <c r="A590" s="146" t="s">
         <v>1765</v>
       </c>
-      <c r="B588" s="92" t="s">
+      <c r="B590" s="92" t="s">
         <v>1767</v>
       </c>
-      <c r="C588" s="91" t="s">
+      <c r="C590" s="91" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
-      <c r="A589" s="146" t="s">
+    <row r="591" spans="1:3">
+      <c r="A591" s="146" t="s">
         <v>1766</v>
       </c>
-      <c r="B589" s="92" t="s">
+      <c r="B591" s="92" t="s">
         <v>1768</v>
       </c>
-      <c r="C589" s="91" t="s">
+      <c r="C591" s="91" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
-      <c r="A590" s="127" t="s">
+    <row r="592" spans="1:3">
+      <c r="A592" s="127" t="s">
         <v>1651</v>
       </c>
-      <c r="B590" s="92" t="s">
+      <c r="B592" s="92" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="593" spans="2:3">
-      <c r="B593" s="92" t="s">
+    <row r="595" spans="2:3">
+      <c r="B595" s="92" t="s">
         <v>2291</v>
       </c>
-      <c r="C593" s="91" t="s">
+      <c r="C595" s="91" t="s">
         <v>2290</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B279:B286"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="A117:A122"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -26860,6 +26885,13 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B279:B288"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="A117:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -28817,13 +28849,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" customHeight="1">
-      <c r="A18" s="223" t="s">
+      <c r="A18" s="224" t="s">
         <v>1030</v>
       </c>
-      <c r="B18" s="223"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="1">
